--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.4.2-india-v2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="18960" windowHeight="6210"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="18960" windowHeight="6210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
@@ -17,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PolicyLevers!$A$1:$P$321</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -27,7 +32,7 @@
     <author>Jeffrey Rissman</author>
   </authors>
   <commentList>
-    <comment ref="K140" authorId="0">
+    <comment ref="K140" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K142" authorId="0">
+    <comment ref="K142" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6165,7 +6170,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="13">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -7636,9 +7641,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -7647,6 +7649,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7877,7 +7882,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7938,7 +7943,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7999,7 +8004,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8060,7 +8065,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8378,11 +8383,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -8467,34 +8472,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T333"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D196" sqref="D196"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" style="64" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" style="64" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" style="61" customWidth="1"/>
-    <col min="4" max="5" width="18.81640625" style="64" customWidth="1"/>
-    <col min="6" max="7" width="23.1796875" style="64" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" style="76" customWidth="1"/>
-    <col min="9" max="9" width="21.26953125" style="64" customWidth="1"/>
-    <col min="10" max="10" width="21.26953125" style="76" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="64" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="61" customWidth="1"/>
+    <col min="4" max="5" width="18.85546875" style="64" customWidth="1"/>
+    <col min="6" max="7" width="23.140625" style="64" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="76" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="64" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" style="76" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="64" customWidth="1"/>
     <col min="12" max="12" width="19" style="64" customWidth="1"/>
-    <col min="13" max="14" width="19.1796875" style="61" customWidth="1"/>
-    <col min="15" max="15" width="28.453125" style="64" customWidth="1"/>
-    <col min="16" max="16" width="117.26953125" style="64" customWidth="1"/>
-    <col min="17" max="17" width="52.453125" style="64" customWidth="1"/>
-    <col min="18" max="18" width="43.453125" style="198" customWidth="1"/>
-    <col min="19" max="19" width="47.81640625" style="67" customWidth="1"/>
-    <col min="20" max="20" width="37.26953125" style="67" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="64"/>
+    <col min="13" max="14" width="19.140625" style="61" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" style="64" customWidth="1"/>
+    <col min="16" max="16" width="117.28515625" style="64" customWidth="1"/>
+    <col min="17" max="17" width="52.42578125" style="64" customWidth="1"/>
+    <col min="18" max="18" width="43.42578125" style="198" customWidth="1"/>
+    <col min="19" max="19" width="47.85546875" style="67" customWidth="1"/>
+    <col min="20" max="20" width="37.28515625" style="67" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="29">
+    <row r="1" spans="1:20" ht="30">
       <c r="A1" s="77" t="s">
         <v>3</v>
       </c>
@@ -8556,7 +8561,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="62" customFormat="1" ht="58">
+    <row r="2" spans="1:20" s="62" customFormat="1" ht="75">
       <c r="A2" s="62" t="s">
         <v>4</v>
       </c>
@@ -8606,7 +8611,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="62" customFormat="1" ht="58">
+    <row r="3" spans="1:20" s="62" customFormat="1" ht="75">
       <c r="A3" s="65" t="str">
         <f>A$2</f>
         <v>Transportation</v>
@@ -8668,7 +8673,7 @@
       </c>
       <c r="S3" s="202"/>
     </row>
-    <row r="4" spans="1:20" s="62" customFormat="1" ht="58">
+    <row r="4" spans="1:20" s="62" customFormat="1" ht="75">
       <c r="A4" s="65" t="str">
         <f t="shared" ref="A4:A7" si="2">A$2</f>
         <v>Transportation</v>
@@ -8730,7 +8735,7 @@
       </c>
       <c r="S4" s="202"/>
     </row>
-    <row r="5" spans="1:20" s="62" customFormat="1" ht="58">
+    <row r="5" spans="1:20" s="62" customFormat="1" ht="75">
       <c r="A5" s="65" t="str">
         <f t="shared" si="2"/>
         <v>Transportation</v>
@@ -8792,7 +8797,7 @@
       </c>
       <c r="S5" s="202"/>
     </row>
-    <row r="6" spans="1:20" s="62" customFormat="1" ht="58">
+    <row r="6" spans="1:20" s="62" customFormat="1" ht="75">
       <c r="A6" s="65" t="str">
         <f t="shared" si="2"/>
         <v>Transportation</v>
@@ -8854,7 +8859,7 @@
       </c>
       <c r="S6" s="202"/>
     </row>
-    <row r="7" spans="1:20" s="62" customFormat="1" ht="58">
+    <row r="7" spans="1:20" s="62" customFormat="1" ht="75">
       <c r="A7" s="65" t="str">
         <f t="shared" si="2"/>
         <v>Transportation</v>
@@ -8916,7 +8921,7 @@
       </c>
       <c r="S7" s="202"/>
     </row>
-    <row r="8" spans="1:20" s="62" customFormat="1" ht="58">
+    <row r="8" spans="1:20" s="62" customFormat="1" ht="60">
       <c r="A8" s="155" t="s">
         <v>4</v>
       </c>
@@ -8966,7 +8971,7 @@
       <c r="S8" s="100"/>
       <c r="T8" s="70"/>
     </row>
-    <row r="9" spans="1:20" s="62" customFormat="1" ht="101.5">
+    <row r="9" spans="1:20" s="62" customFormat="1" ht="105">
       <c r="A9" s="70" t="s">
         <v>4</v>
       </c>
@@ -9026,7 +9031,7 @@
       </c>
       <c r="T9" s="70"/>
     </row>
-    <row r="10" spans="1:20" s="62" customFormat="1" ht="101.5">
+    <row r="10" spans="1:20" s="62" customFormat="1" ht="105">
       <c r="A10" s="81" t="str">
         <f>A$9</f>
         <v>Transportation</v>
@@ -9095,7 +9100,7 @@
       <c r="S10" s="100"/>
       <c r="T10" s="70"/>
     </row>
-    <row r="11" spans="1:20" s="62" customFormat="1" ht="72.5">
+    <row r="11" spans="1:20" s="62" customFormat="1" ht="90">
       <c r="A11" s="81" t="str">
         <f t="shared" ref="A11:A20" si="5">A$9</f>
         <v>Transportation</v>
@@ -9166,7 +9171,7 @@
       </c>
       <c r="T11" s="70"/>
     </row>
-    <row r="12" spans="1:20" s="62" customFormat="1" ht="87">
+    <row r="12" spans="1:20" s="62" customFormat="1" ht="105">
       <c r="A12" s="81" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -9238,7 +9243,7 @@
       </c>
       <c r="T12" s="70"/>
     </row>
-    <row r="13" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="13" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A13" s="81" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -9285,7 +9290,7 @@
       <c r="S13" s="100"/>
       <c r="T13" s="70"/>
     </row>
-    <row r="14" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="14" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A14" s="81" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -9332,7 +9337,7 @@
       <c r="S14" s="100"/>
       <c r="T14" s="70"/>
     </row>
-    <row r="15" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="15" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A15" s="81" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -9379,7 +9384,7 @@
       <c r="S15" s="100"/>
       <c r="T15" s="70"/>
     </row>
-    <row r="16" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="16" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A16" s="81" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -9426,7 +9431,7 @@
       <c r="S16" s="100"/>
       <c r="T16" s="70"/>
     </row>
-    <row r="17" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="17" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A17" s="81" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -9473,7 +9478,7 @@
       <c r="S17" s="100"/>
       <c r="T17" s="70"/>
     </row>
-    <row r="18" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="18" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A18" s="81" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -9520,7 +9525,7 @@
       <c r="S18" s="100"/>
       <c r="T18" s="70"/>
     </row>
-    <row r="19" spans="1:20" s="62" customFormat="1" ht="87">
+    <row r="19" spans="1:20" s="62" customFormat="1" ht="90">
       <c r="A19" s="81" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -9592,7 +9597,7 @@
       </c>
       <c r="T19" s="70"/>
     </row>
-    <row r="20" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="20" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A20" s="81" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -9639,7 +9644,7 @@
       <c r="S20" s="100"/>
       <c r="T20" s="70"/>
     </row>
-    <row r="21" spans="1:20" s="62" customFormat="1" ht="72.5">
+    <row r="21" spans="1:20" s="62" customFormat="1" ht="75">
       <c r="A21" s="70" t="s">
         <v>4</v>
       </c>
@@ -9699,7 +9704,7 @@
       </c>
       <c r="T21" s="70"/>
     </row>
-    <row r="22" spans="1:20" s="105" customFormat="1" ht="29">
+    <row r="22" spans="1:20" s="105" customFormat="1" ht="30">
       <c r="A22" s="81" t="str">
         <f t="shared" ref="A22:C32" si="7">A$21</f>
         <v>Transportation</v>
@@ -9746,7 +9751,7 @@
       <c r="S22" s="104"/>
       <c r="T22" s="103"/>
     </row>
-    <row r="23" spans="1:20" s="105" customFormat="1" ht="29">
+    <row r="23" spans="1:20" s="105" customFormat="1" ht="30">
       <c r="A23" s="156" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -9793,7 +9798,7 @@
       <c r="S23" s="104"/>
       <c r="T23" s="103"/>
     </row>
-    <row r="24" spans="1:20" s="105" customFormat="1" ht="29">
+    <row r="24" spans="1:20" s="105" customFormat="1" ht="30">
       <c r="A24" s="81" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -9840,7 +9845,7 @@
       <c r="S24" s="104"/>
       <c r="T24" s="103"/>
     </row>
-    <row r="25" spans="1:20" s="105" customFormat="1" ht="29">
+    <row r="25" spans="1:20" s="105" customFormat="1" ht="30">
       <c r="A25" s="81" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -9887,7 +9892,7 @@
       <c r="S25" s="104"/>
       <c r="T25" s="103"/>
     </row>
-    <row r="26" spans="1:20" s="105" customFormat="1" ht="29">
+    <row r="26" spans="1:20" s="105" customFormat="1" ht="30">
       <c r="A26" s="81" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -9934,7 +9939,7 @@
       <c r="S26" s="104"/>
       <c r="T26" s="103"/>
     </row>
-    <row r="27" spans="1:20" s="105" customFormat="1" ht="29">
+    <row r="27" spans="1:20" s="105" customFormat="1" ht="30">
       <c r="A27" s="81" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -9981,7 +9986,7 @@
       <c r="S27" s="104"/>
       <c r="T27" s="103"/>
     </row>
-    <row r="28" spans="1:20" s="105" customFormat="1" ht="29">
+    <row r="28" spans="1:20" s="105" customFormat="1" ht="30">
       <c r="A28" s="81" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -10028,7 +10033,7 @@
       <c r="S28" s="104"/>
       <c r="T28" s="103"/>
     </row>
-    <row r="29" spans="1:20" s="105" customFormat="1" ht="29">
+    <row r="29" spans="1:20" s="105" customFormat="1" ht="30">
       <c r="A29" s="81" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -10075,7 +10080,7 @@
       <c r="S29" s="104"/>
       <c r="T29" s="103"/>
     </row>
-    <row r="30" spans="1:20" s="105" customFormat="1" ht="29">
+    <row r="30" spans="1:20" s="105" customFormat="1" ht="30">
       <c r="A30" s="81" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -10122,7 +10127,7 @@
       <c r="S30" s="104"/>
       <c r="T30" s="103"/>
     </row>
-    <row r="31" spans="1:20" s="105" customFormat="1" ht="29">
+    <row r="31" spans="1:20" s="105" customFormat="1" ht="30">
       <c r="A31" s="81" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -10169,7 +10174,7 @@
       <c r="S31" s="104"/>
       <c r="T31" s="103"/>
     </row>
-    <row r="32" spans="1:20" s="105" customFormat="1" ht="29">
+    <row r="32" spans="1:20" s="105" customFormat="1" ht="30">
       <c r="A32" s="81" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -10216,7 +10221,7 @@
       <c r="S32" s="104"/>
       <c r="T32" s="103"/>
     </row>
-    <row r="33" spans="1:20" ht="87">
+    <row r="33" spans="1:20" ht="90">
       <c r="A33" s="79" t="s">
         <v>4</v>
       </c>
@@ -10270,7 +10275,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="43.5">
+    <row r="34" spans="1:20" ht="45">
       <c r="A34" s="79" t="s">
         <v>4</v>
       </c>
@@ -10308,7 +10313,7 @@
       <c r="S34" s="64"/>
       <c r="T34" s="64"/>
     </row>
-    <row r="35" spans="1:20" ht="43.5">
+    <row r="35" spans="1:20" ht="45">
       <c r="A35" s="81" t="str">
         <f t="shared" ref="A35:C50" si="9">A$34</f>
         <v>Transportation</v>
@@ -10355,7 +10360,7 @@
       <c r="S35" s="79"/>
       <c r="T35" s="79"/>
     </row>
-    <row r="36" spans="1:20" ht="87">
+    <row r="36" spans="1:20" ht="90">
       <c r="A36" s="81" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -10423,7 +10428,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="58">
+    <row r="37" spans="1:20" ht="75">
       <c r="A37" s="156" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -10495,7 +10500,7 @@
       </c>
       <c r="T37" s="79"/>
     </row>
-    <row r="38" spans="1:20" ht="43.5">
+    <row r="38" spans="1:20" ht="45">
       <c r="A38" s="81" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -10542,7 +10547,7 @@
       <c r="S38" s="79"/>
       <c r="T38" s="79"/>
     </row>
-    <row r="39" spans="1:20" ht="43.5">
+    <row r="39" spans="1:20" ht="45">
       <c r="A39" s="81" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -10589,7 +10594,7 @@
       <c r="S39" s="79"/>
       <c r="T39" s="79"/>
     </row>
-    <row r="40" spans="1:20" ht="43.5">
+    <row r="40" spans="1:20" ht="45">
       <c r="A40" s="81" t="str">
         <f>A$34</f>
         <v>Transportation</v>
@@ -10632,7 +10637,7 @@
       <c r="S40" s="64"/>
       <c r="T40" s="64"/>
     </row>
-    <row r="41" spans="1:20" ht="43.5">
+    <row r="41" spans="1:20" ht="45">
       <c r="A41" s="81" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -10679,7 +10684,7 @@
       <c r="S41" s="79"/>
       <c r="T41" s="79"/>
     </row>
-    <row r="42" spans="1:20" ht="43.5">
+    <row r="42" spans="1:20" ht="45">
       <c r="A42" s="81" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -10726,7 +10731,7 @@
       <c r="S42" s="79"/>
       <c r="T42" s="79"/>
     </row>
-    <row r="43" spans="1:20" ht="101.5">
+    <row r="43" spans="1:20" ht="105">
       <c r="A43" s="81" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -10799,7 +10804,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="43.5">
+    <row r="44" spans="1:20" ht="45">
       <c r="A44" s="81" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -10846,7 +10851,7 @@
       <c r="S44" s="79"/>
       <c r="T44" s="79"/>
     </row>
-    <row r="45" spans="1:20" ht="43.5">
+    <row r="45" spans="1:20" ht="45">
       <c r="A45" s="81" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -10893,7 +10898,7 @@
       <c r="S45" s="79"/>
       <c r="T45" s="79"/>
     </row>
-    <row r="46" spans="1:20" ht="43.5">
+    <row r="46" spans="1:20" ht="45">
       <c r="A46" s="81" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -10936,7 +10941,7 @@
       <c r="S46" s="64"/>
       <c r="T46" s="64"/>
     </row>
-    <row r="47" spans="1:20" ht="43.5">
+    <row r="47" spans="1:20" ht="45">
       <c r="A47" s="81" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -10983,7 +10988,7 @@
       <c r="S47" s="79"/>
       <c r="T47" s="79"/>
     </row>
-    <row r="48" spans="1:20" ht="43.5">
+    <row r="48" spans="1:20" ht="45">
       <c r="A48" s="81" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -11030,7 +11035,7 @@
       <c r="S48" s="79"/>
       <c r="T48" s="79"/>
     </row>
-    <row r="49" spans="1:20" ht="43.5">
+    <row r="49" spans="1:20" ht="45">
       <c r="A49" s="81" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -11077,7 +11082,7 @@
       <c r="S49" s="79"/>
       <c r="T49" s="79"/>
     </row>
-    <row r="50" spans="1:20" ht="43.5">
+    <row r="50" spans="1:20" ht="45">
       <c r="A50" s="81" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -11124,7 +11129,7 @@
       <c r="S50" s="79"/>
       <c r="T50" s="79"/>
     </row>
-    <row r="51" spans="1:20" ht="116">
+    <row r="51" spans="1:20" ht="120">
       <c r="A51" s="156" t="str">
         <f t="shared" ref="A51:C69" si="12">A$34</f>
         <v>Transportation</v>
@@ -11197,7 +11202,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="43.5">
+    <row r="52" spans="1:20" ht="45">
       <c r="A52" s="81" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -11240,7 +11245,7 @@
       <c r="S52" s="64"/>
       <c r="T52" s="64"/>
     </row>
-    <row r="53" spans="1:20" ht="43.5">
+    <row r="53" spans="1:20" ht="45">
       <c r="A53" s="81" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -11287,7 +11292,7 @@
       <c r="S53" s="79"/>
       <c r="T53" s="79"/>
     </row>
-    <row r="54" spans="1:20" ht="43.5">
+    <row r="54" spans="1:20" ht="45">
       <c r="A54" s="81" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -11334,7 +11339,7 @@
       <c r="S54" s="79"/>
       <c r="T54" s="79"/>
     </row>
-    <row r="55" spans="1:20" ht="43.5">
+    <row r="55" spans="1:20" ht="45">
       <c r="A55" s="81" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -11381,7 +11386,7 @@
       <c r="S55" s="79"/>
       <c r="T55" s="79"/>
     </row>
-    <row r="56" spans="1:20" ht="43.5">
+    <row r="56" spans="1:20" ht="45">
       <c r="A56" s="81" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -11428,7 +11433,7 @@
       <c r="S56" s="79"/>
       <c r="T56" s="79"/>
     </row>
-    <row r="57" spans="1:20" ht="72.5">
+    <row r="57" spans="1:20" ht="75">
       <c r="A57" s="81" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -11501,7 +11506,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="43.5">
+    <row r="58" spans="1:20" ht="45">
       <c r="A58" s="81" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -11544,7 +11549,7 @@
       <c r="S58" s="64"/>
       <c r="T58" s="64"/>
     </row>
-    <row r="59" spans="1:20" ht="43.5">
+    <row r="59" spans="1:20" ht="45">
       <c r="A59" s="81" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -11591,7 +11596,7 @@
       <c r="S59" s="79"/>
       <c r="T59" s="79"/>
     </row>
-    <row r="60" spans="1:20" ht="43.5">
+    <row r="60" spans="1:20" ht="45">
       <c r="A60" s="81" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -11638,7 +11643,7 @@
       <c r="S60" s="79"/>
       <c r="T60" s="79"/>
     </row>
-    <row r="61" spans="1:20" ht="43.5">
+    <row r="61" spans="1:20" ht="45">
       <c r="A61" s="81" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -11685,7 +11690,7 @@
       <c r="S61" s="79"/>
       <c r="T61" s="79"/>
     </row>
-    <row r="62" spans="1:20" ht="43.5">
+    <row r="62" spans="1:20" ht="45">
       <c r="A62" s="81" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -11732,7 +11737,7 @@
       <c r="S62" s="79"/>
       <c r="T62" s="79"/>
     </row>
-    <row r="63" spans="1:20" ht="116">
+    <row r="63" spans="1:20" ht="120">
       <c r="A63" s="156" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -11805,7 +11810,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="43.5">
+    <row r="64" spans="1:20" ht="45">
       <c r="A64" s="81" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -11848,7 +11853,7 @@
       <c r="S64" s="64"/>
       <c r="T64" s="64"/>
     </row>
-    <row r="65" spans="1:20" ht="43.5">
+    <row r="65" spans="1:20" ht="45">
       <c r="A65" s="81" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -11895,7 +11900,7 @@
       <c r="S65" s="79"/>
       <c r="T65" s="79"/>
     </row>
-    <row r="66" spans="1:20" ht="101.5">
+    <row r="66" spans="1:20" ht="120">
       <c r="A66" s="81" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -11968,7 +11973,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="43.5">
+    <row r="67" spans="1:20" ht="45">
       <c r="A67" s="81" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -12015,7 +12020,7 @@
       <c r="S67" s="79"/>
       <c r="T67" s="79"/>
     </row>
-    <row r="68" spans="1:20" ht="43.5">
+    <row r="68" spans="1:20" ht="45">
       <c r="A68" s="81" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -12062,7 +12067,7 @@
       <c r="S68" s="79"/>
       <c r="T68" s="79"/>
     </row>
-    <row r="69" spans="1:20" ht="43.5">
+    <row r="69" spans="1:20" ht="45">
       <c r="A69" s="81" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -12109,7 +12114,7 @@
       <c r="S69" s="79"/>
       <c r="T69" s="79"/>
     </row>
-    <row r="70" spans="1:20" s="62" customFormat="1" ht="87">
+    <row r="70" spans="1:20" s="62" customFormat="1" ht="105">
       <c r="A70" s="70" t="s">
         <v>4</v>
       </c>
@@ -12159,7 +12164,7 @@
       <c r="S70" s="155"/>
       <c r="T70" s="70"/>
     </row>
-    <row r="71" spans="1:20" ht="87">
+    <row r="71" spans="1:20" ht="105">
       <c r="A71" s="79" t="s">
         <v>4</v>
       </c>
@@ -12215,7 +12220,7 @@
       </c>
       <c r="T71" s="79"/>
     </row>
-    <row r="72" spans="1:20" ht="72.5">
+    <row r="72" spans="1:20" ht="75">
       <c r="A72" s="81" t="str">
         <f>A$71</f>
         <v>Transportation</v>
@@ -12283,7 +12288,7 @@
       </c>
       <c r="T72" s="79"/>
     </row>
-    <row r="73" spans="1:20" ht="43.5">
+    <row r="73" spans="1:20" ht="45">
       <c r="A73" s="79" t="s">
         <v>85</v>
       </c>
@@ -12337,7 +12342,7 @@
       <c r="S73" s="79"/>
       <c r="T73" s="79"/>
     </row>
-    <row r="74" spans="1:20" ht="43.5">
+    <row r="74" spans="1:20" ht="45">
       <c r="A74" s="81" t="str">
         <f>A$73</f>
         <v>Buildings and Appliances</v>
@@ -12402,7 +12407,7 @@
       <c r="S74" s="84"/>
       <c r="T74" s="84"/>
     </row>
-    <row r="75" spans="1:20" ht="43.5">
+    <row r="75" spans="1:20" ht="45">
       <c r="A75" s="81" t="str">
         <f>A$73</f>
         <v>Buildings and Appliances</v>
@@ -12467,7 +12472,7 @@
       <c r="S75" s="84"/>
       <c r="T75" s="84"/>
     </row>
-    <row r="76" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="76" spans="1:20" s="65" customFormat="1" ht="120">
       <c r="A76" s="159" t="s">
         <v>85</v>
       </c>
@@ -12528,7 +12533,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="77" spans="1:20" s="65" customFormat="1" ht="120">
       <c r="A77" s="81" t="str">
         <f>A$76</f>
         <v>Buildings and Appliances</v>
@@ -12606,7 +12611,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="78" spans="1:20" s="65" customFormat="1" ht="120">
       <c r="A78" s="81" t="str">
         <f>A$76</f>
         <v>Buildings and Appliances</v>
@@ -12684,7 +12689,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="79" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="79" spans="1:20" s="65" customFormat="1" ht="120">
       <c r="A79" s="81" t="str">
         <f>A$76</f>
         <v>Buildings and Appliances</v>
@@ -12762,7 +12767,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="80" spans="1:20" s="65" customFormat="1" ht="120">
       <c r="A80" s="81" t="str">
         <f>A$76</f>
         <v>Buildings and Appliances</v>
@@ -12840,7 +12845,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="81" spans="1:20" s="65" customFormat="1" ht="120">
       <c r="A81" s="81" t="str">
         <f>A$76</f>
         <v>Buildings and Appliances</v>
@@ -12918,7 +12923,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="82" spans="1:20" s="65" customFormat="1" ht="120">
       <c r="A82" s="156" t="str">
         <f t="shared" ref="A82:C93" si="20">A$76</f>
         <v>Buildings and Appliances</v>
@@ -12994,7 +12999,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="83" spans="1:20" s="65" customFormat="1" ht="120">
       <c r="A83" s="156" t="str">
         <f t="shared" si="20"/>
         <v>Buildings and Appliances</v>
@@ -13072,7 +13077,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="84" spans="1:20" s="65" customFormat="1" ht="120">
       <c r="A84" s="156" t="str">
         <f t="shared" si="20"/>
         <v>Buildings and Appliances</v>
@@ -13150,7 +13155,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="85" spans="1:20" s="65" customFormat="1" ht="120">
       <c r="A85" s="156" t="str">
         <f t="shared" si="20"/>
         <v>Buildings and Appliances</v>
@@ -13228,7 +13233,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="86" spans="1:20" s="65" customFormat="1" ht="120">
       <c r="A86" s="156" t="str">
         <f t="shared" si="20"/>
         <v>Buildings and Appliances</v>
@@ -13306,7 +13311,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="87" spans="1:20" s="65" customFormat="1" ht="120">
       <c r="A87" s="156" t="str">
         <f t="shared" si="20"/>
         <v>Buildings and Appliances</v>
@@ -13384,7 +13389,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="88" spans="1:20" s="65" customFormat="1" ht="120">
       <c r="A88" s="156" t="str">
         <f t="shared" si="20"/>
         <v>Buildings and Appliances</v>
@@ -13460,7 +13465,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="89" spans="1:20" s="65" customFormat="1" ht="120">
       <c r="A89" s="81" t="str">
         <f t="shared" si="20"/>
         <v>Buildings and Appliances</v>
@@ -13538,7 +13543,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="90" spans="1:20" s="65" customFormat="1" ht="120">
       <c r="A90" s="81" t="str">
         <f t="shared" si="20"/>
         <v>Buildings and Appliances</v>
@@ -13616,7 +13621,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="91" spans="1:20" s="65" customFormat="1" ht="120">
       <c r="A91" s="81" t="str">
         <f t="shared" si="20"/>
         <v>Buildings and Appliances</v>
@@ -13694,7 +13699,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="92" spans="1:20" s="65" customFormat="1" ht="120">
       <c r="A92" s="81" t="str">
         <f t="shared" si="20"/>
         <v>Buildings and Appliances</v>
@@ -13772,7 +13777,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="93" spans="1:20" s="65" customFormat="1" ht="120">
       <c r="A93" s="81" t="str">
         <f t="shared" si="20"/>
         <v>Buildings and Appliances</v>
@@ -13850,7 +13855,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="65" customFormat="1" ht="58">
+    <row r="94" spans="1:20" s="65" customFormat="1" ht="60">
       <c r="A94" s="159" t="s">
         <v>85</v>
       </c>
@@ -13902,7 +13907,7 @@
       </c>
       <c r="T94" s="81"/>
     </row>
-    <row r="95" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="95" spans="1:20" s="65" customFormat="1" ht="120">
       <c r="A95" s="79" t="s">
         <v>85</v>
       </c>
@@ -13956,7 +13961,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="96" spans="1:20" s="65" customFormat="1" ht="43.5">
+    <row r="96" spans="1:20" s="65" customFormat="1" ht="60">
       <c r="A96" s="79" t="s">
         <v>85</v>
       </c>
@@ -14006,7 +14011,7 @@
       </c>
       <c r="T96" s="81"/>
     </row>
-    <row r="97" spans="1:20" s="65" customFormat="1" ht="43.5">
+    <row r="97" spans="1:20" s="65" customFormat="1" ht="45">
       <c r="A97" s="79" t="s">
         <v>85</v>
       </c>
@@ -14058,7 +14063,7 @@
       </c>
       <c r="T97" s="81"/>
     </row>
-    <row r="98" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="98" spans="1:20" s="65" customFormat="1" ht="120">
       <c r="A98" s="79" t="s">
         <v>85</v>
       </c>
@@ -14117,7 +14122,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="99" spans="1:20" s="65" customFormat="1" ht="87">
+    <row r="99" spans="1:20" s="65" customFormat="1" ht="90">
       <c r="A99" s="81" t="str">
         <f>A$98</f>
         <v>Buildings and Appliances</v>
@@ -14183,7 +14188,7 @@
       </c>
       <c r="T99" s="81"/>
     </row>
-    <row r="100" spans="1:20" s="65" customFormat="1" ht="87">
+    <row r="100" spans="1:20" s="65" customFormat="1" ht="90">
       <c r="A100" s="81" t="str">
         <f>A$98</f>
         <v>Buildings and Appliances</v>
@@ -14249,7 +14254,7 @@
       </c>
       <c r="T100" s="81"/>
     </row>
-    <row r="101" spans="1:20" s="65" customFormat="1" ht="87">
+    <row r="101" spans="1:20" s="65" customFormat="1" ht="90">
       <c r="A101" s="81" t="str">
         <f>A$98</f>
         <v>Buildings and Appliances</v>
@@ -14315,7 +14320,7 @@
       </c>
       <c r="T101" s="81"/>
     </row>
-    <row r="102" spans="1:20" s="65" customFormat="1" ht="72.5">
+    <row r="102" spans="1:20" s="65" customFormat="1" ht="90">
       <c r="A102" s="81" t="str">
         <f>A$98</f>
         <v>Buildings and Appliances</v>
@@ -14381,7 +14386,7 @@
       </c>
       <c r="T102" s="81"/>
     </row>
-    <row r="103" spans="1:20" s="65" customFormat="1" ht="87">
+    <row r="103" spans="1:20" s="65" customFormat="1" ht="90">
       <c r="A103" s="81" t="str">
         <f>A$98</f>
         <v>Buildings and Appliances</v>
@@ -14447,7 +14452,7 @@
       </c>
       <c r="T103" s="81"/>
     </row>
-    <row r="104" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="104" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A104" s="159" t="s">
         <v>85</v>
       </c>
@@ -14503,7 +14508,7 @@
       </c>
       <c r="T104" s="81"/>
     </row>
-    <row r="105" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="105" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A105" s="81" t="str">
         <f>A$104</f>
         <v>Buildings and Appliances</v>
@@ -14568,7 +14573,7 @@
       </c>
       <c r="T105" s="81"/>
     </row>
-    <row r="106" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="106" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A106" s="81" t="str">
         <f>A$104</f>
         <v>Buildings and Appliances</v>
@@ -14613,7 +14618,7 @@
       <c r="S106" s="81"/>
       <c r="T106" s="81"/>
     </row>
-    <row r="107" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="107" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A107" s="81" t="str">
         <f>A$104</f>
         <v>Buildings and Appliances</v>
@@ -14658,7 +14663,7 @@
       <c r="S107" s="81"/>
       <c r="T107" s="81"/>
     </row>
-    <row r="108" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="108" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A108" s="81" t="str">
         <f>A$104</f>
         <v>Buildings and Appliances</v>
@@ -14723,7 +14728,7 @@
       </c>
       <c r="T108" s="81"/>
     </row>
-    <row r="109" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="109" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A109" s="81" t="str">
         <f>A$104</f>
         <v>Buildings and Appliances</v>
@@ -14768,7 +14773,7 @@
       <c r="S109" s="81"/>
       <c r="T109" s="81"/>
     </row>
-    <row r="110" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="110" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A110" s="70" t="s">
         <v>8</v>
       </c>
@@ -14822,7 +14827,7 @@
       <c r="S110" s="70"/>
       <c r="T110" s="70"/>
     </row>
-    <row r="111" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="111" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A111" s="81" t="str">
         <f>A$110</f>
         <v>Electricity Supply</v>
@@ -14887,7 +14892,7 @@
       <c r="S111" s="81"/>
       <c r="T111" s="81"/>
     </row>
-    <row r="112" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="112" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A112" s="81" t="str">
         <f t="shared" ref="A112:C121" si="28">A$110</f>
         <v>Electricity Supply</v>
@@ -14952,7 +14957,7 @@
       <c r="S112" s="81"/>
       <c r="T112" s="81"/>
     </row>
-    <row r="113" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="113" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A113" s="81" t="str">
         <f t="shared" si="28"/>
         <v>Electricity Supply</v>
@@ -15017,7 +15022,7 @@
       <c r="S113" s="81"/>
       <c r="T113" s="81"/>
     </row>
-    <row r="114" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="114" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A114" s="81" t="str">
         <f t="shared" si="28"/>
         <v>Electricity Supply</v>
@@ -15060,7 +15065,7 @@
       <c r="S114" s="81"/>
       <c r="T114" s="81"/>
     </row>
-    <row r="115" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="115" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A115" s="81" t="str">
         <f t="shared" si="28"/>
         <v>Electricity Supply</v>
@@ -15103,7 +15108,7 @@
       <c r="S115" s="81"/>
       <c r="T115" s="81"/>
     </row>
-    <row r="116" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="116" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A116" s="81" t="str">
         <f t="shared" si="28"/>
         <v>Electricity Supply</v>
@@ -15146,7 +15151,7 @@
       <c r="S116" s="81"/>
       <c r="T116" s="81"/>
     </row>
-    <row r="117" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="117" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A117" s="81" t="str">
         <f t="shared" si="28"/>
         <v>Electricity Supply</v>
@@ -15189,7 +15194,7 @@
       <c r="S117" s="81"/>
       <c r="T117" s="81"/>
     </row>
-    <row r="118" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="118" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A118" s="81" t="str">
         <f t="shared" si="28"/>
         <v>Electricity Supply</v>
@@ -15232,7 +15237,7 @@
       <c r="S118" s="81"/>
       <c r="T118" s="81"/>
     </row>
-    <row r="119" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="119" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A119" s="81" t="str">
         <f t="shared" si="28"/>
         <v>Electricity Supply</v>
@@ -15275,7 +15280,7 @@
       <c r="S119" s="81"/>
       <c r="T119" s="81"/>
     </row>
-    <row r="120" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="120" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A120" s="81" t="str">
         <f t="shared" si="28"/>
         <v>Electricity Supply</v>
@@ -15338,7 +15343,7 @@
       <c r="S120" s="81"/>
       <c r="T120" s="81"/>
     </row>
-    <row r="121" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="121" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A121" s="81" t="str">
         <f t="shared" si="28"/>
         <v>Electricity Supply</v>
@@ -15381,7 +15386,7 @@
       <c r="S121" s="81"/>
       <c r="T121" s="81"/>
     </row>
-    <row r="122" spans="1:20" s="62" customFormat="1" ht="43.5">
+    <row r="122" spans="1:20" s="62" customFormat="1" ht="60">
       <c r="A122" s="70" t="s">
         <v>8</v>
       </c>
@@ -15433,7 +15438,7 @@
       </c>
       <c r="T122" s="70"/>
     </row>
-    <row r="123" spans="1:20" s="62" customFormat="1" ht="43.5">
+    <row r="123" spans="1:20" s="62" customFormat="1" ht="45">
       <c r="A123" s="70" t="s">
         <v>8</v>
       </c>
@@ -15485,7 +15490,7 @@
       </c>
       <c r="T123" s="70"/>
     </row>
-    <row r="124" spans="1:20" ht="43.5">
+    <row r="124" spans="1:20" ht="45">
       <c r="A124" s="79" t="s">
         <v>8</v>
       </c>
@@ -15521,7 +15526,7 @@
       <c r="S124" s="79"/>
       <c r="T124" s="79"/>
     </row>
-    <row r="125" spans="1:20" ht="58">
+    <row r="125" spans="1:20" ht="60">
       <c r="A125" s="79" t="s">
         <v>8</v>
       </c>
@@ -15573,7 +15578,7 @@
       </c>
       <c r="T125" s="79"/>
     </row>
-    <row r="126" spans="1:20" ht="130.5">
+    <row r="126" spans="1:20" ht="150">
       <c r="A126" s="79" t="s">
         <v>8</v>
       </c>
@@ -15631,7 +15636,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="43.5">
+    <row r="127" spans="1:20" ht="45">
       <c r="A127" s="81" t="str">
         <f t="shared" ref="A127:C137" si="30">A$126</f>
         <v>Electricity Supply</v>
@@ -15676,7 +15681,7 @@
       <c r="S127" s="79"/>
       <c r="T127" s="79"/>
     </row>
-    <row r="128" spans="1:20" ht="43.5">
+    <row r="128" spans="1:20" ht="45">
       <c r="A128" s="156" t="str">
         <f t="shared" si="30"/>
         <v>Electricity Supply</v>
@@ -15741,7 +15746,7 @@
       </c>
       <c r="T128" s="79"/>
     </row>
-    <row r="129" spans="1:20" ht="43.5">
+    <row r="129" spans="1:20" ht="45">
       <c r="A129" s="81" t="str">
         <f t="shared" si="30"/>
         <v>Electricity Supply</v>
@@ -15786,7 +15791,7 @@
       <c r="S129" s="79"/>
       <c r="T129" s="79"/>
     </row>
-    <row r="130" spans="1:20" ht="43.5">
+    <row r="130" spans="1:20" ht="45">
       <c r="A130" s="81" t="str">
         <f t="shared" si="30"/>
         <v>Electricity Supply</v>
@@ -15831,7 +15836,7 @@
       <c r="S130" s="79"/>
       <c r="T130" s="79"/>
     </row>
-    <row r="131" spans="1:20" ht="43.5">
+    <row r="131" spans="1:20" ht="45">
       <c r="A131" s="81" t="str">
         <f t="shared" si="30"/>
         <v>Electricity Supply</v>
@@ -15876,7 +15881,7 @@
       <c r="S131" s="79"/>
       <c r="T131" s="79"/>
     </row>
-    <row r="132" spans="1:20" ht="43.5">
+    <row r="132" spans="1:20" ht="45">
       <c r="A132" s="81" t="str">
         <f t="shared" si="30"/>
         <v>Electricity Supply</v>
@@ -15921,7 +15926,7 @@
       <c r="S132" s="79"/>
       <c r="T132" s="79"/>
     </row>
-    <row r="133" spans="1:20" ht="43.5">
+    <row r="133" spans="1:20" ht="45">
       <c r="A133" s="81" t="str">
         <f t="shared" si="30"/>
         <v>Electricity Supply</v>
@@ -15966,7 +15971,7 @@
       <c r="S133" s="79"/>
       <c r="T133" s="79"/>
     </row>
-    <row r="134" spans="1:20" ht="43.5">
+    <row r="134" spans="1:20" ht="45">
       <c r="A134" s="81" t="str">
         <f t="shared" si="30"/>
         <v>Electricity Supply</v>
@@ -16009,7 +16014,7 @@
       <c r="S134" s="79"/>
       <c r="T134" s="79"/>
     </row>
-    <row r="135" spans="1:20" ht="43.5">
+    <row r="135" spans="1:20" ht="45">
       <c r="A135" s="81" t="str">
         <f t="shared" si="30"/>
         <v>Electricity Supply</v>
@@ -16052,7 +16057,7 @@
       <c r="S135" s="79"/>
       <c r="T135" s="79"/>
     </row>
-    <row r="136" spans="1:20" ht="43.5">
+    <row r="136" spans="1:20" ht="45">
       <c r="A136" s="81" t="str">
         <f t="shared" si="30"/>
         <v>Electricity Supply</v>
@@ -16095,7 +16100,7 @@
       <c r="S136" s="79"/>
       <c r="T136" s="79"/>
     </row>
-    <row r="137" spans="1:20" ht="43.5">
+    <row r="137" spans="1:20" ht="45">
       <c r="A137" s="81" t="str">
         <f t="shared" si="30"/>
         <v>Electricity Supply</v>
@@ -16138,7 +16143,7 @@
       <c r="S137" s="79"/>
       <c r="T137" s="79"/>
     </row>
-    <row r="138" spans="1:20" ht="87">
+    <row r="138" spans="1:20" ht="90">
       <c r="A138" s="79" t="s">
         <v>8</v>
       </c>
@@ -16192,7 +16197,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="72.5">
+    <row r="139" spans="1:20" ht="75">
       <c r="A139" s="79" t="s">
         <v>8</v>
       </c>
@@ -16247,7 +16252,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="140" spans="1:20" s="65" customFormat="1" ht="43.5">
+    <row r="140" spans="1:20" s="65" customFormat="1" ht="45">
       <c r="A140" s="79" t="s">
         <v>8</v>
       </c>
@@ -16281,7 +16286,7 @@
       <c r="S140" s="81"/>
       <c r="T140" s="81"/>
     </row>
-    <row r="141" spans="1:20" s="65" customFormat="1" ht="43.5">
+    <row r="141" spans="1:20" s="65" customFormat="1" ht="45">
       <c r="A141" s="79" t="s">
         <v>8</v>
       </c>
@@ -16317,7 +16322,7 @@
       <c r="S141" s="81"/>
       <c r="T141" s="81"/>
     </row>
-    <row r="142" spans="1:20" s="65" customFormat="1" ht="87">
+    <row r="142" spans="1:20" s="65" customFormat="1" ht="90">
       <c r="A142" s="195" t="s">
         <v>8</v>
       </c>
@@ -16369,7 +16374,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="143" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="143" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A143" s="70" t="s">
         <v>8</v>
       </c>
@@ -16407,7 +16412,7 @@
       <c r="S143" s="70"/>
       <c r="T143" s="70"/>
     </row>
-    <row r="144" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="144" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A144" s="83" t="str">
         <f t="shared" ref="A144:C173" si="32">A$143</f>
         <v>Electricity Supply</v>
@@ -16450,7 +16455,7 @@
       <c r="S144" s="70"/>
       <c r="T144" s="70"/>
     </row>
-    <row r="145" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="145" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A145" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -16493,7 +16498,7 @@
       <c r="S145" s="70"/>
       <c r="T145" s="70"/>
     </row>
-    <row r="146" spans="1:20" s="62" customFormat="1" ht="72.5">
+    <row r="146" spans="1:20" s="62" customFormat="1" ht="75">
       <c r="A146" s="170" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -16558,7 +16563,7 @@
       </c>
       <c r="T146" s="70"/>
     </row>
-    <row r="147" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="147" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A147" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -16601,7 +16606,7 @@
       <c r="S147" s="70"/>
       <c r="T147" s="70"/>
     </row>
-    <row r="148" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="148" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A148" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -16644,7 +16649,7 @@
       <c r="S148" s="70"/>
       <c r="T148" s="70"/>
     </row>
-    <row r="149" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="149" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A149" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -16687,7 +16692,7 @@
       <c r="S149" s="70"/>
       <c r="T149" s="70"/>
     </row>
-    <row r="150" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="150" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A150" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -16730,7 +16735,7 @@
       <c r="S150" s="70"/>
       <c r="T150" s="70"/>
     </row>
-    <row r="151" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="151" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A151" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -16773,7 +16778,7 @@
       <c r="S151" s="70"/>
       <c r="T151" s="70"/>
     </row>
-    <row r="152" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="152" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A152" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -16816,7 +16821,7 @@
       <c r="S152" s="70"/>
       <c r="T152" s="70"/>
     </row>
-    <row r="153" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="153" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A153" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -16859,7 +16864,7 @@
       <c r="S153" s="70"/>
       <c r="T153" s="70"/>
     </row>
-    <row r="154" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="154" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A154" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -16902,7 +16907,7 @@
       <c r="S154" s="70"/>
       <c r="T154" s="70"/>
     </row>
-    <row r="155" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="155" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A155" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -16945,7 +16950,7 @@
       <c r="S155" s="70"/>
       <c r="T155" s="70"/>
     </row>
-    <row r="156" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="156" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A156" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -16988,7 +16993,7 @@
       <c r="S156" s="70"/>
       <c r="T156" s="70"/>
     </row>
-    <row r="157" spans="1:20" s="62" customFormat="1" ht="87">
+    <row r="157" spans="1:20" s="62" customFormat="1" ht="90">
       <c r="A157" s="170" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -17053,7 +17058,7 @@
       </c>
       <c r="T157" s="70"/>
     </row>
-    <row r="158" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="158" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A158" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -17096,7 +17101,7 @@
       <c r="S158" s="70"/>
       <c r="T158" s="70"/>
     </row>
-    <row r="159" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="159" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A159" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -17139,7 +17144,7 @@
       <c r="S159" s="70"/>
       <c r="T159" s="70"/>
     </row>
-    <row r="160" spans="1:20" s="62" customFormat="1" ht="87">
+    <row r="160" spans="1:20" s="62" customFormat="1" ht="90">
       <c r="A160" s="170" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -17204,7 +17209,7 @@
       </c>
       <c r="T160" s="70"/>
     </row>
-    <row r="161" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="161" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A161" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -17247,7 +17252,7 @@
       <c r="S161" s="70"/>
       <c r="T161" s="70"/>
     </row>
-    <row r="162" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="162" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A162" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -17290,7 +17295,7 @@
       <c r="S162" s="70"/>
       <c r="T162" s="70"/>
     </row>
-    <row r="163" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="163" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A163" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -17333,7 +17338,7 @@
       <c r="S163" s="70"/>
       <c r="T163" s="70"/>
     </row>
-    <row r="164" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="164" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A164" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -17376,7 +17381,7 @@
       <c r="S164" s="70"/>
       <c r="T164" s="70"/>
     </row>
-    <row r="165" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="165" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A165" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -17419,7 +17424,7 @@
       <c r="S165" s="70"/>
       <c r="T165" s="70"/>
     </row>
-    <row r="166" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="166" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A166" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -17462,7 +17467,7 @@
       <c r="S166" s="70"/>
       <c r="T166" s="70"/>
     </row>
-    <row r="167" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="167" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A167" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -17505,7 +17510,7 @@
       <c r="S167" s="70"/>
       <c r="T167" s="70"/>
     </row>
-    <row r="168" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="168" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A168" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -17548,7 +17553,7 @@
       <c r="S168" s="70"/>
       <c r="T168" s="70"/>
     </row>
-    <row r="169" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="169" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A169" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -17591,7 +17596,7 @@
       <c r="S169" s="70"/>
       <c r="T169" s="70"/>
     </row>
-    <row r="170" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="170" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A170" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -17634,7 +17639,7 @@
       <c r="S170" s="70"/>
       <c r="T170" s="70"/>
     </row>
-    <row r="171" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="171" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A171" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -17677,7 +17682,7 @@
       <c r="S171" s="70"/>
       <c r="T171" s="70"/>
     </row>
-    <row r="172" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="172" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A172" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -17720,7 +17725,7 @@
       <c r="S172" s="70"/>
       <c r="T172" s="70"/>
     </row>
-    <row r="173" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="173" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A173" s="83" t="str">
         <f t="shared" si="32"/>
         <v>Electricity Supply</v>
@@ -17763,7 +17768,7 @@
       <c r="S173" s="70"/>
       <c r="T173" s="70"/>
     </row>
-    <row r="174" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="174" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A174" s="83" t="str">
         <f t="shared" ref="A174:C178" si="34">A$143</f>
         <v>Electricity Supply</v>
@@ -17806,7 +17811,7 @@
       <c r="S174" s="70"/>
       <c r="T174" s="70"/>
     </row>
-    <row r="175" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="175" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A175" s="83" t="str">
         <f t="shared" si="34"/>
         <v>Electricity Supply</v>
@@ -17849,7 +17854,7 @@
       <c r="S175" s="70"/>
       <c r="T175" s="70"/>
     </row>
-    <row r="176" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="176" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A176" s="83" t="str">
         <f t="shared" si="34"/>
         <v>Electricity Supply</v>
@@ -17892,7 +17897,7 @@
       <c r="S176" s="70"/>
       <c r="T176" s="70"/>
     </row>
-    <row r="177" spans="1:20" s="62" customFormat="1" ht="29">
+    <row r="177" spans="1:20" s="62" customFormat="1" ht="30">
       <c r="A177" s="83" t="str">
         <f t="shared" si="34"/>
         <v>Electricity Supply</v>
@@ -17935,7 +17940,7 @@
       <c r="S177" s="70"/>
       <c r="T177" s="70"/>
     </row>
-    <row r="178" spans="1:20" s="62" customFormat="1" ht="101.5">
+    <row r="178" spans="1:20" s="62" customFormat="1" ht="105">
       <c r="A178" s="83" t="str">
         <f t="shared" si="34"/>
         <v>Electricity Supply</v>
@@ -18000,7 +18005,7 @@
       </c>
       <c r="T178" s="70"/>
     </row>
-    <row r="179" spans="1:20" s="62" customFormat="1" ht="58">
+    <row r="179" spans="1:20" s="62" customFormat="1" ht="60">
       <c r="A179" s="70" t="s">
         <v>8</v>
       </c>
@@ -18054,7 +18059,7 @@
       <c r="S179" s="70"/>
       <c r="T179" s="70"/>
     </row>
-    <row r="180" spans="1:20" s="62" customFormat="1" ht="58">
+    <row r="180" spans="1:20" s="62" customFormat="1" ht="60">
       <c r="A180" s="83" t="s">
         <v>8</v>
       </c>
@@ -18108,7 +18113,7 @@
       <c r="S180" s="70"/>
       <c r="T180" s="70"/>
     </row>
-    <row r="181" spans="1:20" s="62" customFormat="1" ht="58">
+    <row r="181" spans="1:20" s="62" customFormat="1" ht="60">
       <c r="A181" s="83" t="s">
         <v>8</v>
       </c>
@@ -18162,7 +18167,7 @@
       <c r="S181" s="70"/>
       <c r="T181" s="70"/>
     </row>
-    <row r="182" spans="1:20" s="62" customFormat="1" ht="43.5">
+    <row r="182" spans="1:20" s="62" customFormat="1" ht="60">
       <c r="A182" s="70" t="s">
         <v>8</v>
       </c>
@@ -18214,7 +18219,7 @@
       </c>
       <c r="T182" s="70"/>
     </row>
-    <row r="183" spans="1:20" s="65" customFormat="1" ht="72.5">
+    <row r="183" spans="1:20" s="65" customFormat="1" ht="75">
       <c r="A183" s="79" t="s">
         <v>8</v>
       </c>
@@ -18267,7 +18272,7 @@
       </c>
       <c r="T183" s="79"/>
     </row>
-    <row r="184" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="184" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A184" s="79" t="s">
         <v>8</v>
       </c>
@@ -18307,7 +18312,7 @@
       <c r="S184" s="70"/>
       <c r="T184" s="81"/>
     </row>
-    <row r="185" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="185" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A185" s="81" t="str">
         <f t="shared" ref="A185:C193" si="36">A$184</f>
         <v>Electricity Supply</v>
@@ -18352,7 +18357,7 @@
       <c r="S185" s="70"/>
       <c r="T185" s="81"/>
     </row>
-    <row r="186" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="186" spans="1:20" s="65" customFormat="1" ht="45">
       <c r="A186" s="156" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -18413,7 +18418,7 @@
       </c>
       <c r="T186" s="79"/>
     </row>
-    <row r="187" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="187" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A187" s="81" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -18456,7 +18461,7 @@
       <c r="S187" s="81"/>
       <c r="T187" s="81"/>
     </row>
-    <row r="188" spans="1:20" ht="29">
+    <row r="188" spans="1:20" ht="45">
       <c r="A188" s="81" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -18522,7 +18527,7 @@
       </c>
       <c r="T188" s="79"/>
     </row>
-    <row r="189" spans="1:20" ht="43.5">
+    <row r="189" spans="1:20" ht="45">
       <c r="A189" s="81" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -18588,7 +18593,7 @@
       </c>
       <c r="T189" s="79"/>
     </row>
-    <row r="190" spans="1:20" ht="43.5">
+    <row r="190" spans="1:20" ht="45">
       <c r="A190" s="81" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -18654,7 +18659,7 @@
       </c>
       <c r="T190" s="79"/>
     </row>
-    <row r="191" spans="1:20" ht="29">
+    <row r="191" spans="1:20" ht="45">
       <c r="A191" s="81" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -18720,7 +18725,7 @@
       </c>
       <c r="T191" s="79"/>
     </row>
-    <row r="192" spans="1:20" ht="29">
+    <row r="192" spans="1:20" ht="30">
       <c r="A192" s="81" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -18763,7 +18768,7 @@
       <c r="S192" s="81"/>
       <c r="T192" s="79"/>
     </row>
-    <row r="193" spans="1:20" ht="29">
+    <row r="193" spans="1:20" ht="45">
       <c r="A193" s="81" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -18829,7 +18834,7 @@
       </c>
       <c r="T193" s="79"/>
     </row>
-    <row r="194" spans="1:20" ht="43.5">
+    <row r="194" spans="1:20" ht="45">
       <c r="A194" s="79" t="s">
         <v>9</v>
       </c>
@@ -18881,7 +18886,7 @@
       </c>
       <c r="T194" s="79"/>
     </row>
-    <row r="195" spans="1:20" s="65" customFormat="1" ht="58">
+    <row r="195" spans="1:20" s="65" customFormat="1" ht="60">
       <c r="A195" s="79" t="s">
         <v>9</v>
       </c>
@@ -18933,7 +18938,7 @@
       </c>
       <c r="T195" s="81"/>
     </row>
-    <row r="196" spans="1:20" s="65" customFormat="1" ht="72.5">
+    <row r="196" spans="1:20" s="65" customFormat="1" ht="90">
       <c r="A196" s="79" t="s">
         <v>9</v>
       </c>
@@ -18985,7 +18990,7 @@
       </c>
       <c r="T196" s="81"/>
     </row>
-    <row r="197" spans="1:20" s="65" customFormat="1" ht="87">
+    <row r="197" spans="1:20" s="65" customFormat="1" ht="90">
       <c r="A197" s="79" t="s">
         <v>9</v>
       </c>
@@ -19044,7 +19049,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="198" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="198" spans="1:20" s="65" customFormat="1" ht="105">
       <c r="A198" s="81" t="str">
         <f>A$197</f>
         <v>Industry</v>
@@ -19113,7 +19118,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="199" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="199" spans="1:20" s="65" customFormat="1" ht="105">
       <c r="A199" s="81" t="str">
         <f t="shared" ref="A199:A204" si="42">A$197</f>
         <v>Industry</v>
@@ -19182,7 +19187,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="200" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="200" spans="1:20" s="65" customFormat="1" ht="105">
       <c r="A200" s="81" t="str">
         <f t="shared" si="42"/>
         <v>Industry</v>
@@ -19251,7 +19256,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="201" spans="1:20" s="65" customFormat="1" ht="87">
+    <row r="201" spans="1:20" s="65" customFormat="1" ht="105">
       <c r="A201" s="81" t="str">
         <f t="shared" si="42"/>
         <v>Industry</v>
@@ -19320,7 +19325,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="202" spans="1:20" s="65" customFormat="1" ht="101.5">
+    <row r="202" spans="1:20" s="65" customFormat="1" ht="105">
       <c r="A202" s="81" t="str">
         <f t="shared" si="42"/>
         <v>Industry</v>
@@ -19389,7 +19394,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="101.5">
+    <row r="203" spans="1:20" ht="105">
       <c r="A203" s="81" t="str">
         <f t="shared" si="42"/>
         <v>Industry</v>
@@ -19414,7 +19419,7 @@
         <v>52</v>
       </c>
       <c r="I203" s="79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J203" s="101" t="str">
         <f t="shared" si="40"/>
@@ -19458,7 +19463,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="204" spans="1:20" s="65" customFormat="1" ht="87">
+    <row r="204" spans="1:20" s="65" customFormat="1" ht="105">
       <c r="A204" s="81" t="str">
         <f t="shared" si="42"/>
         <v>Industry</v>
@@ -19527,7 +19532,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="205" spans="1:20" s="65" customFormat="1" ht="43.5">
+    <row r="205" spans="1:20" s="65" customFormat="1" ht="45">
       <c r="A205" s="79" t="s">
         <v>9</v>
       </c>
@@ -19579,7 +19584,7 @@
       </c>
       <c r="T205" s="81"/>
     </row>
-    <row r="206" spans="1:20" ht="72.5">
+    <row r="206" spans="1:20" ht="75">
       <c r="A206" s="79" t="s">
         <v>9</v>
       </c>
@@ -19631,7 +19636,7 @@
       </c>
       <c r="T206" s="79"/>
     </row>
-    <row r="207" spans="1:20" ht="101.5">
+    <row r="207" spans="1:20" ht="120">
       <c r="A207" s="79" t="s">
         <v>9</v>
       </c>
@@ -19683,7 +19688,7 @@
       </c>
       <c r="T207" s="79"/>
     </row>
-    <row r="208" spans="1:20" ht="58">
+    <row r="208" spans="1:20" ht="75">
       <c r="A208" s="79" t="s">
         <v>9</v>
       </c>
@@ -19735,7 +19740,7 @@
       </c>
       <c r="T208" s="79"/>
     </row>
-    <row r="209" spans="1:20" ht="43.5">
+    <row r="209" spans="1:20" ht="45">
       <c r="A209" s="79" t="s">
         <v>9</v>
       </c>
@@ -19787,7 +19792,7 @@
       </c>
       <c r="T209" s="79"/>
     </row>
-    <row r="210" spans="1:20" ht="43.5">
+    <row r="210" spans="1:20" ht="45">
       <c r="A210" s="79" t="s">
         <v>9</v>
       </c>
@@ -19839,7 +19844,7 @@
       </c>
       <c r="T210" s="79"/>
     </row>
-    <row r="211" spans="1:20" ht="43.5">
+    <row r="211" spans="1:20" ht="45">
       <c r="A211" s="79" t="s">
         <v>9</v>
       </c>
@@ -19891,7 +19896,7 @@
       </c>
       <c r="T211" s="79"/>
     </row>
-    <row r="212" spans="1:20" ht="72.5">
+    <row r="212" spans="1:20" ht="75">
       <c r="A212" s="79" t="s">
         <v>170</v>
       </c>
@@ -19945,7 +19950,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="43.5">
+    <row r="213" spans="1:20" ht="45">
       <c r="A213" s="159" t="s">
         <v>170</v>
       </c>
@@ -19995,7 +20000,7 @@
       <c r="S213" s="79"/>
       <c r="T213" s="79"/>
     </row>
-    <row r="214" spans="1:20" ht="43.5">
+    <row r="214" spans="1:20" ht="45">
       <c r="A214" s="159" t="s">
         <v>170</v>
       </c>
@@ -20045,7 +20050,7 @@
       <c r="S214" s="79"/>
       <c r="T214" s="79"/>
     </row>
-    <row r="215" spans="1:20" ht="43.5">
+    <row r="215" spans="1:20" ht="45">
       <c r="A215" s="79" t="s">
         <v>170</v>
       </c>
@@ -20097,7 +20102,7 @@
       </c>
       <c r="T215" s="79"/>
     </row>
-    <row r="216" spans="1:20" ht="58">
+    <row r="216" spans="1:20" ht="60">
       <c r="A216" s="79" t="s">
         <v>170</v>
       </c>
@@ -20149,7 +20154,7 @@
       </c>
       <c r="T216" s="79"/>
     </row>
-    <row r="217" spans="1:20" ht="43.5">
+    <row r="217" spans="1:20" ht="45">
       <c r="A217" s="79" t="s">
         <v>170</v>
       </c>
@@ -20201,7 +20206,7 @@
       </c>
       <c r="T217" s="79"/>
     </row>
-    <row r="218" spans="1:20" ht="43.5">
+    <row r="218" spans="1:20" ht="45">
       <c r="A218" s="79" t="s">
         <v>170</v>
       </c>
@@ -20253,7 +20258,7 @@
       </c>
       <c r="T218" s="79"/>
     </row>
-    <row r="219" spans="1:20" ht="29">
+    <row r="219" spans="1:20" ht="30">
       <c r="A219" s="79" t="s">
         <v>170</v>
       </c>
@@ -20289,7 +20294,7 @@
       <c r="S219" s="79"/>
       <c r="T219" s="79"/>
     </row>
-    <row r="220" spans="1:20" ht="43.5">
+    <row r="220" spans="1:20" ht="45">
       <c r="A220" s="79" t="s">
         <v>170</v>
       </c>
@@ -20341,7 +20346,7 @@
       </c>
       <c r="T220" s="79"/>
     </row>
-    <row r="221" spans="1:20" s="62" customFormat="1" ht="58">
+    <row r="221" spans="1:20" s="62" customFormat="1" ht="75">
       <c r="A221" s="155" t="s">
         <v>438</v>
       </c>
@@ -20393,7 +20398,7 @@
       </c>
       <c r="T221" s="70"/>
     </row>
-    <row r="222" spans="1:20" s="62" customFormat="1" ht="43.5">
+    <row r="222" spans="1:20" s="62" customFormat="1" ht="60">
       <c r="A222" s="155" t="s">
         <v>438</v>
       </c>
@@ -20445,7 +20450,7 @@
       </c>
       <c r="T222" s="70"/>
     </row>
-    <row r="223" spans="1:20" ht="43.5">
+    <row r="223" spans="1:20" ht="60">
       <c r="A223" s="79" t="s">
         <v>10</v>
       </c>
@@ -20497,7 +20502,7 @@
       </c>
       <c r="T223" s="79"/>
     </row>
-    <row r="224" spans="1:20" s="65" customFormat="1" ht="58">
+    <row r="224" spans="1:20" s="65" customFormat="1" ht="60">
       <c r="A224" s="79" t="s">
         <v>10</v>
       </c>
@@ -20555,7 +20560,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="225" spans="1:20" s="65" customFormat="1" ht="58">
+    <row r="225" spans="1:20" s="65" customFormat="1" ht="60">
       <c r="A225" s="81" t="str">
         <f>A$224</f>
         <v>Cross-Sector</v>
@@ -20620,7 +20625,7 @@
       <c r="S225" s="70"/>
       <c r="T225" s="81"/>
     </row>
-    <row r="226" spans="1:20" s="65" customFormat="1" ht="58">
+    <row r="226" spans="1:20" s="65" customFormat="1" ht="60">
       <c r="A226" s="81" t="str">
         <f t="shared" ref="A226:C230" si="46">A$224</f>
         <v>Cross-Sector</v>
@@ -20685,7 +20690,7 @@
       <c r="S226" s="70"/>
       <c r="T226" s="81"/>
     </row>
-    <row r="227" spans="1:20" s="65" customFormat="1" ht="58">
+    <row r="227" spans="1:20" s="65" customFormat="1" ht="60">
       <c r="A227" s="81" t="str">
         <f t="shared" si="46"/>
         <v>Cross-Sector</v>
@@ -20750,7 +20755,7 @@
       <c r="S227" s="70"/>
       <c r="T227" s="81"/>
     </row>
-    <row r="228" spans="1:20" s="65" customFormat="1" ht="58">
+    <row r="228" spans="1:20" s="65" customFormat="1" ht="60">
       <c r="A228" s="81" t="str">
         <f t="shared" si="46"/>
         <v>Cross-Sector</v>
@@ -20815,7 +20820,7 @@
       <c r="S228" s="70"/>
       <c r="T228" s="81"/>
     </row>
-    <row r="229" spans="1:20" s="65" customFormat="1">
+    <row r="229" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A229" s="81" t="str">
         <f t="shared" si="46"/>
         <v>Cross-Sector</v>
@@ -20901,7 +20906,7 @@
       <c r="S230" s="70"/>
       <c r="T230" s="81"/>
     </row>
-    <row r="231" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="231" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A231" s="79" t="s">
         <v>10</v>
       </c>
@@ -20941,7 +20946,7 @@
       <c r="S231" s="81"/>
       <c r="T231" s="81"/>
     </row>
-    <row r="232" spans="1:20" s="65" customFormat="1" ht="43.5">
+    <row r="232" spans="1:20" s="65" customFormat="1" ht="45">
       <c r="A232" s="156" t="str">
         <f>A$231</f>
         <v>Cross-Sector</v>
@@ -21002,7 +21007,7 @@
       </c>
       <c r="T232" s="81"/>
     </row>
-    <row r="233" spans="1:20" s="65" customFormat="1" ht="43.5">
+    <row r="233" spans="1:20" s="65" customFormat="1" ht="45">
       <c r="A233" s="81" t="str">
         <f t="shared" ref="A233:A246" si="49">A$231</f>
         <v>Cross-Sector</v>
@@ -21067,7 +21072,7 @@
       </c>
       <c r="T233" s="81"/>
     </row>
-    <row r="234" spans="1:20" s="65" customFormat="1" ht="43.5">
+    <row r="234" spans="1:20" s="65" customFormat="1" ht="45">
       <c r="A234" s="156" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -21132,7 +21137,7 @@
       </c>
       <c r="T234" s="81"/>
     </row>
-    <row r="235" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="235" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A235" s="81" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -21177,7 +21182,7 @@
       <c r="S235" s="79"/>
       <c r="T235" s="81"/>
     </row>
-    <row r="236" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="236" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A236" s="81" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -21222,7 +21227,7 @@
       <c r="S236" s="79"/>
       <c r="T236" s="81"/>
     </row>
-    <row r="237" spans="1:20" s="65" customFormat="1" ht="43.5">
+    <row r="237" spans="1:20" s="65" customFormat="1" ht="45">
       <c r="A237" s="156" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -21287,7 +21292,7 @@
       </c>
       <c r="T237" s="81"/>
     </row>
-    <row r="238" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="238" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A238" s="81" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -21332,7 +21337,7 @@
       <c r="S238" s="81"/>
       <c r="T238" s="81"/>
     </row>
-    <row r="239" spans="1:20" s="65" customFormat="1" ht="43.5">
+    <row r="239" spans="1:20" s="65" customFormat="1" ht="45">
       <c r="A239" s="156" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -21397,7 +21402,7 @@
       </c>
       <c r="T239" s="81"/>
     </row>
-    <row r="240" spans="1:20" s="65" customFormat="1" ht="43.5">
+    <row r="240" spans="1:20" s="65" customFormat="1" ht="45">
       <c r="A240" s="156" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -21462,7 +21467,7 @@
       </c>
       <c r="T240" s="81"/>
     </row>
-    <row r="241" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="241" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A241" s="81" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -21507,7 +21512,7 @@
       <c r="S241" s="81"/>
       <c r="T241" s="81"/>
     </row>
-    <row r="242" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="242" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A242" s="81" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -21552,7 +21557,7 @@
       <c r="S242" s="81"/>
       <c r="T242" s="81"/>
     </row>
-    <row r="243" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="243" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A243" s="81" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -21595,7 +21600,7 @@
       <c r="S243" s="79"/>
       <c r="T243" s="81"/>
     </row>
-    <row r="244" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="244" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A244" s="81" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -21640,7 +21645,7 @@
       <c r="S244" s="81"/>
       <c r="T244" s="81"/>
     </row>
-    <row r="245" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="245" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A245" s="81" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -21683,7 +21688,7 @@
       <c r="S245" s="81"/>
       <c r="T245" s="81"/>
     </row>
-    <row r="246" spans="1:20" s="65" customFormat="1" ht="29">
+    <row r="246" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A246" s="81" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -21726,7 +21731,7 @@
       <c r="S246" s="81"/>
       <c r="T246" s="81"/>
     </row>
-    <row r="247" spans="1:20" s="62" customFormat="1" ht="58">
+    <row r="247" spans="1:20" s="62" customFormat="1" ht="60">
       <c r="A247" s="70" t="s">
         <v>10</v>
       </c>
@@ -21760,7 +21765,7 @@
       <c r="S247" s="79"/>
       <c r="T247" s="70"/>
     </row>
-    <row r="248" spans="1:20" s="65" customFormat="1" ht="43.5">
+    <row r="248" spans="1:20" s="65" customFormat="1" ht="45">
       <c r="A248" s="79" t="s">
         <v>10</v>
       </c>
@@ -21816,7 +21821,7 @@
       </c>
       <c r="T248" s="81"/>
     </row>
-    <row r="249" spans="1:20" s="65" customFormat="1" ht="43.5">
+    <row r="249" spans="1:20" s="65" customFormat="1" ht="45">
       <c r="A249" s="84" t="str">
         <f t="shared" ref="A249:C262" si="52">A$248</f>
         <v>Cross-Sector</v>
@@ -21882,7 +21887,7 @@
       </c>
       <c r="T249" s="81"/>
     </row>
-    <row r="250" spans="1:20" s="65" customFormat="1" ht="43.5">
+    <row r="250" spans="1:20" s="65" customFormat="1" ht="45">
       <c r="A250" s="84" t="str">
         <f t="shared" si="52"/>
         <v>Cross-Sector</v>
@@ -21948,7 +21953,7 @@
       </c>
       <c r="T250" s="81"/>
     </row>
-    <row r="251" spans="1:20" s="65" customFormat="1">
+    <row r="251" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A251" s="84" t="str">
         <f t="shared" si="52"/>
         <v>Cross-Sector</v>
@@ -21993,7 +21998,7 @@
       <c r="S251" s="81"/>
       <c r="T251" s="81"/>
     </row>
-    <row r="252" spans="1:20" s="65" customFormat="1">
+    <row r="252" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A252" s="84" t="str">
         <f t="shared" si="52"/>
         <v>Cross-Sector</v>
@@ -22038,7 +22043,7 @@
       <c r="S252" s="81"/>
       <c r="T252" s="81"/>
     </row>
-    <row r="253" spans="1:20" s="65" customFormat="1">
+    <row r="253" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A253" s="84" t="str">
         <f t="shared" si="52"/>
         <v>Cross-Sector</v>
@@ -22083,7 +22088,7 @@
       <c r="S253" s="81"/>
       <c r="T253" s="81"/>
     </row>
-    <row r="254" spans="1:20" s="65" customFormat="1">
+    <row r="254" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A254" s="84" t="str">
         <f t="shared" si="52"/>
         <v>Cross-Sector</v>
@@ -22128,7 +22133,7 @@
       <c r="S254" s="81"/>
       <c r="T254" s="81"/>
     </row>
-    <row r="255" spans="1:20" s="65" customFormat="1">
+    <row r="255" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A255" s="84" t="str">
         <f t="shared" si="52"/>
         <v>Cross-Sector</v>
@@ -22173,7 +22178,7 @@
       <c r="S255" s="81"/>
       <c r="T255" s="81"/>
     </row>
-    <row r="256" spans="1:20" s="65" customFormat="1" ht="43.5">
+    <row r="256" spans="1:20" s="65" customFormat="1" ht="45">
       <c r="A256" s="84" t="str">
         <f t="shared" si="52"/>
         <v>Cross-Sector</v>
@@ -22239,7 +22244,7 @@
       </c>
       <c r="T256" s="81"/>
     </row>
-    <row r="257" spans="1:20" s="65" customFormat="1" ht="43.5">
+    <row r="257" spans="1:20" s="65" customFormat="1" ht="45">
       <c r="A257" s="84" t="str">
         <f t="shared" si="52"/>
         <v>Cross-Sector</v>
@@ -22305,7 +22310,7 @@
       </c>
       <c r="T257" s="81"/>
     </row>
-    <row r="258" spans="1:20" s="65" customFormat="1">
+    <row r="258" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A258" s="84" t="str">
         <f t="shared" si="52"/>
         <v>Cross-Sector</v>
@@ -22350,7 +22355,7 @@
       <c r="S258" s="81"/>
       <c r="T258" s="81"/>
     </row>
-    <row r="259" spans="1:20" s="65" customFormat="1">
+    <row r="259" spans="1:20" s="65" customFormat="1" ht="30">
       <c r="A259" s="84" t="str">
         <f t="shared" si="52"/>
         <v>Cross-Sector</v>
@@ -22395,7 +22400,7 @@
       <c r="S259" s="81"/>
       <c r="T259" s="81"/>
     </row>
-    <row r="260" spans="1:20">
+    <row r="260" spans="1:20" ht="30">
       <c r="A260" s="84" t="str">
         <f t="shared" si="52"/>
         <v>Cross-Sector</v>
@@ -22438,7 +22443,7 @@
       <c r="S260" s="81"/>
       <c r="T260" s="79"/>
     </row>
-    <row r="261" spans="1:20">
+    <row r="261" spans="1:20" ht="30">
       <c r="A261" s="84" t="str">
         <f t="shared" si="52"/>
         <v>Cross-Sector</v>
@@ -22483,7 +22488,7 @@
       <c r="S261" s="79"/>
       <c r="T261" s="79"/>
     </row>
-    <row r="262" spans="1:20">
+    <row r="262" spans="1:20" ht="30">
       <c r="A262" s="84" t="str">
         <f t="shared" si="52"/>
         <v>Cross-Sector</v>
@@ -22526,7 +22531,7 @@
       <c r="S262" s="79"/>
       <c r="T262" s="79"/>
     </row>
-    <row r="263" spans="1:20" ht="101.5">
+    <row r="263" spans="1:20" ht="105">
       <c r="A263" s="159" t="s">
         <v>33</v>
       </c>
@@ -22582,7 +22587,7 @@
       </c>
       <c r="T263" s="79"/>
     </row>
-    <row r="264" spans="1:20" ht="101.5">
+    <row r="264" spans="1:20" ht="105">
       <c r="A264" s="81" t="str">
         <f t="shared" ref="A264:C270" si="54">A$263</f>
         <v>R&amp;D</v>
@@ -22647,7 +22652,7 @@
       </c>
       <c r="T264" s="79"/>
     </row>
-    <row r="265" spans="1:20" ht="101.5">
+    <row r="265" spans="1:20" ht="105">
       <c r="A265" s="81" t="str">
         <f t="shared" si="54"/>
         <v>R&amp;D</v>
@@ -22712,7 +22717,7 @@
       </c>
       <c r="T265" s="79"/>
     </row>
-    <row r="266" spans="1:20" ht="101.5">
+    <row r="266" spans="1:20" ht="105">
       <c r="A266" s="81" t="str">
         <f t="shared" si="54"/>
         <v>R&amp;D</v>
@@ -22777,7 +22782,7 @@
       </c>
       <c r="T266" s="79"/>
     </row>
-    <row r="267" spans="1:20" ht="101.5">
+    <row r="267" spans="1:20" ht="105">
       <c r="A267" s="81" t="str">
         <f t="shared" si="54"/>
         <v>R&amp;D</v>
@@ -22842,7 +22847,7 @@
       </c>
       <c r="T267" s="79"/>
     </row>
-    <row r="268" spans="1:20" ht="101.5">
+    <row r="268" spans="1:20" ht="105">
       <c r="A268" s="81" t="str">
         <f t="shared" si="54"/>
         <v>R&amp;D</v>
@@ -22907,7 +22912,7 @@
       </c>
       <c r="T268" s="79"/>
     </row>
-    <row r="269" spans="1:20" ht="101.5">
+    <row r="269" spans="1:20" ht="105">
       <c r="A269" s="81" t="str">
         <f t="shared" si="54"/>
         <v>R&amp;D</v>
@@ -22964,7 +22969,7 @@
       </c>
       <c r="T269" s="79"/>
     </row>
-    <row r="270" spans="1:20" ht="101.5">
+    <row r="270" spans="1:20" ht="105">
       <c r="A270" s="79" t="s">
         <v>33</v>
       </c>
@@ -23022,7 +23027,7 @@
       </c>
       <c r="T270" s="79"/>
     </row>
-    <row r="271" spans="1:20" ht="101.5">
+    <row r="271" spans="1:20" ht="105">
       <c r="A271" s="81" t="str">
         <f>A$270</f>
         <v>R&amp;D</v>
@@ -23087,7 +23092,7 @@
       </c>
       <c r="T271" s="79"/>
     </row>
-    <row r="272" spans="1:20" ht="101.5">
+    <row r="272" spans="1:20" ht="105">
       <c r="A272" s="81" t="str">
         <f t="shared" ref="A272:C280" si="58">A$270</f>
         <v>R&amp;D</v>
@@ -23152,7 +23157,7 @@
       </c>
       <c r="T272" s="79"/>
     </row>
-    <row r="273" spans="1:20" ht="101.5">
+    <row r="273" spans="1:20" ht="105">
       <c r="A273" s="81" t="str">
         <f t="shared" si="58"/>
         <v>R&amp;D</v>
@@ -23217,7 +23222,7 @@
       </c>
       <c r="T273" s="79"/>
     </row>
-    <row r="274" spans="1:20" ht="101.5">
+    <row r="274" spans="1:20" ht="105">
       <c r="A274" s="81" t="str">
         <f t="shared" si="58"/>
         <v>R&amp;D</v>
@@ -23282,7 +23287,7 @@
       </c>
       <c r="T274" s="79"/>
     </row>
-    <row r="275" spans="1:20" ht="101.5">
+    <row r="275" spans="1:20" ht="105">
       <c r="A275" s="81" t="str">
         <f t="shared" si="58"/>
         <v>R&amp;D</v>
@@ -23347,7 +23352,7 @@
       </c>
       <c r="T275" s="79"/>
     </row>
-    <row r="276" spans="1:20" ht="101.5">
+    <row r="276" spans="1:20" ht="105">
       <c r="A276" s="81" t="str">
         <f t="shared" si="58"/>
         <v>R&amp;D</v>
@@ -23412,7 +23417,7 @@
       </c>
       <c r="T276" s="79"/>
     </row>
-    <row r="277" spans="1:20" ht="101.5">
+    <row r="277" spans="1:20" ht="105">
       <c r="A277" s="81" t="str">
         <f t="shared" si="58"/>
         <v>R&amp;D</v>
@@ -23477,7 +23482,7 @@
       </c>
       <c r="T277" s="79"/>
     </row>
-    <row r="278" spans="1:20" ht="101.5">
+    <row r="278" spans="1:20" ht="105">
       <c r="A278" s="81" t="str">
         <f>A$270</f>
         <v>R&amp;D</v>
@@ -23542,7 +23547,7 @@
       </c>
       <c r="T278" s="79"/>
     </row>
-    <row r="279" spans="1:20" ht="101.5">
+    <row r="279" spans="1:20" ht="105">
       <c r="A279" s="81" t="str">
         <f t="shared" si="58"/>
         <v>R&amp;D</v>
@@ -23607,7 +23612,7 @@
       </c>
       <c r="T279" s="79"/>
     </row>
-    <row r="280" spans="1:20" ht="101.5">
+    <row r="280" spans="1:20" ht="105">
       <c r="A280" s="81" t="str">
         <f t="shared" si="58"/>
         <v>R&amp;D</v>
@@ -23672,7 +23677,7 @@
       </c>
       <c r="T280" s="79"/>
     </row>
-    <row r="281" spans="1:20" ht="101.5">
+    <row r="281" spans="1:20" ht="105">
       <c r="A281" s="79" t="s">
         <v>33</v>
       </c>
@@ -23730,7 +23735,7 @@
       </c>
       <c r="T281" s="79"/>
     </row>
-    <row r="282" spans="1:20" ht="101.5">
+    <row r="282" spans="1:20" ht="105">
       <c r="A282" s="81" t="str">
         <f>A$281</f>
         <v>R&amp;D</v>
@@ -23795,7 +23800,7 @@
       </c>
       <c r="T282" s="79"/>
     </row>
-    <row r="283" spans="1:20" ht="101.5">
+    <row r="283" spans="1:20" ht="105">
       <c r="A283" s="81" t="str">
         <f t="shared" ref="A283:A288" si="61">A$281</f>
         <v>R&amp;D</v>
@@ -23860,7 +23865,7 @@
       </c>
       <c r="T283" s="79"/>
     </row>
-    <row r="284" spans="1:20" ht="101.5">
+    <row r="284" spans="1:20" ht="105">
       <c r="A284" s="81" t="str">
         <f t="shared" si="61"/>
         <v>R&amp;D</v>
@@ -23925,7 +23930,7 @@
       </c>
       <c r="T284" s="79"/>
     </row>
-    <row r="285" spans="1:20" ht="101.5">
+    <row r="285" spans="1:20" ht="105">
       <c r="A285" s="81" t="str">
         <f t="shared" si="61"/>
         <v>R&amp;D</v>
@@ -23990,7 +23995,7 @@
       </c>
       <c r="T285" s="79"/>
     </row>
-    <row r="286" spans="1:20" ht="101.5">
+    <row r="286" spans="1:20" ht="105">
       <c r="A286" s="81" t="str">
         <f t="shared" si="61"/>
         <v>R&amp;D</v>
@@ -24055,7 +24060,7 @@
       </c>
       <c r="T286" s="79"/>
     </row>
-    <row r="287" spans="1:20" ht="101.5">
+    <row r="287" spans="1:20" ht="105">
       <c r="A287" s="81" t="str">
         <f t="shared" si="61"/>
         <v>R&amp;D</v>
@@ -24120,7 +24125,7 @@
       </c>
       <c r="T287" s="79"/>
     </row>
-    <row r="288" spans="1:20" ht="101.5">
+    <row r="288" spans="1:20" ht="105">
       <c r="A288" s="81" t="str">
         <f t="shared" si="61"/>
         <v>R&amp;D</v>
@@ -24185,7 +24190,7 @@
       </c>
       <c r="T288" s="79"/>
     </row>
-    <row r="289" spans="1:20" ht="101.5">
+    <row r="289" spans="1:20" ht="105">
       <c r="A289" s="70" t="s">
         <v>33</v>
       </c>
@@ -24243,7 +24248,7 @@
       </c>
       <c r="T289" s="79"/>
     </row>
-    <row r="290" spans="1:20" ht="101.5">
+    <row r="290" spans="1:20" ht="105">
       <c r="A290" s="81" t="str">
         <f>A$289</f>
         <v>R&amp;D</v>
@@ -24308,7 +24313,7 @@
       </c>
       <c r="T290" s="79"/>
     </row>
-    <row r="291" spans="1:20" ht="101.5">
+    <row r="291" spans="1:20" ht="120">
       <c r="A291" s="81" t="str">
         <f>A$289</f>
         <v>R&amp;D</v>
@@ -24373,7 +24378,7 @@
       </c>
       <c r="T291" s="79"/>
     </row>
-    <row r="292" spans="1:20" ht="101.5">
+    <row r="292" spans="1:20" ht="120">
       <c r="A292" s="81" t="str">
         <f>A$289</f>
         <v>R&amp;D</v>
@@ -24438,7 +24443,7 @@
       </c>
       <c r="T292" s="79"/>
     </row>
-    <row r="293" spans="1:20" ht="101.5">
+    <row r="293" spans="1:20" ht="105">
       <c r="A293" s="81" t="str">
         <f>A$289</f>
         <v>R&amp;D</v>
@@ -24503,7 +24508,7 @@
       </c>
       <c r="T293" s="79"/>
     </row>
-    <row r="294" spans="1:20" ht="101.5">
+    <row r="294" spans="1:20" ht="105">
       <c r="A294" s="81" t="str">
         <f>A$289</f>
         <v>R&amp;D</v>
@@ -24568,7 +24573,7 @@
       </c>
       <c r="T294" s="79"/>
     </row>
-    <row r="295" spans="1:20" ht="101.5">
+    <row r="295" spans="1:20" ht="105">
       <c r="A295" s="159" t="s">
         <v>33</v>
       </c>
@@ -24624,7 +24629,7 @@
       </c>
       <c r="T295" s="79"/>
     </row>
-    <row r="296" spans="1:20" ht="101.5">
+    <row r="296" spans="1:20" ht="105">
       <c r="A296" s="81" t="str">
         <f>A$295</f>
         <v>R&amp;D</v>
@@ -24689,7 +24694,7 @@
       </c>
       <c r="T296" s="79"/>
     </row>
-    <row r="297" spans="1:20" ht="29">
+    <row r="297" spans="1:20" ht="30">
       <c r="A297" s="81" t="str">
         <f>A$295</f>
         <v>R&amp;D</v>
@@ -24732,7 +24737,7 @@
       <c r="S297" s="79"/>
       <c r="T297" s="79"/>
     </row>
-    <row r="298" spans="1:20" ht="101.5">
+    <row r="298" spans="1:20" ht="105">
       <c r="A298" s="81" t="str">
         <f>A$295</f>
         <v>R&amp;D</v>
@@ -24797,7 +24802,7 @@
       </c>
       <c r="T298" s="79"/>
     </row>
-    <row r="299" spans="1:20" ht="101.5">
+    <row r="299" spans="1:20" ht="105">
       <c r="A299" s="81" t="str">
         <f>A$295</f>
         <v>R&amp;D</v>
@@ -24862,7 +24867,7 @@
       </c>
       <c r="T299" s="79"/>
     </row>
-    <row r="300" spans="1:20" ht="101.5">
+    <row r="300" spans="1:20" ht="105">
       <c r="A300" s="81" t="str">
         <f>A$295</f>
         <v>R&amp;D</v>
@@ -24927,7 +24932,7 @@
       </c>
       <c r="T300" s="79"/>
     </row>
-    <row r="301" spans="1:20" ht="101.5">
+    <row r="301" spans="1:20" ht="105">
       <c r="A301" s="79" t="s">
         <v>33</v>
       </c>
@@ -24983,7 +24988,7 @@
       </c>
       <c r="T301" s="79"/>
     </row>
-    <row r="302" spans="1:20" ht="101.5">
+    <row r="302" spans="1:20" ht="105">
       <c r="A302" s="79" t="s">
         <v>33</v>
       </c>
@@ -25041,7 +25046,7 @@
       </c>
       <c r="T302" s="79"/>
     </row>
-    <row r="303" spans="1:20" ht="101.5">
+    <row r="303" spans="1:20" ht="105">
       <c r="A303" s="81" t="str">
         <f>A$302</f>
         <v>R&amp;D</v>
@@ -25106,7 +25111,7 @@
       </c>
       <c r="T303" s="79"/>
     </row>
-    <row r="304" spans="1:20" ht="101.5">
+    <row r="304" spans="1:20" ht="105">
       <c r="A304" s="81" t="str">
         <f t="shared" ref="A304:C312" si="68">A$302</f>
         <v>R&amp;D</v>
@@ -25171,7 +25176,7 @@
       </c>
       <c r="T304" s="79"/>
     </row>
-    <row r="305" spans="1:20" ht="29">
+    <row r="305" spans="1:20" ht="45">
       <c r="A305" s="81" t="str">
         <f t="shared" si="68"/>
         <v>R&amp;D</v>
@@ -25216,7 +25221,7 @@
       <c r="S305" s="79"/>
       <c r="T305" s="79"/>
     </row>
-    <row r="306" spans="1:20" ht="29">
+    <row r="306" spans="1:20" ht="45">
       <c r="A306" s="81" t="str">
         <f t="shared" si="68"/>
         <v>R&amp;D</v>
@@ -25261,7 +25266,7 @@
       <c r="S306" s="79"/>
       <c r="T306" s="79"/>
     </row>
-    <row r="307" spans="1:20" ht="29">
+    <row r="307" spans="1:20" ht="45">
       <c r="A307" s="81" t="str">
         <f t="shared" si="68"/>
         <v>R&amp;D</v>
@@ -25306,7 +25311,7 @@
       <c r="S307" s="79"/>
       <c r="T307" s="79"/>
     </row>
-    <row r="308" spans="1:20" ht="29">
+    <row r="308" spans="1:20" ht="45">
       <c r="A308" s="81" t="str">
         <f t="shared" si="68"/>
         <v>R&amp;D</v>
@@ -25351,7 +25356,7 @@
       <c r="S308" s="79"/>
       <c r="T308" s="79"/>
     </row>
-    <row r="309" spans="1:20" ht="101.5">
+    <row r="309" spans="1:20" ht="105">
       <c r="A309" s="81" t="str">
         <f t="shared" si="68"/>
         <v>R&amp;D</v>
@@ -25416,7 +25421,7 @@
       </c>
       <c r="T309" s="79"/>
     </row>
-    <row r="310" spans="1:20" ht="101.5">
+    <row r="310" spans="1:20" ht="105">
       <c r="A310" s="81" t="str">
         <f>A$302</f>
         <v>R&amp;D</v>
@@ -25481,7 +25486,7 @@
       </c>
       <c r="T310" s="79"/>
     </row>
-    <row r="311" spans="1:20" ht="101.5">
+    <row r="311" spans="1:20" ht="105">
       <c r="A311" s="81" t="str">
         <f t="shared" si="68"/>
         <v>R&amp;D</v>
@@ -25546,7 +25551,7 @@
       </c>
       <c r="T311" s="79"/>
     </row>
-    <row r="312" spans="1:20" ht="29">
+    <row r="312" spans="1:20" ht="45">
       <c r="A312" s="81" t="str">
         <f t="shared" si="68"/>
         <v>R&amp;D</v>
@@ -25589,7 +25594,7 @@
       <c r="S312" s="79"/>
       <c r="T312" s="79"/>
     </row>
-    <row r="313" spans="1:20" ht="101.5">
+    <row r="313" spans="1:20" ht="105">
       <c r="A313" s="79" t="s">
         <v>33</v>
       </c>
@@ -25647,7 +25652,7 @@
       </c>
       <c r="T313" s="79"/>
     </row>
-    <row r="314" spans="1:20" ht="101.5">
+    <row r="314" spans="1:20" ht="120">
       <c r="A314" s="81" t="str">
         <f>A$313</f>
         <v>R&amp;D</v>
@@ -25712,7 +25717,7 @@
       </c>
       <c r="T314" s="79"/>
     </row>
-    <row r="315" spans="1:20" ht="101.5">
+    <row r="315" spans="1:20" ht="105">
       <c r="A315" s="81" t="str">
         <f t="shared" ref="A315:A320" si="71">A$313</f>
         <v>R&amp;D</v>
@@ -25777,7 +25782,7 @@
       </c>
       <c r="T315" s="79"/>
     </row>
-    <row r="316" spans="1:20" ht="101.5">
+    <row r="316" spans="1:20" ht="105">
       <c r="A316" s="81" t="str">
         <f t="shared" si="71"/>
         <v>R&amp;D</v>
@@ -25842,7 +25847,7 @@
       </c>
       <c r="T316" s="79"/>
     </row>
-    <row r="317" spans="1:20" ht="101.5">
+    <row r="317" spans="1:20" ht="105">
       <c r="A317" s="81" t="str">
         <f t="shared" si="71"/>
         <v>R&amp;D</v>
@@ -25907,7 +25912,7 @@
       </c>
       <c r="T317" s="79"/>
     </row>
-    <row r="318" spans="1:20" ht="101.5">
+    <row r="318" spans="1:20" ht="105">
       <c r="A318" s="81" t="str">
         <f t="shared" si="71"/>
         <v>R&amp;D</v>
@@ -25972,7 +25977,7 @@
       </c>
       <c r="T318" s="79"/>
     </row>
-    <row r="319" spans="1:20" ht="101.5">
+    <row r="319" spans="1:20" ht="105">
       <c r="A319" s="81" t="str">
         <f t="shared" si="71"/>
         <v>R&amp;D</v>
@@ -26037,7 +26042,7 @@
       </c>
       <c r="T319" s="79"/>
     </row>
-    <row r="320" spans="1:20" ht="101.5">
+    <row r="320" spans="1:20" ht="105">
       <c r="A320" s="81" t="str">
         <f t="shared" si="71"/>
         <v>R&amp;D</v>
@@ -26102,7 +26107,7 @@
       </c>
       <c r="T320" s="79"/>
     </row>
-    <row r="321" spans="1:20" ht="101.5">
+    <row r="321" spans="1:20" ht="105">
       <c r="A321" s="79" t="s">
         <v>33</v>
       </c>
@@ -26160,7 +26165,7 @@
       </c>
       <c r="T321" s="79"/>
     </row>
-    <row r="322" spans="1:20" ht="101.5">
+    <row r="322" spans="1:20" ht="105">
       <c r="A322" s="81" t="str">
         <f>A$321</f>
         <v>R&amp;D</v>
@@ -26225,7 +26230,7 @@
       </c>
       <c r="T322" s="79"/>
     </row>
-    <row r="323" spans="1:20" ht="101.5">
+    <row r="323" spans="1:20" ht="120">
       <c r="A323" s="81" t="str">
         <f>A$321</f>
         <v>R&amp;D</v>
@@ -26290,7 +26295,7 @@
       </c>
       <c r="T323" s="79"/>
     </row>
-    <row r="324" spans="1:20" ht="101.5">
+    <row r="324" spans="1:20" ht="120">
       <c r="A324" s="81" t="str">
         <f>A$321</f>
         <v>R&amp;D</v>
@@ -26355,7 +26360,7 @@
       </c>
       <c r="T324" s="79"/>
     </row>
-    <row r="325" spans="1:20" ht="101.5">
+    <row r="325" spans="1:20" ht="105">
       <c r="A325" s="81" t="str">
         <f>A$321</f>
         <v>R&amp;D</v>
@@ -26420,7 +26425,7 @@
       </c>
       <c r="T325" s="79"/>
     </row>
-    <row r="326" spans="1:20" ht="101.5">
+    <row r="326" spans="1:20" ht="105">
       <c r="A326" s="81" t="str">
         <f>A$321</f>
         <v>R&amp;D</v>
@@ -26603,20 +26608,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.26953125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="27.54296875" style="44" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="44" customWidth="1"/>
-    <col min="5" max="5" width="30.1796875" style="44" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" style="44" customWidth="1"/>
     <col min="6" max="6" width="95" style="44" customWidth="1"/>
-    <col min="7" max="7" width="37.453125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="34.26953125" style="44" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="44"/>
+    <col min="7" max="7" width="37.42578125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" style="44" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="49" customFormat="1" ht="29">
+    <row r="1" spans="1:8" s="49" customFormat="1" ht="30">
       <c r="A1" s="46" t="s">
         <v>810</v>
       </c>
@@ -26683,7 +26688,7 @@
       </c>
       <c r="H3" s="50"/>
     </row>
-    <row r="4" spans="1:8" ht="58">
+    <row r="4" spans="1:8" ht="60">
       <c r="A4" s="52" t="s">
         <v>845</v>
       </c>
@@ -26709,7 +26714,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="52" t="s">
         <v>845</v>
       </c>
@@ -26735,7 +26740,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29">
+    <row r="6" spans="1:8" ht="30">
       <c r="A6" s="52" t="s">
         <v>845</v>
       </c>
@@ -27013,7 +27018,7 @@
       </c>
       <c r="H18" s="50"/>
     </row>
-    <row r="19" spans="1:8" ht="58">
+    <row r="19" spans="1:8" ht="60">
       <c r="A19" s="51" t="s">
         <v>852</v>
       </c>
@@ -27039,7 +27044,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="72.5">
+    <row r="20" spans="1:8" ht="90">
       <c r="A20" s="51" t="s">
         <v>852</v>
       </c>
@@ -27065,7 +27070,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="29">
+    <row r="21" spans="1:8" ht="30">
       <c r="A21" s="51" t="s">
         <v>852</v>
       </c>
@@ -27110,7 +27115,7 @@
       </c>
       <c r="H22" s="50"/>
     </row>
-    <row r="23" spans="1:8" ht="43.5">
+    <row r="23" spans="1:8" ht="45">
       <c r="A23" s="51" t="s">
         <v>455</v>
       </c>
@@ -27131,7 +27136,7 @@
       </c>
       <c r="H23" s="50"/>
     </row>
-    <row r="24" spans="1:8" ht="43.5">
+    <row r="24" spans="1:8" ht="45">
       <c r="A24" s="51" t="s">
         <v>455</v>
       </c>
@@ -27152,7 +27157,7 @@
       </c>
       <c r="H24" s="50"/>
     </row>
-    <row r="25" spans="1:8" ht="43.5">
+    <row r="25" spans="1:8" ht="45">
       <c r="A25" s="51" t="s">
         <v>455</v>
       </c>
@@ -27173,7 +27178,7 @@
       </c>
       <c r="H25" s="50"/>
     </row>
-    <row r="26" spans="1:8" ht="43.5">
+    <row r="26" spans="1:8" ht="45">
       <c r="A26" s="51" t="s">
         <v>455</v>
       </c>
@@ -27236,7 +27241,7 @@
       </c>
       <c r="H28" s="50"/>
     </row>
-    <row r="29" spans="1:8" ht="29">
+    <row r="29" spans="1:8" ht="30">
       <c r="A29" s="51" t="s">
         <v>857</v>
       </c>
@@ -27257,7 +27262,7 @@
       </c>
       <c r="H29" s="50"/>
     </row>
-    <row r="30" spans="1:8" ht="29">
+    <row r="30" spans="1:8" ht="30">
       <c r="A30" s="51" t="s">
         <v>857</v>
       </c>
@@ -27278,7 +27283,7 @@
       </c>
       <c r="H30" s="50"/>
     </row>
-    <row r="31" spans="1:8" ht="72.5">
+    <row r="31" spans="1:8" ht="90">
       <c r="A31" s="51" t="s">
         <v>857</v>
       </c>
@@ -27304,7 +27309,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="29">
+    <row r="32" spans="1:8" ht="30">
       <c r="A32" s="51" t="s">
         <v>863</v>
       </c>
@@ -27325,7 +27330,7 @@
       </c>
       <c r="H32" s="50"/>
     </row>
-    <row r="33" spans="1:8" ht="29">
+    <row r="33" spans="1:8" ht="30">
       <c r="A33" s="51" t="s">
         <v>863</v>
       </c>
@@ -27346,7 +27351,7 @@
       </c>
       <c r="H33" s="50"/>
     </row>
-    <row r="34" spans="1:8" ht="116">
+    <row r="34" spans="1:8" ht="135">
       <c r="A34" s="51" t="s">
         <v>866</v>
       </c>
@@ -27372,7 +27377,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="130.5">
+    <row r="35" spans="1:8" ht="150">
       <c r="A35" s="51" t="s">
         <v>866</v>
       </c>
@@ -27398,7 +27403,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="116">
+    <row r="36" spans="1:8" ht="120">
       <c r="A36" s="51" t="s">
         <v>866</v>
       </c>
@@ -27424,7 +27429,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="130.5">
+    <row r="37" spans="1:8" ht="150">
       <c r="A37" s="51" t="s">
         <v>866</v>
       </c>
@@ -27450,7 +27455,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="101.5">
+    <row r="38" spans="1:8" ht="120">
       <c r="A38" s="51" t="s">
         <v>871</v>
       </c>
@@ -27476,7 +27481,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="29">
+    <row r="39" spans="1:8" ht="30">
       <c r="A39" s="51" t="s">
         <v>871</v>
       </c>
@@ -27502,7 +27507,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="43.5">
+    <row r="40" spans="1:8" ht="45">
       <c r="A40" s="51" t="s">
         <v>874</v>
       </c>
@@ -27528,7 +27533,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="43.5">
+    <row r="41" spans="1:8" ht="45">
       <c r="A41" s="51" t="s">
         <v>874</v>
       </c>
@@ -27554,7 +27559,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="58">
+    <row r="42" spans="1:8" ht="60">
       <c r="A42" s="51" t="s">
         <v>877</v>
       </c>
@@ -27580,7 +27585,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="43.5">
+    <row r="43" spans="1:8" ht="60">
       <c r="A43" s="51" t="s">
         <v>877</v>
       </c>
@@ -27606,7 +27611,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="29">
+    <row r="44" spans="1:8" ht="45">
       <c r="A44" s="51" t="s">
         <v>877</v>
       </c>
@@ -27632,7 +27637,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="43.5">
+    <row r="45" spans="1:8" ht="45">
       <c r="A45" s="51" t="s">
         <v>877</v>
       </c>
@@ -27658,7 +27663,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="43.5">
+    <row r="46" spans="1:8" ht="45">
       <c r="A46" s="51" t="s">
         <v>877</v>
       </c>
@@ -27684,7 +27689,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="105" customFormat="1" ht="58">
+    <row r="47" spans="1:8" s="105" customFormat="1" ht="75">
       <c r="A47" s="54" t="s">
         <v>877</v>
       </c>
@@ -27710,7 +27715,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="58">
+    <row r="48" spans="1:8" ht="60">
       <c r="A48" s="53" t="s">
         <v>882</v>
       </c>
@@ -27736,7 +27741,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="43.5">
+    <row r="49" spans="1:8" ht="45">
       <c r="A49" s="53" t="s">
         <v>882</v>
       </c>
@@ -27762,7 +27767,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="29">
+    <row r="50" spans="1:8" ht="30">
       <c r="A50" s="53" t="s">
         <v>882</v>
       </c>
@@ -27788,7 +27793,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="29">
+    <row r="51" spans="1:8" ht="45">
       <c r="A51" s="53" t="s">
         <v>882</v>
       </c>
@@ -27814,7 +27819,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="43.5">
+    <row r="52" spans="1:8" ht="45">
       <c r="A52" s="53" t="s">
         <v>882</v>
       </c>
@@ -27840,7 +27845,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="105" customFormat="1" ht="58">
+    <row r="53" spans="1:8" s="105" customFormat="1" ht="60">
       <c r="A53" s="58" t="s">
         <v>882</v>
       </c>
@@ -27866,7 +27871,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="145">
+    <row r="54" spans="1:8" ht="165">
       <c r="A54" s="51" t="s">
         <v>903</v>
       </c>
@@ -27892,7 +27897,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="72.5">
+    <row r="55" spans="1:8" ht="75">
       <c r="A55" s="51" t="s">
         <v>903</v>
       </c>
@@ -27918,7 +27923,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="72.5">
+    <row r="56" spans="1:8" ht="75">
       <c r="A56" s="53" t="s">
         <v>885</v>
       </c>
@@ -27944,7 +27949,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="43.5">
+    <row r="57" spans="1:8" ht="45">
       <c r="A57" s="53" t="s">
         <v>885</v>
       </c>
@@ -27970,7 +27975,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="72.5">
+    <row r="58" spans="1:8" ht="90">
       <c r="A58" s="53" t="s">
         <v>888</v>
       </c>
@@ -27996,7 +28001,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="29">
+    <row r="59" spans="1:8" ht="45">
       <c r="A59" s="53" t="s">
         <v>888</v>
       </c>
@@ -28022,7 +28027,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="43.5">
+    <row r="60" spans="1:8" ht="60">
       <c r="A60" s="53" t="s">
         <v>889</v>
       </c>
@@ -28048,7 +28053,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="29">
+    <row r="61" spans="1:8" ht="30">
       <c r="A61" s="53" t="s">
         <v>889</v>
       </c>
@@ -28074,7 +28079,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="58">
+    <row r="62" spans="1:8" ht="60">
       <c r="A62" s="53" t="s">
         <v>889</v>
       </c>
@@ -28100,7 +28105,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="87">
+    <row r="63" spans="1:8" ht="90">
       <c r="A63" s="51" t="s">
         <v>893</v>
       </c>
@@ -28126,7 +28131,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="43.5">
+    <row r="64" spans="1:8" ht="45">
       <c r="A64" s="51" t="s">
         <v>893</v>
       </c>
@@ -28299,7 +28304,7 @@
       </c>
       <c r="H71" s="50"/>
     </row>
-    <row r="72" spans="1:8" ht="43.5">
+    <row r="72" spans="1:8" ht="60">
       <c r="A72" s="53" t="s">
         <v>896</v>
       </c>
@@ -28325,7 +28330,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="43.5">
+    <row r="73" spans="1:8" ht="45">
       <c r="A73" s="53" t="s">
         <v>896</v>
       </c>
@@ -28377,7 +28382,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="72.5">
+    <row r="75" spans="1:8" ht="75">
       <c r="A75" s="53" t="s">
         <v>896</v>
       </c>
@@ -28429,7 +28434,7 @@
         <v>969696</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="72.5">
+    <row r="77" spans="1:8" ht="90">
       <c r="A77" s="53" t="s">
         <v>896</v>
       </c>
@@ -28455,7 +28460,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="58">
+    <row r="78" spans="1:8" ht="75">
       <c r="A78" s="53" t="s">
         <v>896</v>
       </c>
@@ -28502,7 +28507,7 @@
       </c>
       <c r="H79" s="50"/>
     </row>
-    <row r="80" spans="1:8" ht="29">
+    <row r="80" spans="1:8" ht="30">
       <c r="A80" s="53" t="s">
         <v>897</v>
       </c>
@@ -28603,11 +28608,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.1796875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.81640625" style="2"/>
+    <col min="2" max="2" width="34.140625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -28654,20 +28659,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="66.81640625" style="59" customWidth="1"/>
-    <col min="2" max="3" width="14.26953125" style="59" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="73.453125" style="59" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" style="59" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="66.85546875" style="59" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="59" customWidth="1"/>
+    <col min="5" max="5" width="73.42578125" style="59" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="59" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="59" customWidth="1"/>
     <col min="8" max="10" width="11" style="59" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="59" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.453125" style="59"/>
+    <col min="12" max="16384" width="11.42578125" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.5">
+    <row r="1" spans="1:5" ht="45">
       <c r="A1" s="60" t="s">
         <v>418</v>
       </c>
@@ -28684,7 +28689,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5">
+    <row r="2" spans="1:5" ht="45">
       <c r="A2" s="63" t="s">
         <v>984</v>
       </c>
@@ -29183,7 +29188,7 @@
       <c r="D58" s="66"/>
       <c r="E58" s="64"/>
     </row>
-    <row r="59" spans="1:5" ht="29">
+    <row r="59" spans="1:5" ht="30">
       <c r="A59" s="152" t="s">
         <v>1025</v>
       </c>
@@ -29359,7 +29364,7 @@
       <c r="D72" s="66"/>
       <c r="E72" s="64"/>
     </row>
-    <row r="74" spans="1:7" ht="15.5">
+    <row r="74" spans="1:7" ht="15.75">
       <c r="A74" s="190" t="s">
         <v>1028</v>
       </c>
@@ -29369,7 +29374,7 @@
       <c r="E74" s="191"/>
       <c r="F74" s="191"/>
     </row>
-    <row r="75" spans="1:7" ht="28">
+    <row r="75" spans="1:7" ht="34.5">
       <c r="A75" s="111"/>
       <c r="B75" s="112" t="s">
         <v>1029</v>
@@ -29388,7 +29393,7 @@
       </c>
       <c r="G75" s="189"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" ht="17.25">
       <c r="A76" s="169" t="s">
         <v>1034</v>
       </c>
@@ -29408,7 +29413,7 @@
         <v>1727706.1</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" ht="17.25">
       <c r="A77" s="164" t="s">
         <v>1035</v>
       </c>
@@ -29426,7 +29431,7 @@
         <v>1100056.8899999999</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" ht="17.25">
       <c r="A78" s="163" t="s">
         <v>1036</v>
       </c>
@@ -29444,7 +29449,7 @@
         <v>719305.34</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" ht="17.25">
       <c r="A79" s="163" t="s">
         <v>1037</v>
       </c>
@@ -29462,7 +29467,7 @@
         <v>33845.32</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" ht="17.25">
       <c r="A80" s="163" t="s">
         <v>1038</v>
       </c>
@@ -29552,7 +29557,7 @@
         <v>1431.13</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" ht="17.25">
       <c r="A85" s="163" t="s">
         <v>1043</v>
       </c>
@@ -29570,7 +29575,7 @@
         <v>137838.49</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" ht="17.25">
       <c r="A86" s="163" t="s">
         <v>1044</v>
       </c>
@@ -29588,7 +29593,7 @@
         <v>1673.18</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" ht="17.25">
       <c r="A87" s="163" t="s">
         <v>1045</v>
       </c>
@@ -29606,7 +29611,7 @@
         <v>33658.699999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" ht="17.25">
       <c r="A88" s="163" t="s">
         <v>1046</v>
       </c>
@@ -29620,7 +29625,7 @@
         <v>31697.3</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" ht="17.25">
       <c r="A89" s="164" t="s">
         <v>1047</v>
       </c>
@@ -29639,7 +29644,7 @@
       </c>
       <c r="G89" s="189"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" ht="17.25">
       <c r="A90" s="167" t="s">
         <v>1048</v>
       </c>
@@ -29657,7 +29662,7 @@
         <v>130933.27</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" ht="17.25">
       <c r="A91" s="163" t="s">
         <v>1049</v>
       </c>
@@ -29671,7 +29676,7 @@
         <v>129920</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" ht="17.25">
       <c r="A92" s="163" t="s">
         <v>1050</v>
       </c>
@@ -29689,7 +29694,7 @@
         <v>427.14</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" ht="17.25">
       <c r="A93" s="163" t="s">
         <v>1051</v>
       </c>
@@ -29703,7 +29708,7 @@
         <v>586.12</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" ht="17.25">
       <c r="A94" s="167" t="s">
         <v>1052</v>
       </c>
@@ -29721,7 +29726,7 @@
         <v>33496.42</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" ht="17.25">
       <c r="A95" s="163" t="s">
         <v>1053</v>
       </c>
@@ -29735,7 +29740,7 @@
         <v>10056.43</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" ht="17.25">
       <c r="A96" s="163" t="s">
         <v>1054</v>
       </c>
@@ -29749,7 +29754,7 @@
         <v>4975.5</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" ht="17.25">
       <c r="A97" s="163" t="s">
         <v>1055</v>
       </c>
@@ -29763,7 +29768,7 @@
         <v>119.58</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" ht="17.25">
       <c r="A98" s="163" t="s">
         <v>1056</v>
       </c>
@@ -29777,7 +29782,7 @@
         <v>88.04</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" ht="17.25">
       <c r="A99" s="163" t="s">
         <v>1057</v>
       </c>
@@ -29793,7 +29798,7 @@
         <v>285.37</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" ht="17.25">
       <c r="A100" s="163" t="s">
         <v>1058</v>
       </c>
@@ -29809,7 +29814,7 @@
         <v>7270.64</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" ht="17.25">
       <c r="A101" s="163" t="s">
         <v>1059</v>
       </c>
@@ -29823,7 +29828,7 @@
         <v>198.91</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" ht="17.25">
       <c r="A102" s="163" t="s">
         <v>1060</v>
       </c>
@@ -29839,7 +29844,7 @@
         <v>97.71</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" ht="17.25">
       <c r="A103" s="163" t="s">
         <v>1061</v>
       </c>
@@ -29855,7 +29860,7 @@
         <v>37.979999999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" ht="17.25">
       <c r="A104" s="163" t="s">
         <v>1062</v>
       </c>
@@ -29871,7 +29876,7 @@
         <v>1156.07</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" ht="17.25">
       <c r="A105" s="163" t="s">
         <v>1063</v>
       </c>
@@ -29885,7 +29890,7 @@
         <v>336.22</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" ht="17.25">
       <c r="A106" s="163" t="s">
         <v>1064</v>
       </c>
@@ -29903,7 +29908,7 @@
         <v>8873.9699999999993</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" ht="17.25">
       <c r="A107" s="167" t="s">
         <v>1065</v>
       </c>
@@ -29921,7 +29926,7 @@
         <v>122736.91</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" ht="17.25">
       <c r="A108" s="163" t="s">
         <v>1066</v>
       </c>
@@ -29939,7 +29944,7 @@
         <v>117315.63</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" ht="17.25">
       <c r="A109" s="163" t="s">
         <v>1067</v>
       </c>
@@ -29955,7 +29960,7 @@
         <v>2462.29</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" ht="17.25">
       <c r="A110" s="163" t="s">
         <v>1068</v>
       </c>
@@ -29973,7 +29978,7 @@
         <v>2729.91</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" ht="17.25">
       <c r="A111" s="163" t="s">
         <v>1069</v>
       </c>
@@ -29991,7 +29996,7 @@
         <v>86.38</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" ht="17.25">
       <c r="A112" s="163" t="s">
         <v>1070</v>
       </c>
@@ -30009,7 +30014,7 @@
         <v>77.989999999999995</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" ht="17.25">
       <c r="A113" s="163" t="s">
         <v>1071</v>
       </c>
@@ -30027,7 +30032,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" ht="17.25">
       <c r="A114" s="167" t="s">
         <v>1072</v>
       </c>
@@ -30045,7 +30050,7 @@
         <v>124530.44</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" ht="17.25">
       <c r="A115" s="163" t="s">
         <v>1073</v>
       </c>
@@ -30063,7 +30068,7 @@
         <v>5248.35</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" ht="17.25">
       <c r="A116" s="163" t="s">
         <v>1074</v>
       </c>
@@ -30081,7 +30086,7 @@
         <v>27717.25</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" ht="17.25">
       <c r="A117" s="163" t="s">
         <v>1075</v>
       </c>
@@ -30099,7 +30104,7 @@
         <v>1867.94</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" ht="17.25">
       <c r="A118" s="163" t="s">
         <v>1076</v>
       </c>
@@ -30117,7 +30122,7 @@
         <v>1464.62</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" ht="17.25">
       <c r="A119" s="163" t="s">
         <v>1077</v>
       </c>
@@ -30135,7 +30140,7 @@
         <v>88232.28</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" ht="17.25">
       <c r="A120" s="166" t="s">
         <v>1078</v>
       </c>
@@ -30149,7 +30154,7 @@
         <v>849.49</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" ht="17.25">
       <c r="A121" s="163" t="s">
         <v>1079</v>
       </c>
@@ -30163,7 +30168,7 @@
         <v>776.75</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" ht="17.25">
       <c r="A122" s="163" t="s">
         <v>1080</v>
       </c>
@@ -30177,7 +30182,7 @@
         <v>72.75</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" ht="17.25">
       <c r="A123" s="164" t="s">
         <v>1081</v>
       </c>
@@ -30193,7 +30198,7 @@
         <v>334405.5</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" ht="17.25">
       <c r="A124" s="163" t="s">
         <v>1082</v>
       </c>
@@ -30207,7 +30212,7 @@
         <v>212095.8</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" ht="17.25">
       <c r="A125" s="163" t="s">
         <v>1083</v>
       </c>
@@ -30223,7 +30228,7 @@
         <v>2436.6999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" ht="17.25">
       <c r="A126" s="163" t="s">
         <v>1084</v>
       </c>
@@ -30237,7 +30242,7 @@
         <v>69867</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" ht="17.25">
       <c r="A127" s="163" t="s">
         <v>1085</v>
       </c>
@@ -30251,7 +30256,7 @@
         <v>43400</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" ht="17.25">
       <c r="A128" s="163" t="s">
         <v>1086</v>
       </c>
@@ -30267,7 +30272,7 @@
         <v>6606</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" ht="17.25">
       <c r="A129" s="164" t="s">
         <v>1087</v>
       </c>
@@ -30283,7 +30288,7 @@
         <v>-177028</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" ht="17.25">
       <c r="A130" s="163" t="s">
         <v>1088</v>
       </c>
@@ -30297,7 +30302,7 @@
         <v>-67800</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" ht="17.25">
       <c r="A131" s="163" t="s">
         <v>1089</v>
       </c>
@@ -30311,7 +30316,7 @@
         <v>-207520</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" ht="17.25">
       <c r="A132" s="163" t="s">
         <v>1090</v>
       </c>
@@ -30325,7 +30330,7 @@
         <v>10490</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" ht="17.25">
       <c r="A133" s="163" t="s">
         <v>1091</v>
       </c>
@@ -30339,7 +30344,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" ht="17.25">
       <c r="A134" s="163" t="s">
         <v>1092</v>
       </c>
@@ -30353,7 +30358,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" ht="17.25">
       <c r="A135" s="163" t="s">
         <v>1094</v>
       </c>
@@ -30367,7 +30372,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" ht="17.25">
       <c r="A136" s="163" t="s">
         <v>1096</v>
       </c>
@@ -30381,7 +30386,7 @@
         <v>87840</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" ht="17.25">
       <c r="A137" s="164" t="s">
         <v>1097</v>
       </c>
@@ -30397,7 +30402,7 @@
         <v>57725.18</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" ht="17.25">
       <c r="A138" s="163" t="s">
         <v>1098</v>
       </c>
@@ -30411,7 +30416,7 @@
         <v>12694.71</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" ht="17.25">
       <c r="A139" s="163" t="s">
         <v>1099</v>
       </c>
@@ -30427,7 +30432,7 @@
         <v>22980.47</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" ht="17.25">
       <c r="A140" s="163" t="s">
         <v>1100</v>
       </c>
@@ -30441,7 +30446,7 @@
         <v>22050</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" ht="17.25">
       <c r="A141" s="164" t="s">
         <v>1101</v>
       </c>
@@ -30459,7 +30464,7 @@
         <v>3484.45</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" ht="17.25">
       <c r="A142" s="163" t="s">
         <v>1102</v>
       </c>
@@ -30477,7 +30482,7 @@
         <v>3355.31</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" ht="17.25">
       <c r="A143" s="163" t="s">
         <v>1103</v>
       </c>
@@ -30603,7 +30608,7 @@
       <c r="J152" s="190"/>
       <c r="K152" s="190"/>
     </row>
-    <row r="153" spans="1:11" ht="28">
+    <row r="153" spans="1:11" ht="30">
       <c r="A153" s="140"/>
       <c r="B153" s="140" t="s">
         <v>1110</v>
@@ -32587,7 +32592,7 @@
       <c r="J246" s="216"/>
       <c r="K246" s="217"/>
     </row>
-    <row r="248" spans="1:11" ht="29">
+    <row r="248" spans="1:11" ht="30">
       <c r="A248" s="64" t="s">
         <v>1215</v>
       </c>
@@ -32859,36 +32864,36 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="79.7265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="79.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="22" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.1796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.453125" style="2" customWidth="1"/>
-    <col min="11" max="16" width="9.1796875" style="2"/>
-    <col min="17" max="17" width="25.81640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="19.81640625" style="2" customWidth="1"/>
-    <col min="20" max="21" width="12.453125" style="2" customWidth="1"/>
-    <col min="22" max="23" width="16.26953125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1796875" style="2"/>
+    <col min="5" max="5" width="19.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="2" customWidth="1"/>
+    <col min="11" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="25.85546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" style="2" customWidth="1"/>
+    <col min="20" max="21" width="12.42578125" style="2" customWidth="1"/>
+    <col min="22" max="23" width="16.28515625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="222" t="s">
@@ -32943,12 +32948,12 @@
       <c r="D40" s="222"/>
       <c r="E40" s="222"/>
     </row>
-    <row r="57" spans="1:5" ht="15" thickBot="1">
+    <row r="57" spans="1:5" ht="15.75" thickBot="1">
       <c r="A57" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" thickBot="1">
+    <row r="58" spans="1:5" ht="15.75" thickBot="1">
       <c r="A58" s="3">
         <v>194000</v>
       </c>
@@ -32957,13 +32962,13 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="218" t="s">
+      <c r="A60" s="221" t="s">
         <v>196</v>
       </c>
-      <c r="B60" s="218"/>
-      <c r="C60" s="218"/>
-      <c r="D60" s="218"/>
-      <c r="E60" s="218"/>
+      <c r="B60" s="221"/>
+      <c r="C60" s="221"/>
+      <c r="D60" s="221"/>
+      <c r="E60" s="221"/>
     </row>
     <row r="85" spans="1:39" s="4" customFormat="1">
       <c r="A85" s="2" t="s">
@@ -33057,8 +33062,8 @@
       <c r="AL86" s="2"/>
       <c r="AM86" s="2"/>
     </row>
-    <row r="87" spans="1:39" ht="15" thickBot="1"/>
-    <row r="88" spans="1:39" ht="15" thickBot="1">
+    <row r="87" spans="1:39" ht="15.75" thickBot="1"/>
+    <row r="88" spans="1:39" ht="15.75" thickBot="1">
       <c r="A88" s="5" t="s">
         <v>461</v>
       </c>
@@ -33068,13 +33073,13 @@
       </c>
     </row>
     <row r="89" spans="1:39">
-      <c r="A89" s="218" t="s">
+      <c r="A89" s="221" t="s">
         <v>197</v>
       </c>
-      <c r="B89" s="218"/>
-      <c r="C89" s="218"/>
-      <c r="D89" s="218"/>
-      <c r="E89" s="218"/>
+      <c r="B89" s="221"/>
+      <c r="C89" s="221"/>
+      <c r="D89" s="221"/>
+      <c r="E89" s="221"/>
     </row>
     <row r="90" spans="1:39">
       <c r="A90" s="2">
@@ -33135,7 +33140,7 @@
       </c>
       <c r="L94" s="7"/>
     </row>
-    <row r="95" spans="1:39" ht="15" thickBot="1">
+    <row r="95" spans="1:39" ht="15.75" thickBot="1">
       <c r="A95" s="2">
         <v>8.0274920000000005</v>
       </c>
@@ -33147,7 +33152,7 @@
       </c>
       <c r="L95" s="7"/>
     </row>
-    <row r="96" spans="1:39" ht="15" thickBot="1">
+    <row r="96" spans="1:39" ht="15.75" thickBot="1">
       <c r="A96" s="8">
         <f>(A94-A95)/A95</f>
         <v>0.65158059329115492</v>
@@ -33161,13 +33166,13 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="218" t="s">
+      <c r="A98" s="221" t="s">
         <v>198</v>
       </c>
-      <c r="B98" s="218"/>
-      <c r="C98" s="218"/>
-      <c r="D98" s="218"/>
-      <c r="E98" s="218"/>
+      <c r="B98" s="221"/>
+      <c r="C98" s="221"/>
+      <c r="D98" s="221"/>
+      <c r="E98" s="221"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="9">
@@ -33229,7 +33234,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15" thickBot="1">
+    <row r="106" spans="1:5" ht="15.75" thickBot="1">
       <c r="A106" s="2">
         <f>1/A105</f>
         <v>139.56043956043956</v>
@@ -33238,7 +33243,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15" thickBot="1">
+    <row r="107" spans="1:5" ht="15.75" thickBot="1">
       <c r="A107" s="11">
         <f>(A106-A103)/A103</f>
         <v>0.53846153846153832</v>
@@ -33251,16 +33256,16 @@
       <c r="A108" s="12"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="218" t="s">
+      <c r="A109" s="221" t="s">
         <v>200</v>
       </c>
-      <c r="B109" s="218"/>
-      <c r="C109" s="218"/>
-      <c r="D109" s="218"/>
-      <c r="E109" s="218"/>
-    </row>
-    <row r="110" spans="1:5" ht="15" thickBot="1"/>
-    <row r="111" spans="1:5" ht="15" thickBot="1">
+      <c r="B109" s="221"/>
+      <c r="C109" s="221"/>
+      <c r="D109" s="221"/>
+      <c r="E109" s="221"/>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="111" spans="1:5" ht="15.75" thickBot="1">
       <c r="A111" s="11">
         <f>A122</f>
         <v>0.20481927710843381</v>
@@ -33270,13 +33275,13 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="218" t="s">
+      <c r="A113" s="221" t="s">
         <v>199</v>
       </c>
-      <c r="B113" s="218"/>
-      <c r="C113" s="218"/>
-      <c r="D113" s="218"/>
-      <c r="E113" s="218"/>
+      <c r="B113" s="221"/>
+      <c r="C113" s="221"/>
+      <c r="D113" s="221"/>
+      <c r="E113" s="221"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="9">
@@ -33338,7 +33343,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="15" thickBot="1">
+    <row r="121" spans="1:14" ht="15.75" thickBot="1">
       <c r="A121" s="2">
         <f>1/A120</f>
         <v>2.9367469879518069</v>
@@ -33347,7 +33352,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="15" thickBot="1">
+    <row r="122" spans="1:14" ht="15.75" thickBot="1">
       <c r="A122" s="11">
         <f>(A121-A118)/A118</f>
         <v>0.20481927710843381</v>
@@ -33357,13 +33362,13 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="218" t="s">
+      <c r="A124" s="221" t="s">
         <v>485</v>
       </c>
-      <c r="B124" s="218"/>
-      <c r="C124" s="218"/>
-      <c r="D124" s="218"/>
-      <c r="E124" s="218"/>
+      <c r="B124" s="221"/>
+      <c r="C124" s="221"/>
+      <c r="D124" s="221"/>
+      <c r="E124" s="221"/>
       <c r="L124" s="13"/>
     </row>
     <row r="125" spans="1:14">
@@ -33423,7 +33428,7 @@
       <c r="M129" s="9"/>
       <c r="N129" s="7"/>
     </row>
-    <row r="130" spans="1:14" ht="15" thickBot="1">
+    <row r="130" spans="1:14" ht="15.75" thickBot="1">
       <c r="A130" s="2">
         <f>1/A129</f>
         <v>0.93457943925233644</v>
@@ -33435,7 +33440,7 @@
       <c r="M130" s="7"/>
       <c r="N130" s="7"/>
     </row>
-    <row r="131" spans="1:14" ht="15" thickBot="1">
+    <row r="131" spans="1:14" ht="15.75" thickBot="1">
       <c r="A131" s="11">
         <f>(A130-A128)/A128</f>
         <v>0.73592369435785332</v>
@@ -33445,7 +33450,7 @@
       </c>
       <c r="F131" s="16"/>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" ht="16.5">
       <c r="J132" s="18"/>
     </row>
     <row r="133" spans="1:14">
@@ -33454,13 +33459,13 @@
       <c r="C133" s="7"/>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="218" t="s">
+      <c r="A134" s="221" t="s">
         <v>118</v>
       </c>
-      <c r="B134" s="218"/>
-      <c r="C134" s="218"/>
-      <c r="D134" s="218"/>
-      <c r="E134" s="218"/>
+      <c r="B134" s="221"/>
+      <c r="C134" s="221"/>
+      <c r="D134" s="221"/>
+      <c r="E134" s="221"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="19" t="s">
@@ -33473,31 +33478,31 @@
       <c r="F135" s="20"/>
       <c r="G135" s="20"/>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" ht="15.75">
       <c r="A136" s="21"/>
-      <c r="B136" s="219" t="s">
+      <c r="B136" s="218" t="s">
         <v>505</v>
       </c>
-      <c r="C136" s="220"/>
-      <c r="D136" s="220"/>
-      <c r="E136" s="221"/>
+      <c r="C136" s="219"/>
+      <c r="D136" s="219"/>
+      <c r="E136" s="220"/>
       <c r="F136" s="20"/>
       <c r="G136" s="20"/>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" ht="15.75">
       <c r="A137" s="22"/>
-      <c r="B137" s="219" t="s">
+      <c r="B137" s="218" t="s">
         <v>506</v>
       </c>
-      <c r="C137" s="221"/>
-      <c r="D137" s="219" t="s">
+      <c r="C137" s="220"/>
+      <c r="D137" s="218" t="s">
         <v>507</v>
       </c>
-      <c r="E137" s="221"/>
+      <c r="E137" s="220"/>
       <c r="F137" s="20"/>
       <c r="G137" s="20"/>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" ht="15.75">
       <c r="A138" s="23" t="s">
         <v>508</v>
       </c>
@@ -34040,15 +34045,15 @@
       <c r="G163" s="20"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="218" t="s">
+      <c r="A165" s="221" t="s">
         <v>203</v>
       </c>
-      <c r="B165" s="218"/>
-      <c r="C165" s="218"/>
-      <c r="D165" s="218"/>
-      <c r="E165" s="218"/>
-    </row>
-    <row r="166" spans="1:7" ht="15" thickBot="1">
+      <c r="B165" s="221"/>
+      <c r="C165" s="221"/>
+      <c r="D165" s="221"/>
+      <c r="E165" s="221"/>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" thickBot="1">
       <c r="A166" s="15" t="s">
         <v>204</v>
       </c>
@@ -34056,7 +34061,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15" thickBot="1">
+    <row r="167" spans="1:7" ht="15.75" thickBot="1">
       <c r="A167" s="2" t="s">
         <v>205</v>
       </c>
@@ -34069,10 +34074,10 @@
       <c r="B168" s="38"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="218" t="s">
+      <c r="A169" s="221" t="s">
         <v>493</v>
       </c>
-      <c r="B169" s="218"/>
+      <c r="B169" s="221"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="15" t="s">
@@ -34082,7 +34087,7 @@
         <v>972.7</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15" thickBot="1">
+    <row r="171" spans="1:7" ht="15.75" thickBot="1">
       <c r="A171" s="15" t="s">
         <v>495</v>
       </c>
@@ -34091,7 +34096,7 @@
         <v>4124.8</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15" thickBot="1">
+    <row r="172" spans="1:7" ht="15.75" thickBot="1">
       <c r="A172" s="15" t="s">
         <v>496</v>
       </c>
@@ -34104,15 +34109,15 @@
       <c r="B173" s="38"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="218" t="s">
+      <c r="A174" s="221" t="s">
         <v>213</v>
       </c>
-      <c r="B174" s="218"/>
-      <c r="C174" s="218"/>
-      <c r="D174" s="218"/>
-      <c r="E174" s="218"/>
-    </row>
-    <row r="175" spans="1:7" ht="15" thickBot="1">
+      <c r="B174" s="221"/>
+      <c r="C174" s="221"/>
+      <c r="D174" s="221"/>
+      <c r="E174" s="221"/>
+    </row>
+    <row r="175" spans="1:7" ht="15.75" thickBot="1">
       <c r="A175" s="15" t="s">
         <v>503</v>
       </c>
@@ -34120,7 +34125,7 @@
         <v>0.1246</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15" thickBot="1">
+    <row r="176" spans="1:7" ht="15.75" thickBot="1">
       <c r="A176" s="15" t="s">
         <v>498</v>
       </c>
@@ -34130,13 +34135,13 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="218" t="s">
+      <c r="A178" s="221" t="s">
         <v>206</v>
       </c>
-      <c r="B178" s="218"/>
-      <c r="C178" s="218"/>
-      <c r="D178" s="218"/>
-      <c r="E178" s="218"/>
+      <c r="B178" s="221"/>
+      <c r="C178" s="221"/>
+      <c r="D178" s="221"/>
+      <c r="E178" s="221"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="17" t="s">
@@ -34146,7 +34151,7 @@
         <v>197000</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15" thickBot="1">
+    <row r="180" spans="1:5" ht="15.75" thickBot="1">
       <c r="A180" s="2" t="s">
         <v>501</v>
       </c>
@@ -34154,7 +34159,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15" thickBot="1">
+    <row r="181" spans="1:5" ht="15.75" thickBot="1">
       <c r="A181" s="2" t="s">
         <v>207</v>
       </c>
@@ -34164,13 +34169,13 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="218" t="s">
+      <c r="A183" s="221" t="s">
         <v>208</v>
       </c>
-      <c r="B183" s="218"/>
-      <c r="C183" s="218"/>
-      <c r="D183" s="218"/>
-      <c r="E183" s="218"/>
+      <c r="B183" s="221"/>
+      <c r="C183" s="221"/>
+      <c r="D183" s="221"/>
+      <c r="E183" s="221"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="15" t="s">
@@ -34206,7 +34211,7 @@
         <v>0.67139665221009714</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15" thickBot="1">
+    <row r="188" spans="1:5" ht="15.75" thickBot="1">
       <c r="A188" s="15" t="s">
         <v>640</v>
       </c>
@@ -34215,7 +34220,7 @@
         <v>0.44858421050781644</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15" thickBot="1">
+    <row r="189" spans="1:5" ht="15.75" thickBot="1">
       <c r="A189" s="15" t="s">
         <v>641</v>
       </c>
@@ -34225,13 +34230,13 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="218" t="s">
+      <c r="A191" s="221" t="s">
         <v>225</v>
       </c>
-      <c r="B191" s="218"/>
-      <c r="C191" s="218"/>
-      <c r="D191" s="218"/>
-      <c r="E191" s="218"/>
+      <c r="B191" s="221"/>
+      <c r="C191" s="221"/>
+      <c r="D191" s="221"/>
+      <c r="E191" s="221"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="13" t="s">
@@ -34271,7 +34276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15" thickBot="1">
+    <row r="196" spans="1:3" ht="15.75" thickBot="1">
       <c r="A196" s="2" t="s">
         <v>223</v>
       </c>
@@ -34280,7 +34285,7 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15" thickBot="1">
+    <row r="197" spans="1:3" ht="15.75" thickBot="1">
       <c r="A197" s="2" t="s">
         <v>224</v>
       </c>
@@ -34291,6 +34296,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -34305,12 +34316,6 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.4.2-india-v2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="18960" windowHeight="6210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="18960" windowHeight="6210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
@@ -22,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PolicyLevers!$A$1:$P$321</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -32,7 +27,7 @@
     <author>Jeffrey Rissman</author>
   </authors>
   <commentList>
-    <comment ref="K140" authorId="0" shapeId="0">
+    <comment ref="K140" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K142" authorId="0" shapeId="0">
+    <comment ref="K142" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3115,9 +3110,6 @@
   </si>
   <si>
     <t>969696, c01b00, 00b050</t>
-  </si>
-  <si>
-    <t>Output Change in Cash Flow for Specific Industries[biomass and biofuel suppliers]; Output Change in Cash Flow for Specific Industries[petroleum and natural gas suppliers]; Output Change in Cash Flow for Specific Industries[coal and mineral suppliers]; Output Change in Cash Flow for Specific Industries[electricity suppliers]; Output Change in Cash Flow for Specific Industries[capital equipment suppliers]; Output Change in Industry Cash Flow; Output Change in Consumer Cash Flow; Output Change in Government Cash Flow</t>
   </si>
   <si>
     <t>Biomass and Biofuel Suppliers, Petroleum and Natural Gas Suppliers, Coal and Mineral Suppliers, Electricity Suppliers, Capital Equipment Suppliers, Consumers, Other Industries, Government</t>
@@ -6166,11 +6158,14 @@
   <si>
     <t>Scenario_Post2030Policies.cin</t>
   </si>
+  <si>
+    <t>Output Change in Cash Flow for Specific Industries[biomass and biofuel suppliers]; Output Change in Cash Flow for Specific Industries[petroleum and natural gas suppliers]; Output Change in Cash Flow for Specific Industries[coal and mineral suppliers]; Output Change in Cash Flow for Specific Industries[electricity suppliers]; Output Change in Cash Flow for Specific Industries[capital equipment suppliers]; Output Change in Consumer Cash Flow; Output Change in Industry Cash Flow; Output Change in Government Cash Flow</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="13">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -7641,6 +7636,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -7649,9 +7647,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7882,7 +7877,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7943,7 +7938,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8004,7 +7999,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8065,7 +8060,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8472,7 +8467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T333"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -8566,10 +8561,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="62" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>1287</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>1288</v>
       </c>
       <c r="D2" s="62" t="s">
         <v>48</v>
@@ -8584,10 +8579,10 @@
         <v>54</v>
       </c>
       <c r="J2" s="62" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K2" s="62" t="s">
         <v>1289</v>
-      </c>
-      <c r="K2" s="62" t="s">
-        <v>1290</v>
       </c>
       <c r="L2" s="197">
         <v>0</v>
@@ -8599,16 +8594,16 @@
         <v>0.02</v>
       </c>
       <c r="O2" s="62" t="s">
+        <v>1290</v>
+      </c>
+      <c r="P2" s="79" t="s">
         <v>1291</v>
       </c>
-      <c r="P2" s="79" t="s">
+      <c r="Q2" s="100" t="s">
         <v>1292</v>
       </c>
-      <c r="Q2" s="100" t="s">
+      <c r="R2" s="198" t="s">
         <v>1293</v>
-      </c>
-      <c r="R2" s="198" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="62" customFormat="1" ht="75">
@@ -8661,7 +8656,7 @@
         <v>% reduction in emissions</v>
       </c>
       <c r="P3" s="79" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="Q3" s="65" t="str">
         <f t="shared" si="1"/>
@@ -8723,7 +8718,7 @@
         <v>% reduction in emissions</v>
       </c>
       <c r="P4" s="79" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="Q4" s="65" t="str">
         <f t="shared" si="1"/>
@@ -8785,7 +8780,7 @@
         <v>% reduction in emissions</v>
       </c>
       <c r="P5" s="79" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Q5" s="65" t="str">
         <f t="shared" si="1"/>
@@ -8847,7 +8842,7 @@
         <v>% reduction in emissions</v>
       </c>
       <c r="P6" s="79" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="Q6" s="65" t="str">
         <f t="shared" si="1"/>
@@ -8909,7 +8904,7 @@
         <v>% reduction in emissions</v>
       </c>
       <c r="P7" s="79" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="Q7" s="65" t="str">
         <f t="shared" si="1"/>
@@ -9018,7 +9013,7 @@
         <v>589</v>
       </c>
       <c r="P9" s="79" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="Q9" s="100" t="s">
         <v>590</v>
@@ -9027,7 +9022,7 @@
         <v>591</v>
       </c>
       <c r="S9" s="203" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="T9" s="70"/>
     </row>
@@ -9087,7 +9082,7 @@
         <v>% of new vehicles sold</v>
       </c>
       <c r="P10" s="79" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="Q10" s="87" t="str">
         <f t="shared" si="4"/>
@@ -9156,7 +9151,7 @@
         <v>% of new vehicles sold</v>
       </c>
       <c r="P11" s="79" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="Q11" s="87" t="str">
         <f t="shared" si="4"/>
@@ -9581,7 +9576,7 @@
         <v>% of new vehicles sold</v>
       </c>
       <c r="P19" s="79" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q19" s="87" t="str">
         <f t="shared" ref="Q19:R19" si="6">Q$9</f>
@@ -9691,7 +9686,7 @@
         <v>577</v>
       </c>
       <c r="P21" s="79" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="Q21" s="100" t="s">
         <v>578</v>
@@ -9700,7 +9695,7 @@
         <v>579</v>
       </c>
       <c r="S21" s="203" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="T21" s="70"/>
     </row>
@@ -10260,7 +10255,7 @@
         <v>550</v>
       </c>
       <c r="P33" s="79" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="Q33" s="79" t="s">
         <v>232</v>
@@ -10413,7 +10408,7 @@
         <v>131</v>
       </c>
       <c r="P36" s="79" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="Q36" s="79" t="s">
         <v>234</v>
@@ -10422,7 +10417,7 @@
         <v>235</v>
       </c>
       <c r="S36" s="195" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="T36" s="79" t="s">
         <v>462</v>
@@ -10484,7 +10479,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P37" s="79" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Q37" s="157" t="str">
         <f t="shared" si="11"/>
@@ -10787,7 +10782,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P43" s="79" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="Q43" s="81" t="str">
         <f>Q$36</f>
@@ -10798,7 +10793,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S43" s="195" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="T43" s="79" t="s">
         <v>473</v>
@@ -11185,7 +11180,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P51" s="79" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="Q51" s="81" t="str">
         <f>Q$36</f>
@@ -11489,7 +11484,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P57" s="79" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="Q57" s="81" t="str">
         <f>Q$36</f>
@@ -11766,7 +11761,7 @@
         <v>6</v>
       </c>
       <c r="I63" s="79" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J63" s="109" t="str">
         <f t="shared" si="10"/>
@@ -11793,7 +11788,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P63" s="79" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="Q63" s="81" t="str">
         <f>Q$36</f>
@@ -11956,7 +11951,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P66" s="79" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="Q66" s="81" t="str">
         <f>Q$36</f>
@@ -12153,7 +12148,7 @@
         <v>595</v>
       </c>
       <c r="P70" s="79" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="Q70" s="79" t="s">
         <v>596</v>
@@ -12331,7 +12326,7 @@
         <v>133</v>
       </c>
       <c r="P73" s="79" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="Q73" s="79" t="s">
         <v>238</v>
@@ -12394,7 +12389,7 @@
         <v>% of newly sold non-electric building components</v>
       </c>
       <c r="P74" s="79" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="Q74" s="84" t="str">
         <f t="shared" si="16"/>
@@ -12459,7 +12454,7 @@
         <v>% of newly sold non-electric building components</v>
       </c>
       <c r="P75" s="79" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="Q75" s="84" t="str">
         <f t="shared" si="16"/>
@@ -12527,7 +12522,7 @@
         <v>241</v>
       </c>
       <c r="S76" s="195" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="T76" s="79" t="s">
         <v>532</v>
@@ -12589,7 +12584,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P77" s="79" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="Q77" s="81" t="str">
         <f t="shared" si="18"/>
@@ -12667,7 +12662,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P78" s="79" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="Q78" s="81" t="str">
         <f t="shared" si="18"/>
@@ -12745,7 +12740,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P79" s="79" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="Q79" s="81" t="str">
         <f t="shared" si="18"/>
@@ -12823,7 +12818,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P80" s="79" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="Q80" s="81" t="str">
         <f t="shared" si="18"/>
@@ -12901,7 +12896,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P81" s="79" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="Q81" s="81" t="str">
         <f t="shared" si="18"/>
@@ -13055,7 +13050,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P83" s="79" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="Q83" s="81" t="str">
         <f t="shared" si="18"/>
@@ -13133,7 +13128,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P84" s="79" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="Q84" s="81" t="str">
         <f t="shared" si="18"/>
@@ -13211,7 +13206,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P85" s="79" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="Q85" s="81" t="str">
         <f t="shared" si="18"/>
@@ -13289,7 +13284,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P86" s="79" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="Q86" s="81" t="str">
         <f t="shared" si="18"/>
@@ -13367,7 +13362,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P87" s="79" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Q87" s="81" t="str">
         <f t="shared" si="18"/>
@@ -13521,7 +13516,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P89" s="79" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="Q89" s="81" t="str">
         <f t="shared" si="18"/>
@@ -13599,7 +13594,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P90" s="79" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="Q90" s="81" t="str">
         <f t="shared" si="18"/>
@@ -13677,7 +13672,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P91" s="79" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="Q91" s="81" t="str">
         <f t="shared" si="18"/>
@@ -13755,7 +13750,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P92" s="79" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="Q92" s="81" t="str">
         <f t="shared" si="18"/>
@@ -13833,7 +13828,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P93" s="79" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="Q93" s="81" t="str">
         <f t="shared" si="18"/>
@@ -13946,7 +13941,7 @@
         <v>318</v>
       </c>
       <c r="P95" s="79" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="Q95" s="79" t="s">
         <v>319</v>
@@ -14495,7 +14490,7 @@
         <v>36</v>
       </c>
       <c r="P104" s="79" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="Q104" s="79" t="s">
         <v>248</v>
@@ -14560,7 +14555,7 @@
         <v>on/off</v>
       </c>
       <c r="P105" s="79" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q105" s="79" t="s">
         <v>248</v>
@@ -14715,7 +14710,7 @@
         <v>on/off</v>
       </c>
       <c r="P108" s="79" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q108" s="79" t="s">
         <v>248</v>
@@ -15425,7 +15420,7 @@
         <v>330</v>
       </c>
       <c r="P122" s="79" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="Q122" s="79" t="s">
         <v>332</v>
@@ -15434,7 +15429,7 @@
         <v>334</v>
       </c>
       <c r="S122" s="155" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="T122" s="70"/>
     </row>
@@ -15477,7 +15472,7 @@
         <v>331</v>
       </c>
       <c r="P123" s="79" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="Q123" s="79" t="s">
         <v>333</v>
@@ -15486,7 +15481,7 @@
         <v>334</v>
       </c>
       <c r="S123" s="155" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="T123" s="70"/>
     </row>
@@ -15565,7 +15560,7 @@
         <v>42</v>
       </c>
       <c r="P125" s="79" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="Q125" s="79" t="s">
         <v>250</v>
@@ -15621,7 +15616,7 @@
         <v>228</v>
       </c>
       <c r="P126" s="79" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="Q126" s="79" t="s">
         <v>252</v>
@@ -15733,7 +15728,7 @@
         <v>MW/year</v>
       </c>
       <c r="P128" s="79" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="Q128" s="79" t="s">
         <v>252</v>
@@ -16182,7 +16177,7 @@
         <v>37</v>
       </c>
       <c r="P138" s="79" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="Q138" s="79" t="s">
         <v>254</v>
@@ -16237,7 +16232,7 @@
         <v>153</v>
       </c>
       <c r="P139" s="79" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="Q139" s="79" t="s">
         <v>256</v>
@@ -16246,7 +16241,7 @@
         <v>257</v>
       </c>
       <c r="S139" s="195" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="T139" s="79" t="s">
         <v>502</v>
@@ -16550,7 +16545,7 @@
         <v>313</v>
       </c>
       <c r="P146" s="79" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="Q146" s="70" t="s">
         <v>622</v>
@@ -17045,7 +17040,7 @@
         <v>313</v>
       </c>
       <c r="P157" s="79" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="Q157" s="70" t="s">
         <v>622</v>
@@ -17992,7 +17987,7 @@
         <v>313</v>
       </c>
       <c r="P178" s="79" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="Q178" s="70" t="s">
         <v>622</v>
@@ -18051,10 +18046,10 @@
         <v>842</v>
       </c>
       <c r="Q179" s="70" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="R179" s="210" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="S179" s="70"/>
       <c r="T179" s="70"/>
@@ -18105,10 +18100,10 @@
         <v>843</v>
       </c>
       <c r="Q180" s="83" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="R180" s="214" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="S180" s="70"/>
       <c r="T180" s="70"/>
@@ -18159,10 +18154,10 @@
         <v>844</v>
       </c>
       <c r="Q181" s="83" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="R181" s="214" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="S181" s="70"/>
       <c r="T181" s="70"/>
@@ -18206,7 +18201,7 @@
         <v>306</v>
       </c>
       <c r="P182" s="79" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="Q182" s="70" t="s">
         <v>623</v>
@@ -18259,7 +18254,7 @@
         <v>43</v>
       </c>
       <c r="P183" s="79" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Q183" s="79" t="s">
         <v>259</v>
@@ -18268,7 +18263,7 @@
         <v>260</v>
       </c>
       <c r="S183" s="155" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="T183" s="79"/>
     </row>
@@ -18402,10 +18397,10 @@
         <v>20</v>
       </c>
       <c r="O186" s="155" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="P186" s="79" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="Q186" s="79" t="s">
         <v>261</v>
@@ -18414,7 +18409,7 @@
         <v>262</v>
       </c>
       <c r="S186" s="195" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="T186" s="79"/>
     </row>
@@ -18513,7 +18508,7 @@
         <v>2017 INR/MWh</v>
       </c>
       <c r="P188" s="79" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="Q188" s="79" t="s">
         <v>261</v>
@@ -18579,7 +18574,7 @@
         <v>2017 INR/MWh</v>
       </c>
       <c r="P189" s="79" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="Q189" s="79" t="s">
         <v>261</v>
@@ -18645,7 +18640,7 @@
         <v>2017 INR/MWh</v>
       </c>
       <c r="P190" s="79" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="Q190" s="79" t="s">
         <v>261</v>
@@ -18711,7 +18706,7 @@
         <v>2017 INR/MWh</v>
       </c>
       <c r="P191" s="79" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Q191" s="79" t="s">
         <v>261</v>
@@ -18820,7 +18815,7 @@
         <v>2017 INR/MWh</v>
       </c>
       <c r="P193" s="79" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Q193" s="79" t="s">
         <v>261</v>
@@ -18873,7 +18868,7 @@
         <v>42</v>
       </c>
       <c r="P194" s="79" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="Q194" s="79" t="s">
         <v>263</v>
@@ -18925,7 +18920,7 @@
         <v>42</v>
       </c>
       <c r="P195" s="79" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="Q195" s="79" t="s">
         <v>265</v>
@@ -18977,7 +18972,7 @@
         <v>42</v>
       </c>
       <c r="P196" s="79" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="Q196" s="79" t="s">
         <v>267</v>
@@ -19034,7 +19029,7 @@
         <v>39</v>
       </c>
       <c r="P197" s="79" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="Q197" s="79" t="s">
         <v>269</v>
@@ -19043,7 +19038,7 @@
         <v>270</v>
       </c>
       <c r="S197" s="155" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="T197" s="70" t="s">
         <v>642</v>
@@ -19101,7 +19096,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P198" s="79" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="Q198" s="79" t="s">
         <v>269</v>
@@ -19170,7 +19165,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P199" s="79" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="Q199" s="79" t="s">
         <v>269</v>
@@ -19239,7 +19234,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P200" s="79" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="Q200" s="79" t="s">
         <v>269</v>
@@ -19308,7 +19303,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P201" s="79" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="Q201" s="79" t="s">
         <v>269</v>
@@ -19377,7 +19372,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P202" s="79" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="Q202" s="79" t="s">
         <v>269</v>
@@ -19446,7 +19441,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P203" s="79" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="Q203" s="79" t="s">
         <v>269</v>
@@ -19515,7 +19510,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P204" s="79" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="Q204" s="79" t="s">
         <v>269</v>
@@ -19571,7 +19566,7 @@
         <v>42</v>
       </c>
       <c r="P205" s="79" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="Q205" s="79" t="s">
         <v>271</v>
@@ -19623,7 +19618,7 @@
         <v>38</v>
       </c>
       <c r="P206" s="79" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="Q206" s="79" t="s">
         <v>273</v>
@@ -19675,7 +19670,7 @@
         <v>390</v>
       </c>
       <c r="P207" s="79" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="Q207" s="79" t="s">
         <v>273</v>
@@ -19727,7 +19722,7 @@
         <v>42</v>
       </c>
       <c r="P208" s="79" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="Q208" s="79" t="s">
         <v>275</v>
@@ -19779,7 +19774,7 @@
         <v>42</v>
       </c>
       <c r="P209" s="79" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="Q209" s="79" t="s">
         <v>277</v>
@@ -19831,7 +19826,7 @@
         <v>42</v>
       </c>
       <c r="P210" s="79" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="Q210" s="79" t="s">
         <v>646</v>
@@ -19883,7 +19878,7 @@
         <v>42</v>
       </c>
       <c r="P211" s="79" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="Q211" s="79" t="s">
         <v>279</v>
@@ -19935,7 +19930,7 @@
         <v>42</v>
       </c>
       <c r="P212" s="79" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="Q212" s="79" t="s">
         <v>281</v>
@@ -19989,7 +19984,7 @@
         <v>42</v>
       </c>
       <c r="P213" s="79" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="Q213" s="79" t="s">
         <v>391</v>
@@ -20039,13 +20034,13 @@
         <v>42</v>
       </c>
       <c r="P214" s="79" t="s">
+        <v>979</v>
+      </c>
+      <c r="Q214" s="79" t="s">
         <v>980</v>
       </c>
-      <c r="Q214" s="79" t="s">
+      <c r="R214" s="210" t="s">
         <v>981</v>
-      </c>
-      <c r="R214" s="210" t="s">
-        <v>982</v>
       </c>
       <c r="S214" s="79"/>
       <c r="T214" s="79"/>
@@ -20141,7 +20136,7 @@
         <v>42</v>
       </c>
       <c r="P216" s="79" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="Q216" s="79" t="s">
         <v>285</v>
@@ -20193,7 +20188,7 @@
         <v>42</v>
       </c>
       <c r="P217" s="79" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="Q217" s="79" t="s">
         <v>287</v>
@@ -20245,7 +20240,7 @@
         <v>42</v>
       </c>
       <c r="P218" s="79" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="Q218" s="79" t="s">
         <v>289</v>
@@ -20333,7 +20328,7 @@
         <v>42</v>
       </c>
       <c r="P220" s="79" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="Q220" s="79" t="s">
         <v>291</v>
@@ -20489,7 +20484,7 @@
         <v>42</v>
       </c>
       <c r="P223" s="79" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="Q223" s="79" t="s">
         <v>293</v>
@@ -20542,10 +20537,10 @@
         <v>250</v>
       </c>
       <c r="O224" s="159" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="P224" s="79" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="Q224" s="79" t="s">
         <v>295</v>
@@ -20554,7 +20549,7 @@
         <v>296</v>
       </c>
       <c r="S224" s="155" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="T224" s="70" t="s">
         <v>499</v>
@@ -20612,7 +20607,7 @@
         <v>2017 INR/metric ton CO2e</v>
       </c>
       <c r="P225" s="79" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="Q225" s="81" t="str">
         <f t="shared" ref="Q225:R228" si="45">Q$224</f>
@@ -20677,7 +20672,7 @@
         <v>2017 INR/metric ton CO2e</v>
       </c>
       <c r="P226" s="79" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="Q226" s="81" t="str">
         <f t="shared" si="45"/>
@@ -20742,7 +20737,7 @@
         <v>2017 INR/metric ton CO2e</v>
       </c>
       <c r="P227" s="79" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="Q227" s="81" t="str">
         <f t="shared" si="45"/>
@@ -20807,7 +20802,7 @@
         <v>2017 INR/metric ton CO2e</v>
       </c>
       <c r="P228" s="79" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="Q228" s="81" t="str">
         <f t="shared" si="45"/>
@@ -21059,7 +21054,7 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="P233" s="70" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="Q233" s="70" t="s">
         <v>299</v>
@@ -21808,7 +21803,7 @@
         <v>179</v>
       </c>
       <c r="P248" s="79" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="Q248" s="70" t="s">
         <v>301</v>
@@ -21817,7 +21812,7 @@
         <v>302</v>
       </c>
       <c r="S248" s="155" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="T248" s="81"/>
     </row>
@@ -21873,7 +21868,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P249" s="79" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q249" s="70" t="s">
         <v>301</v>
@@ -21939,7 +21934,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P250" s="79" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Q250" s="70" t="s">
         <v>301</v>
@@ -22230,7 +22225,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P256" s="79" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="Q256" s="70" t="s">
         <v>301</v>
@@ -22296,7 +22291,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P257" s="79" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="Q257" s="70" t="s">
         <v>301</v>
@@ -26603,7 +26598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -26705,13 +26700,13 @@
         <v>450</v>
       </c>
       <c r="F4" s="103" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G4" s="103" t="s">
         <v>1301</v>
       </c>
-      <c r="G4" s="103" t="s">
+      <c r="H4" s="103" t="s">
         <v>1302</v>
-      </c>
-      <c r="H4" s="103" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30">
@@ -27035,13 +27030,13 @@
         <v>450</v>
       </c>
       <c r="F19" s="103" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G19" s="105" t="s">
         <v>1304</v>
       </c>
-      <c r="G19" s="105" t="s">
+      <c r="H19" s="103" t="s">
         <v>1305</v>
-      </c>
-      <c r="H19" s="103" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="90">
@@ -27061,13 +27056,13 @@
         <v>450</v>
       </c>
       <c r="F20" s="103" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G20" s="105" t="s">
         <v>1307</v>
       </c>
-      <c r="G20" s="105" t="s">
+      <c r="H20" s="103" t="s">
         <v>1308</v>
-      </c>
-      <c r="H20" s="103" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30">
@@ -27090,7 +27085,7 @@
         <v>909</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H21" s="50" t="s">
         <v>906</v>
@@ -27129,7 +27124,7 @@
         <v>544</v>
       </c>
       <c r="E23" s="55" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F23" s="44" t="s">
         <v>619</v>
@@ -27150,7 +27145,7 @@
         <v>544</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F24" s="44" t="s">
         <v>619</v>
@@ -27171,7 +27166,7 @@
         <v>544</v>
       </c>
       <c r="E25" s="55" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F25" s="44" t="s">
         <v>910</v>
@@ -27192,7 +27187,7 @@
         <v>544</v>
       </c>
       <c r="E26" s="55" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F26" s="44" t="s">
         <v>910</v>
@@ -27213,7 +27208,7 @@
         <v>78</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F27" s="44" t="s">
         <v>812</v>
@@ -27234,7 +27229,7 @@
         <v>78</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F28" s="44" t="s">
         <v>814</v>
@@ -27255,7 +27250,7 @@
         <v>78</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F29" s="44" t="s">
         <v>813</v>
@@ -27276,7 +27271,7 @@
         <v>78</v>
       </c>
       <c r="E30" s="55" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F30" s="44" t="s">
         <v>815</v>
@@ -27297,16 +27292,16 @@
         <v>78</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F31" s="44" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G31" s="44" t="s">
         <v>943</v>
       </c>
-      <c r="G31" s="44" t="s">
+      <c r="H31" s="50" t="s">
         <v>944</v>
-      </c>
-      <c r="H31" s="50" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30">
@@ -27344,7 +27339,7 @@
         <v>78</v>
       </c>
       <c r="E33" s="55" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F33" s="50" t="s">
         <v>81</v>
@@ -27469,7 +27464,7 @@
         <v>915</v>
       </c>
       <c r="E38" s="56" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F38" s="50" t="s">
         <v>918</v>
@@ -27521,13 +27516,13 @@
         <v>80</v>
       </c>
       <c r="E40" s="56" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F40" s="50" t="s">
         <v>922</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H40" s="50" t="s">
         <v>923</v>
@@ -27547,16 +27542,16 @@
         <v>80</v>
       </c>
       <c r="E41" s="56" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F41" s="56" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G41" s="55" t="s">
         <v>1284</v>
       </c>
-      <c r="G41" s="55" t="s">
+      <c r="H41" s="56" t="s">
         <v>1285</v>
-      </c>
-      <c r="H41" s="56" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="60">
@@ -27579,7 +27574,7 @@
         <v>925</v>
       </c>
       <c r="G42" s="56" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H42" s="50" t="s">
         <v>605</v>
@@ -27602,13 +27597,13 @@
         <v>927</v>
       </c>
       <c r="F43" s="56" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G43" s="56" t="s">
         <v>1276</v>
       </c>
-      <c r="G43" s="56" t="s">
+      <c r="H43" s="56" t="s">
         <v>1277</v>
-      </c>
-      <c r="H43" s="56" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="45">
@@ -27628,13 +27623,13 @@
         <v>927</v>
       </c>
       <c r="F44" s="56" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="G44" s="56" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H44" s="56" t="s">
         <v>1273</v>
-      </c>
-      <c r="H44" s="56" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="45">
@@ -27654,13 +27649,13 @@
         <v>927</v>
       </c>
       <c r="F45" s="56" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G45" s="56" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H45" s="56" t="s">
         <v>1273</v>
-      </c>
-      <c r="H45" s="56" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="45">
@@ -27668,7 +27663,7 @@
         <v>877</v>
       </c>
       <c r="B46" s="54" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C46" s="50" t="s">
         <v>79</v>
@@ -27680,13 +27675,13 @@
         <v>927</v>
       </c>
       <c r="F46" s="56" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G46" s="56" t="s">
         <v>1259</v>
       </c>
-      <c r="G46" s="56" t="s">
+      <c r="H46" s="56" t="s">
         <v>1260</v>
-      </c>
-      <c r="H46" s="56" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="105" customFormat="1" ht="75">
@@ -27694,7 +27689,7 @@
         <v>877</v>
       </c>
       <c r="B47" s="54" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C47" s="56" t="s">
         <v>79</v>
@@ -27706,10 +27701,10 @@
         <v>927</v>
       </c>
       <c r="F47" s="56" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G47" s="56" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H47" s="56" t="s">
         <v>605</v>
@@ -27735,7 +27730,7 @@
         <v>926</v>
       </c>
       <c r="G48" s="56" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H48" s="50" t="s">
         <v>605</v>
@@ -27758,13 +27753,13 @@
         <v>927</v>
       </c>
       <c r="F49" s="56" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="G49" s="56" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H49" s="56" t="s">
         <v>1277</v>
-      </c>
-      <c r="H49" s="56" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="30">
@@ -27784,13 +27779,13 @@
         <v>927</v>
       </c>
       <c r="F50" s="56" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G50" s="56" t="s">
         <v>1272</v>
       </c>
-      <c r="G50" s="56" t="s">
+      <c r="H50" s="56" t="s">
         <v>1273</v>
-      </c>
-      <c r="H50" s="56" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="45">
@@ -27810,13 +27805,13 @@
         <v>927</v>
       </c>
       <c r="F51" s="56" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="G51" s="56" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H51" s="56" t="s">
         <v>1273</v>
-      </c>
-      <c r="H51" s="56" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="45">
@@ -27824,7 +27819,7 @@
         <v>882</v>
       </c>
       <c r="B52" s="54" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C52" s="50" t="s">
         <v>79</v>
@@ -27836,13 +27831,13 @@
         <v>927</v>
       </c>
       <c r="F52" s="56" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G52" s="56" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H52" s="56" t="s">
         <v>1260</v>
-      </c>
-      <c r="H52" s="56" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="105" customFormat="1" ht="60">
@@ -27850,7 +27845,7 @@
         <v>882</v>
       </c>
       <c r="B53" s="54" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C53" s="56" t="s">
         <v>79</v>
@@ -27862,10 +27857,10 @@
         <v>927</v>
       </c>
       <c r="F53" s="56" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G53" s="56" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H53" s="56" t="s">
         <v>605</v>
@@ -27888,13 +27883,13 @@
         <v>450</v>
       </c>
       <c r="F54" s="56" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G54" s="195" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H54" s="195" t="s">
         <v>1264</v>
-      </c>
-      <c r="G54" s="195" t="s">
-        <v>1266</v>
-      </c>
-      <c r="H54" s="195" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="75">
@@ -27911,13 +27906,13 @@
         <v>80</v>
       </c>
       <c r="E55" s="56" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F55" s="50" t="s">
         <v>620</v>
       </c>
       <c r="G55" s="56" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H55" s="50" t="s">
         <v>606</v>
@@ -27937,7 +27932,7 @@
         <v>80</v>
       </c>
       <c r="E56" s="56" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F56" s="50" t="s">
         <v>928</v>
@@ -27963,10 +27958,10 @@
         <v>80</v>
       </c>
       <c r="E57" s="56" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F57" s="50" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G57" s="44" t="s">
         <v>931</v>
@@ -28041,7 +28036,7 @@
         <v>80</v>
       </c>
       <c r="E60" s="56" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F60" s="50" t="s">
         <v>935</v>
@@ -28067,10 +28062,10 @@
         <v>80</v>
       </c>
       <c r="E61" s="56" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F61" s="50" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G61" s="44" t="s">
         <v>938</v>
@@ -28093,10 +28088,10 @@
         <v>80</v>
       </c>
       <c r="E62" s="56" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F62" s="50" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G62" s="44" t="s">
         <v>931</v>
@@ -28119,13 +28114,13 @@
         <v>80</v>
       </c>
       <c r="E63" s="56" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F63" s="50" t="s">
         <v>621</v>
       </c>
       <c r="G63" s="56" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H63" s="50" t="s">
         <v>574</v>
@@ -28145,10 +28140,10 @@
         <v>80</v>
       </c>
       <c r="E64" s="56" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F64" s="50" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G64" s="50" t="s">
         <v>907</v>
@@ -28192,7 +28187,7 @@
         <v>78</v>
       </c>
       <c r="E66" s="57" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F66" s="50" t="s">
         <v>820</v>
@@ -28213,7 +28208,7 @@
         <v>78</v>
       </c>
       <c r="E67" s="57" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F67" s="50" t="s">
         <v>819</v>
@@ -28225,7 +28220,7 @@
         <v>547</v>
       </c>
       <c r="B68" s="54" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C68" s="50" t="s">
         <v>77</v>
@@ -28234,7 +28229,7 @@
         <v>78</v>
       </c>
       <c r="E68" s="57" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F68" s="50" t="s">
         <v>818</v>
@@ -28255,7 +28250,7 @@
         <v>78</v>
       </c>
       <c r="E69" s="57" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F69" s="50" t="s">
         <v>817</v>
@@ -28276,10 +28271,10 @@
         <v>78</v>
       </c>
       <c r="E70" s="57" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F70" s="50" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H70" s="50"/>
     </row>
@@ -28297,10 +28292,10 @@
         <v>78</v>
       </c>
       <c r="E71" s="57" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F71" s="50" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H71" s="50"/>
     </row>
@@ -28318,16 +28313,16 @@
         <v>915</v>
       </c>
       <c r="E72" s="56" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F72" s="50" t="s">
+        <v>948</v>
+      </c>
+      <c r="G72" s="44" t="s">
         <v>949</v>
       </c>
-      <c r="G72" s="44" t="s">
+      <c r="H72" s="50" t="s">
         <v>950</v>
-      </c>
-      <c r="H72" s="50" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="45">
@@ -28344,16 +28339,16 @@
         <v>915</v>
       </c>
       <c r="E73" s="56" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F73" s="50" t="s">
+        <v>973</v>
+      </c>
+      <c r="G73" s="44" t="s">
         <v>974</v>
       </c>
-      <c r="G73" s="44" t="s">
+      <c r="H73" s="50" t="s">
         <v>975</v>
-      </c>
-      <c r="H73" s="50" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -28370,16 +28365,16 @@
         <v>915</v>
       </c>
       <c r="E74" s="56" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F74" s="50" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G74" s="44" t="s">
         <v>434</v>
       </c>
       <c r="H74" s="50" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="75">
@@ -28387,7 +28382,7 @@
         <v>896</v>
       </c>
       <c r="B75" s="54" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C75" s="50" t="s">
         <v>79</v>
@@ -28396,16 +28391,16 @@
         <v>915</v>
       </c>
       <c r="E75" s="56" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F75" s="50" t="s">
+        <v>952</v>
+      </c>
+      <c r="G75" s="44" t="s">
+        <v>951</v>
+      </c>
+      <c r="H75" s="50" t="s">
         <v>953</v>
-      </c>
-      <c r="G75" s="44" t="s">
-        <v>952</v>
-      </c>
-      <c r="H75" s="50" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -28422,10 +28417,10 @@
         <v>915</v>
       </c>
       <c r="E76" s="56" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F76" s="50" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G76" s="44" t="s">
         <v>429</v>
@@ -28448,16 +28443,16 @@
         <v>915</v>
       </c>
       <c r="E77" s="56" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F77" s="50" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G77" s="44" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H77" s="50" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="75">
@@ -28474,16 +28469,16 @@
         <v>915</v>
       </c>
       <c r="E78" s="56" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F78" s="50" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G78" s="44" t="s">
+        <v>956</v>
+      </c>
+      <c r="H78" s="50" t="s">
         <v>957</v>
-      </c>
-      <c r="H78" s="50" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -28500,10 +28495,10 @@
         <v>78</v>
       </c>
       <c r="E79" s="56" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F79" s="50" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H79" s="50"/>
     </row>
@@ -28521,16 +28516,16 @@
         <v>78</v>
       </c>
       <c r="E80" s="56" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F80" s="50" t="s">
+        <v>964</v>
+      </c>
+      <c r="G80" s="44" t="s">
         <v>965</v>
       </c>
-      <c r="G80" s="44" t="s">
+      <c r="H80" s="50" t="s">
         <v>966</v>
-      </c>
-      <c r="H80" s="50" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -28547,10 +28542,10 @@
         <v>78</v>
       </c>
       <c r="E81" s="56" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F81" s="50" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H81" s="50"/>
     </row>
@@ -28568,10 +28563,10 @@
         <v>78</v>
       </c>
       <c r="E82" s="56" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F82" s="50" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H82" s="50"/>
     </row>
@@ -28589,10 +28584,10 @@
         <v>78</v>
       </c>
       <c r="E83" s="56" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F83" s="50" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H83" s="50"/>
     </row>
@@ -28625,7 +28620,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>88</v>
@@ -28633,18 +28628,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="69" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
   </sheetData>
@@ -28691,7 +28686,7 @@
     </row>
     <row r="2" spans="1:5" ht="45">
       <c r="A2" s="63" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B2" s="64">
         <v>2030</v>
@@ -28705,7 +28700,7 @@
         <v>5382.9603750904134</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -28717,7 +28712,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="60" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B4" s="174"/>
       <c r="C4" s="175"/>
@@ -28726,7 +28721,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="72" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B5" s="64"/>
       <c r="C5" s="66"/>
@@ -28735,7 +28730,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="72" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B6" s="64"/>
       <c r="C6" s="66"/>
@@ -28744,7 +28739,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="72" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B7" s="64"/>
       <c r="C7" s="66"/>
@@ -28760,7 +28755,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="72" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B9" s="64"/>
       <c r="C9" s="66"/>
@@ -28769,7 +28764,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="72" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B10" s="64"/>
       <c r="C10" s="66"/>
@@ -28785,7 +28780,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="72" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B12" s="64"/>
       <c r="C12" s="66"/>
@@ -28794,7 +28789,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="72" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B13" s="64"/>
       <c r="C13" s="66"/>
@@ -28803,7 +28798,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="72" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B14" s="64"/>
       <c r="C14" s="66"/>
@@ -28812,7 +28807,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="72" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B15" s="64"/>
       <c r="C15" s="66"/>
@@ -28821,7 +28816,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="73" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B16" s="64"/>
       <c r="C16" s="66"/>
@@ -28837,7 +28832,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="72" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B18" s="64"/>
       <c r="C18" s="66"/>
@@ -28846,7 +28841,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="72" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B19" s="64"/>
       <c r="C19" s="66"/>
@@ -28855,7 +28850,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="72" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B20" s="64"/>
       <c r="C20" s="66"/>
@@ -28864,7 +28859,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="72" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B21" s="64"/>
       <c r="C21" s="66"/>
@@ -28873,7 +28868,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="72" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B22" s="64"/>
       <c r="C22" s="66"/>
@@ -28889,7 +28884,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="71" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B24" s="64"/>
       <c r="C24" s="66"/>
@@ -28898,7 +28893,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="72" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B25" s="64"/>
       <c r="C25" s="66"/>
@@ -28907,7 +28902,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="72" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B26" s="64"/>
       <c r="C26" s="66"/>
@@ -28930,7 +28925,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="74" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B29" s="64"/>
       <c r="C29" s="66"/>
@@ -28939,7 +28934,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="72" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B30" s="64"/>
       <c r="C30" s="66"/>
@@ -28957,7 +28952,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="59" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="66"/>
@@ -28966,7 +28961,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="73" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B33" s="64"/>
       <c r="C33" s="66"/>
@@ -28975,7 +28970,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="72" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B34" s="64"/>
       <c r="C34" s="66"/>
@@ -28991,7 +28986,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="74" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B36" s="64"/>
       <c r="C36" s="66"/>
@@ -29000,7 +28995,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="72" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B37" s="64"/>
       <c r="C37" s="66"/>
@@ -29018,7 +29013,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="59" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B39" s="64"/>
       <c r="C39" s="66"/>
@@ -29027,7 +29022,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="73" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="66"/>
@@ -29036,7 +29031,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="72" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B41" s="64"/>
       <c r="C41" s="66"/>
@@ -29052,7 +29047,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="74" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B43" s="64"/>
       <c r="C43" s="66"/>
@@ -29061,7 +29056,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="59" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B44" s="64"/>
       <c r="C44" s="66"/>
@@ -29079,7 +29074,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="59" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B46" s="64"/>
       <c r="C46" s="66"/>
@@ -29088,7 +29083,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="73" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B47" s="64"/>
       <c r="C47" s="66"/>
@@ -29097,7 +29092,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="66"/>
@@ -29113,7 +29108,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="74" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B50" s="64"/>
       <c r="C50" s="66"/>
@@ -29122,7 +29117,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="72" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B51" s="64"/>
       <c r="C51" s="66"/>
@@ -29140,7 +29135,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="72" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B53" s="64"/>
       <c r="C53" s="66"/>
@@ -29149,7 +29144,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="73" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B54" s="64"/>
       <c r="C54" s="66"/>
@@ -29158,7 +29153,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="72" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B55" s="64"/>
       <c r="C55" s="66"/>
@@ -29181,7 +29176,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="74" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B58" s="174"/>
       <c r="C58" s="175"/>
@@ -29190,13 +29185,13 @@
     </row>
     <row r="59" spans="1:5" ht="30">
       <c r="A59" s="152" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B59" s="178" t="s">
         <v>1025</v>
       </c>
-      <c r="B59" s="178" t="s">
+      <c r="C59" s="178" t="s">
         <v>1026</v>
-      </c>
-      <c r="C59" s="178" t="s">
-        <v>1027</v>
       </c>
       <c r="D59" s="66"/>
       <c r="E59" s="64"/>
@@ -29366,7 +29361,7 @@
     </row>
     <row r="74" spans="1:7" ht="15.75">
       <c r="A74" s="190" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B74" s="191"/>
       <c r="C74" s="191"/>
@@ -29374,28 +29369,28 @@
       <c r="E74" s="191"/>
       <c r="F74" s="191"/>
     </row>
-    <row r="75" spans="1:7" ht="34.5">
+    <row r="75" spans="1:7" ht="30">
       <c r="A75" s="111"/>
       <c r="B75" s="112" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C75" s="112" t="s">
         <v>1029</v>
       </c>
-      <c r="C75" s="112" t="s">
+      <c r="D75" s="112" t="s">
         <v>1030</v>
       </c>
-      <c r="D75" s="112" t="s">
+      <c r="E75" s="112" t="s">
         <v>1031</v>
       </c>
-      <c r="E75" s="112" t="s">
+      <c r="F75" s="113" t="s">
         <v>1032</v>
       </c>
-      <c r="F75" s="113" t="s">
+      <c r="G75" s="189"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="169" t="s">
         <v>1033</v>
-      </c>
-      <c r="G75" s="189"/>
-    </row>
-    <row r="76" spans="1:7" ht="17.25">
-      <c r="A76" s="169" t="s">
-        <v>1034</v>
       </c>
       <c r="B76" s="114">
         <v>1497029.2</v>
@@ -29413,9 +29408,9 @@
         <v>1727706.1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="17.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="164" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B77" s="115">
         <v>992836.3</v>
@@ -29431,9 +29426,9 @@
         <v>1100056.8899999999</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="17.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="163" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B78" s="117">
         <v>715829.8</v>
@@ -29449,9 +29444,9 @@
         <v>719305.34</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="17.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="163" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B79" s="117">
         <v>33787.5</v>
@@ -29467,9 +29462,9 @@
         <v>33845.32</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="17.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="163" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B80" s="117">
         <v>138858</v>
@@ -29487,7 +29482,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="168" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B81" s="119">
         <v>121211</v>
@@ -29505,7 +29500,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="168" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B82" s="119">
         <v>6109</v>
@@ -29523,7 +29518,7 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="168" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B83" s="119">
         <v>10122</v>
@@ -29541,7 +29536,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="168" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B84" s="119">
         <v>1416</v>
@@ -29557,9 +29552,9 @@
         <v>1431.13</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="17.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="163" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B85" s="117">
         <v>69427</v>
@@ -29575,9 +29570,9 @@
         <v>137838.49</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="17.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="163" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B86" s="117">
         <v>1657</v>
@@ -29593,9 +29588,9 @@
         <v>1673.18</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="17.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="163" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B87" s="117">
         <v>33277</v>
@@ -29611,9 +29606,9 @@
         <v>33658.699999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="17.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="163" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B88" s="118"/>
       <c r="C88" s="118"/>
@@ -29625,9 +29620,9 @@
         <v>31697.3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="17.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="164" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B89" s="115">
         <v>405862.9</v>
@@ -29644,9 +29639,9 @@
       </c>
       <c r="G89" s="189"/>
     </row>
-    <row r="90" spans="1:7" ht="17.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="167" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B90" s="120">
         <v>130783.95</v>
@@ -29662,9 +29657,9 @@
         <v>130933.27</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="17.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="163" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B91" s="117">
         <v>129920</v>
@@ -29676,9 +29671,9 @@
         <v>129920</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="17.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="163" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B92" s="117">
         <v>277.82</v>
@@ -29694,9 +29689,9 @@
         <v>427.14</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="17.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="163" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B93" s="117">
         <v>586.12</v>
@@ -29708,9 +29703,9 @@
         <v>586.12</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="17.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="167" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B94" s="120">
         <v>27888.86</v>
@@ -29726,9 +29721,9 @@
         <v>33496.42</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="17.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="163" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B95" s="117">
         <v>10056.43</v>
@@ -29740,9 +29735,9 @@
         <v>10056.43</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="17.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="163" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B96" s="118"/>
       <c r="C96" s="118"/>
@@ -29754,9 +29749,9 @@
         <v>4975.5</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.25">
+    <row r="97" spans="1:6">
       <c r="A97" s="163" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B97" s="117">
         <v>119.58</v>
@@ -29768,9 +29763,9 @@
         <v>119.58</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.25">
+    <row r="98" spans="1:6">
       <c r="A98" s="163" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B98" s="117">
         <v>88.04</v>
@@ -29782,9 +29777,9 @@
         <v>88.04</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.25">
+    <row r="99" spans="1:6">
       <c r="A99" s="163" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B99" s="117">
         <v>266.18</v>
@@ -29798,9 +29793,9 @@
         <v>285.37</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.25">
+    <row r="100" spans="1:6">
       <c r="A100" s="163" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B100" s="117">
         <v>7072.52</v>
@@ -29814,9 +29809,9 @@
         <v>7270.64</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.25">
+    <row r="101" spans="1:6">
       <c r="A101" s="163" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B101" s="117">
         <v>198.91</v>
@@ -29828,9 +29823,9 @@
         <v>198.91</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.25">
+    <row r="102" spans="1:6">
       <c r="A102" s="163" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B102" s="117">
         <v>93.64</v>
@@ -29844,9 +29839,9 @@
         <v>97.71</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.25">
+    <row r="103" spans="1:6">
       <c r="A103" s="163" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B103" s="117">
         <v>37.840000000000003</v>
@@ -29860,9 +29855,9 @@
         <v>37.979999999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="17.25">
+    <row r="104" spans="1:6">
       <c r="A104" s="163" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B104" s="117">
         <v>1155.52</v>
@@ -29876,9 +29871,9 @@
         <v>1156.07</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="17.25">
+    <row r="105" spans="1:6">
       <c r="A105" s="163" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B105" s="118"/>
       <c r="C105" s="118"/>
@@ -29890,9 +29885,9 @@
         <v>336.22</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="17.25">
+    <row r="106" spans="1:6">
       <c r="A106" s="163" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B106" s="117">
         <v>8800.2099999999991</v>
@@ -29908,9 +29903,9 @@
         <v>8873.9699999999993</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="17.25">
+    <row r="107" spans="1:6">
       <c r="A107" s="167" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B107" s="120">
         <v>122371.43</v>
@@ -29926,9 +29921,9 @@
         <v>122736.91</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="17.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="163" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B108" s="117">
         <v>116958.37</v>
@@ -29944,9 +29939,9 @@
         <v>117315.63</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="17.25">
+    <row r="109" spans="1:6">
       <c r="A109" s="163" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B109" s="117">
         <v>2460.6999999999998</v>
@@ -29960,9 +29955,9 @@
         <v>2462.29</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="17.25">
+    <row r="110" spans="1:6">
       <c r="A110" s="163" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B110" s="117">
         <v>2728.87</v>
@@ -29978,9 +29973,9 @@
         <v>2729.91</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="17.25">
+    <row r="111" spans="1:6">
       <c r="A111" s="163" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B111" s="117">
         <v>84.13</v>
@@ -29996,9 +29991,9 @@
         <v>86.38</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="17.25">
+    <row r="112" spans="1:6">
       <c r="A112" s="163" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B112" s="117">
         <v>76.11</v>
@@ -30014,9 +30009,9 @@
         <v>77.989999999999995</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="17.25">
+    <row r="113" spans="1:6">
       <c r="A113" s="163" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B113" s="117">
         <v>63.25</v>
@@ -30032,9 +30027,9 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="17.25">
+    <row r="114" spans="1:6">
       <c r="A114" s="167" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B114" s="120">
         <v>123969.17</v>
@@ -30050,9 +30045,9 @@
         <v>124530.44</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="17.25">
+    <row r="115" spans="1:6">
       <c r="A115" s="163" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B115" s="117">
         <v>5222.5</v>
@@ -30068,9 +30063,9 @@
         <v>5248.35</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="17.25">
+    <row r="116" spans="1:6">
       <c r="A116" s="163" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B116" s="117">
         <v>27625.53</v>
@@ -30086,9 +30081,9 @@
         <v>27717.25</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="17.25">
+    <row r="117" spans="1:6">
       <c r="A117" s="163" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B117" s="117">
         <v>1861.11</v>
@@ -30104,9 +30099,9 @@
         <v>1867.94</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="17.25">
+    <row r="118" spans="1:6">
       <c r="A118" s="163" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B118" s="117">
         <v>1460.26</v>
@@ -30122,9 +30117,9 @@
         <v>1464.62</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="17.25">
+    <row r="119" spans="1:6">
       <c r="A119" s="163" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B119" s="117">
         <v>87799.77</v>
@@ -30140,9 +30135,9 @@
         <v>88232.28</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="17.25">
+    <row r="120" spans="1:6">
       <c r="A120" s="166" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B120" s="122">
         <v>849.49</v>
@@ -30154,9 +30149,9 @@
         <v>849.49</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="17.25">
+    <row r="121" spans="1:6">
       <c r="A121" s="163" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B121" s="117">
         <v>776.75</v>
@@ -30168,9 +30163,9 @@
         <v>776.75</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="17.25">
+    <row r="122" spans="1:6">
       <c r="A122" s="163" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B122" s="117">
         <v>72.75</v>
@@ -30182,9 +30177,9 @@
         <v>72.75</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="17.25">
+    <row r="123" spans="1:6">
       <c r="A123" s="164" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B123" s="116"/>
       <c r="C123" s="116"/>
@@ -30198,9 +30193,9 @@
         <v>334405.5</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="17.25">
+    <row r="124" spans="1:6">
       <c r="A124" s="163" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B124" s="118"/>
       <c r="C124" s="118"/>
@@ -30212,9 +30207,9 @@
         <v>212095.8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="17.25">
+    <row r="125" spans="1:6">
       <c r="A125" s="163" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B125" s="118"/>
       <c r="C125" s="118"/>
@@ -30228,9 +30223,9 @@
         <v>2436.6999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="17.25">
+    <row r="126" spans="1:6">
       <c r="A126" s="163" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B126" s="118"/>
       <c r="C126" s="118"/>
@@ -30242,9 +30237,9 @@
         <v>69867</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="17.25">
+    <row r="127" spans="1:6">
       <c r="A127" s="163" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B127" s="118"/>
       <c r="C127" s="118"/>
@@ -30256,9 +30251,9 @@
         <v>43400</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="17.25">
+    <row r="128" spans="1:6">
       <c r="A128" s="163" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B128" s="118"/>
       <c r="C128" s="118"/>
@@ -30272,9 +30267,9 @@
         <v>6606</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="17.25">
+    <row r="129" spans="1:6">
       <c r="A129" s="164" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B129" s="115">
         <v>98330</v>
@@ -30288,9 +30283,9 @@
         <v>-177028</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="17.25">
+    <row r="130" spans="1:6">
       <c r="A130" s="163" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B130" s="118"/>
       <c r="C130" s="117">
@@ -30302,9 +30297,9 @@
         <v>-67800</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="17.25">
+    <row r="131" spans="1:6">
       <c r="A131" s="163" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B131" s="118"/>
       <c r="C131" s="117">
@@ -30316,9 +30311,9 @@
         <v>-207520</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="17.25">
+    <row r="132" spans="1:6">
       <c r="A132" s="163" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B132" s="117">
         <v>10490</v>
@@ -30330,9 +30325,9 @@
         <v>10490</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="17.25">
+    <row r="133" spans="1:6">
       <c r="A133" s="163" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B133" s="118"/>
       <c r="C133" s="117">
@@ -30344,37 +30339,37 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="17.25">
+    <row r="134" spans="1:6">
       <c r="A134" s="163" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B134" s="165" t="s">
         <v>1092</v>
-      </c>
-      <c r="B134" s="165" t="s">
-        <v>1093</v>
       </c>
       <c r="C134" s="118"/>
       <c r="D134" s="118"/>
       <c r="E134" s="118"/>
       <c r="F134" s="165" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="163" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="17.25">
-      <c r="A135" s="163" t="s">
+      <c r="B135" s="163" t="s">
         <v>1094</v>
-      </c>
-      <c r="B135" s="163" t="s">
-        <v>1095</v>
       </c>
       <c r="C135" s="118"/>
       <c r="D135" s="118"/>
       <c r="E135" s="118"/>
       <c r="F135" s="163" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="163" t="s">
         <v>1095</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="17.25">
-      <c r="A136" s="163" t="s">
-        <v>1096</v>
       </c>
       <c r="B136" s="117">
         <v>87840</v>
@@ -30386,9 +30381,9 @@
         <v>87840</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="17.25">
+    <row r="137" spans="1:6">
       <c r="A137" s="164" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B137" s="116"/>
       <c r="C137" s="116"/>
@@ -30402,9 +30397,9 @@
         <v>57725.18</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="17.25">
+    <row r="138" spans="1:6">
       <c r="A138" s="163" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B138" s="118"/>
       <c r="C138" s="118"/>
@@ -30416,9 +30411,9 @@
         <v>12694.71</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="17.25">
+    <row r="139" spans="1:6">
       <c r="A139" s="163" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B139" s="118"/>
       <c r="C139" s="118"/>
@@ -30432,9 +30427,9 @@
         <v>22980.47</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="17.25">
+    <row r="140" spans="1:6">
       <c r="A140" s="163" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B140" s="118"/>
       <c r="C140" s="118"/>
@@ -30446,9 +30441,9 @@
         <v>22050</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="17.25">
+    <row r="141" spans="1:6">
       <c r="A141" s="164" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B141" s="127">
         <v>3454</v>
@@ -30464,9 +30459,9 @@
         <v>3484.45</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="17.25">
+    <row r="142" spans="1:6">
       <c r="A142" s="163" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B142" s="128">
         <v>3326</v>
@@ -30482,9 +30477,9 @@
         <v>3355.31</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="17.25">
+    <row r="143" spans="1:6">
       <c r="A143" s="163" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B143" s="128">
         <v>128</v>
@@ -30502,7 +30497,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="162" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B144" s="107"/>
       <c r="C144" s="107"/>
@@ -30512,7 +30507,7 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="162" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B145" s="107"/>
       <c r="C145" s="107"/>
@@ -30536,7 +30531,7 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="180" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B147" s="181">
         <f>B76-C76</f>
@@ -30555,7 +30550,7 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="180" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B148" s="107">
         <f>B147*$C$60</f>
@@ -30574,7 +30569,7 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="180" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B149" s="107">
         <f>SUM(B148:E148)</f>
@@ -30595,7 +30590,7 @@
     </row>
     <row r="152" spans="1:11" ht="15" customHeight="1">
       <c r="A152" s="192" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B152" s="190"/>
       <c r="C152" s="190"/>
@@ -30611,39 +30606,39 @@
     <row r="153" spans="1:11" ht="30">
       <c r="A153" s="140"/>
       <c r="B153" s="140" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C153" s="140" t="s">
         <v>1110</v>
       </c>
-      <c r="C153" s="140" t="s">
+      <c r="D153" s="140" t="s">
         <v>1111</v>
       </c>
-      <c r="D153" s="140" t="s">
+      <c r="E153" s="140" t="s">
         <v>1112</v>
       </c>
-      <c r="E153" s="140" t="s">
+      <c r="F153" s="141" t="s">
         <v>1113</v>
       </c>
-      <c r="F153" s="141" t="s">
+      <c r="G153" s="141" t="s">
         <v>1114</v>
       </c>
-      <c r="G153" s="141" t="s">
+      <c r="H153" s="140" t="s">
         <v>1115</v>
       </c>
-      <c r="H153" s="140" t="s">
+      <c r="I153" s="140" t="s">
         <v>1116</v>
       </c>
-      <c r="I153" s="140" t="s">
+      <c r="J153" s="140" t="s">
         <v>1117</v>
       </c>
-      <c r="J153" s="140" t="s">
+      <c r="K153" s="140" t="s">
         <v>1118</v>
-      </c>
-      <c r="K153" s="140" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="142" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B154" s="143">
         <v>1024772.84</v>
@@ -30678,7 +30673,7 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="146" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B155" s="147">
         <v>952212.06</v>
@@ -30701,7 +30696,7 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="131" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B156" s="132">
         <v>952212.06</v>
@@ -30724,7 +30719,7 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="134" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B157" s="132">
         <v>541191.32999999996</v>
@@ -30747,7 +30742,7 @@
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="134" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B158" s="132">
         <v>522495.43</v>
@@ -30770,7 +30765,7 @@
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="134" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B159" s="132">
         <v>18695.900000000001</v>
@@ -30793,17 +30788,17 @@
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="134" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B160" s="134" t="s">
         <v>1126</v>
-      </c>
-      <c r="B160" s="134" t="s">
-        <v>1127</v>
       </c>
       <c r="C160" s="130"/>
       <c r="D160" s="134" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E160" s="134" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F160" s="130"/>
       <c r="G160" s="130"/>
@@ -30811,12 +30806,12 @@
       <c r="I160" s="130"/>
       <c r="J160" s="130"/>
       <c r="K160" s="134" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="134" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B161" s="132">
         <v>228246.91</v>
@@ -30839,7 +30834,7 @@
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="134" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B162" s="132">
         <v>39696</v>
@@ -30858,7 +30853,7 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="134" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B163" s="132">
         <v>52366.02</v>
@@ -30881,7 +30876,7 @@
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="134" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B164" s="132">
         <v>1885.88</v>
@@ -30904,7 +30899,7 @@
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="134" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B165" s="132">
         <v>34482.44</v>
@@ -30927,7 +30922,7 @@
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="134" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B166" s="132">
         <v>5331.75</v>
@@ -30950,7 +30945,7 @@
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="134" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B167" s="132">
         <v>24577.85</v>
@@ -30973,7 +30968,7 @@
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="134" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B168" s="132">
         <v>1010.93</v>
@@ -30996,7 +30991,7 @@
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="134" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B169" s="132">
         <v>2509.79</v>
@@ -31019,7 +31014,7 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="134" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B170" s="132">
         <v>7669.09</v>
@@ -31042,7 +31037,7 @@
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="134" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B171" s="132">
         <v>58717.17</v>
@@ -31065,7 +31060,7 @@
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="134" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B172" s="132">
         <v>95976.83</v>
@@ -31088,7 +31083,7 @@
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="134" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B173" s="132">
         <v>85515.82</v>
@@ -31111,7 +31106,7 @@
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="134" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B174" s="132">
         <v>4021.98</v>
@@ -31134,7 +31129,7 @@
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="134" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B175" s="132">
         <v>5426.32</v>
@@ -31157,7 +31152,7 @@
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="134" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B176" s="132">
         <v>1012.71</v>
@@ -31180,7 +31175,7 @@
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="134" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B177" s="132">
         <v>86797</v>
@@ -31203,7 +31198,7 @@
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="134" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B178" s="132">
         <v>3268</v>
@@ -31226,7 +31221,7 @@
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="134" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B179" s="132">
         <v>55182</v>
@@ -31249,7 +31244,7 @@
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="134" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B180" s="132">
         <v>28347</v>
@@ -31272,7 +31267,7 @@
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="131" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B181" s="130"/>
       <c r="C181" s="130"/>
@@ -31291,7 +31286,7 @@
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="131" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B182" s="130"/>
       <c r="C182" s="130"/>
@@ -31310,7 +31305,7 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="134" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B183" s="130"/>
       <c r="C183" s="130"/>
@@ -31329,7 +31324,7 @@
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="134" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B184" s="130"/>
       <c r="C184" s="130"/>
@@ -31348,7 +31343,7 @@
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="131" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B185" s="130"/>
       <c r="C185" s="130"/>
@@ -31367,7 +31362,7 @@
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="134" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B186" s="130"/>
       <c r="C186" s="130"/>
@@ -31386,7 +31381,7 @@
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="134" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B187" s="130"/>
       <c r="C187" s="130"/>
@@ -31405,7 +31400,7 @@
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="134" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B188" s="130"/>
       <c r="C188" s="130"/>
@@ -31424,7 +31419,7 @@
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="146" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B189" s="147">
         <v>72560.78</v>
@@ -31457,7 +31452,7 @@
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="131" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B190" s="132">
         <v>53558.17</v>
@@ -31476,7 +31471,7 @@
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="134" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B191" s="132">
         <v>44056</v>
@@ -31495,7 +31490,7 @@
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="134" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B192" s="132">
         <v>2921</v>
@@ -31514,7 +31509,7 @@
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="134" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B193" s="132">
         <v>5961.68</v>
@@ -31533,7 +31528,7 @@
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="134" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B194" s="133">
         <v>463.94</v>
@@ -31552,7 +31547,7 @@
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="134" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B195" s="133">
         <v>155.54</v>
@@ -31571,7 +31566,7 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="131" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B196" s="132">
         <v>15785.98</v>
@@ -31594,7 +31589,7 @@
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="134" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B197" s="132">
         <v>11067.3</v>
@@ -31613,7 +31608,7 @@
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="134" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B198" s="133">
         <v>0</v>
@@ -31634,7 +31629,7 @@
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="134" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B199" s="133">
         <v>102.72</v>
@@ -31653,7 +31648,7 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="134" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B200" s="133">
         <v>43.75</v>
@@ -31672,7 +31667,7 @@
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="134" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B201" s="133">
         <v>229.84</v>
@@ -31693,7 +31688,7 @@
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="134" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B202" s="132">
         <v>3317.23</v>
@@ -31714,7 +31709,7 @@
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="134" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B203" s="133">
         <v>233.23</v>
@@ -31733,7 +31728,7 @@
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="134" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B204" s="133">
         <v>51.29</v>
@@ -31754,7 +31749,7 @@
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="134" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B205" s="133">
         <v>26.98</v>
@@ -31775,7 +31770,7 @@
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="134" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B206" s="133">
         <v>713.64</v>
@@ -31796,7 +31791,7 @@
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="134" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B207" s="130"/>
       <c r="C207" s="130"/>
@@ -31815,7 +31810,7 @@
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="131" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B208" s="136">
         <v>2522.5</v>
@@ -31842,7 +31837,7 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="134" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B209" s="130"/>
       <c r="C209" s="130"/>
@@ -31857,7 +31852,7 @@
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="134" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B210" s="132">
         <v>1467.55</v>
@@ -31878,7 +31873,7 @@
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="134" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B211" s="132">
         <v>1025.31</v>
@@ -31901,7 +31896,7 @@
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="134" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B212" s="133">
         <v>23.22</v>
@@ -31920,7 +31915,7 @@
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="134" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B213" s="133">
         <v>6.42</v>
@@ -31939,7 +31934,7 @@
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="134" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B214" s="130"/>
       <c r="C214" s="130"/>
@@ -31958,7 +31953,7 @@
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="131" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B215" s="130"/>
       <c r="C215" s="130"/>
@@ -31981,7 +31976,7 @@
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="134" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B216" s="130"/>
       <c r="C216" s="130"/>
@@ -32002,7 +31997,7 @@
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="130" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B217" s="130"/>
       <c r="C217" s="130"/>
@@ -32021,7 +32016,7 @@
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="131" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B218" s="133">
         <v>694.14</v>
@@ -32040,7 +32035,7 @@
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="134" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B219" s="133">
         <v>672.91</v>
@@ -32059,7 +32054,7 @@
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="134" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B220" s="133">
         <v>21.23</v>
@@ -32078,7 +32073,7 @@
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="146" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B221" s="148"/>
       <c r="C221" s="148"/>
@@ -32099,7 +32094,7 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="134" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B222" s="130"/>
       <c r="C222" s="130"/>
@@ -32120,7 +32115,7 @@
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="134" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B223" s="130"/>
       <c r="C223" s="130"/>
@@ -32141,7 +32136,7 @@
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="134" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B224" s="130"/>
       <c r="C224" s="130"/>
@@ -32162,7 +32157,7 @@
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="134" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B225" s="130"/>
       <c r="C225" s="130"/>
@@ -32181,7 +32176,7 @@
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="134" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B226" s="130"/>
       <c r="C226" s="130"/>
@@ -32202,7 +32197,7 @@
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="146" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B227" s="148"/>
       <c r="C227" s="147">
@@ -32225,7 +32220,7 @@
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="134" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B228" s="130"/>
       <c r="C228" s="136">
@@ -32248,7 +32243,7 @@
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="134" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B229" s="130"/>
       <c r="C229" s="132">
@@ -32267,7 +32262,7 @@
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="134" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B230" s="130"/>
       <c r="C230" s="132">
@@ -32286,7 +32281,7 @@
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="134" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B231" s="130"/>
       <c r="C231" s="133">
@@ -32305,7 +32300,7 @@
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="134" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B232" s="130"/>
       <c r="C232" s="130"/>
@@ -32322,7 +32317,7 @@
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="134" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B233" s="130"/>
       <c r="C233" s="130"/>
@@ -32339,7 +32334,7 @@
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="134" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B234" s="130"/>
       <c r="C234" s="130"/>
@@ -32356,7 +32351,7 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="146" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B235" s="148"/>
       <c r="C235" s="148"/>
@@ -32377,7 +32372,7 @@
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="134" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B236" s="130"/>
       <c r="C236" s="130"/>
@@ -32396,7 +32391,7 @@
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="134" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B237" s="130"/>
       <c r="C237" s="130"/>
@@ -32415,7 +32410,7 @@
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="134" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B238" s="130"/>
       <c r="C238" s="130"/>
@@ -32436,7 +32431,7 @@
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="134" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B239" s="130"/>
       <c r="C239" s="130"/>
@@ -32455,7 +32450,7 @@
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="134" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B240" s="130"/>
       <c r="C240" s="130"/>
@@ -32476,7 +32471,7 @@
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="146" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B241" s="148"/>
       <c r="C241" s="148"/>
@@ -32491,7 +32486,7 @@
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="134" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B242" s="132">
         <v>3467.12</v>
@@ -32514,7 +32509,7 @@
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="134" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B243" s="132">
         <v>3194.12</v>
@@ -32537,7 +32532,7 @@
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="134" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B244" s="133">
         <v>273</v>
@@ -32560,7 +32555,7 @@
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="130" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B245" s="132">
         <v>376005</v>
@@ -32579,7 +32574,7 @@
     </row>
     <row r="246" spans="1:11" ht="15" customHeight="1">
       <c r="A246" s="215" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B246" s="216"/>
       <c r="C246" s="216"/>
@@ -32594,7 +32589,7 @@
     </row>
     <row r="248" spans="1:11" ht="30">
       <c r="A248" s="64" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B248" s="184" t="s">
         <v>608</v>
@@ -32609,7 +32604,7 @@
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="180" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B249" s="183">
         <f>B154-C154</f>
@@ -32627,7 +32622,7 @@
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="180" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B250" s="183">
         <f>B249*$C$60</f>
@@ -32645,7 +32640,7 @@
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="180" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B251" s="183">
         <f>SUM(B250:E250)</f>
@@ -32657,23 +32652,23 @@
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="185" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B254" s="186"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="59" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="59" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="59" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B258" s="59">
         <v>719</v>
@@ -32681,7 +32676,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="59" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B259" s="59">
         <v>11</v>
@@ -32689,7 +32684,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="59" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B260" s="160">
         <f>B259/B258*10^6</f>
@@ -32698,85 +32693,85 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="188" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B263" s="186"/>
       <c r="C263" s="186"/>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="59" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B264" s="160">
         <f>(B149-B251)/(2007-2000)*(2005-2000)+B251+B260</f>
         <v>1749351.5192827338</v>
       </c>
       <c r="C264" s="59" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="59" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B265" s="59">
         <f>B264/B266</f>
         <v>0.71977393159643066</v>
       </c>
       <c r="C265" s="59" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="59" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B266" s="59">
         <v>2430418</v>
       </c>
       <c r="C266" s="59" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D266" s="59" t="s">
         <v>1231</v>
-      </c>
-      <c r="D266" s="59" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="59" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B267" s="59">
         <v>11162212</v>
       </c>
       <c r="C267" s="59" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="59" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B268" s="161">
         <v>0.33</v>
       </c>
       <c r="C268" s="59" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="59" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B269" s="161">
         <v>0.35</v>
       </c>
       <c r="C269" s="59" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="59" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B271" s="59">
         <f>B265*(1-B268)</f>
@@ -32785,7 +32780,7 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="59" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B272" s="59">
         <f>B265*(1-B269)</f>
@@ -32794,50 +32789,50 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="59" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B274" s="59">
         <f>B267*B271</f>
         <v>5382960.3750904137</v>
       </c>
       <c r="C274" s="59" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="59" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B275" s="59">
         <f>B267*B272</f>
         <v>5222274.9907593569</v>
       </c>
       <c r="C275" s="59" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="59" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B277" s="160">
         <f>B274/1000</f>
         <v>5382.9603750904134</v>
       </c>
       <c r="C277" s="59" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="59" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B278" s="160">
         <f>B275/1000</f>
         <v>5222.274990759357</v>
       </c>
       <c r="C278" s="59" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
   </sheetData>
@@ -32887,13 +32882,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="222" t="s">
@@ -32962,13 +32957,13 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="221" t="s">
+      <c r="A60" s="218" t="s">
         <v>196</v>
       </c>
-      <c r="B60" s="221"/>
-      <c r="C60" s="221"/>
-      <c r="D60" s="221"/>
-      <c r="E60" s="221"/>
+      <c r="B60" s="218"/>
+      <c r="C60" s="218"/>
+      <c r="D60" s="218"/>
+      <c r="E60" s="218"/>
     </row>
     <row r="85" spans="1:39" s="4" customFormat="1">
       <c r="A85" s="2" t="s">
@@ -33073,13 +33068,13 @@
       </c>
     </row>
     <row r="89" spans="1:39">
-      <c r="A89" s="221" t="s">
+      <c r="A89" s="218" t="s">
         <v>197</v>
       </c>
-      <c r="B89" s="221"/>
-      <c r="C89" s="221"/>
-      <c r="D89" s="221"/>
-      <c r="E89" s="221"/>
+      <c r="B89" s="218"/>
+      <c r="C89" s="218"/>
+      <c r="D89" s="218"/>
+      <c r="E89" s="218"/>
     </row>
     <row r="90" spans="1:39">
       <c r="A90" s="2">
@@ -33166,13 +33161,13 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="221" t="s">
+      <c r="A98" s="218" t="s">
         <v>198</v>
       </c>
-      <c r="B98" s="221"/>
-      <c r="C98" s="221"/>
-      <c r="D98" s="221"/>
-      <c r="E98" s="221"/>
+      <c r="B98" s="218"/>
+      <c r="C98" s="218"/>
+      <c r="D98" s="218"/>
+      <c r="E98" s="218"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="9">
@@ -33256,13 +33251,13 @@
       <c r="A108" s="12"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="221" t="s">
+      <c r="A109" s="218" t="s">
         <v>200</v>
       </c>
-      <c r="B109" s="221"/>
-      <c r="C109" s="221"/>
-      <c r="D109" s="221"/>
-      <c r="E109" s="221"/>
+      <c r="B109" s="218"/>
+      <c r="C109" s="218"/>
+      <c r="D109" s="218"/>
+      <c r="E109" s="218"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="111" spans="1:5" ht="15.75" thickBot="1">
@@ -33275,13 +33270,13 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="221" t="s">
+      <c r="A113" s="218" t="s">
         <v>199</v>
       </c>
-      <c r="B113" s="221"/>
-      <c r="C113" s="221"/>
-      <c r="D113" s="221"/>
-      <c r="E113" s="221"/>
+      <c r="B113" s="218"/>
+      <c r="C113" s="218"/>
+      <c r="D113" s="218"/>
+      <c r="E113" s="218"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="9">
@@ -33362,13 +33357,13 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="221" t="s">
+      <c r="A124" s="218" t="s">
         <v>485</v>
       </c>
-      <c r="B124" s="221"/>
-      <c r="C124" s="221"/>
-      <c r="D124" s="221"/>
-      <c r="E124" s="221"/>
+      <c r="B124" s="218"/>
+      <c r="C124" s="218"/>
+      <c r="D124" s="218"/>
+      <c r="E124" s="218"/>
       <c r="L124" s="13"/>
     </row>
     <row r="125" spans="1:14">
@@ -33459,13 +33454,13 @@
       <c r="C133" s="7"/>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="221" t="s">
+      <c r="A134" s="218" t="s">
         <v>118</v>
       </c>
-      <c r="B134" s="221"/>
-      <c r="C134" s="221"/>
-      <c r="D134" s="221"/>
-      <c r="E134" s="221"/>
+      <c r="B134" s="218"/>
+      <c r="C134" s="218"/>
+      <c r="D134" s="218"/>
+      <c r="E134" s="218"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="19" t="s">
@@ -33480,25 +33475,25 @@
     </row>
     <row r="136" spans="1:14" ht="15.75">
       <c r="A136" s="21"/>
-      <c r="B136" s="218" t="s">
+      <c r="B136" s="219" t="s">
         <v>505</v>
       </c>
-      <c r="C136" s="219"/>
-      <c r="D136" s="219"/>
-      <c r="E136" s="220"/>
+      <c r="C136" s="220"/>
+      <c r="D136" s="220"/>
+      <c r="E136" s="221"/>
       <c r="F136" s="20"/>
       <c r="G136" s="20"/>
     </row>
     <row r="137" spans="1:14" ht="15.75">
       <c r="A137" s="22"/>
-      <c r="B137" s="218" t="s">
+      <c r="B137" s="219" t="s">
         <v>506</v>
       </c>
-      <c r="C137" s="220"/>
-      <c r="D137" s="218" t="s">
+      <c r="C137" s="221"/>
+      <c r="D137" s="219" t="s">
         <v>507</v>
       </c>
-      <c r="E137" s="220"/>
+      <c r="E137" s="221"/>
       <c r="F137" s="20"/>
       <c r="G137" s="20"/>
     </row>
@@ -34045,13 +34040,13 @@
       <c r="G163" s="20"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="221" t="s">
+      <c r="A165" s="218" t="s">
         <v>203</v>
       </c>
-      <c r="B165" s="221"/>
-      <c r="C165" s="221"/>
-      <c r="D165" s="221"/>
-      <c r="E165" s="221"/>
+      <c r="B165" s="218"/>
+      <c r="C165" s="218"/>
+      <c r="D165" s="218"/>
+      <c r="E165" s="218"/>
     </row>
     <row r="166" spans="1:7" ht="15.75" thickBot="1">
       <c r="A166" s="15" t="s">
@@ -34074,10 +34069,10 @@
       <c r="B168" s="38"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="221" t="s">
+      <c r="A169" s="218" t="s">
         <v>493</v>
       </c>
-      <c r="B169" s="221"/>
+      <c r="B169" s="218"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="15" t="s">
@@ -34109,13 +34104,13 @@
       <c r="B173" s="38"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="221" t="s">
+      <c r="A174" s="218" t="s">
         <v>213</v>
       </c>
-      <c r="B174" s="221"/>
-      <c r="C174" s="221"/>
-      <c r="D174" s="221"/>
-      <c r="E174" s="221"/>
+      <c r="B174" s="218"/>
+      <c r="C174" s="218"/>
+      <c r="D174" s="218"/>
+      <c r="E174" s="218"/>
     </row>
     <row r="175" spans="1:7" ht="15.75" thickBot="1">
       <c r="A175" s="15" t="s">
@@ -34135,13 +34130,13 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="221" t="s">
+      <c r="A178" s="218" t="s">
         <v>206</v>
       </c>
-      <c r="B178" s="221"/>
-      <c r="C178" s="221"/>
-      <c r="D178" s="221"/>
-      <c r="E178" s="221"/>
+      <c r="B178" s="218"/>
+      <c r="C178" s="218"/>
+      <c r="D178" s="218"/>
+      <c r="E178" s="218"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="17" t="s">
@@ -34169,13 +34164,13 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="221" t="s">
+      <c r="A183" s="218" t="s">
         <v>208</v>
       </c>
-      <c r="B183" s="221"/>
-      <c r="C183" s="221"/>
-      <c r="D183" s="221"/>
-      <c r="E183" s="221"/>
+      <c r="B183" s="218"/>
+      <c r="C183" s="218"/>
+      <c r="D183" s="218"/>
+      <c r="E183" s="218"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="15" t="s">
@@ -34230,13 +34225,13 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="221" t="s">
+      <c r="A191" s="218" t="s">
         <v>225</v>
       </c>
-      <c r="B191" s="221"/>
-      <c r="C191" s="221"/>
-      <c r="D191" s="221"/>
-      <c r="E191" s="221"/>
+      <c r="B191" s="218"/>
+      <c r="C191" s="218"/>
+      <c r="D191" s="218"/>
+      <c r="E191" s="218"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="13" t="s">
@@ -34296,12 +34291,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -34316,6 +34305,12 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -490,7 +490,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5323" uniqueCount="1957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5326" uniqueCount="1960">
   <si>
     <t>Short Name</t>
   </si>
@@ -7474,6 +7474,15 @@
       </rPr>
       <t xml:space="preserve"> https://www.ongcindia.com/wps/wcm/connect/en/sustainability/energy-center/research-projects-by-oec/</t>
     </r>
+  </si>
+  <si>
+    <t>Checks for Policy ID Number Validity</t>
+  </si>
+  <si>
+    <t>Lowest duplicate ID number</t>
+  </si>
+  <si>
+    <t>Row of first enabled policy missing a valid ID number</t>
   </si>
 </sst>
 </file>
@@ -8541,7 +8550,7 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="400">
+  <cellXfs count="406">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9582,6 +9591,9 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9594,9 +9606,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -9606,12 +9615,20 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="2x indented GHG Textfiels" xfId="10"/>
@@ -9635,7 +9652,47 @@
     <cellStyle name="Обычный_CRF2002 (1)" xfId="13"/>
     <cellStyle name="Обычный_LULUCF module - v 1.0" xfId="15"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -10702,206 +10759,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="8.86328125" style="9"/>
+    <col min="1" max="1" width="28.265625" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="8.86328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2">
       <c r="A1" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:2">
       <c r="A6" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:2">
       <c r="A10" s="49" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:2">
       <c r="A11" s="49"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:2">
       <c r="A16" s="50" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B16" s="176"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="400" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B17" s="118">
+        <f>MAX(PolicyLevers!H:H)</f>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="401" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B18" s="118" t="e">
+        <f>IF(MIN(IF(COUNTIF(PolicyLevers!$H$2:$H$1500,PolicyLevers!$H$2:$H$1500)&gt;1,PolicyLevers!$H$2:$H$1500, ""))=0,"No duplicate ID numbers",MIN(IF(COUNTIF(PolicyLevers!$H$2:$H$1500,PolicyLevers!$H$2:$H$1500)&gt;1,PolicyLevers!$H$2:$H$1500, "")))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="99.75">
+      <c r="A19" s="402" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B19" s="118" t="str">
+        <f>IF(MIN(IF((NOT(ISNUMBER(PolicyLevers!$H$2:$H$1500)))*(PolicyLevers!$I$2:$I$1500="Yes"),ROW(PolicyLevers!$H$2:$H$1500)))=0,"No missing ID numbers",MIN(IF((NOT(ISNUMBER(PolicyLevers!$H$2:$H$1500)))*(PolicyLevers!$I$2:$I$1500="Yes"),ROW(PolicyLevers!$H$2:$H$1500))))</f>
+        <v>No missing ID numbers</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="50" t="s">
         <v>1452</v>
       </c>
-      <c r="B16" s="176"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="9" t="s">
+      <c r="B21" s="176"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="176"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="9" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="9" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="9" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="9" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="9" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="9" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="9" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="9" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="9" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="9" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="9" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="9" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="9" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="9" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="9" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="9" t="s">
         <v>1455</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="9" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="9" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="9" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="9" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="9" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="50" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B35" s="176"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="176"/>
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="9" t="s">
+        <v>1443</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="9" t="s">
-        <v>1447</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="9" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="9" t="s">
-        <v>1449</v>
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="9" t="s">
+        <v>1445</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="9" t="s">
-        <v>1457</v>
-      </c>
+      <c r="A40" s="50" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B40" s="176"/>
+      <c r="C40" s="176"/>
+      <c r="D40" s="176"/>
+      <c r="E40" s="176"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="9" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="9" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="9" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="9" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="9" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="9" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="50" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B44" s="176"/>
-      <c r="C44" s="176"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="9">
-        <f>MAX(PolicyLevers!H:H)</f>
-        <v>543</v>
-      </c>
-    </row>
+    <row r="49" spans="1:3" s="405" customFormat="1">
+      <c r="A49" s="403"/>
+      <c r="B49" s="404"/>
+      <c r="C49" s="404"/>
+    </row>
+    <row r="50" spans="1:3" s="405" customFormat="1"/>
   </sheetData>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="containsText" dxfId="3" priority="3" stopIfTrue="1" operator="containsText" text="No duplicate ID numbers">
+      <formula>NOT(ISERROR(SEARCH("No duplicate ID numbers",B18)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" operator="containsText" text="No missing ID numbers">
+      <formula>NOT(ISERROR(SEARCH("No missing ID numbers",B19)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1"/>
   </hyperlinks>
@@ -10915,8 +11017,8 @@
   <dimension ref="A1:T589"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A564" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N572" sqref="N572"/>
+      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H502" sqref="H502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -15539,7 +15641,9 @@
       <c r="G77" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="H77" s="56"/>
+      <c r="H77" s="56">
+        <v>544</v>
+      </c>
       <c r="I77" s="10" t="s">
         <v>49</v>
       </c>
@@ -15602,7 +15706,9 @@
       <c r="G78" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="H78" s="56"/>
+      <c r="H78" s="56">
+        <v>545</v>
+      </c>
       <c r="I78" s="10" t="s">
         <v>49</v>
       </c>
@@ -15994,7 +16100,9 @@
       <c r="G86" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="H86" s="56"/>
+      <c r="H86" s="56">
+        <v>546</v>
+      </c>
       <c r="I86" s="10" t="s">
         <v>49</v>
       </c>
@@ -16057,7 +16165,9 @@
       <c r="G87" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="H87" s="56"/>
+      <c r="H87" s="56">
+        <v>547</v>
+      </c>
       <c r="I87" s="10" t="s">
         <v>49</v>
       </c>
@@ -17691,7 +17801,9 @@
       <c r="G112" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="H112" s="56"/>
+      <c r="H112" s="56">
+        <v>548</v>
+      </c>
       <c r="I112" s="10" t="s">
         <v>49</v>
       </c>
@@ -35890,7 +36002,9 @@
       <c r="E426" s="55"/>
       <c r="F426" s="55"/>
       <c r="G426" s="55"/>
-      <c r="H426" s="56"/>
+      <c r="H426" s="56">
+        <v>549</v>
+      </c>
       <c r="I426" s="10" t="s">
         <v>49</v>
       </c>
@@ -37895,7 +38009,9 @@
         <v>953</v>
       </c>
       <c r="G465" s="55"/>
-      <c r="H465" s="56"/>
+      <c r="H465" s="56">
+        <v>550</v>
+      </c>
       <c r="I465" s="10" t="s">
         <v>49</v>
       </c>
@@ -39341,7 +39457,9 @@
         <v>957</v>
       </c>
       <c r="G496" s="57"/>
-      <c r="H496" s="56"/>
+      <c r="H496" s="56">
+        <v>551</v>
+      </c>
       <c r="I496" s="10" t="s">
         <v>49</v>
       </c>
@@ -39445,7 +39563,9 @@
         <v>498</v>
       </c>
       <c r="G498" s="57"/>
-      <c r="H498" s="56"/>
+      <c r="H498" s="56">
+        <v>552</v>
+      </c>
       <c r="I498" s="10" t="s">
         <v>49</v>
       </c>
@@ -39504,7 +39624,9 @@
         <v>952</v>
       </c>
       <c r="G499" s="57"/>
-      <c r="H499" s="56"/>
+      <c r="H499" s="56">
+        <v>553</v>
+      </c>
       <c r="I499" s="10" t="s">
         <v>49</v>
       </c>
@@ -39563,7 +39685,9 @@
         <v>959</v>
       </c>
       <c r="G500" s="57"/>
-      <c r="H500" s="56"/>
+      <c r="H500" s="56">
+        <v>554</v>
+      </c>
       <c r="I500" s="10" t="s">
         <v>49</v>
       </c>
@@ -39622,7 +39746,9 @@
         <v>953</v>
       </c>
       <c r="G501" s="57"/>
-      <c r="H501" s="56"/>
+      <c r="H501" s="56">
+        <v>555</v>
+      </c>
       <c r="I501" s="10" t="s">
         <v>49</v>
       </c>
@@ -43910,7 +44036,7 @@
       <c r="L571" s="196">
         <v>0</v>
       </c>
-      <c r="M571" s="399">
+      <c r="M571" s="390">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="N571" s="207">
@@ -44135,232 +44261,232 @@
     <sortCondition ref="B119:B139"/>
   </sortState>
   <conditionalFormatting sqref="I66 I74 I22 I32 I42 I52">
-    <cfRule type="containsText" dxfId="51" priority="45" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="55" priority="45" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="containsText" dxfId="50" priority="44" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="54" priority="44" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="containsText" dxfId="49" priority="43" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67:I73">
-    <cfRule type="containsText" dxfId="48" priority="42" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="52" priority="42" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89">
-    <cfRule type="containsText" dxfId="47" priority="41" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="51" priority="41" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="containsText" dxfId="46" priority="40" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="50" priority="40" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I519">
-    <cfRule type="containsText" dxfId="45" priority="39" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="49" priority="39" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I519)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I553">
-    <cfRule type="containsText" dxfId="44" priority="38" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="48" priority="38" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I553)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:I62">
-    <cfRule type="containsText" dxfId="43" priority="37" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="47" priority="37" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:I51">
-    <cfRule type="containsText" dxfId="42" priority="36" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="46" priority="36" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:I31">
-    <cfRule type="containsText" dxfId="41" priority="34" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="45" priority="34" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I21">
-    <cfRule type="containsText" dxfId="40" priority="33" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="44" priority="33" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="39" priority="25" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="43" priority="25" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I350">
-    <cfRule type="containsText" dxfId="38" priority="24" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="42" priority="24" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I360">
-    <cfRule type="containsText" dxfId="37" priority="23" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I360)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I370">
-    <cfRule type="containsText" dxfId="36" priority="22" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="40" priority="22" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I380">
-    <cfRule type="containsText" dxfId="35" priority="21" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I390">
-    <cfRule type="containsText" dxfId="34" priority="20" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="38" priority="20" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I390)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I400">
-    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="37" priority="19" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I400)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I337">
-    <cfRule type="containsText" dxfId="32" priority="18" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="36" priority="18" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I337)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I338:I339">
-    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I338)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I348:I349">
-    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="34" priority="16" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I348)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I347">
-    <cfRule type="containsText" dxfId="29" priority="15" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I347)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I358:I359">
-    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I358)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I357">
-    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I357)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I368">
-    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="30" priority="12" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I367">
-    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I369">
-    <cfRule type="containsText" dxfId="24" priority="10" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I388:I389">
-    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I388)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I387">
-    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I387)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I383">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I385">
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I385)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I398:I399">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I398)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I397">
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I536:I537">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I536)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I570">
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I570)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76:I88 I520:I535 I554 I556:I569 I577:I1048576 I90:I99 I1:I9 I12:I19 I24 I33:I36 I43:I46 I53:I59 I38:I39 I48:I49 I63:I64 I341:I346 I351:I356 I361:I366 I381:I382 I391:I396 I371:I379 I384 I386 I538:I552 I571:I575 I113:I336 I401:I518">
-    <cfRule type="containsText" dxfId="15" priority="47" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="19" priority="47" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I555">
-    <cfRule type="containsText" dxfId="14" priority="46" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="18" priority="46" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I555)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:I41">
-    <cfRule type="containsText" dxfId="13" priority="35" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I11">
-    <cfRule type="containsText" dxfId="12" priority="32" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="32" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:I29">
-    <cfRule type="containsText" dxfId="10" priority="30" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="14" priority="30" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="9" priority="29" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="containsText" dxfId="8" priority="28" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="28" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101:I110">
-    <cfRule type="containsText" dxfId="7" priority="27" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111:I112">
-    <cfRule type="containsText" dxfId="6" priority="26" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="26" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I111)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44398,10 +44524,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="390" t="s">
+      <c r="A1" s="391" t="s">
         <v>1415</v>
       </c>
-      <c r="B1" s="390"/>
+      <c r="B1" s="391"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="166" t="s">
@@ -44687,10 +44813,10 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="390" t="s">
+      <c r="A37" s="391" t="s">
         <v>1419</v>
       </c>
-      <c r="B37" s="390"/>
+      <c r="B37" s="391"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="166" t="s">
@@ -48564,26 +48690,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C74 C76:C80 C82:C136">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54708,19 +54834,19 @@
       </c>
     </row>
     <row r="246" spans="1:11" s="95" customFormat="1" ht="15" customHeight="1">
-      <c r="A246" s="391" t="s">
+      <c r="A246" s="392" t="s">
         <v>1727</v>
       </c>
-      <c r="B246" s="392"/>
-      <c r="C246" s="392"/>
-      <c r="D246" s="392"/>
-      <c r="E246" s="392"/>
-      <c r="F246" s="392"/>
-      <c r="G246" s="392"/>
-      <c r="H246" s="392"/>
-      <c r="I246" s="392"/>
-      <c r="J246" s="392"/>
-      <c r="K246" s="393"/>
+      <c r="B246" s="393"/>
+      <c r="C246" s="393"/>
+      <c r="D246" s="393"/>
+      <c r="E246" s="393"/>
+      <c r="F246" s="393"/>
+      <c r="G246" s="393"/>
+      <c r="H246" s="393"/>
+      <c r="I246" s="393"/>
+      <c r="J246" s="393"/>
+      <c r="K246" s="394"/>
     </row>
     <row r="247" spans="1:11" s="95" customFormat="1"/>
     <row r="248" spans="1:11" s="95" customFormat="1" ht="28.5">
@@ -64399,22 +64525,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="394" t="s">
+      <c r="A1" s="398" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="394"/>
-      <c r="C1" s="394"/>
-      <c r="D1" s="394"/>
-      <c r="E1" s="394"/>
+      <c r="B1" s="398"/>
+      <c r="C1" s="398"/>
+      <c r="D1" s="398"/>
+      <c r="E1" s="398"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="399" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="398"/>
-      <c r="C2" s="398"/>
-      <c r="D2" s="398"/>
-      <c r="E2" s="398"/>
+      <c r="B2" s="399"/>
+      <c r="C2" s="399"/>
+      <c r="D2" s="399"/>
+      <c r="E2" s="399"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
@@ -64430,13 +64556,13 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="398" t="s">
+      <c r="A21" s="399" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="398"/>
-      <c r="C21" s="398"/>
-      <c r="D21" s="398"/>
-      <c r="E21" s="398"/>
+      <c r="B21" s="399"/>
+      <c r="C21" s="399"/>
+      <c r="D21" s="399"/>
+      <c r="E21" s="399"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="9" t="s">
@@ -64452,13 +64578,13 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="398" t="s">
+      <c r="A40" s="399" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="398"/>
-      <c r="C40" s="398"/>
-      <c r="D40" s="398"/>
-      <c r="E40" s="398"/>
+      <c r="B40" s="399"/>
+      <c r="C40" s="399"/>
+      <c r="D40" s="399"/>
+      <c r="E40" s="399"/>
     </row>
     <row r="57" spans="1:5" ht="14.65" thickBot="1">
       <c r="A57" s="9" t="s">
@@ -64474,13 +64600,13 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="394" t="s">
+      <c r="A60" s="398" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="394"/>
-      <c r="C60" s="394"/>
-      <c r="D60" s="394"/>
-      <c r="E60" s="394"/>
+      <c r="B60" s="398"/>
+      <c r="C60" s="398"/>
+      <c r="D60" s="398"/>
+      <c r="E60" s="398"/>
     </row>
     <row r="85" spans="1:39" s="12" customFormat="1">
       <c r="A85" s="9" t="s">
@@ -64585,13 +64711,13 @@
       </c>
     </row>
     <row r="89" spans="1:39">
-      <c r="A89" s="394" t="s">
+      <c r="A89" s="398" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="394"/>
-      <c r="C89" s="394"/>
-      <c r="D89" s="394"/>
-      <c r="E89" s="394"/>
+      <c r="B89" s="398"/>
+      <c r="C89" s="398"/>
+      <c r="D89" s="398"/>
+      <c r="E89" s="398"/>
     </row>
     <row r="90" spans="1:39">
       <c r="A90" s="9">
@@ -64678,13 +64804,13 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="394" t="s">
+      <c r="A98" s="398" t="s">
         <v>178</v>
       </c>
-      <c r="B98" s="394"/>
-      <c r="C98" s="394"/>
-      <c r="D98" s="394"/>
-      <c r="E98" s="394"/>
+      <c r="B98" s="398"/>
+      <c r="C98" s="398"/>
+      <c r="D98" s="398"/>
+      <c r="E98" s="398"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="17">
@@ -64768,13 +64894,13 @@
       <c r="A108" s="20"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="394" t="s">
+      <c r="A109" s="398" t="s">
         <v>180</v>
       </c>
-      <c r="B109" s="394"/>
-      <c r="C109" s="394"/>
-      <c r="D109" s="394"/>
-      <c r="E109" s="394"/>
+      <c r="B109" s="398"/>
+      <c r="C109" s="398"/>
+      <c r="D109" s="398"/>
+      <c r="E109" s="398"/>
     </row>
     <row r="110" spans="1:5" ht="14.65" thickBot="1"/>
     <row r="111" spans="1:5" ht="14.65" thickBot="1">
@@ -64787,13 +64913,13 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="394" t="s">
+      <c r="A113" s="398" t="s">
         <v>179</v>
       </c>
-      <c r="B113" s="394"/>
-      <c r="C113" s="394"/>
-      <c r="D113" s="394"/>
-      <c r="E113" s="394"/>
+      <c r="B113" s="398"/>
+      <c r="C113" s="398"/>
+      <c r="D113" s="398"/>
+      <c r="E113" s="398"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="17">
@@ -64874,13 +65000,13 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="394" t="s">
+      <c r="A124" s="398" t="s">
         <v>435</v>
       </c>
-      <c r="B124" s="394"/>
-      <c r="C124" s="394"/>
-      <c r="D124" s="394"/>
-      <c r="E124" s="394"/>
+      <c r="B124" s="398"/>
+      <c r="C124" s="398"/>
+      <c r="D124" s="398"/>
+      <c r="E124" s="398"/>
       <c r="L124" s="21"/>
     </row>
     <row r="125" spans="1:14">
@@ -64971,13 +65097,13 @@
       <c r="C133" s="15"/>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="394" t="s">
+      <c r="A134" s="398" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="394"/>
-      <c r="C134" s="394"/>
-      <c r="D134" s="394"/>
-      <c r="E134" s="394"/>
+      <c r="B134" s="398"/>
+      <c r="C134" s="398"/>
+      <c r="D134" s="398"/>
+      <c r="E134" s="398"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="27" t="s">
@@ -65557,13 +65683,13 @@
       <c r="G163" s="28"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="394" t="s">
+      <c r="A165" s="398" t="s">
         <v>183</v>
       </c>
-      <c r="B165" s="394"/>
-      <c r="C165" s="394"/>
-      <c r="D165" s="394"/>
-      <c r="E165" s="394"/>
+      <c r="B165" s="398"/>
+      <c r="C165" s="398"/>
+      <c r="D165" s="398"/>
+      <c r="E165" s="398"/>
     </row>
     <row r="166" spans="1:7" ht="14.65" thickBot="1">
       <c r="A166" s="23" t="s">
@@ -65586,10 +65712,10 @@
       <c r="B168" s="46"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="394" t="s">
+      <c r="A169" s="398" t="s">
         <v>443</v>
       </c>
-      <c r="B169" s="394"/>
+      <c r="B169" s="398"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="23" t="s">
@@ -65621,13 +65747,13 @@
       <c r="B173" s="46"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="394" t="s">
+      <c r="A174" s="398" t="s">
         <v>192</v>
       </c>
-      <c r="B174" s="394"/>
-      <c r="C174" s="394"/>
-      <c r="D174" s="394"/>
-      <c r="E174" s="394"/>
+      <c r="B174" s="398"/>
+      <c r="C174" s="398"/>
+      <c r="D174" s="398"/>
+      <c r="E174" s="398"/>
     </row>
     <row r="175" spans="1:7" ht="14.65" thickBot="1">
       <c r="A175" s="23" t="s">
@@ -65647,13 +65773,13 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="394" t="s">
+      <c r="A178" s="398" t="s">
         <v>186</v>
       </c>
-      <c r="B178" s="394"/>
-      <c r="C178" s="394"/>
-      <c r="D178" s="394"/>
-      <c r="E178" s="394"/>
+      <c r="B178" s="398"/>
+      <c r="C178" s="398"/>
+      <c r="D178" s="398"/>
+      <c r="E178" s="398"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="25" t="s">
@@ -65681,13 +65807,13 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="394" t="s">
+      <c r="A183" s="398" t="s">
         <v>188</v>
       </c>
-      <c r="B183" s="394"/>
-      <c r="C183" s="394"/>
-      <c r="D183" s="394"/>
-      <c r="E183" s="394"/>
+      <c r="B183" s="398"/>
+      <c r="C183" s="398"/>
+      <c r="D183" s="398"/>
+      <c r="E183" s="398"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="23" t="s">
@@ -65742,13 +65868,13 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="394" t="s">
+      <c r="A191" s="398" t="s">
         <v>202</v>
       </c>
-      <c r="B191" s="394"/>
-      <c r="C191" s="394"/>
-      <c r="D191" s="394"/>
-      <c r="E191" s="394"/>
+      <c r="B191" s="398"/>
+      <c r="C191" s="398"/>
+      <c r="D191" s="398"/>
+      <c r="E191" s="398"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="21" t="s">
@@ -65808,6 +65934,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -65822,12 +65954,6 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-india\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B1CF71-0389-43C8-8C09-0D47A934960C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
@@ -24,12 +25,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PolicyLevers!$A$1:$T$571</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,12 +40,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jeffrey Rissman</author>
   </authors>
   <commentList>
-    <comment ref="K216" authorId="0" shapeId="0">
+    <comment ref="K216" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K217" authorId="0" shapeId="0">
+    <comment ref="K217" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K218" authorId="0" shapeId="0">
+    <comment ref="K218" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K219" authorId="0" shapeId="0">
+    <comment ref="K219" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -138,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K220" authorId="0" shapeId="0">
+    <comment ref="K220" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K221" authorId="0" shapeId="0">
+    <comment ref="K221" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K222" authorId="0" shapeId="0">
+    <comment ref="K222" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K223" authorId="0" shapeId="0">
+    <comment ref="K223" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -234,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K224" authorId="0" shapeId="0">
+    <comment ref="K224" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -258,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K225" authorId="0" shapeId="0">
+    <comment ref="K225" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -282,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K226" authorId="0" shapeId="0">
+    <comment ref="K226" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -306,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K227" authorId="0" shapeId="0">
+    <comment ref="K227" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -330,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K228" authorId="0" shapeId="0">
+    <comment ref="K228" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -354,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K229" authorId="0" shapeId="0">
+    <comment ref="K229" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -378,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K230" authorId="0" shapeId="0">
+    <comment ref="K230" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -402,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K231" authorId="0" shapeId="0">
+    <comment ref="K231" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -426,7 +429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K233" authorId="0" shapeId="0">
+    <comment ref="K233" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -450,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J571" authorId="0" shapeId="0">
+    <comment ref="J571" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -479,11 +482,11 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="OuputGraphSchema" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="OuputGraphSchema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="Z:\todd\Projects\PolicySolutions\tools\lib\OuputGraphSchema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="PolicyLeverSchema" type="4" refreshedVersion="0" background="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="PolicyLeverSchema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="Z:\todd\Projects\PolicySolutions\tools\lib\PolicyLeverSchema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -7488,7 +7491,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="15">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -8550,7 +8553,7 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="406">
+  <cellXfs count="403">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9594,6 +9597,11 @@
     <xf numFmtId="164" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9606,6 +9614,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -9615,84 +9626,33 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="20">
-    <cellStyle name="2x indented GHG Textfiels" xfId="10"/>
-    <cellStyle name="5x indented GHG Textfiels" xfId="11"/>
-    <cellStyle name="AggCels" xfId="12"/>
-    <cellStyle name="AggGreen_bld" xfId="16"/>
-    <cellStyle name="Body: normal cell 2" xfId="5"/>
-    <cellStyle name="Comma 6" xfId="6"/>
-    <cellStyle name="Constants" xfId="8"/>
-    <cellStyle name="CustomizationCells" xfId="18"/>
-    <cellStyle name="Empty_B_border" xfId="17"/>
-    <cellStyle name="Header: bottom row 2" xfId="4"/>
-    <cellStyle name="Headline" xfId="7"/>
+    <cellStyle name="2x indented GHG Textfiels" xfId="10" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="5x indented GHG Textfiels" xfId="11" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="AggCels" xfId="12" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="AggGreen_bld" xfId="16" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Constants" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="CustomizationCells" xfId="18" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Empty_B_border" xfId="17" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Headline" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="19"/>
-    <cellStyle name="Normal GHG Textfiels Bold" xfId="9"/>
-    <cellStyle name="Normal GHG-Shade" xfId="14"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal GHG Textfiels Bold" xfId="9" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal GHG-Shade" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Обычный_CRF2002 (1)" xfId="13"/>
-    <cellStyle name="Обычный_LULUCF module - v 1.0" xfId="15"/>
+    <cellStyle name="Обычный_CRF2002 (1)" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Обычный_LULUCF module - v 1.0" xfId="15" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
   </cellStyles>
   <dxfs count="56">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -10210,6 +10170,46 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10758,17 +10758,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.265625" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="8.86328125" style="9"/>
+    <col min="1" max="1" width="28.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -10836,7 +10835,7 @@
       <c r="B16" s="176"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="400" t="s">
+      <c r="A17" s="391" t="s">
         <v>1441</v>
       </c>
       <c r="B17" s="118">
@@ -10845,16 +10844,16 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="401" t="s">
+      <c r="A18" s="392" t="s">
         <v>1958</v>
       </c>
-      <c r="B18" s="118" t="e">
-        <f>IF(MIN(IF(COUNTIF(PolicyLevers!$H$2:$H$1500,PolicyLevers!$H$2:$H$1500)&gt;1,PolicyLevers!$H$2:$H$1500, ""))=0,"No duplicate ID numbers",MIN(IF(COUNTIF(PolicyLevers!$H$2:$H$1500,PolicyLevers!$H$2:$H$1500)&gt;1,PolicyLevers!$H$2:$H$1500, "")))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="99.75">
-      <c r="A19" s="402" t="s">
+      <c r="B18" s="118" t="str">
+        <f t="array" ref="B18">IF(MIN(IF(COUNTIF(PolicyLevers!$H$2:$H$1500,PolicyLevers!$H$2:$H$1500)&gt;1,PolicyLevers!$H$2:$H$1500, ""))=0,"No duplicate ID numbers",MIN(IF(COUNTIF(PolicyLevers!$H$2:$H$1500,PolicyLevers!$H$2:$H$1500)&gt;1,PolicyLevers!$H$2:$H$1500, "")))</f>
+        <v>No duplicate ID numbers</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19" s="393" t="s">
         <v>1959</v>
       </c>
       <c r="B19" s="118" t="str">
@@ -10981,31 +10980,25 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="405" customFormat="1">
-      <c r="A49" s="403"/>
-      <c r="B49" s="404"/>
-      <c r="C49" s="404"/>
-    </row>
-    <row r="50" spans="1:3" s="405" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="B18">
-    <cfRule type="containsText" dxfId="3" priority="3" stopIfTrue="1" operator="containsText" text="No duplicate ID numbers">
+    <cfRule type="containsText" dxfId="55" priority="3" stopIfTrue="1" operator="containsText" text="No duplicate ID numbers">
       <formula>NOT(ISERROR(SEARCH("No duplicate ID numbers",B18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" operator="containsText" text="No missing ID numbers">
+    <cfRule type="containsText" dxfId="53" priority="1" stopIfTrue="1" operator="containsText" text="No missing ID numbers">
       <formula>NOT(ISERROR(SEARCH("No missing ID numbers",B19)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -11013,7 +11006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T589"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -11021,29 +11014,29 @@
       <selection pane="bottomLeft" activeCell="H502" sqref="H502"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" style="80" customWidth="1"/>
-    <col min="2" max="2" width="28.3984375" style="80" customWidth="1"/>
-    <col min="3" max="3" width="28.3984375" style="105" customWidth="1"/>
-    <col min="4" max="5" width="18.86328125" style="4" customWidth="1"/>
-    <col min="6" max="7" width="23.1328125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.3984375" style="52" customWidth="1"/>
-    <col min="9" max="9" width="21.265625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="21.265625" style="52" customWidth="1"/>
-    <col min="11" max="11" width="16.86328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="80" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="105" customWidth="1"/>
+    <col min="4" max="5" width="18.85546875" style="4" customWidth="1"/>
+    <col min="6" max="7" width="23.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="52" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" style="52" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="4" customWidth="1"/>
     <col min="12" max="12" width="19" style="4" customWidth="1"/>
-    <col min="13" max="14" width="19.1328125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="28.3984375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="117.265625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="52.3984375" style="4" customWidth="1"/>
-    <col min="18" max="18" width="43.3984375" style="153" customWidth="1"/>
-    <col min="19" max="19" width="86.73046875" style="7" customWidth="1"/>
-    <col min="20" max="20" width="37.265625" style="7" customWidth="1"/>
-    <col min="21" max="16384" width="9.1328125" style="4"/>
+    <col min="13" max="14" width="19.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="117.28515625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="52.42578125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="43.42578125" style="153" customWidth="1"/>
+    <col min="19" max="19" width="86.7109375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="37.28515625" style="7" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="28.5">
+    <row r="1" spans="1:20" ht="30">
       <c r="A1" s="103" t="s">
         <v>3</v>
       </c>
@@ -11105,7 +11098,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="75">
       <c r="A2" s="98" t="s">
         <v>4</v>
       </c>
@@ -11165,7 +11158,7 @@
       </c>
       <c r="T2" s="99"/>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="3" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A3" s="104" t="str">
         <f t="shared" ref="A3:C22" si="0">A$2</f>
         <v>Transportation</v>
@@ -11235,7 +11228,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="4" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A4" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Transportation</v>
@@ -11305,7 +11298,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="5" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A5" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Transportation</v>
@@ -11375,7 +11368,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="6" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A6" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Transportation</v>
@@ -11445,7 +11438,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="7" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A7" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Transportation</v>
@@ -11505,7 +11498,7 @@
       </c>
       <c r="S7" s="108"/>
     </row>
-    <row r="8" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="8" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A8" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Transportation</v>
@@ -11575,7 +11568,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="9" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A9" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Transportation</v>
@@ -11645,7 +11638,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="10" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A10" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Transportation</v>
@@ -11687,7 +11680,7 @@
       <c r="R10" s="154"/>
       <c r="S10" s="108"/>
     </row>
-    <row r="11" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="11" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A11" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Transportation</v>
@@ -11729,7 +11722,7 @@
       <c r="R11" s="154"/>
       <c r="S11" s="108"/>
     </row>
-    <row r="12" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="12" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A12" s="104" t="str">
         <f>A$2</f>
         <v>Transportation</v>
@@ -11799,7 +11792,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="13" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A13" s="104" t="str">
         <f t="shared" ref="A13:C32" si="5">A$2</f>
         <v>Transportation</v>
@@ -11869,7 +11862,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="14" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A14" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -11939,7 +11932,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="15" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A15" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -12009,7 +12002,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="16" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A16" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -12079,7 +12072,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="3" customFormat="1" ht="28.5">
+    <row r="17" spans="1:19" s="3" customFormat="1" ht="45">
       <c r="A17" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -12139,7 +12132,7 @@
       </c>
       <c r="S17" s="108"/>
     </row>
-    <row r="18" spans="1:19" s="3" customFormat="1" ht="57">
+    <row r="18" spans="1:19" s="3" customFormat="1" ht="60">
       <c r="A18" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -12209,7 +12202,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="3" customFormat="1" ht="57">
+    <row r="19" spans="1:19" s="3" customFormat="1" ht="60">
       <c r="A19" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -12279,7 +12272,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="3" customFormat="1" ht="28.5">
+    <row r="20" spans="1:19" s="3" customFormat="1" ht="45">
       <c r="A20" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -12321,7 +12314,7 @@
       <c r="R20" s="154"/>
       <c r="S20" s="108"/>
     </row>
-    <row r="21" spans="1:19" s="3" customFormat="1" ht="28.5">
+    <row r="21" spans="1:19" s="3" customFormat="1" ht="45">
       <c r="A21" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -12363,7 +12356,7 @@
       <c r="R21" s="154"/>
       <c r="S21" s="108"/>
     </row>
-    <row r="22" spans="1:19" s="3" customFormat="1" ht="57">
+    <row r="22" spans="1:19" s="3" customFormat="1" ht="60">
       <c r="A22" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -12433,7 +12426,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="3" customFormat="1" ht="28.5">
+    <row r="23" spans="1:19" s="3" customFormat="1" ht="45">
       <c r="A23" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -12475,7 +12468,7 @@
       <c r="R23" s="154"/>
       <c r="S23" s="108"/>
     </row>
-    <row r="24" spans="1:19" s="3" customFormat="1" ht="57">
+    <row r="24" spans="1:19" s="3" customFormat="1" ht="60">
       <c r="A24" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -12545,7 +12538,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="3" customFormat="1" ht="28.5">
+    <row r="25" spans="1:19" s="3" customFormat="1" ht="45">
       <c r="A25" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -12587,7 +12580,7 @@
       <c r="R25" s="154"/>
       <c r="S25" s="108"/>
     </row>
-    <row r="26" spans="1:19" s="3" customFormat="1" ht="28.5">
+    <row r="26" spans="1:19" s="3" customFormat="1" ht="45">
       <c r="A26" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -12629,7 +12622,7 @@
       <c r="R26" s="154"/>
       <c r="S26" s="108"/>
     </row>
-    <row r="27" spans="1:19" s="3" customFormat="1" ht="28.5">
+    <row r="27" spans="1:19" s="3" customFormat="1" ht="45">
       <c r="A27" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -12671,7 +12664,7 @@
       <c r="R27" s="154"/>
       <c r="S27" s="108"/>
     </row>
-    <row r="28" spans="1:19" s="3" customFormat="1" ht="28.5">
+    <row r="28" spans="1:19" s="3" customFormat="1" ht="45">
       <c r="A28" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -12713,7 +12706,7 @@
       <c r="R28" s="154"/>
       <c r="S28" s="108"/>
     </row>
-    <row r="29" spans="1:19" s="3" customFormat="1" ht="28.5">
+    <row r="29" spans="1:19" s="3" customFormat="1" ht="45">
       <c r="A29" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -12755,7 +12748,7 @@
       <c r="R29" s="154"/>
       <c r="S29" s="108"/>
     </row>
-    <row r="30" spans="1:19" s="3" customFormat="1" ht="28.5">
+    <row r="30" spans="1:19" s="3" customFormat="1" ht="45">
       <c r="A30" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -12797,7 +12790,7 @@
       <c r="R30" s="154"/>
       <c r="S30" s="108"/>
     </row>
-    <row r="31" spans="1:19" s="3" customFormat="1" ht="28.5">
+    <row r="31" spans="1:19" s="3" customFormat="1" ht="45">
       <c r="A31" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -12839,7 +12832,7 @@
       <c r="R31" s="154"/>
       <c r="S31" s="108"/>
     </row>
-    <row r="32" spans="1:19" s="3" customFormat="1" ht="57">
+    <row r="32" spans="1:19" s="3" customFormat="1" ht="60">
       <c r="A32" s="104" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -12909,7 +12902,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="3" customFormat="1" ht="57">
+    <row r="33" spans="1:19" s="3" customFormat="1" ht="60">
       <c r="A33" s="104" t="str">
         <f t="shared" ref="A33:C61" si="6">A$2</f>
         <v>Transportation</v>
@@ -12979,7 +12972,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="3" customFormat="1" ht="57">
+    <row r="34" spans="1:19" s="3" customFormat="1" ht="60">
       <c r="A34" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -13049,7 +13042,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="3" customFormat="1" ht="57">
+    <row r="35" spans="1:19" s="3" customFormat="1" ht="60">
       <c r="A35" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -13119,7 +13112,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="3" customFormat="1" ht="57">
+    <row r="36" spans="1:19" s="3" customFormat="1" ht="60">
       <c r="A36" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -13189,7 +13182,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="3" customFormat="1" ht="28.5">
+    <row r="37" spans="1:19" s="3" customFormat="1" ht="45">
       <c r="A37" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -13231,7 +13224,7 @@
       <c r="R37" s="154"/>
       <c r="S37" s="108"/>
     </row>
-    <row r="38" spans="1:19" s="3" customFormat="1" ht="57">
+    <row r="38" spans="1:19" s="3" customFormat="1" ht="60">
       <c r="A38" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -13301,7 +13294,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="3" customFormat="1" ht="57">
+    <row r="39" spans="1:19" s="3" customFormat="1" ht="60">
       <c r="A39" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -13371,7 +13364,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="3" customFormat="1" ht="28.5">
+    <row r="40" spans="1:19" s="3" customFormat="1" ht="45">
       <c r="A40" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -13413,7 +13406,7 @@
       <c r="R40" s="154"/>
       <c r="S40" s="108"/>
     </row>
-    <row r="41" spans="1:19" s="3" customFormat="1" ht="28.5">
+    <row r="41" spans="1:19" s="3" customFormat="1" ht="45">
       <c r="A41" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -13455,7 +13448,7 @@
       <c r="R41" s="154"/>
       <c r="S41" s="108"/>
     </row>
-    <row r="42" spans="1:19" s="3" customFormat="1" ht="57">
+    <row r="42" spans="1:19" s="3" customFormat="1" ht="60">
       <c r="A42" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -13525,7 +13518,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="3" customFormat="1" ht="57">
+    <row r="43" spans="1:19" s="3" customFormat="1" ht="60">
       <c r="A43" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -13595,7 +13588,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="3" customFormat="1" ht="57">
+    <row r="44" spans="1:19" s="3" customFormat="1" ht="60">
       <c r="A44" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -13665,7 +13658,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="3" customFormat="1" ht="57">
+    <row r="45" spans="1:19" s="3" customFormat="1" ht="60">
       <c r="A45" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -13735,7 +13728,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="3" customFormat="1" ht="57">
+    <row r="46" spans="1:19" s="3" customFormat="1" ht="60">
       <c r="A46" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -13805,7 +13798,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="3" customFormat="1" ht="28.5">
+    <row r="47" spans="1:19" s="3" customFormat="1" ht="45">
       <c r="A47" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -13847,7 +13840,7 @@
       <c r="R47" s="154"/>
       <c r="S47" s="108"/>
     </row>
-    <row r="48" spans="1:19" s="3" customFormat="1" ht="57">
+    <row r="48" spans="1:19" s="3" customFormat="1" ht="60">
       <c r="A48" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -13917,7 +13910,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="49" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A49" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -13987,7 +13980,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="50" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A50" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -14029,7 +14022,7 @@
       <c r="R50" s="154"/>
       <c r="S50" s="108"/>
     </row>
-    <row r="51" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="51" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A51" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -14071,7 +14064,7 @@
       <c r="R51" s="154"/>
       <c r="S51" s="108"/>
     </row>
-    <row r="52" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="52" spans="1:20" s="3" customFormat="1" ht="75">
       <c r="A52" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -14141,7 +14134,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="53" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A53" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -14211,7 +14204,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="54" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A54" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -14281,7 +14274,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="55" spans="1:20" s="3" customFormat="1" ht="75">
       <c r="A55" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -14351,7 +14344,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="56" spans="1:20" s="3" customFormat="1" ht="75">
       <c r="A56" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -14421,7 +14414,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="57" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A57" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -14481,7 +14474,7 @@
       </c>
       <c r="S57" s="108"/>
     </row>
-    <row r="58" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="58" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A58" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -14551,7 +14544,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="59" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A59" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -14621,7 +14614,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="60" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A60" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -14663,7 +14656,7 @@
       <c r="R60" s="154"/>
       <c r="S60" s="108"/>
     </row>
-    <row r="61" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="61" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A61" s="104" t="str">
         <f t="shared" si="6"/>
         <v>Transportation</v>
@@ -14705,7 +14698,7 @@
       <c r="R61" s="154"/>
       <c r="S61" s="108"/>
     </row>
-    <row r="62" spans="1:20" s="3" customFormat="1" ht="171">
+    <row r="62" spans="1:20" s="3" customFormat="1" ht="195">
       <c r="A62" s="97" t="s">
         <v>4</v>
       </c>
@@ -14750,7 +14743,7 @@
       </c>
       <c r="T62" s="99"/>
     </row>
-    <row r="63" spans="1:20" s="3" customFormat="1" ht="114">
+    <row r="63" spans="1:20" s="3" customFormat="1" ht="120">
       <c r="A63" s="97" t="s">
         <v>4</v>
       </c>
@@ -14800,7 +14793,7 @@
       </c>
       <c r="T63" s="10"/>
     </row>
-    <row r="64" spans="1:20" s="3" customFormat="1" ht="85.5">
+    <row r="64" spans="1:20" s="3" customFormat="1" ht="105">
       <c r="A64" s="97" t="s">
         <v>4</v>
       </c>
@@ -14860,7 +14853,7 @@
       </c>
       <c r="T64" s="10"/>
     </row>
-    <row r="65" spans="1:20" s="3" customFormat="1" ht="85.5">
+    <row r="65" spans="1:20" s="3" customFormat="1" ht="105">
       <c r="A65" s="76" t="str">
         <f>A$64</f>
         <v>Transportation</v>
@@ -14929,7 +14922,7 @@
       <c r="S65" s="75"/>
       <c r="T65" s="10"/>
     </row>
-    <row r="66" spans="1:20" s="3" customFormat="1" ht="71.25">
+    <row r="66" spans="1:20" s="3" customFormat="1" ht="90">
       <c r="A66" s="76" t="str">
         <f t="shared" ref="A66:A75" si="12">A$64</f>
         <v>Transportation</v>
@@ -15000,7 +14993,7 @@
       </c>
       <c r="T66" s="10"/>
     </row>
-    <row r="67" spans="1:20" s="3" customFormat="1" ht="85.5">
+    <row r="67" spans="1:20" s="3" customFormat="1" ht="105">
       <c r="A67" s="76" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -15072,7 +15065,7 @@
       </c>
       <c r="T67" s="10"/>
     </row>
-    <row r="68" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="68" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A68" s="76" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -15133,7 +15126,7 @@
       <c r="S68" s="75"/>
       <c r="T68" s="10"/>
     </row>
-    <row r="69" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="69" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A69" s="76" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -15194,7 +15187,7 @@
       <c r="S69" s="75"/>
       <c r="T69" s="10"/>
     </row>
-    <row r="70" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="70" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A70" s="76" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -15255,7 +15248,7 @@
       <c r="S70" s="75"/>
       <c r="T70" s="10"/>
     </row>
-    <row r="71" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="71" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A71" s="76" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -15316,7 +15309,7 @@
       <c r="S71" s="75"/>
       <c r="T71" s="10"/>
     </row>
-    <row r="72" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="72" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A72" s="76" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -15377,7 +15370,7 @@
       <c r="S72" s="75"/>
       <c r="T72" s="10"/>
     </row>
-    <row r="73" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="73" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A73" s="76" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -15438,7 +15431,7 @@
       <c r="S73" s="75"/>
       <c r="T73" s="10"/>
     </row>
-    <row r="74" spans="1:20" s="3" customFormat="1" ht="85.5">
+    <row r="74" spans="1:20" s="3" customFormat="1" ht="90">
       <c r="A74" s="76" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -15509,7 +15502,7 @@
       </c>
       <c r="T74" s="10"/>
     </row>
-    <row r="75" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="75" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A75" s="76" t="str">
         <f t="shared" si="12"/>
         <v>Transportation</v>
@@ -15556,7 +15549,7 @@
       <c r="S75" s="75"/>
       <c r="T75" s="10"/>
     </row>
-    <row r="76" spans="1:20" s="3" customFormat="1" ht="71.25">
+    <row r="76" spans="1:20" s="3" customFormat="1" ht="90">
       <c r="A76" s="97" t="s">
         <v>4</v>
       </c>
@@ -15616,7 +15609,7 @@
       </c>
       <c r="T76" s="10"/>
     </row>
-    <row r="77" spans="1:20" s="80" customFormat="1" ht="71.25">
+    <row r="77" spans="1:20" s="80" customFormat="1" ht="90">
       <c r="A77" s="76" t="str">
         <f t="shared" ref="A77:C87" si="18">A$76</f>
         <v>Transportation</v>
@@ -15681,7 +15674,7 @@
       </c>
       <c r="T77" s="96"/>
     </row>
-    <row r="78" spans="1:20" s="80" customFormat="1" ht="71.25">
+    <row r="78" spans="1:20" s="80" customFormat="1" ht="90">
       <c r="A78" s="76" t="str">
         <f t="shared" si="18"/>
         <v>Transportation</v>
@@ -15746,7 +15739,7 @@
       </c>
       <c r="T78" s="96"/>
     </row>
-    <row r="79" spans="1:20" s="80" customFormat="1">
+    <row r="79" spans="1:20" s="80" customFormat="1" ht="30">
       <c r="A79" s="76" t="str">
         <f t="shared" si="18"/>
         <v>Transportation</v>
@@ -15793,7 +15786,7 @@
       <c r="S79" s="79"/>
       <c r="T79" s="96"/>
     </row>
-    <row r="80" spans="1:20" s="80" customFormat="1">
+    <row r="80" spans="1:20" s="80" customFormat="1" ht="30">
       <c r="A80" s="76" t="str">
         <f t="shared" si="18"/>
         <v>Transportation</v>
@@ -15840,7 +15833,7 @@
       <c r="S80" s="79"/>
       <c r="T80" s="96"/>
     </row>
-    <row r="81" spans="1:20" s="80" customFormat="1">
+    <row r="81" spans="1:20" s="80" customFormat="1" ht="30">
       <c r="A81" s="76" t="str">
         <f t="shared" si="18"/>
         <v>Transportation</v>
@@ -15887,7 +15880,7 @@
       <c r="S81" s="79"/>
       <c r="T81" s="96"/>
     </row>
-    <row r="82" spans="1:20" s="80" customFormat="1">
+    <row r="82" spans="1:20" s="80" customFormat="1" ht="30">
       <c r="A82" s="76" t="str">
         <f t="shared" si="18"/>
         <v>Transportation</v>
@@ -15934,7 +15927,7 @@
       <c r="S82" s="79"/>
       <c r="T82" s="96"/>
     </row>
-    <row r="83" spans="1:20" s="80" customFormat="1">
+    <row r="83" spans="1:20" s="80" customFormat="1" ht="30">
       <c r="A83" s="76" t="str">
         <f t="shared" si="18"/>
         <v>Transportation</v>
@@ -15981,7 +15974,7 @@
       <c r="S83" s="79"/>
       <c r="T83" s="96"/>
     </row>
-    <row r="84" spans="1:20" s="80" customFormat="1">
+    <row r="84" spans="1:20" s="80" customFormat="1" ht="30">
       <c r="A84" s="76" t="str">
         <f t="shared" si="18"/>
         <v>Transportation</v>
@@ -16028,7 +16021,7 @@
       <c r="S84" s="79"/>
       <c r="T84" s="96"/>
     </row>
-    <row r="85" spans="1:20" s="80" customFormat="1">
+    <row r="85" spans="1:20" s="80" customFormat="1" ht="30">
       <c r="A85" s="76" t="str">
         <f t="shared" si="18"/>
         <v>Transportation</v>
@@ -16075,7 +16068,7 @@
       <c r="S85" s="79"/>
       <c r="T85" s="96"/>
     </row>
-    <row r="86" spans="1:20" s="80" customFormat="1" ht="71.25">
+    <row r="86" spans="1:20" s="80" customFormat="1" ht="90">
       <c r="A86" s="76" t="str">
         <f t="shared" si="18"/>
         <v>Transportation</v>
@@ -16140,7 +16133,7 @@
       </c>
       <c r="T86" s="96"/>
     </row>
-    <row r="87" spans="1:20" s="80" customFormat="1" ht="71.25">
+    <row r="87" spans="1:20" s="80" customFormat="1" ht="90">
       <c r="A87" s="76" t="str">
         <f t="shared" si="18"/>
         <v>Transportation</v>
@@ -16205,7 +16198,7 @@
       </c>
       <c r="T87" s="96"/>
     </row>
-    <row r="88" spans="1:20" ht="85.5">
+    <row r="88" spans="1:20" ht="90">
       <c r="A88" s="96" t="s">
         <v>4</v>
       </c>
@@ -16539,7 +16532,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="99.75">
+    <row r="93" spans="1:20" ht="120">
       <c r="A93" s="76" t="str">
         <f t="shared" si="22"/>
         <v>Transportation</v>
@@ -16611,7 +16604,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="99.75">
+    <row r="94" spans="1:20" ht="120">
       <c r="A94" s="76" t="str">
         <f t="shared" si="22"/>
         <v>Transportation</v>
@@ -16685,7 +16678,7 @@
         <v>David McCollum, Gregory Gould, and Davide Greene, 2009, "Greenhouse Gas Emissions from Aviation and Marine Transportation: Mitigation Potential and Policies", Pew Center on Global Climate Change, http://www.c2es.org/docUploads/aviation-and-marine-report-2009.pdf, Table 4</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="71.25">
+    <row r="95" spans="1:20" ht="75">
       <c r="A95" s="76" t="str">
         <f t="shared" ref="A95:C100" si="28">A$89</f>
         <v>Transportation</v>
@@ -16757,7 +16750,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="71.25">
+    <row r="96" spans="1:20" ht="75">
       <c r="A96" s="76" t="str">
         <f t="shared" si="28"/>
         <v>Transportation</v>
@@ -16831,7 +16824,7 @@
         <v>U.S. DOE, 2013, "Potential for Energy Efficiency Improvement Beyond the Light-Duty-Vehicle Sector", http://www.nrel.gov/docs/fy13osti/55637.pdf, Section 3.4.5, Paragraph 1</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="99.75">
+    <row r="97" spans="1:20" ht="120">
       <c r="A97" s="76" t="str">
         <f t="shared" si="28"/>
         <v>Transportation</v>
@@ -16903,7 +16896,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="99.75">
+    <row r="98" spans="1:20" ht="120">
       <c r="A98" s="76" t="str">
         <f t="shared" si="28"/>
         <v>Transportation</v>
@@ -16977,7 +16970,7 @@
         <v>David McCollum, Gregory Gould, and Davide Greene, 2009, "Greenhouse Gas Emissions from Aviation and Marine Transportation: Mitigation Potential and Policies", Pew Center on Global Climate Change, http://www.c2es.org/docUploads/aviation-and-marine-report-2009.pdf, Table 4</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="99.75">
+    <row r="99" spans="1:20" ht="120">
       <c r="A99" s="76" t="str">
         <f t="shared" si="28"/>
         <v>Transportation</v>
@@ -17049,7 +17042,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="28.5">
+    <row r="100" spans="1:20" ht="45">
       <c r="A100" s="76" t="str">
         <f t="shared" si="28"/>
         <v>Transportation</v>
@@ -17098,7 +17091,7 @@
       <c r="S100" s="55"/>
       <c r="T100" s="55"/>
     </row>
-    <row r="101" spans="1:20" s="3" customFormat="1" ht="114">
+    <row r="101" spans="1:20" s="3" customFormat="1" ht="135">
       <c r="A101" s="97" t="s">
         <v>4</v>
       </c>
@@ -17156,7 +17149,7 @@
       </c>
       <c r="T101" s="10"/>
     </row>
-    <row r="102" spans="1:20" ht="114">
+    <row r="102" spans="1:20" ht="135">
       <c r="A102" s="76" t="str">
         <f>A$101</f>
         <v>Transportation</v>
@@ -17224,7 +17217,7 @@
       </c>
       <c r="T102" s="55"/>
     </row>
-    <row r="103" spans="1:20" ht="114">
+    <row r="103" spans="1:20" ht="135">
       <c r="A103" s="76" t="str">
         <f t="shared" ref="A103:A112" si="33">A$101</f>
         <v>Transportation</v>
@@ -17292,7 +17285,7 @@
       </c>
       <c r="T103" s="55"/>
     </row>
-    <row r="104" spans="1:20" ht="114">
+    <row r="104" spans="1:20" ht="135">
       <c r="A104" s="76" t="str">
         <f t="shared" si="33"/>
         <v>Transportation</v>
@@ -17360,7 +17353,7 @@
       </c>
       <c r="T104" s="55"/>
     </row>
-    <row r="105" spans="1:20" ht="57">
+    <row r="105" spans="1:20" ht="75">
       <c r="A105" s="76" t="str">
         <f t="shared" si="33"/>
         <v>Transportation</v>
@@ -17423,7 +17416,7 @@
       <c r="S105" s="55"/>
       <c r="T105" s="55"/>
     </row>
-    <row r="106" spans="1:20" ht="57">
+    <row r="106" spans="1:20" ht="75">
       <c r="A106" s="76" t="str">
         <f t="shared" si="33"/>
         <v>Transportation</v>
@@ -17486,7 +17479,7 @@
       <c r="S106" s="55"/>
       <c r="T106" s="55"/>
     </row>
-    <row r="107" spans="1:20" ht="71.25">
+    <row r="107" spans="1:20" ht="75">
       <c r="A107" s="76" t="str">
         <f t="shared" si="33"/>
         <v>Transportation</v>
@@ -17549,7 +17542,7 @@
       <c r="S107" s="55"/>
       <c r="T107" s="55"/>
     </row>
-    <row r="108" spans="1:20" ht="71.25">
+    <row r="108" spans="1:20" ht="75">
       <c r="A108" s="76" t="str">
         <f t="shared" si="33"/>
         <v>Transportation</v>
@@ -17612,7 +17605,7 @@
       <c r="S108" s="55"/>
       <c r="T108" s="55"/>
     </row>
-    <row r="109" spans="1:20" ht="57">
+    <row r="109" spans="1:20" ht="75">
       <c r="A109" s="76" t="str">
         <f t="shared" si="33"/>
         <v>Transportation</v>
@@ -17675,7 +17668,7 @@
       <c r="S109" s="55"/>
       <c r="T109" s="55"/>
     </row>
-    <row r="110" spans="1:20" ht="71.25">
+    <row r="110" spans="1:20" ht="90">
       <c r="A110" s="76" t="str">
         <f t="shared" si="33"/>
         <v>Transportation</v>
@@ -17738,7 +17731,7 @@
       <c r="S110" s="55"/>
       <c r="T110" s="55"/>
     </row>
-    <row r="111" spans="1:20" ht="28.5">
+    <row r="111" spans="1:20" ht="30">
       <c r="A111" s="76" t="str">
         <f t="shared" si="33"/>
         <v>Transportation</v>
@@ -17776,7 +17769,7 @@
       <c r="S111" s="55"/>
       <c r="T111" s="55"/>
     </row>
-    <row r="112" spans="1:20" ht="57">
+    <row r="112" spans="1:20" ht="75">
       <c r="A112" s="76" t="str">
         <f t="shared" si="33"/>
         <v>Transportation</v>
@@ -17834,7 +17827,7 @@
       </c>
       <c r="T112" s="55"/>
     </row>
-    <row r="113" spans="1:20" s="3" customFormat="1" ht="85.5">
+    <row r="113" spans="1:20" s="3" customFormat="1" ht="90">
       <c r="A113" s="97" t="s">
         <v>4</v>
       </c>
@@ -17886,7 +17879,7 @@
       </c>
       <c r="T113" s="10"/>
     </row>
-    <row r="114" spans="1:20" ht="85.5">
+    <row r="114" spans="1:20" ht="105">
       <c r="A114" s="96" t="s">
         <v>4</v>
       </c>
@@ -17942,7 +17935,7 @@
       </c>
       <c r="T114" s="55"/>
     </row>
-    <row r="115" spans="1:20" ht="57">
+    <row r="115" spans="1:20" ht="75">
       <c r="A115" s="76" t="str">
         <f>A$114</f>
         <v>Transportation</v>
@@ -18010,7 +18003,7 @@
       </c>
       <c r="T115" s="55"/>
     </row>
-    <row r="116" spans="1:20" ht="42.75">
+    <row r="116" spans="1:20" ht="45">
       <c r="A116" s="96" t="s">
         <v>78</v>
       </c>
@@ -18070,7 +18063,7 @@
       </c>
       <c r="T116" s="55"/>
     </row>
-    <row r="117" spans="1:20" ht="42.75">
+    <row r="117" spans="1:20" ht="45">
       <c r="A117" s="76" t="str">
         <f>A$116</f>
         <v>Buildings and Appliances</v>
@@ -18117,7 +18110,7 @@
       </c>
       <c r="T117" s="60"/>
     </row>
-    <row r="118" spans="1:20" ht="42.75">
+    <row r="118" spans="1:20" ht="45">
       <c r="A118" s="76" t="str">
         <f t="shared" ref="A118:C130" si="38">A$116</f>
         <v>Buildings and Appliances</v>
@@ -18164,7 +18157,7 @@
       </c>
       <c r="T118" s="60"/>
     </row>
-    <row r="119" spans="1:20" ht="42.75">
+    <row r="119" spans="1:20" ht="45">
       <c r="A119" s="76" t="str">
         <f t="shared" si="38"/>
         <v>Buildings and Appliances</v>
@@ -18235,7 +18228,7 @@
       </c>
       <c r="T119" s="60"/>
     </row>
-    <row r="120" spans="1:20" ht="42.75">
+    <row r="120" spans="1:20" ht="45">
       <c r="A120" s="76" t="str">
         <f t="shared" si="38"/>
         <v>Buildings and Appliances</v>
@@ -18306,7 +18299,7 @@
       </c>
       <c r="T120" s="60"/>
     </row>
-    <row r="121" spans="1:20" ht="42.75">
+    <row r="121" spans="1:20" ht="45">
       <c r="A121" s="76" t="str">
         <f t="shared" si="38"/>
         <v>Buildings and Appliances</v>
@@ -18377,7 +18370,7 @@
       </c>
       <c r="T121" s="60"/>
     </row>
-    <row r="122" spans="1:20" ht="42.75">
+    <row r="122" spans="1:20" ht="45">
       <c r="A122" s="76" t="str">
         <f t="shared" si="38"/>
         <v>Buildings and Appliances</v>
@@ -18424,7 +18417,7 @@
       </c>
       <c r="T122" s="60"/>
     </row>
-    <row r="123" spans="1:20" ht="42.75">
+    <row r="123" spans="1:20" ht="45">
       <c r="A123" s="76" t="str">
         <f t="shared" si="38"/>
         <v>Buildings and Appliances</v>
@@ -18483,7 +18476,7 @@
       </c>
       <c r="T123" s="60"/>
     </row>
-    <row r="124" spans="1:20" ht="42.75">
+    <row r="124" spans="1:20" ht="45">
       <c r="A124" s="76" t="str">
         <f t="shared" si="38"/>
         <v>Buildings and Appliances</v>
@@ -18554,7 +18547,7 @@
       </c>
       <c r="T124" s="60"/>
     </row>
-    <row r="125" spans="1:20" ht="42.75">
+    <row r="125" spans="1:20" ht="45">
       <c r="A125" s="76" t="str">
         <f t="shared" si="38"/>
         <v>Buildings and Appliances</v>
@@ -18625,7 +18618,7 @@
       </c>
       <c r="T125" s="60"/>
     </row>
-    <row r="126" spans="1:20" ht="42.75">
+    <row r="126" spans="1:20" ht="45">
       <c r="A126" s="76" t="str">
         <f t="shared" si="38"/>
         <v>Buildings and Appliances</v>
@@ -18696,7 +18689,7 @@
       </c>
       <c r="T126" s="60"/>
     </row>
-    <row r="127" spans="1:20" ht="42.75">
+    <row r="127" spans="1:20" ht="45">
       <c r="A127" s="76" t="str">
         <f t="shared" si="38"/>
         <v>Buildings and Appliances</v>
@@ -18743,7 +18736,7 @@
       </c>
       <c r="T127" s="60"/>
     </row>
-    <row r="128" spans="1:20" ht="42.75">
+    <row r="128" spans="1:20" ht="45">
       <c r="A128" s="76" t="str">
         <f t="shared" si="38"/>
         <v>Buildings and Appliances</v>
@@ -18802,7 +18795,7 @@
       </c>
       <c r="T128" s="60"/>
     </row>
-    <row r="129" spans="1:20" ht="42.75">
+    <row r="129" spans="1:20" ht="45">
       <c r="A129" s="76" t="str">
         <f t="shared" si="38"/>
         <v>Buildings and Appliances</v>
@@ -18873,7 +18866,7 @@
       </c>
       <c r="T129" s="60"/>
     </row>
-    <row r="130" spans="1:20" ht="42.75">
+    <row r="130" spans="1:20" ht="45">
       <c r="A130" s="76" t="str">
         <f t="shared" si="38"/>
         <v>Buildings and Appliances</v>
@@ -18944,7 +18937,7 @@
       </c>
       <c r="T130" s="60"/>
     </row>
-    <row r="131" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="131" spans="1:20" s="5" customFormat="1" ht="120">
       <c r="A131" s="96" t="s">
         <v>78</v>
       </c>
@@ -19006,7 +18999,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="132" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="132" spans="1:20" s="5" customFormat="1" ht="135">
       <c r="A132" s="76" t="str">
         <f>A$131</f>
         <v>Buildings and Appliances</v>
@@ -19082,7 +19075,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="133" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="133" spans="1:20" s="5" customFormat="1" ht="135">
       <c r="A133" s="76" t="str">
         <f>A$131</f>
         <v>Buildings and Appliances</v>
@@ -19160,7 +19153,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="134" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="134" spans="1:20" s="5" customFormat="1" ht="135">
       <c r="A134" s="76" t="str">
         <f>A$131</f>
         <v>Buildings and Appliances</v>
@@ -19238,7 +19231,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="135" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="135" spans="1:20" s="5" customFormat="1" ht="135">
       <c r="A135" s="76" t="str">
         <f>A$131</f>
         <v>Buildings and Appliances</v>
@@ -19316,7 +19309,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="136" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="136" spans="1:20" s="5" customFormat="1" ht="135">
       <c r="A136" s="76" t="str">
         <f>A$131</f>
         <v>Buildings and Appliances</v>
@@ -19394,7 +19387,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="137" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="137" spans="1:20" s="5" customFormat="1" ht="135">
       <c r="A137" s="76" t="str">
         <f t="shared" ref="A137:C148" si="57">A$131</f>
         <v>Buildings and Appliances</v>
@@ -19473,7 +19466,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="138" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="138" spans="1:20" s="5" customFormat="1" ht="135">
       <c r="A138" s="76" t="str">
         <f t="shared" si="57"/>
         <v>Buildings and Appliances</v>
@@ -19552,7 +19545,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="139" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="139" spans="1:20" s="5" customFormat="1" ht="135">
       <c r="A139" s="76" t="str">
         <f t="shared" si="57"/>
         <v>Buildings and Appliances</v>
@@ -19631,7 +19624,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="140" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="140" spans="1:20" s="5" customFormat="1" ht="135">
       <c r="A140" s="76" t="str">
         <f t="shared" si="57"/>
         <v>Buildings and Appliances</v>
@@ -19710,7 +19703,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="141" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="141" spans="1:20" s="5" customFormat="1" ht="135">
       <c r="A141" s="76" t="str">
         <f t="shared" si="57"/>
         <v>Buildings and Appliances</v>
@@ -19789,7 +19782,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="142" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="142" spans="1:20" s="5" customFormat="1" ht="135">
       <c r="A142" s="76" t="str">
         <f t="shared" si="57"/>
         <v>Buildings and Appliances</v>
@@ -19868,7 +19861,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="143" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="143" spans="1:20" s="5" customFormat="1" ht="120">
       <c r="A143" s="76" t="str">
         <f t="shared" si="57"/>
         <v>Buildings and Appliances</v>
@@ -19943,7 +19936,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="144" spans="1:20" s="5" customFormat="1" ht="85.5">
+    <row r="144" spans="1:20" s="5" customFormat="1" ht="105">
       <c r="A144" s="76" t="str">
         <f t="shared" si="57"/>
         <v>Buildings and Appliances</v>
@@ -20015,7 +20008,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="145" spans="1:20" s="5" customFormat="1" ht="85.5">
+    <row r="145" spans="1:20" s="5" customFormat="1" ht="105">
       <c r="A145" s="76" t="str">
         <f t="shared" si="57"/>
         <v>Buildings and Appliances</v>
@@ -20087,7 +20080,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="146" spans="1:20" s="5" customFormat="1" ht="85.5">
+    <row r="146" spans="1:20" s="5" customFormat="1" ht="105">
       <c r="A146" s="76" t="str">
         <f t="shared" si="57"/>
         <v>Buildings and Appliances</v>
@@ -20159,7 +20152,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="147" spans="1:20" s="5" customFormat="1" ht="85.5">
+    <row r="147" spans="1:20" s="5" customFormat="1" ht="105">
       <c r="A147" s="76" t="str">
         <f t="shared" si="57"/>
         <v>Buildings and Appliances</v>
@@ -20231,7 +20224,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="148" spans="1:20" s="5" customFormat="1" ht="85.5">
+    <row r="148" spans="1:20" s="5" customFormat="1" ht="105">
       <c r="A148" s="76" t="str">
         <f t="shared" si="57"/>
         <v>Buildings and Appliances</v>
@@ -20303,7 +20296,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="149" spans="1:20" s="5" customFormat="1" ht="57">
+    <row r="149" spans="1:20" s="5" customFormat="1" ht="60">
       <c r="A149" s="96" t="s">
         <v>78</v>
       </c>
@@ -20355,7 +20348,7 @@
       </c>
       <c r="T149" s="57"/>
     </row>
-    <row r="150" spans="1:20" s="5" customFormat="1" ht="57">
+    <row r="150" spans="1:20" s="5" customFormat="1" ht="75">
       <c r="A150" s="96" t="s">
         <v>78</v>
       </c>
@@ -20407,7 +20400,7 @@
       </c>
       <c r="T150" s="10"/>
     </row>
-    <row r="151" spans="1:20" s="5" customFormat="1" ht="71.25">
+    <row r="151" spans="1:20" s="5" customFormat="1" ht="90">
       <c r="A151" s="96" t="s">
         <v>78</v>
       </c>
@@ -20459,7 +20452,7 @@
       </c>
       <c r="T151" s="57"/>
     </row>
-    <row r="152" spans="1:20" s="5" customFormat="1" ht="71.25">
+    <row r="152" spans="1:20" s="5" customFormat="1" ht="90">
       <c r="A152" s="96" t="s">
         <v>78</v>
       </c>
@@ -20511,7 +20504,7 @@
       </c>
       <c r="T152" s="57"/>
     </row>
-    <row r="153" spans="1:20" s="5" customFormat="1" ht="57">
+    <row r="153" spans="1:20" s="5" customFormat="1" ht="60">
       <c r="A153" s="96" t="s">
         <v>78</v>
       </c>
@@ -20567,7 +20560,7 @@
       </c>
       <c r="T153" s="10"/>
     </row>
-    <row r="154" spans="1:20" s="5" customFormat="1" ht="57">
+    <row r="154" spans="1:20" s="5" customFormat="1" ht="60">
       <c r="A154" s="76" t="str">
         <f>A$153</f>
         <v>Buildings and Appliances</v>
@@ -20633,7 +20626,7 @@
       </c>
       <c r="T154" s="57"/>
     </row>
-    <row r="155" spans="1:20" s="5" customFormat="1" ht="57">
+    <row r="155" spans="1:20" s="5" customFormat="1" ht="60">
       <c r="A155" s="76" t="str">
         <f>A$153</f>
         <v>Buildings and Appliances</v>
@@ -20699,7 +20692,7 @@
       </c>
       <c r="T155" s="57"/>
     </row>
-    <row r="156" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="156" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A156" s="96" t="s">
         <v>78</v>
       </c>
@@ -20749,7 +20742,7 @@
       <c r="S156" s="10"/>
       <c r="T156" s="57"/>
     </row>
-    <row r="157" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="157" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A157" s="76" t="str">
         <f>A$156</f>
         <v>Buildings and Appliances</v>
@@ -20813,7 +20806,7 @@
       </c>
       <c r="T157" s="57"/>
     </row>
-    <row r="158" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="158" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A158" s="76" t="str">
         <f>A$156</f>
         <v>Buildings and Appliances</v>
@@ -20858,7 +20851,7 @@
       <c r="S158" s="57"/>
       <c r="T158" s="57"/>
     </row>
-    <row r="159" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="159" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A159" s="76" t="str">
         <f>A$156</f>
         <v>Buildings and Appliances</v>
@@ -20903,7 +20896,7 @@
       <c r="S159" s="57"/>
       <c r="T159" s="57"/>
     </row>
-    <row r="160" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="160" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A160" s="76" t="str">
         <f>A$156</f>
         <v>Buildings and Appliances</v>
@@ -20967,7 +20960,7 @@
       </c>
       <c r="T160" s="57"/>
     </row>
-    <row r="161" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="161" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A161" s="76" t="str">
         <f>A$156</f>
         <v>Buildings and Appliances</v>
@@ -21012,7 +21005,7 @@
       <c r="S161" s="57"/>
       <c r="T161" s="57"/>
     </row>
-    <row r="162" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="162" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A162" s="97" t="s">
         <v>8</v>
       </c>
@@ -21066,7 +21059,7 @@
       <c r="S162" s="10"/>
       <c r="T162" s="10"/>
     </row>
-    <row r="163" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="163" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A163" s="76" t="str">
         <f>A$162</f>
         <v>Electricity Supply</v>
@@ -21131,7 +21124,7 @@
       <c r="S163" s="57"/>
       <c r="T163" s="57"/>
     </row>
-    <row r="164" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="164" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A164" s="76" t="str">
         <f t="shared" ref="A164:C177" si="72">A$162</f>
         <v>Electricity Supply</v>
@@ -21196,7 +21189,7 @@
       <c r="S164" s="57"/>
       <c r="T164" s="57"/>
     </row>
-    <row r="165" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="165" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A165" s="76" t="str">
         <f t="shared" si="72"/>
         <v>Electricity Supply</v>
@@ -21261,7 +21254,7 @@
       <c r="S165" s="57"/>
       <c r="T165" s="57"/>
     </row>
-    <row r="166" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="166" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A166" s="76" t="str">
         <f t="shared" si="72"/>
         <v>Electricity Supply</v>
@@ -21304,7 +21297,7 @@
       <c r="S166" s="57"/>
       <c r="T166" s="57"/>
     </row>
-    <row r="167" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="167" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A167" s="76" t="str">
         <f t="shared" si="72"/>
         <v>Electricity Supply</v>
@@ -21347,7 +21340,7 @@
       <c r="S167" s="57"/>
       <c r="T167" s="57"/>
     </row>
-    <row r="168" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="168" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A168" s="76" t="str">
         <f t="shared" si="72"/>
         <v>Electricity Supply</v>
@@ -21390,7 +21383,7 @@
       <c r="S168" s="57"/>
       <c r="T168" s="57"/>
     </row>
-    <row r="169" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="169" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A169" s="76" t="str">
         <f t="shared" si="72"/>
         <v>Electricity Supply</v>
@@ -21433,7 +21426,7 @@
       <c r="S169" s="57"/>
       <c r="T169" s="57"/>
     </row>
-    <row r="170" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="170" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A170" s="76" t="str">
         <f t="shared" si="72"/>
         <v>Electricity Supply</v>
@@ -21476,7 +21469,7 @@
       <c r="S170" s="57"/>
       <c r="T170" s="57"/>
     </row>
-    <row r="171" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="171" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A171" s="76" t="str">
         <f t="shared" si="72"/>
         <v>Electricity Supply</v>
@@ -21519,7 +21512,7 @@
       <c r="S171" s="57"/>
       <c r="T171" s="57"/>
     </row>
-    <row r="172" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="172" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A172" s="76" t="str">
         <f t="shared" si="72"/>
         <v>Electricity Supply</v>
@@ -21562,7 +21555,7 @@
       <c r="S172" s="57"/>
       <c r="T172" s="57"/>
     </row>
-    <row r="173" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="173" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A173" s="76" t="str">
         <f t="shared" si="72"/>
         <v>Electricity Supply</v>
@@ -21627,7 +21620,7 @@
       <c r="S173" s="57"/>
       <c r="T173" s="57"/>
     </row>
-    <row r="174" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="174" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A174" s="76" t="str">
         <f t="shared" si="72"/>
         <v>Electricity Supply</v>
@@ -21670,7 +21663,7 @@
       <c r="S174" s="57"/>
       <c r="T174" s="57"/>
     </row>
-    <row r="175" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="175" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A175" s="76" t="str">
         <f t="shared" si="72"/>
         <v>Electricity Supply</v>
@@ -21713,7 +21706,7 @@
       <c r="S175" s="57"/>
       <c r="T175" s="57"/>
     </row>
-    <row r="176" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="176" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A176" s="76" t="str">
         <f t="shared" si="72"/>
         <v>Electricity Supply</v>
@@ -21756,7 +21749,7 @@
       <c r="S176" s="57"/>
       <c r="T176" s="57"/>
     </row>
-    <row r="177" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="177" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A177" s="76" t="str">
         <f t="shared" si="72"/>
         <v>Electricity Supply</v>
@@ -21799,7 +21792,7 @@
       <c r="S177" s="57"/>
       <c r="T177" s="57"/>
     </row>
-    <row r="178" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="178" spans="1:20" s="5" customFormat="1" ht="105">
       <c r="A178" s="96" t="s">
         <v>8</v>
       </c>
@@ -21851,7 +21844,7 @@
       </c>
       <c r="T178" s="55"/>
     </row>
-    <row r="179" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="179" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A179" s="97" t="s">
         <v>8</v>
       </c>
@@ -21903,7 +21896,7 @@
       </c>
       <c r="T179" s="10"/>
     </row>
-    <row r="180" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="180" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A180" s="97" t="s">
         <v>8</v>
       </c>
@@ -21959,7 +21952,7 @@
       </c>
       <c r="T180" s="10"/>
     </row>
-    <row r="181" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="181" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A181" s="76" t="str">
         <f>A$180</f>
         <v>Electricity Supply</v>
@@ -22028,7 +22021,7 @@
       </c>
       <c r="T181" s="10"/>
     </row>
-    <row r="182" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="182" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A182" s="76" t="str">
         <f t="shared" ref="A182:A195" si="79">A$180</f>
         <v>Electricity Supply</v>
@@ -22097,7 +22090,7 @@
       </c>
       <c r="T182" s="10"/>
     </row>
-    <row r="183" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="183" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A183" s="76" t="str">
         <f t="shared" si="79"/>
         <v>Electricity Supply</v>
@@ -22165,7 +22158,7 @@
       </c>
       <c r="T183" s="10"/>
     </row>
-    <row r="184" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="184" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A184" s="76" t="str">
         <f t="shared" si="79"/>
         <v>Electricity Supply</v>
@@ -22234,7 +22227,7 @@
       </c>
       <c r="T184" s="10"/>
     </row>
-    <row r="185" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="185" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A185" s="76" t="str">
         <f t="shared" si="79"/>
         <v>Electricity Supply</v>
@@ -22303,7 +22296,7 @@
       </c>
       <c r="T185" s="10"/>
     </row>
-    <row r="186" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="186" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A186" s="76" t="str">
         <f t="shared" si="79"/>
         <v>Electricity Supply</v>
@@ -22369,7 +22362,7 @@
       </c>
       <c r="T186" s="10"/>
     </row>
-    <row r="187" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="187" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A187" s="76" t="str">
         <f t="shared" si="79"/>
         <v>Electricity Supply</v>
@@ -22438,7 +22431,7 @@
       </c>
       <c r="T187" s="10"/>
     </row>
-    <row r="188" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="188" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A188" s="76" t="str">
         <f t="shared" si="79"/>
         <v>Electricity Supply</v>
@@ -22504,7 +22497,7 @@
       </c>
       <c r="T188" s="10"/>
     </row>
-    <row r="189" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="189" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A189" s="76" t="str">
         <f t="shared" si="79"/>
         <v>Electricity Supply</v>
@@ -22573,7 +22566,7 @@
       </c>
       <c r="T189" s="10"/>
     </row>
-    <row r="190" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="190" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A190" s="76" t="str">
         <f t="shared" si="79"/>
         <v>Electricity Supply</v>
@@ -22639,7 +22632,7 @@
       </c>
       <c r="T190" s="10"/>
     </row>
-    <row r="191" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="191" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A191" s="76" t="str">
         <f t="shared" si="79"/>
         <v>Electricity Supply</v>
@@ -22705,7 +22698,7 @@
       </c>
       <c r="T191" s="10"/>
     </row>
-    <row r="192" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="192" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A192" s="76" t="str">
         <f t="shared" si="79"/>
         <v>Electricity Supply</v>
@@ -22771,7 +22764,7 @@
       </c>
       <c r="T192" s="10"/>
     </row>
-    <row r="193" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="193" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A193" s="76" t="str">
         <f t="shared" si="79"/>
         <v>Electricity Supply</v>
@@ -22837,7 +22830,7 @@
       </c>
       <c r="T193" s="10"/>
     </row>
-    <row r="194" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="194" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A194" s="76" t="str">
         <f t="shared" si="79"/>
         <v>Electricity Supply</v>
@@ -22903,7 +22896,7 @@
       </c>
       <c r="T194" s="10"/>
     </row>
-    <row r="195" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="195" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A195" s="76" t="str">
         <f t="shared" si="79"/>
         <v>Electricity Supply</v>
@@ -22969,7 +22962,7 @@
       </c>
       <c r="T195" s="10"/>
     </row>
-    <row r="196" spans="1:20" ht="42.75">
+    <row r="196" spans="1:20" ht="45">
       <c r="A196" s="96" t="s">
         <v>8</v>
       </c>
@@ -23005,7 +22998,7 @@
       <c r="S196" s="55"/>
       <c r="T196" s="55"/>
     </row>
-    <row r="197" spans="1:20" ht="57">
+    <row r="197" spans="1:20" ht="60">
       <c r="A197" s="96" t="s">
         <v>8</v>
       </c>
@@ -23057,7 +23050,7 @@
       </c>
       <c r="T197" s="55"/>
     </row>
-    <row r="198" spans="1:20" ht="57">
+    <row r="198" spans="1:20" ht="60">
       <c r="A198" s="96" t="s">
         <v>8</v>
       </c>
@@ -23113,7 +23106,7 @@
       </c>
       <c r="T198" s="55"/>
     </row>
-    <row r="199" spans="1:20" ht="42.75">
+    <row r="199" spans="1:20" ht="45">
       <c r="A199" s="76" t="str">
         <f t="shared" ref="A199:C213" si="80">A$198</f>
         <v>Electricity Supply</v>
@@ -23158,7 +23151,7 @@
       <c r="S199" s="55"/>
       <c r="T199" s="55"/>
     </row>
-    <row r="200" spans="1:20" ht="42.75">
+    <row r="200" spans="1:20" ht="45">
       <c r="A200" s="76" t="str">
         <f t="shared" si="80"/>
         <v>Electricity Supply</v>
@@ -23223,7 +23216,7 @@
       </c>
       <c r="T200" s="55"/>
     </row>
-    <row r="201" spans="1:20" ht="42.75">
+    <row r="201" spans="1:20" ht="45">
       <c r="A201" s="76" t="str">
         <f t="shared" si="80"/>
         <v>Electricity Supply</v>
@@ -23268,7 +23261,7 @@
       <c r="S201" s="55"/>
       <c r="T201" s="55"/>
     </row>
-    <row r="202" spans="1:20" ht="42.75">
+    <row r="202" spans="1:20" ht="45">
       <c r="A202" s="76" t="str">
         <f t="shared" si="80"/>
         <v>Electricity Supply</v>
@@ -23313,7 +23306,7 @@
       <c r="S202" s="55"/>
       <c r="T202" s="55"/>
     </row>
-    <row r="203" spans="1:20" ht="42.75">
+    <row r="203" spans="1:20" ht="45">
       <c r="A203" s="76" t="str">
         <f t="shared" si="80"/>
         <v>Electricity Supply</v>
@@ -23358,7 +23351,7 @@
       <c r="S203" s="55"/>
       <c r="T203" s="55"/>
     </row>
-    <row r="204" spans="1:20" ht="42.75">
+    <row r="204" spans="1:20" ht="45">
       <c r="A204" s="76" t="str">
         <f t="shared" si="80"/>
         <v>Electricity Supply</v>
@@ -23403,7 +23396,7 @@
       <c r="S204" s="55"/>
       <c r="T204" s="55"/>
     </row>
-    <row r="205" spans="1:20" ht="42.75">
+    <row r="205" spans="1:20" ht="45">
       <c r="A205" s="76" t="str">
         <f t="shared" si="80"/>
         <v>Electricity Supply</v>
@@ -23448,7 +23441,7 @@
       <c r="S205" s="55"/>
       <c r="T205" s="55"/>
     </row>
-    <row r="206" spans="1:20" ht="42.75">
+    <row r="206" spans="1:20" ht="45">
       <c r="A206" s="76" t="str">
         <f t="shared" si="80"/>
         <v>Electricity Supply</v>
@@ -23491,7 +23484,7 @@
       <c r="S206" s="55"/>
       <c r="T206" s="55"/>
     </row>
-    <row r="207" spans="1:20" ht="42.75">
+    <row r="207" spans="1:20" ht="45">
       <c r="A207" s="76" t="str">
         <f t="shared" si="80"/>
         <v>Electricity Supply</v>
@@ -23534,7 +23527,7 @@
       <c r="S207" s="55"/>
       <c r="T207" s="55"/>
     </row>
-    <row r="208" spans="1:20" ht="42.75">
+    <row r="208" spans="1:20" ht="45">
       <c r="A208" s="76" t="str">
         <f t="shared" si="80"/>
         <v>Electricity Supply</v>
@@ -23577,7 +23570,7 @@
       <c r="S208" s="55"/>
       <c r="T208" s="55"/>
     </row>
-    <row r="209" spans="1:20" ht="42.75">
+    <row r="209" spans="1:20" ht="45">
       <c r="A209" s="76" t="str">
         <f t="shared" si="80"/>
         <v>Electricity Supply</v>
@@ -23620,7 +23613,7 @@
       <c r="S209" s="55"/>
       <c r="T209" s="55"/>
     </row>
-    <row r="210" spans="1:20" ht="42.75">
+    <row r="210" spans="1:20" ht="45">
       <c r="A210" s="76" t="str">
         <f t="shared" si="80"/>
         <v>Electricity Supply</v>
@@ -23663,7 +23656,7 @@
       <c r="S210" s="55"/>
       <c r="T210" s="55"/>
     </row>
-    <row r="211" spans="1:20" ht="42.75">
+    <row r="211" spans="1:20" ht="45">
       <c r="A211" s="76" t="str">
         <f t="shared" si="80"/>
         <v>Electricity Supply</v>
@@ -23706,7 +23699,7 @@
       <c r="S211" s="55"/>
       <c r="T211" s="55"/>
     </row>
-    <row r="212" spans="1:20" ht="42.75">
+    <row r="212" spans="1:20" ht="45">
       <c r="A212" s="76" t="str">
         <f t="shared" si="80"/>
         <v>Electricity Supply</v>
@@ -23749,7 +23742,7 @@
       <c r="S212" s="55"/>
       <c r="T212" s="55"/>
     </row>
-    <row r="213" spans="1:20" ht="42.75">
+    <row r="213" spans="1:20" ht="45">
       <c r="A213" s="76" t="str">
         <f t="shared" si="80"/>
         <v>Electricity Supply</v>
@@ -23792,7 +23785,7 @@
       <c r="S213" s="55"/>
       <c r="T213" s="55"/>
     </row>
-    <row r="214" spans="1:20" ht="85.5">
+    <row r="214" spans="1:20" ht="105">
       <c r="A214" s="96" t="s">
         <v>8</v>
       </c>
@@ -23844,7 +23837,7 @@
       </c>
       <c r="T214" s="55"/>
     </row>
-    <row r="215" spans="1:20" ht="71.25">
+    <row r="215" spans="1:20" ht="90">
       <c r="A215" s="96" t="s">
         <v>8</v>
       </c>
@@ -23896,7 +23889,7 @@
       </c>
       <c r="T215" s="55"/>
     </row>
-    <row r="216" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="216" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A216" s="96" t="s">
         <v>8</v>
       </c>
@@ -23934,7 +23927,7 @@
       <c r="S216" s="57"/>
       <c r="T216" s="57"/>
     </row>
-    <row r="217" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="217" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A217" s="76" t="str">
         <f t="shared" ref="A217:C231" si="82">A$216</f>
         <v>Electricity Supply</v>
@@ -23974,7 +23967,7 @@
       <c r="S217" s="57"/>
       <c r="T217" s="57"/>
     </row>
-    <row r="218" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="218" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A218" s="76" t="str">
         <f t="shared" si="82"/>
         <v>Electricity Supply</v>
@@ -24014,7 +24007,7 @@
       <c r="S218" s="57"/>
       <c r="T218" s="57"/>
     </row>
-    <row r="219" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="219" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A219" s="76" t="str">
         <f t="shared" si="82"/>
         <v>Electricity Supply</v>
@@ -24054,7 +24047,7 @@
       <c r="S219" s="57"/>
       <c r="T219" s="57"/>
     </row>
-    <row r="220" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="220" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A220" s="76" t="str">
         <f t="shared" si="82"/>
         <v>Electricity Supply</v>
@@ -24094,7 +24087,7 @@
       <c r="S220" s="57"/>
       <c r="T220" s="57"/>
     </row>
-    <row r="221" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="221" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A221" s="76" t="str">
         <f t="shared" si="82"/>
         <v>Electricity Supply</v>
@@ -24134,7 +24127,7 @@
       <c r="S221" s="57"/>
       <c r="T221" s="57"/>
     </row>
-    <row r="222" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="222" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A222" s="76" t="str">
         <f t="shared" si="82"/>
         <v>Electricity Supply</v>
@@ -24174,7 +24167,7 @@
       <c r="S222" s="57"/>
       <c r="T222" s="57"/>
     </row>
-    <row r="223" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="223" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A223" s="76" t="str">
         <f t="shared" si="82"/>
         <v>Electricity Supply</v>
@@ -24214,7 +24207,7 @@
       <c r="S223" s="57"/>
       <c r="T223" s="57"/>
     </row>
-    <row r="224" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="224" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A224" s="76" t="str">
         <f t="shared" si="82"/>
         <v>Electricity Supply</v>
@@ -24254,7 +24247,7 @@
       <c r="S224" s="57"/>
       <c r="T224" s="57"/>
     </row>
-    <row r="225" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="225" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A225" s="76" t="str">
         <f t="shared" si="82"/>
         <v>Electricity Supply</v>
@@ -24294,7 +24287,7 @@
       <c r="S225" s="57"/>
       <c r="T225" s="57"/>
     </row>
-    <row r="226" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="226" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A226" s="76" t="str">
         <f t="shared" si="82"/>
         <v>Electricity Supply</v>
@@ -24334,7 +24327,7 @@
       <c r="S226" s="57"/>
       <c r="T226" s="57"/>
     </row>
-    <row r="227" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="227" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A227" s="76" t="str">
         <f t="shared" si="82"/>
         <v>Electricity Supply</v>
@@ -24374,7 +24367,7 @@
       <c r="S227" s="57"/>
       <c r="T227" s="57"/>
     </row>
-    <row r="228" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="228" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A228" s="76" t="str">
         <f t="shared" si="82"/>
         <v>Electricity Supply</v>
@@ -24414,7 +24407,7 @@
       <c r="S228" s="57"/>
       <c r="T228" s="57"/>
     </row>
-    <row r="229" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="229" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A229" s="76" t="str">
         <f t="shared" si="82"/>
         <v>Electricity Supply</v>
@@ -24454,7 +24447,7 @@
       <c r="S229" s="57"/>
       <c r="T229" s="57"/>
     </row>
-    <row r="230" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="230" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A230" s="76" t="str">
         <f t="shared" si="82"/>
         <v>Electricity Supply</v>
@@ -24494,7 +24487,7 @@
       <c r="S230" s="57"/>
       <c r="T230" s="57"/>
     </row>
-    <row r="231" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="231" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A231" s="76" t="str">
         <f t="shared" si="82"/>
         <v>Electricity Supply</v>
@@ -24534,7 +24527,7 @@
       <c r="S231" s="57"/>
       <c r="T231" s="57"/>
     </row>
-    <row r="232" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="232" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A232" s="96" t="s">
         <v>8</v>
       </c>
@@ -24570,7 +24563,7 @@
       <c r="S232" s="57"/>
       <c r="T232" s="57"/>
     </row>
-    <row r="233" spans="1:20" s="5" customFormat="1" ht="85.5">
+    <row r="233" spans="1:20" s="5" customFormat="1" ht="90">
       <c r="A233" s="96" t="s">
         <v>8</v>
       </c>
@@ -24622,7 +24615,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="234" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="234" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A234" s="97" t="s">
         <v>8</v>
       </c>
@@ -24660,7 +24653,7 @@
       <c r="S234" s="10"/>
       <c r="T234" s="10"/>
     </row>
-    <row r="235" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="235" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A235" s="89" t="str">
         <f t="shared" ref="A235:C264" si="84">A$234</f>
         <v>Electricity Supply</v>
@@ -24703,7 +24696,7 @@
       <c r="S235" s="10"/>
       <c r="T235" s="10"/>
     </row>
-    <row r="236" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="236" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A236" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -24746,7 +24739,7 @@
       <c r="S236" s="10"/>
       <c r="T236" s="10"/>
     </row>
-    <row r="237" spans="1:20" s="3" customFormat="1" ht="71.25">
+    <row r="237" spans="1:20" s="3" customFormat="1" ht="75">
       <c r="A237" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -24811,7 +24804,7 @@
       </c>
       <c r="T237" s="10"/>
     </row>
-    <row r="238" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="238" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A238" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -24854,7 +24847,7 @@
       <c r="S238" s="10"/>
       <c r="T238" s="10"/>
     </row>
-    <row r="239" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="239" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A239" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -24897,7 +24890,7 @@
       <c r="S239" s="10"/>
       <c r="T239" s="10"/>
     </row>
-    <row r="240" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="240" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A240" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -24940,7 +24933,7 @@
       <c r="S240" s="10"/>
       <c r="T240" s="10"/>
     </row>
-    <row r="241" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="241" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A241" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -24983,7 +24976,7 @@
       <c r="S241" s="10"/>
       <c r="T241" s="10"/>
     </row>
-    <row r="242" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="242" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A242" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25026,7 +25019,7 @@
       <c r="S242" s="10"/>
       <c r="T242" s="10"/>
     </row>
-    <row r="243" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="243" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A243" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25069,7 +25062,7 @@
       <c r="S243" s="10"/>
       <c r="T243" s="10"/>
     </row>
-    <row r="244" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="244" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A244" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25112,7 +25105,7 @@
       <c r="S244" s="10"/>
       <c r="T244" s="10"/>
     </row>
-    <row r="245" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="245" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A245" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25155,7 +25148,7 @@
       <c r="S245" s="10"/>
       <c r="T245" s="10"/>
     </row>
-    <row r="246" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="246" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A246" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25198,7 +25191,7 @@
       <c r="S246" s="10"/>
       <c r="T246" s="10"/>
     </row>
-    <row r="247" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="247" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A247" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25241,7 +25234,7 @@
       <c r="S247" s="10"/>
       <c r="T247" s="10"/>
     </row>
-    <row r="248" spans="1:20" s="3" customFormat="1" ht="71.25">
+    <row r="248" spans="1:20" s="3" customFormat="1" ht="90">
       <c r="A248" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25306,7 +25299,7 @@
       </c>
       <c r="T248" s="10"/>
     </row>
-    <row r="249" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="249" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A249" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25349,7 +25342,7 @@
       <c r="S249" s="10"/>
       <c r="T249" s="10"/>
     </row>
-    <row r="250" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="250" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A250" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25392,7 +25385,7 @@
       <c r="S250" s="10"/>
       <c r="T250" s="10"/>
     </row>
-    <row r="251" spans="1:20" s="3" customFormat="1" ht="71.25">
+    <row r="251" spans="1:20" s="3" customFormat="1" ht="90">
       <c r="A251" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25457,7 +25450,7 @@
       </c>
       <c r="T251" s="10"/>
     </row>
-    <row r="252" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="252" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A252" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25500,7 +25493,7 @@
       <c r="S252" s="10"/>
       <c r="T252" s="10"/>
     </row>
-    <row r="253" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="253" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A253" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25543,7 +25536,7 @@
       <c r="S253" s="10"/>
       <c r="T253" s="10"/>
     </row>
-    <row r="254" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="254" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A254" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25586,7 +25579,7 @@
       <c r="S254" s="10"/>
       <c r="T254" s="10"/>
     </row>
-    <row r="255" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="255" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A255" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25629,7 +25622,7 @@
       <c r="S255" s="10"/>
       <c r="T255" s="10"/>
     </row>
-    <row r="256" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="256" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A256" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25672,7 +25665,7 @@
       <c r="S256" s="10"/>
       <c r="T256" s="10"/>
     </row>
-    <row r="257" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="257" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A257" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25715,7 +25708,7 @@
       <c r="S257" s="10"/>
       <c r="T257" s="10"/>
     </row>
-    <row r="258" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="258" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A258" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25758,7 +25751,7 @@
       <c r="S258" s="10"/>
       <c r="T258" s="10"/>
     </row>
-    <row r="259" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="259" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A259" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25801,7 +25794,7 @@
       <c r="S259" s="10"/>
       <c r="T259" s="10"/>
     </row>
-    <row r="260" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="260" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A260" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25844,7 +25837,7 @@
       <c r="S260" s="10"/>
       <c r="T260" s="10"/>
     </row>
-    <row r="261" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="261" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A261" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25887,7 +25880,7 @@
       <c r="S261" s="10"/>
       <c r="T261" s="10"/>
     </row>
-    <row r="262" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="262" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A262" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25930,7 +25923,7 @@
       <c r="S262" s="10"/>
       <c r="T262" s="10"/>
     </row>
-    <row r="263" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="263" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A263" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -25973,7 +25966,7 @@
       <c r="S263" s="10"/>
       <c r="T263" s="10"/>
     </row>
-    <row r="264" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="264" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A264" s="89" t="str">
         <f t="shared" si="84"/>
         <v>Electricity Supply</v>
@@ -26016,7 +26009,7 @@
       <c r="S264" s="10"/>
       <c r="T264" s="10"/>
     </row>
-    <row r="265" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="265" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A265" s="89" t="str">
         <f t="shared" ref="A265:C278" si="86">A$234</f>
         <v>Electricity Supply</v>
@@ -26059,7 +26052,7 @@
       <c r="S265" s="10"/>
       <c r="T265" s="10"/>
     </row>
-    <row r="266" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="266" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A266" s="89" t="str">
         <f t="shared" si="86"/>
         <v>Electricity Supply</v>
@@ -26102,7 +26095,7 @@
       <c r="S266" s="10"/>
       <c r="T266" s="10"/>
     </row>
-    <row r="267" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="267" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A267" s="89" t="str">
         <f t="shared" si="86"/>
         <v>Electricity Supply</v>
@@ -26145,7 +26138,7 @@
       <c r="S267" s="10"/>
       <c r="T267" s="10"/>
     </row>
-    <row r="268" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="268" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A268" s="89" t="str">
         <f t="shared" si="86"/>
         <v>Electricity Supply</v>
@@ -26188,7 +26181,7 @@
       <c r="S268" s="10"/>
       <c r="T268" s="10"/>
     </row>
-    <row r="269" spans="1:20" s="3" customFormat="1" ht="85.5">
+    <row r="269" spans="1:20" s="3" customFormat="1" ht="105">
       <c r="A269" s="89" t="str">
         <f t="shared" si="86"/>
         <v>Electricity Supply</v>
@@ -26253,7 +26246,7 @@
       </c>
       <c r="T269" s="10"/>
     </row>
-    <row r="270" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="270" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A270" s="89" t="str">
         <f t="shared" si="86"/>
         <v>Electricity Supply</v>
@@ -26295,7 +26288,7 @@
       <c r="S270" s="10"/>
       <c r="T270" s="10"/>
     </row>
-    <row r="271" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="271" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A271" s="89" t="str">
         <f t="shared" si="86"/>
         <v>Electricity Supply</v>
@@ -26336,7 +26329,7 @@
       <c r="S271" s="10"/>
       <c r="T271" s="10"/>
     </row>
-    <row r="272" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="272" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A272" s="89" t="str">
         <f t="shared" si="86"/>
         <v>Electricity Supply</v>
@@ -26377,7 +26370,7 @@
       <c r="S272" s="10"/>
       <c r="T272" s="10"/>
     </row>
-    <row r="273" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="273" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A273" s="89" t="str">
         <f t="shared" si="86"/>
         <v>Electricity Supply</v>
@@ -26419,7 +26412,7 @@
       <c r="S273" s="10"/>
       <c r="T273" s="10"/>
     </row>
-    <row r="274" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="274" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A274" s="89" t="str">
         <f t="shared" si="86"/>
         <v>Electricity Supply</v>
@@ -26460,7 +26453,7 @@
       <c r="S274" s="10"/>
       <c r="T274" s="10"/>
     </row>
-    <row r="275" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="275" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A275" s="89" t="str">
         <f t="shared" si="86"/>
         <v>Electricity Supply</v>
@@ -26502,7 +26495,7 @@
       <c r="S275" s="10"/>
       <c r="T275" s="10"/>
     </row>
-    <row r="276" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="276" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A276" s="89" t="str">
         <f t="shared" si="86"/>
         <v>Electricity Supply</v>
@@ -26544,7 +26537,7 @@
       <c r="S276" s="10"/>
       <c r="T276" s="10"/>
     </row>
-    <row r="277" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="277" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A277" s="89" t="str">
         <f t="shared" si="86"/>
         <v>Electricity Supply</v>
@@ -26587,7 +26580,7 @@
       <c r="S277" s="10"/>
       <c r="T277" s="10"/>
     </row>
-    <row r="278" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="278" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A278" s="89" t="str">
         <f t="shared" si="86"/>
         <v>Electricity Supply</v>
@@ -26630,7 +26623,7 @@
       <c r="S278" s="10"/>
       <c r="T278" s="10"/>
     </row>
-    <row r="279" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="279" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A279" s="97" t="s">
         <v>8</v>
       </c>
@@ -26684,7 +26677,7 @@
       <c r="S279" s="10"/>
       <c r="T279" s="10"/>
     </row>
-    <row r="280" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="280" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A280" s="89" t="str">
         <f>A$279</f>
         <v>Electricity Supply</v>
@@ -26749,7 +26742,7 @@
       <c r="S280" s="10"/>
       <c r="T280" s="10"/>
     </row>
-    <row r="281" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="281" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A281" s="89" t="str">
         <f>A$279</f>
         <v>Electricity Supply</v>
@@ -26814,7 +26807,7 @@
       <c r="S281" s="10"/>
       <c r="T281" s="10"/>
     </row>
-    <row r="282" spans="1:20" s="3" customFormat="1" ht="71.25">
+    <row r="282" spans="1:20" s="3" customFormat="1" ht="90">
       <c r="A282" s="97" t="s">
         <v>8</v>
       </c>
@@ -26866,7 +26859,7 @@
       </c>
       <c r="T282" s="10"/>
     </row>
-    <row r="283" spans="1:20" s="3" customFormat="1" ht="42.75">
+    <row r="283" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A283" s="97" t="s">
         <v>8</v>
       </c>
@@ -26914,7 +26907,7 @@
       <c r="S283" s="10"/>
       <c r="T283" s="10"/>
     </row>
-    <row r="284" spans="1:20" s="3" customFormat="1" ht="42.75">
+    <row r="284" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A284" s="89" t="str">
         <f>A$283</f>
         <v>Electricity Supply</v>
@@ -26972,7 +26965,7 @@
       <c r="S284" s="10"/>
       <c r="T284" s="10"/>
     </row>
-    <row r="285" spans="1:20" s="3" customFormat="1" ht="85.5">
+    <row r="285" spans="1:20" s="3" customFormat="1" ht="105">
       <c r="A285" s="89" t="str">
         <f t="shared" ref="A285:A295" si="96">A$283</f>
         <v>Electricity Supply</v>
@@ -27036,7 +27029,7 @@
       </c>
       <c r="T285" s="10"/>
     </row>
-    <row r="286" spans="1:20" s="3" customFormat="1" ht="42.75">
+    <row r="286" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A286" s="89" t="str">
         <f t="shared" si="96"/>
         <v>Electricity Supply</v>
@@ -27094,7 +27087,7 @@
       <c r="S286" s="10"/>
       <c r="T286" s="10"/>
     </row>
-    <row r="287" spans="1:20" s="3" customFormat="1" ht="85.5">
+    <row r="287" spans="1:20" s="3" customFormat="1" ht="90">
       <c r="A287" s="89" t="str">
         <f t="shared" si="96"/>
         <v>Electricity Supply</v>
@@ -27158,7 +27151,7 @@
       </c>
       <c r="T287" s="10"/>
     </row>
-    <row r="288" spans="1:20" s="3" customFormat="1" ht="99.75">
+    <row r="288" spans="1:20" s="3" customFormat="1" ht="105">
       <c r="A288" s="89" t="str">
         <f t="shared" si="96"/>
         <v>Electricity Supply</v>
@@ -27222,7 +27215,7 @@
       </c>
       <c r="T288" s="10"/>
     </row>
-    <row r="289" spans="1:20" s="3" customFormat="1" ht="71.25">
+    <row r="289" spans="1:20" s="3" customFormat="1" ht="90">
       <c r="A289" s="89" t="str">
         <f t="shared" si="96"/>
         <v>Electricity Supply</v>
@@ -27286,7 +27279,7 @@
       </c>
       <c r="T289" s="10"/>
     </row>
-    <row r="290" spans="1:20" s="3" customFormat="1" ht="85.5">
+    <row r="290" spans="1:20" s="3" customFormat="1" ht="90">
       <c r="A290" s="89" t="str">
         <f t="shared" si="96"/>
         <v>Electricity Supply</v>
@@ -27350,7 +27343,7 @@
       </c>
       <c r="T290" s="10"/>
     </row>
-    <row r="291" spans="1:20" s="3" customFormat="1" ht="42.75">
+    <row r="291" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A291" s="89" t="str">
         <f t="shared" si="96"/>
         <v>Electricity Supply</v>
@@ -27408,7 +27401,7 @@
       <c r="S291" s="10"/>
       <c r="T291" s="10"/>
     </row>
-    <row r="292" spans="1:20" s="3" customFormat="1" ht="71.25">
+    <row r="292" spans="1:20" s="3" customFormat="1" ht="90">
       <c r="A292" s="89" t="str">
         <f t="shared" si="96"/>
         <v>Electricity Supply</v>
@@ -27472,7 +27465,7 @@
       </c>
       <c r="T292" s="10"/>
     </row>
-    <row r="293" spans="1:20" s="3" customFormat="1" ht="42.75">
+    <row r="293" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A293" s="89" t="str">
         <f t="shared" si="96"/>
         <v>Electricity Supply</v>
@@ -27530,7 +27523,7 @@
       <c r="S293" s="10"/>
       <c r="T293" s="10"/>
     </row>
-    <row r="294" spans="1:20" s="3" customFormat="1" ht="42.75">
+    <row r="294" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A294" s="89" t="str">
         <f t="shared" si="96"/>
         <v>Electricity Supply</v>
@@ -27588,7 +27581,7 @@
       <c r="S294" s="10"/>
       <c r="T294" s="10"/>
     </row>
-    <row r="295" spans="1:20" s="3" customFormat="1" ht="42.75">
+    <row r="295" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A295" s="89" t="str">
         <f t="shared" si="96"/>
         <v>Electricity Supply</v>
@@ -27646,7 +27639,7 @@
       <c r="S295" s="10"/>
       <c r="T295" s="10"/>
     </row>
-    <row r="296" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="296" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A296" s="96" t="s">
         <v>8</v>
       </c>
@@ -27686,7 +27679,7 @@
       <c r="S296" s="10"/>
       <c r="T296" s="57"/>
     </row>
-    <row r="297" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="297" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A297" s="76" t="str">
         <f t="shared" ref="A297:C308" si="97">A$296</f>
         <v>Electricity Supply</v>
@@ -27731,7 +27724,7 @@
       <c r="S297" s="10"/>
       <c r="T297" s="57"/>
     </row>
-    <row r="298" spans="1:20" s="5" customFormat="1" ht="57">
+    <row r="298" spans="1:20" s="5" customFormat="1" ht="75">
       <c r="A298" s="76" t="str">
         <f t="shared" si="97"/>
         <v>Electricity Supply</v>
@@ -27793,7 +27786,7 @@
       </c>
       <c r="T298" s="55"/>
     </row>
-    <row r="299" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="299" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A299" s="76" t="str">
         <f t="shared" si="97"/>
         <v>Electricity Supply</v>
@@ -27836,7 +27829,7 @@
       <c r="S299" s="57"/>
       <c r="T299" s="57"/>
     </row>
-    <row r="300" spans="1:20" ht="57">
+    <row r="300" spans="1:20" ht="75">
       <c r="A300" s="76" t="str">
         <f t="shared" si="97"/>
         <v>Electricity Supply</v>
@@ -27903,7 +27896,7 @@
       </c>
       <c r="T300" s="55"/>
     </row>
-    <row r="301" spans="1:20" ht="57">
+    <row r="301" spans="1:20" ht="75">
       <c r="A301" s="76" t="str">
         <f t="shared" si="97"/>
         <v>Electricity Supply</v>
@@ -27970,7 +27963,7 @@
       </c>
       <c r="T301" s="55"/>
     </row>
-    <row r="302" spans="1:20" ht="57">
+    <row r="302" spans="1:20" ht="75">
       <c r="A302" s="76" t="str">
         <f t="shared" si="97"/>
         <v>Electricity Supply</v>
@@ -28037,7 +28030,7 @@
       </c>
       <c r="T302" s="55"/>
     </row>
-    <row r="303" spans="1:20" ht="57">
+    <row r="303" spans="1:20" ht="60">
       <c r="A303" s="76" t="str">
         <f t="shared" si="97"/>
         <v>Electricity Supply</v>
@@ -28104,7 +28097,7 @@
       </c>
       <c r="T303" s="55"/>
     </row>
-    <row r="304" spans="1:20" ht="28.5">
+    <row r="304" spans="1:20" ht="30">
       <c r="A304" s="76" t="str">
         <f t="shared" si="97"/>
         <v>Electricity Supply</v>
@@ -28147,7 +28140,7 @@
       <c r="S304" s="57"/>
       <c r="T304" s="55"/>
     </row>
-    <row r="305" spans="1:20" ht="57">
+    <row r="305" spans="1:20" ht="75">
       <c r="A305" s="76" t="str">
         <f t="shared" si="97"/>
         <v>Electricity Supply</v>
@@ -28214,7 +28207,7 @@
       </c>
       <c r="T305" s="55"/>
     </row>
-    <row r="306" spans="1:20" ht="28.5">
+    <row r="306" spans="1:20" ht="30">
       <c r="A306" s="76" t="str">
         <f t="shared" si="97"/>
         <v>Electricity Supply</v>
@@ -28257,7 +28250,7 @@
       <c r="S306" s="57"/>
       <c r="T306" s="55"/>
     </row>
-    <row r="307" spans="1:20" ht="28.5">
+    <row r="307" spans="1:20" ht="30">
       <c r="A307" s="76" t="str">
         <f t="shared" si="97"/>
         <v>Electricity Supply</v>
@@ -28300,7 +28293,7 @@
       <c r="S307" s="57"/>
       <c r="T307" s="55"/>
     </row>
-    <row r="308" spans="1:20" ht="28.5">
+    <row r="308" spans="1:20" ht="30">
       <c r="A308" s="76" t="str">
         <f t="shared" si="97"/>
         <v>Electricity Supply</v>
@@ -28343,7 +28336,7 @@
       <c r="S308" s="57"/>
       <c r="T308" s="55"/>
     </row>
-    <row r="309" spans="1:20" ht="42.75">
+    <row r="309" spans="1:20" ht="45">
       <c r="A309" s="96" t="s">
         <v>9</v>
       </c>
@@ -28395,7 +28388,7 @@
       </c>
       <c r="T309" s="55"/>
     </row>
-    <row r="310" spans="1:20" s="5" customFormat="1" ht="57">
+    <row r="310" spans="1:20" s="5" customFormat="1" ht="75">
       <c r="A310" s="96" t="s">
         <v>9</v>
       </c>
@@ -28447,7 +28440,7 @@
       </c>
       <c r="T310" s="57"/>
     </row>
-    <row r="311" spans="1:20" s="5" customFormat="1" ht="57">
+    <row r="311" spans="1:20" s="5" customFormat="1" ht="75">
       <c r="A311" s="96" t="s">
         <v>9</v>
       </c>
@@ -28499,7 +28492,7 @@
       </c>
       <c r="T311" s="57"/>
     </row>
-    <row r="312" spans="1:20" s="5" customFormat="1" ht="71.25">
+    <row r="312" spans="1:20" s="5" customFormat="1" ht="90">
       <c r="A312" s="96" t="s">
         <v>9</v>
       </c>
@@ -28557,7 +28550,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="313" spans="1:20" s="5" customFormat="1" ht="85.5">
+    <row r="313" spans="1:20" s="5" customFormat="1" ht="105">
       <c r="A313" s="76" t="str">
         <f>A$312</f>
         <v>Industry</v>
@@ -28623,7 +28616,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="314" spans="1:20" s="5" customFormat="1" ht="85.5">
+    <row r="314" spans="1:20" s="5" customFormat="1" ht="105">
       <c r="A314" s="76" t="str">
         <f t="shared" ref="A314:A319" si="106">A$312</f>
         <v>Industry</v>
@@ -28689,7 +28682,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="315" spans="1:20" s="5" customFormat="1" ht="85.5">
+    <row r="315" spans="1:20" s="5" customFormat="1" ht="105">
       <c r="A315" s="76" t="str">
         <f t="shared" si="106"/>
         <v>Industry</v>
@@ -28755,7 +28748,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="316" spans="1:20" s="5" customFormat="1" ht="85.5">
+    <row r="316" spans="1:20" s="5" customFormat="1" ht="105">
       <c r="A316" s="76" t="str">
         <f t="shared" si="106"/>
         <v>Industry</v>
@@ -28821,7 +28814,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="317" spans="1:20" s="5" customFormat="1" ht="85.5">
+    <row r="317" spans="1:20" s="5" customFormat="1" ht="105">
       <c r="A317" s="76" t="str">
         <f t="shared" si="106"/>
         <v>Industry</v>
@@ -28887,7 +28880,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="128.25">
+    <row r="318" spans="1:20" ht="150">
       <c r="A318" s="76" t="str">
         <f t="shared" si="106"/>
         <v>Industry</v>
@@ -28954,7 +28947,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="319" spans="1:20" s="5" customFormat="1" ht="85.5">
+    <row r="319" spans="1:20" s="5" customFormat="1" ht="105">
       <c r="A319" s="76" t="str">
         <f t="shared" si="106"/>
         <v>Industry</v>
@@ -29020,7 +29013,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="320" spans="1:20" s="5" customFormat="1" ht="42.75">
+    <row r="320" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A320" s="96" t="s">
         <v>9</v>
       </c>
@@ -29072,7 +29065,7 @@
       </c>
       <c r="T320" s="57"/>
     </row>
-    <row r="321" spans="1:20" ht="28.5">
+    <row r="321" spans="1:20" ht="30">
       <c r="A321" s="96" t="s">
         <v>9</v>
       </c>
@@ -29128,7 +29121,7 @@
       <c r="S321" s="55"/>
       <c r="T321" s="55"/>
     </row>
-    <row r="322" spans="1:20" ht="114">
+    <row r="322" spans="1:20" ht="135">
       <c r="A322" s="76" t="str">
         <f t="shared" ref="A322:C353" si="107">A$321</f>
         <v>Industry</v>
@@ -29197,7 +29190,7 @@
       <c r="S322" s="55"/>
       <c r="T322" s="55"/>
     </row>
-    <row r="323" spans="1:20" ht="114">
+    <row r="323" spans="1:20" ht="135">
       <c r="A323" s="76" t="str">
         <f>A$321</f>
         <v>Industry</v>
@@ -29266,7 +29259,7 @@
       <c r="S323" s="55"/>
       <c r="T323" s="55"/>
     </row>
-    <row r="324" spans="1:20" ht="114">
+    <row r="324" spans="1:20" ht="135">
       <c r="A324" s="76" t="str">
         <f t="shared" ref="A324:C355" si="111">A$321</f>
         <v>Industry</v>
@@ -29335,7 +29328,7 @@
       <c r="S324" s="55"/>
       <c r="T324" s="55"/>
     </row>
-    <row r="325" spans="1:20" ht="114">
+    <row r="325" spans="1:20" ht="135">
       <c r="A325" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -29404,7 +29397,7 @@
       <c r="S325" s="55"/>
       <c r="T325" s="55"/>
     </row>
-    <row r="326" spans="1:20" ht="28.5">
+    <row r="326" spans="1:20" ht="30">
       <c r="A326" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -29471,7 +29464,7 @@
       <c r="S326" s="55"/>
       <c r="T326" s="55"/>
     </row>
-    <row r="327" spans="1:20" ht="28.5">
+    <row r="327" spans="1:20" ht="30">
       <c r="A327" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -29538,7 +29531,7 @@
       <c r="S327" s="55"/>
       <c r="T327" s="55"/>
     </row>
-    <row r="328" spans="1:20" ht="114">
+    <row r="328" spans="1:20" ht="135">
       <c r="A328" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -29607,7 +29600,7 @@
       <c r="S328" s="55"/>
       <c r="T328" s="55"/>
     </row>
-    <row r="329" spans="1:20" ht="128.25">
+    <row r="329" spans="1:20" ht="135">
       <c r="A329" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -29676,7 +29669,7 @@
       <c r="S329" s="55"/>
       <c r="T329" s="55"/>
     </row>
-    <row r="330" spans="1:20" ht="28.5">
+    <row r="330" spans="1:20" ht="30">
       <c r="A330" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -29743,7 +29736,7 @@
       <c r="S330" s="55"/>
       <c r="T330" s="55"/>
     </row>
-    <row r="331" spans="1:20" ht="28.5">
+    <row r="331" spans="1:20" ht="30">
       <c r="A331" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -29810,7 +29803,7 @@
       <c r="S331" s="55"/>
       <c r="T331" s="55"/>
     </row>
-    <row r="332" spans="1:20" ht="114">
+    <row r="332" spans="1:20" ht="135">
       <c r="A332" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -29879,7 +29872,7 @@
       <c r="S332" s="55"/>
       <c r="T332" s="55"/>
     </row>
-    <row r="333" spans="1:20" ht="128.25">
+    <row r="333" spans="1:20" ht="150">
       <c r="A333" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -29948,7 +29941,7 @@
       <c r="S333" s="55"/>
       <c r="T333" s="55"/>
     </row>
-    <row r="334" spans="1:20" ht="128.25">
+    <row r="334" spans="1:20" ht="150">
       <c r="A334" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -30017,7 +30010,7 @@
       <c r="S334" s="55"/>
       <c r="T334" s="55"/>
     </row>
-    <row r="335" spans="1:20" ht="28.5">
+    <row r="335" spans="1:20" ht="30">
       <c r="A335" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -30084,7 +30077,7 @@
       <c r="S335" s="55"/>
       <c r="T335" s="55"/>
     </row>
-    <row r="336" spans="1:20" ht="28.5">
+    <row r="336" spans="1:20" ht="30">
       <c r="A336" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -30151,7 +30144,7 @@
       <c r="S336" s="55"/>
       <c r="T336" s="55"/>
     </row>
-    <row r="337" spans="1:20" ht="128.25">
+    <row r="337" spans="1:20" ht="150">
       <c r="A337" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -30220,7 +30213,7 @@
       <c r="S337" s="55"/>
       <c r="T337" s="55"/>
     </row>
-    <row r="338" spans="1:20" ht="28.5">
+    <row r="338" spans="1:20" ht="30">
       <c r="A338" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -30287,7 +30280,7 @@
       <c r="S338" s="55"/>
       <c r="T338" s="55"/>
     </row>
-    <row r="339" spans="1:20" ht="28.5">
+    <row r="339" spans="1:20" ht="30">
       <c r="A339" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -30354,7 +30347,7 @@
       <c r="S339" s="55"/>
       <c r="T339" s="55"/>
     </row>
-    <row r="340" spans="1:20" ht="28.5">
+    <row r="340" spans="1:20" ht="30">
       <c r="A340" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -30421,7 +30414,7 @@
       <c r="S340" s="55"/>
       <c r="T340" s="55"/>
     </row>
-    <row r="341" spans="1:20" ht="28.5">
+    <row r="341" spans="1:20" ht="30">
       <c r="A341" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -30488,7 +30481,7 @@
       <c r="S341" s="55"/>
       <c r="T341" s="55"/>
     </row>
-    <row r="342" spans="1:20" ht="114">
+    <row r="342" spans="1:20" ht="135">
       <c r="A342" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -30557,7 +30550,7 @@
       <c r="S342" s="55"/>
       <c r="T342" s="55"/>
     </row>
-    <row r="343" spans="1:20" ht="114">
+    <row r="343" spans="1:20" ht="135">
       <c r="A343" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -30626,7 +30619,7 @@
       <c r="S343" s="55"/>
       <c r="T343" s="55"/>
     </row>
-    <row r="344" spans="1:20" ht="28.5">
+    <row r="344" spans="1:20" ht="30">
       <c r="A344" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -30693,7 +30686,7 @@
       <c r="S344" s="55"/>
       <c r="T344" s="55"/>
     </row>
-    <row r="345" spans="1:20" ht="114">
+    <row r="345" spans="1:20" ht="135">
       <c r="A345" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -30762,7 +30755,7 @@
       <c r="S345" s="55"/>
       <c r="T345" s="55"/>
     </row>
-    <row r="346" spans="1:20" ht="28.5">
+    <row r="346" spans="1:20" ht="30">
       <c r="A346" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -30829,7 +30822,7 @@
       <c r="S346" s="55"/>
       <c r="T346" s="55"/>
     </row>
-    <row r="347" spans="1:20" ht="28.5">
+    <row r="347" spans="1:20" ht="30">
       <c r="A347" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -30896,7 +30889,7 @@
       <c r="S347" s="55"/>
       <c r="T347" s="55"/>
     </row>
-    <row r="348" spans="1:20" ht="128.25">
+    <row r="348" spans="1:20" ht="150">
       <c r="A348" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -30965,7 +30958,7 @@
       <c r="S348" s="55"/>
       <c r="T348" s="55"/>
     </row>
-    <row r="349" spans="1:20" ht="128.25">
+    <row r="349" spans="1:20" ht="150">
       <c r="A349" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -31034,7 +31027,7 @@
       <c r="S349" s="55"/>
       <c r="T349" s="55"/>
     </row>
-    <row r="350" spans="1:20" ht="28.5">
+    <row r="350" spans="1:20" ht="30">
       <c r="A350" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -31101,7 +31094,7 @@
       <c r="S350" s="55"/>
       <c r="T350" s="55"/>
     </row>
-    <row r="351" spans="1:20" ht="28.5">
+    <row r="351" spans="1:20" ht="30">
       <c r="A351" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -31168,7 +31161,7 @@
       <c r="S351" s="55"/>
       <c r="T351" s="55"/>
     </row>
-    <row r="352" spans="1:20" ht="114">
+    <row r="352" spans="1:20" ht="135">
       <c r="A352" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -31237,7 +31230,7 @@
       <c r="S352" s="55"/>
       <c r="T352" s="55"/>
     </row>
-    <row r="353" spans="1:20" ht="114">
+    <row r="353" spans="1:20" ht="135">
       <c r="A353" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -31306,7 +31299,7 @@
       <c r="S353" s="55"/>
       <c r="T353" s="55"/>
     </row>
-    <row r="354" spans="1:20" ht="28.5">
+    <row r="354" spans="1:20" ht="30">
       <c r="A354" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -31373,7 +31366,7 @@
       <c r="S354" s="55"/>
       <c r="T354" s="55"/>
     </row>
-    <row r="355" spans="1:20" ht="114">
+    <row r="355" spans="1:20" ht="135">
       <c r="A355" s="76" t="str">
         <f t="shared" si="111"/>
         <v>Industry</v>
@@ -31442,7 +31435,7 @@
       <c r="S355" s="55"/>
       <c r="T355" s="55"/>
     </row>
-    <row r="356" spans="1:20" ht="28.5">
+    <row r="356" spans="1:20" ht="30">
       <c r="A356" s="76" t="str">
         <f t="shared" ref="A356:C400" si="113">A$321</f>
         <v>Industry</v>
@@ -31509,7 +31502,7 @@
       <c r="S356" s="55"/>
       <c r="T356" s="55"/>
     </row>
-    <row r="357" spans="1:20" ht="28.5">
+    <row r="357" spans="1:20" ht="30">
       <c r="A357" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -31576,7 +31569,7 @@
       <c r="S357" s="55"/>
       <c r="T357" s="55"/>
     </row>
-    <row r="358" spans="1:20" ht="114">
+    <row r="358" spans="1:20" ht="150">
       <c r="A358" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -31645,7 +31638,7 @@
       <c r="S358" s="55"/>
       <c r="T358" s="55"/>
     </row>
-    <row r="359" spans="1:20" ht="128.25">
+    <row r="359" spans="1:20" ht="150">
       <c r="A359" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -31714,7 +31707,7 @@
       <c r="S359" s="55"/>
       <c r="T359" s="55"/>
     </row>
-    <row r="360" spans="1:20" ht="28.5">
+    <row r="360" spans="1:20" ht="30">
       <c r="A360" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -31781,7 +31774,7 @@
       <c r="S360" s="55"/>
       <c r="T360" s="55"/>
     </row>
-    <row r="361" spans="1:20" ht="28.5">
+    <row r="361" spans="1:20" ht="30">
       <c r="A361" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -31848,7 +31841,7 @@
       <c r="S361" s="55"/>
       <c r="T361" s="55"/>
     </row>
-    <row r="362" spans="1:20" ht="114">
+    <row r="362" spans="1:20" ht="135">
       <c r="A362" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -31917,7 +31910,7 @@
       <c r="S362" s="55"/>
       <c r="T362" s="55"/>
     </row>
-    <row r="363" spans="1:20" ht="114">
+    <row r="363" spans="1:20" ht="135">
       <c r="A363" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -31986,7 +31979,7 @@
       <c r="S363" s="55"/>
       <c r="T363" s="55"/>
     </row>
-    <row r="364" spans="1:20" ht="28.5">
+    <row r="364" spans="1:20" ht="30">
       <c r="A364" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -32053,7 +32046,7 @@
       <c r="S364" s="55"/>
       <c r="T364" s="55"/>
     </row>
-    <row r="365" spans="1:20" ht="114">
+    <row r="365" spans="1:20" ht="135">
       <c r="A365" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -32122,7 +32115,7 @@
       <c r="S365" s="55"/>
       <c r="T365" s="55"/>
     </row>
-    <row r="366" spans="1:20" ht="28.5">
+    <row r="366" spans="1:20" ht="30">
       <c r="A366" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -32189,7 +32182,7 @@
       <c r="S366" s="55"/>
       <c r="T366" s="55"/>
     </row>
-    <row r="367" spans="1:20" ht="28.5">
+    <row r="367" spans="1:20" ht="30">
       <c r="A367" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -32256,7 +32249,7 @@
       <c r="S367" s="55"/>
       <c r="T367" s="55"/>
     </row>
-    <row r="368" spans="1:20" ht="114">
+    <row r="368" spans="1:20" ht="135">
       <c r="A368" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -32325,7 +32318,7 @@
       <c r="S368" s="55"/>
       <c r="T368" s="55"/>
     </row>
-    <row r="369" spans="1:20" ht="28.5">
+    <row r="369" spans="1:20" ht="30">
       <c r="A369" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -32392,7 +32385,7 @@
       <c r="S369" s="55"/>
       <c r="T369" s="55"/>
     </row>
-    <row r="370" spans="1:20" ht="28.5">
+    <row r="370" spans="1:20" ht="30">
       <c r="A370" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -32459,7 +32452,7 @@
       <c r="S370" s="55"/>
       <c r="T370" s="55"/>
     </row>
-    <row r="371" spans="1:20" ht="28.5">
+    <row r="371" spans="1:20" ht="30">
       <c r="A371" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -32526,7 +32519,7 @@
       <c r="S371" s="55"/>
       <c r="T371" s="55"/>
     </row>
-    <row r="372" spans="1:20" ht="28.5">
+    <row r="372" spans="1:20" ht="30">
       <c r="A372" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -32593,7 +32586,7 @@
       <c r="S372" s="55"/>
       <c r="T372" s="55"/>
     </row>
-    <row r="373" spans="1:20" ht="28.5">
+    <row r="373" spans="1:20" ht="30">
       <c r="A373" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -32660,7 +32653,7 @@
       <c r="S373" s="55"/>
       <c r="T373" s="55"/>
     </row>
-    <row r="374" spans="1:20" ht="28.5">
+    <row r="374" spans="1:20" ht="30">
       <c r="A374" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -32727,7 +32720,7 @@
       <c r="S374" s="55"/>
       <c r="T374" s="55"/>
     </row>
-    <row r="375" spans="1:20" ht="28.5">
+    <row r="375" spans="1:20" ht="30">
       <c r="A375" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -32794,7 +32787,7 @@
       <c r="S375" s="55"/>
       <c r="T375" s="55"/>
     </row>
-    <row r="376" spans="1:20" ht="28.5">
+    <row r="376" spans="1:20" ht="30">
       <c r="A376" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -32861,7 +32854,7 @@
       <c r="S376" s="55"/>
       <c r="T376" s="55"/>
     </row>
-    <row r="377" spans="1:20" ht="28.5">
+    <row r="377" spans="1:20" ht="30">
       <c r="A377" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -32928,7 +32921,7 @@
       <c r="S377" s="55"/>
       <c r="T377" s="55"/>
     </row>
-    <row r="378" spans="1:20" ht="28.5">
+    <row r="378" spans="1:20" ht="30">
       <c r="A378" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -32995,7 +32988,7 @@
       <c r="S378" s="55"/>
       <c r="T378" s="55"/>
     </row>
-    <row r="379" spans="1:20" ht="28.5">
+    <row r="379" spans="1:20" ht="30">
       <c r="A379" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -33062,7 +33055,7 @@
       <c r="S379" s="55"/>
       <c r="T379" s="55"/>
     </row>
-    <row r="380" spans="1:20" ht="28.5">
+    <row r="380" spans="1:20" ht="30">
       <c r="A380" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -33129,7 +33122,7 @@
       <c r="S380" s="55"/>
       <c r="T380" s="55"/>
     </row>
-    <row r="381" spans="1:20" ht="28.5">
+    <row r="381" spans="1:20" ht="30">
       <c r="A381" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -33196,7 +33189,7 @@
       <c r="S381" s="55"/>
       <c r="T381" s="55"/>
     </row>
-    <row r="382" spans="1:20" ht="28.5">
+    <row r="382" spans="1:20" ht="30">
       <c r="A382" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -33263,7 +33256,7 @@
       <c r="S382" s="55"/>
       <c r="T382" s="55"/>
     </row>
-    <row r="383" spans="1:20" ht="114">
+    <row r="383" spans="1:20" ht="135">
       <c r="A383" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -33332,7 +33325,7 @@
       <c r="S383" s="55"/>
       <c r="T383" s="55"/>
     </row>
-    <row r="384" spans="1:20" ht="28.5">
+    <row r="384" spans="1:20" ht="30">
       <c r="A384" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -33399,7 +33392,7 @@
       <c r="S384" s="55"/>
       <c r="T384" s="55"/>
     </row>
-    <row r="385" spans="1:20" ht="114">
+    <row r="385" spans="1:20" ht="135">
       <c r="A385" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -33468,7 +33461,7 @@
       <c r="S385" s="55"/>
       <c r="T385" s="55"/>
     </row>
-    <row r="386" spans="1:20" ht="28.5">
+    <row r="386" spans="1:20" ht="30">
       <c r="A386" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -33535,7 +33528,7 @@
       <c r="S386" s="55"/>
       <c r="T386" s="55"/>
     </row>
-    <row r="387" spans="1:20" ht="28.5">
+    <row r="387" spans="1:20" ht="30">
       <c r="A387" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -33602,7 +33595,7 @@
       <c r="S387" s="55"/>
       <c r="T387" s="55"/>
     </row>
-    <row r="388" spans="1:20" ht="114">
+    <row r="388" spans="1:20" ht="135">
       <c r="A388" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -33671,7 +33664,7 @@
       <c r="S388" s="55"/>
       <c r="T388" s="55"/>
     </row>
-    <row r="389" spans="1:20" ht="114">
+    <row r="389" spans="1:20" ht="135">
       <c r="A389" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -33740,7 +33733,7 @@
       <c r="S389" s="55"/>
       <c r="T389" s="55"/>
     </row>
-    <row r="390" spans="1:20" ht="28.5">
+    <row r="390" spans="1:20" ht="30">
       <c r="A390" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -33807,7 +33800,7 @@
       <c r="S390" s="55"/>
       <c r="T390" s="55"/>
     </row>
-    <row r="391" spans="1:20" ht="28.5">
+    <row r="391" spans="1:20" ht="30">
       <c r="A391" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -33874,7 +33867,7 @@
       <c r="S391" s="55"/>
       <c r="T391" s="55"/>
     </row>
-    <row r="392" spans="1:20" ht="114">
+    <row r="392" spans="1:20" ht="135">
       <c r="A392" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -33943,7 +33936,7 @@
       <c r="S392" s="55"/>
       <c r="T392" s="55"/>
     </row>
-    <row r="393" spans="1:20" ht="114">
+    <row r="393" spans="1:20" ht="135">
       <c r="A393" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -34012,7 +34005,7 @@
       <c r="S393" s="55"/>
       <c r="T393" s="55"/>
     </row>
-    <row r="394" spans="1:20" ht="28.5">
+    <row r="394" spans="1:20" ht="30">
       <c r="A394" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -34079,7 +34072,7 @@
       <c r="S394" s="55"/>
       <c r="T394" s="55"/>
     </row>
-    <row r="395" spans="1:20" ht="114">
+    <row r="395" spans="1:20" ht="135">
       <c r="A395" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -34148,7 +34141,7 @@
       <c r="S395" s="55"/>
       <c r="T395" s="55"/>
     </row>
-    <row r="396" spans="1:20" ht="28.5">
+    <row r="396" spans="1:20" ht="30">
       <c r="A396" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -34215,7 +34208,7 @@
       <c r="S396" s="55"/>
       <c r="T396" s="55"/>
     </row>
-    <row r="397" spans="1:20" ht="28.5">
+    <row r="397" spans="1:20" ht="30">
       <c r="A397" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -34282,7 +34275,7 @@
       <c r="S397" s="55"/>
       <c r="T397" s="55"/>
     </row>
-    <row r="398" spans="1:20" ht="128.25">
+    <row r="398" spans="1:20" ht="150">
       <c r="A398" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -34351,7 +34344,7 @@
       <c r="S398" s="55"/>
       <c r="T398" s="55"/>
     </row>
-    <row r="399" spans="1:20" ht="128.25">
+    <row r="399" spans="1:20" ht="150">
       <c r="A399" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -34420,7 +34413,7 @@
       <c r="S399" s="55"/>
       <c r="T399" s="55"/>
     </row>
-    <row r="400" spans="1:20" ht="28.5">
+    <row r="400" spans="1:20" ht="30">
       <c r="A400" s="76" t="str">
         <f t="shared" si="113"/>
         <v>Industry</v>
@@ -34487,7 +34480,7 @@
       <c r="S400" s="55"/>
       <c r="T400" s="55"/>
     </row>
-    <row r="401" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="401" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A401" s="97" t="s">
         <v>9</v>
       </c>
@@ -34539,7 +34532,7 @@
       </c>
       <c r="T401" s="10"/>
     </row>
-    <row r="402" spans="1:20" s="3" customFormat="1" ht="42.75">
+    <row r="402" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A402" s="97" t="s">
         <v>9</v>
       </c>
@@ -34591,7 +34584,7 @@
       </c>
       <c r="T402" s="10"/>
     </row>
-    <row r="403" spans="1:20" s="3" customFormat="1" ht="42.75">
+    <row r="403" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A403" s="97" t="s">
         <v>9</v>
       </c>
@@ -34643,7 +34636,7 @@
       </c>
       <c r="T403" s="10"/>
     </row>
-    <row r="404" spans="1:20" s="3" customFormat="1" ht="42.75">
+    <row r="404" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A404" s="97" t="s">
         <v>9</v>
       </c>
@@ -34695,7 +34688,7 @@
       </c>
       <c r="T404" s="10"/>
     </row>
-    <row r="405" spans="1:20" s="5" customFormat="1" ht="85.5">
+    <row r="405" spans="1:20" s="5" customFormat="1" ht="105">
       <c r="A405" s="96" t="s">
         <v>9</v>
       </c>
@@ -34749,7 +34742,7 @@
       </c>
       <c r="T405" s="57"/>
     </row>
-    <row r="406" spans="1:20" s="5" customFormat="1" ht="71.25">
+    <row r="406" spans="1:20" s="5" customFormat="1" ht="75">
       <c r="A406" s="76" t="str">
         <f t="shared" ref="A406:C407" si="117">A$405</f>
         <v>Industry</v>
@@ -34813,7 +34806,7 @@
       </c>
       <c r="T406" s="57"/>
     </row>
-    <row r="407" spans="1:20" s="5" customFormat="1" ht="71.25">
+    <row r="407" spans="1:20" s="5" customFormat="1" ht="75">
       <c r="A407" s="76" t="str">
         <f t="shared" si="117"/>
         <v>Industry</v>
@@ -34875,7 +34868,7 @@
       <c r="S407" s="55"/>
       <c r="T407" s="57"/>
     </row>
-    <row r="408" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="408" spans="1:20" s="5" customFormat="1" ht="120">
       <c r="A408" s="76" t="str">
         <f t="shared" ref="A408:C408" si="121">A$405</f>
         <v>Industry</v>
@@ -34938,7 +34931,7 @@
       </c>
       <c r="T408" s="57"/>
     </row>
-    <row r="409" spans="1:20" s="5" customFormat="1" ht="71.25">
+    <row r="409" spans="1:20" s="5" customFormat="1" ht="75">
       <c r="A409" s="76" t="str">
         <f>A$405</f>
         <v>Industry</v>
@@ -35002,7 +34995,7 @@
       </c>
       <c r="T409" s="57"/>
     </row>
-    <row r="410" spans="1:20" ht="42.75">
+    <row r="410" spans="1:20" ht="60">
       <c r="A410" s="96" t="s">
         <v>9</v>
       </c>
@@ -35058,7 +35051,7 @@
       </c>
       <c r="T410" s="55"/>
     </row>
-    <row r="411" spans="1:20" ht="42.75">
+    <row r="411" spans="1:20" ht="45">
       <c r="A411" s="76" t="str">
         <f>A$410</f>
         <v>Industry</v>
@@ -35126,7 +35119,7 @@
       </c>
       <c r="T411" s="55"/>
     </row>
-    <row r="412" spans="1:20" ht="42.75">
+    <row r="412" spans="1:20" ht="60">
       <c r="A412" s="76" t="str">
         <f>A$410</f>
         <v>Industry</v>
@@ -35194,7 +35187,7 @@
       </c>
       <c r="T412" s="55"/>
     </row>
-    <row r="413" spans="1:20" ht="42.75">
+    <row r="413" spans="1:20" ht="60">
       <c r="A413" s="96" t="s">
         <v>9</v>
       </c>
@@ -35251,7 +35244,7 @@
       </c>
       <c r="T413" s="55"/>
     </row>
-    <row r="414" spans="1:20" ht="42.75">
+    <row r="414" spans="1:20" ht="45">
       <c r="A414" s="76" t="str">
         <f>A$413</f>
         <v>Industry</v>
@@ -35319,7 +35312,7 @@
       </c>
       <c r="T414" s="55"/>
     </row>
-    <row r="415" spans="1:20" ht="42.75">
+    <row r="415" spans="1:20" ht="60">
       <c r="A415" s="76" t="str">
         <f t="shared" ref="A415" si="128">A$413</f>
         <v>Industry</v>
@@ -35387,7 +35380,7 @@
       </c>
       <c r="T415" s="55"/>
     </row>
-    <row r="416" spans="1:20" ht="42.75">
+    <row r="416" spans="1:20" ht="60">
       <c r="A416" s="96" t="s">
         <v>9</v>
       </c>
@@ -35441,7 +35434,7 @@
       </c>
       <c r="T416" s="55"/>
     </row>
-    <row r="417" spans="1:20" ht="28.5">
+    <row r="417" spans="1:20" ht="45">
       <c r="A417" s="76" t="str">
         <f>A$416</f>
         <v>Industry</v>
@@ -35504,7 +35497,7 @@
       </c>
       <c r="T417" s="55"/>
     </row>
-    <row r="418" spans="1:20" ht="57">
+    <row r="418" spans="1:20" ht="60">
       <c r="A418" s="76" t="str">
         <f t="shared" ref="A418:A424" si="134">A$416</f>
         <v>Industry</v>
@@ -35569,7 +35562,7 @@
       </c>
       <c r="T418" s="55"/>
     </row>
-    <row r="419" spans="1:20" ht="42.75">
+    <row r="419" spans="1:20" ht="60">
       <c r="A419" s="76" t="str">
         <f t="shared" si="134"/>
         <v>Industry</v>
@@ -35634,7 +35627,7 @@
       </c>
       <c r="T419" s="55"/>
     </row>
-    <row r="420" spans="1:20" ht="57">
+    <row r="420" spans="1:20" ht="60">
       <c r="A420" s="76" t="str">
         <f t="shared" si="134"/>
         <v>Industry</v>
@@ -35699,7 +35692,7 @@
       </c>
       <c r="T420" s="55"/>
     </row>
-    <row r="421" spans="1:20" ht="28.5">
+    <row r="421" spans="1:20" ht="30">
       <c r="A421" s="76" t="str">
         <f t="shared" si="134"/>
         <v>Industry</v>
@@ -35741,7 +35734,7 @@
       </c>
       <c r="T421" s="55"/>
     </row>
-    <row r="422" spans="1:20" ht="28.5">
+    <row r="422" spans="1:20" ht="45">
       <c r="A422" s="76" t="str">
         <f t="shared" si="134"/>
         <v>Industry</v>
@@ -35804,7 +35797,7 @@
       </c>
       <c r="T422" s="55"/>
     </row>
-    <row r="423" spans="1:20" ht="57">
+    <row r="423" spans="1:20" ht="60">
       <c r="A423" s="76" t="str">
         <f t="shared" si="134"/>
         <v>Industry</v>
@@ -35869,7 +35862,7 @@
       </c>
       <c r="T423" s="55"/>
     </row>
-    <row r="424" spans="1:20" ht="57">
+    <row r="424" spans="1:20" ht="60">
       <c r="A424" s="76" t="str">
         <f t="shared" si="134"/>
         <v>Industry</v>
@@ -35934,7 +35927,7 @@
       </c>
       <c r="T424" s="55"/>
     </row>
-    <row r="425" spans="1:20" ht="71.25">
+    <row r="425" spans="1:20" ht="75">
       <c r="A425" s="96" t="s">
         <v>154</v>
       </c>
@@ -35988,7 +35981,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="426" spans="1:20" ht="42.75">
+    <row r="426" spans="1:20" ht="45">
       <c r="A426" s="96" t="s">
         <v>154</v>
       </c>
@@ -36040,7 +36033,7 @@
       </c>
       <c r="T426" s="55"/>
     </row>
-    <row r="427" spans="1:20" ht="42.75">
+    <row r="427" spans="1:20" ht="45">
       <c r="A427" s="96" t="s">
         <v>154</v>
       </c>
@@ -36090,7 +36083,7 @@
       </c>
       <c r="T427" s="55"/>
     </row>
-    <row r="428" spans="1:20" ht="28.5">
+    <row r="428" spans="1:20" ht="45">
       <c r="A428" s="96" t="s">
         <v>154</v>
       </c>
@@ -36142,7 +36135,7 @@
       </c>
       <c r="T428" s="55"/>
     </row>
-    <row r="429" spans="1:20" ht="57">
+    <row r="429" spans="1:20" ht="60">
       <c r="A429" s="96" t="s">
         <v>154</v>
       </c>
@@ -36194,7 +36187,7 @@
       </c>
       <c r="T429" s="55"/>
     </row>
-    <row r="430" spans="1:20" ht="42.75">
+    <row r="430" spans="1:20" ht="45">
       <c r="A430" s="96" t="s">
         <v>154</v>
       </c>
@@ -36246,7 +36239,7 @@
       </c>
       <c r="T430" s="55"/>
     </row>
-    <row r="431" spans="1:20" ht="42.75">
+    <row r="431" spans="1:20" ht="45">
       <c r="A431" s="96" t="s">
         <v>154</v>
       </c>
@@ -36298,7 +36291,7 @@
       </c>
       <c r="T431" s="55"/>
     </row>
-    <row r="432" spans="1:20" ht="28.5">
+    <row r="432" spans="1:20" ht="30">
       <c r="A432" s="96" t="s">
         <v>154</v>
       </c>
@@ -36336,7 +36329,7 @@
       <c r="S432" s="55"/>
       <c r="T432" s="55"/>
     </row>
-    <row r="433" spans="1:20" ht="99.75">
+    <row r="433" spans="1:20" ht="120">
       <c r="A433" s="96" t="s">
         <v>154</v>
       </c>
@@ -36386,7 +36379,7 @@
       </c>
       <c r="T433" s="55"/>
     </row>
-    <row r="434" spans="1:20" s="3" customFormat="1" ht="42.75">
+    <row r="434" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A434" s="97" t="s">
         <v>960</v>
       </c>
@@ -36436,7 +36429,7 @@
       <c r="S434" s="55"/>
       <c r="T434" s="10"/>
     </row>
-    <row r="435" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="435" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A435" s="97" t="s">
         <v>960</v>
       </c>
@@ -36486,7 +36479,7 @@
       <c r="S435" s="55"/>
       <c r="T435" s="10"/>
     </row>
-    <row r="436" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="436" spans="1:20" s="3" customFormat="1" ht="75">
       <c r="A436" s="97" t="s">
         <v>960</v>
       </c>
@@ -36536,7 +36529,7 @@
       </c>
       <c r="T436" s="10"/>
     </row>
-    <row r="437" spans="1:20" ht="99.75">
+    <row r="437" spans="1:20" ht="105">
       <c r="A437" s="96" t="s">
         <v>10</v>
       </c>
@@ -36592,7 +36585,7 @@
       </c>
       <c r="T437" s="55"/>
     </row>
-    <row r="438" spans="1:20" ht="99.75">
+    <row r="438" spans="1:20" ht="120">
       <c r="A438" s="76" t="str">
         <f>A$437</f>
         <v>Cross-Sector</v>
@@ -36659,7 +36652,7 @@
       </c>
       <c r="T438" s="55"/>
     </row>
-    <row r="439" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="439" spans="1:20" s="5" customFormat="1" ht="120">
       <c r="A439" s="96" t="s">
         <v>10</v>
       </c>
@@ -36716,7 +36709,7 @@
       </c>
       <c r="T439" s="10"/>
     </row>
-    <row r="440" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="440" spans="1:20" s="5" customFormat="1" ht="120">
       <c r="A440" s="76" t="str">
         <f>A$439</f>
         <v>Cross-Sector</v>
@@ -36783,7 +36776,7 @@
       </c>
       <c r="T440" s="57"/>
     </row>
-    <row r="441" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="441" spans="1:20" s="5" customFormat="1" ht="120">
       <c r="A441" s="76" t="str">
         <f t="shared" ref="A441:C445" si="145">A$439</f>
         <v>Cross-Sector</v>
@@ -36850,7 +36843,7 @@
       </c>
       <c r="T441" s="57"/>
     </row>
-    <row r="442" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="442" spans="1:20" s="5" customFormat="1" ht="120">
       <c r="A442" s="76" t="str">
         <f t="shared" si="145"/>
         <v>Cross-Sector</v>
@@ -36917,7 +36910,7 @@
       </c>
       <c r="T442" s="57"/>
     </row>
-    <row r="443" spans="1:20" s="5" customFormat="1" ht="128.25">
+    <row r="443" spans="1:20" s="5" customFormat="1" ht="165">
       <c r="A443" s="76" t="str">
         <f t="shared" si="145"/>
         <v>Cross-Sector</v>
@@ -36984,7 +36977,7 @@
       </c>
       <c r="T443" s="57"/>
     </row>
-    <row r="444" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="444" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A444" s="76" t="str">
         <f t="shared" si="145"/>
         <v>Cross-Sector</v>
@@ -37070,7 +37063,7 @@
       <c r="S445" s="10"/>
       <c r="T445" s="57"/>
     </row>
-    <row r="446" spans="1:20" s="3" customFormat="1" ht="99.75">
+    <row r="446" spans="1:20" s="3" customFormat="1" ht="120">
       <c r="A446" s="97" t="s">
         <v>10</v>
       </c>
@@ -37122,7 +37115,7 @@
       </c>
       <c r="T446" s="10"/>
     </row>
-    <row r="447" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="447" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A447" s="96" t="s">
         <v>10</v>
       </c>
@@ -37162,7 +37155,7 @@
       <c r="S447" s="57"/>
       <c r="T447" s="57"/>
     </row>
-    <row r="448" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="448" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A448" s="76" t="str">
         <f>A$447</f>
         <v>Cross-Sector</v>
@@ -37219,7 +37212,7 @@
       <c r="S448" s="55"/>
       <c r="T448" s="57"/>
     </row>
-    <row r="449" spans="1:20" s="5" customFormat="1" ht="42.75">
+    <row r="449" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A449" s="76" t="str">
         <f t="shared" ref="A449:C464" si="148">A$447</f>
         <v>Cross-Sector</v>
@@ -37283,7 +37276,7 @@
       </c>
       <c r="T449" s="57"/>
     </row>
-    <row r="450" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="450" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A450" s="76" t="str">
         <f t="shared" si="148"/>
         <v>Cross-Sector</v>
@@ -37338,7 +37331,7 @@
       <c r="S450" s="55"/>
       <c r="T450" s="57"/>
     </row>
-    <row r="451" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="451" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A451" s="76" t="str">
         <f t="shared" si="148"/>
         <v>Cross-Sector</v>
@@ -37383,7 +37376,7 @@
       <c r="S451" s="55"/>
       <c r="T451" s="57"/>
     </row>
-    <row r="452" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="452" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A452" s="76" t="str">
         <f t="shared" si="148"/>
         <v>Cross-Sector</v>
@@ -37428,7 +37421,7 @@
       <c r="S452" s="55"/>
       <c r="T452" s="57"/>
     </row>
-    <row r="453" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="453" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A453" s="76" t="str">
         <f t="shared" si="148"/>
         <v>Cross-Sector</v>
@@ -37483,7 +37476,7 @@
       <c r="S453" s="55"/>
       <c r="T453" s="57"/>
     </row>
-    <row r="454" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="454" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A454" s="76" t="str">
         <f t="shared" si="148"/>
         <v>Cross-Sector</v>
@@ -37528,7 +37521,7 @@
       <c r="S454" s="57"/>
       <c r="T454" s="57"/>
     </row>
-    <row r="455" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="455" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A455" s="76" t="str">
         <f t="shared" si="148"/>
         <v>Cross-Sector</v>
@@ -37583,7 +37576,7 @@
       <c r="S455" s="55"/>
       <c r="T455" s="57"/>
     </row>
-    <row r="456" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="456" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A456" s="76" t="str">
         <f t="shared" si="148"/>
         <v>Cross-Sector</v>
@@ -37638,7 +37631,7 @@
       <c r="S456" s="55"/>
       <c r="T456" s="57"/>
     </row>
-    <row r="457" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="457" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A457" s="76" t="str">
         <f t="shared" si="148"/>
         <v>Cross-Sector</v>
@@ -37683,7 +37676,7 @@
       <c r="S457" s="57"/>
       <c r="T457" s="57"/>
     </row>
-    <row r="458" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="458" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A458" s="76" t="str">
         <f t="shared" si="148"/>
         <v>Cross-Sector</v>
@@ -37728,7 +37721,7 @@
       <c r="S458" s="57"/>
       <c r="T458" s="57"/>
     </row>
-    <row r="459" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="459" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A459" s="76" t="str">
         <f t="shared" si="148"/>
         <v>Cross-Sector</v>
@@ -37771,7 +37764,7 @@
       <c r="S459" s="55"/>
       <c r="T459" s="57"/>
     </row>
-    <row r="460" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="460" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A460" s="76" t="str">
         <f t="shared" si="148"/>
         <v>Cross-Sector</v>
@@ -37816,7 +37809,7 @@
       <c r="S460" s="57"/>
       <c r="T460" s="57"/>
     </row>
-    <row r="461" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="461" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A461" s="76" t="str">
         <f t="shared" si="148"/>
         <v>Cross-Sector</v>
@@ -37859,7 +37852,7 @@
       <c r="S461" s="57"/>
       <c r="T461" s="57"/>
     </row>
-    <row r="462" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="462" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A462" s="76" t="str">
         <f t="shared" si="148"/>
         <v>Cross-Sector</v>
@@ -37902,7 +37895,7 @@
       <c r="S462" s="57"/>
       <c r="T462" s="57"/>
     </row>
-    <row r="463" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="463" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A463" s="76" t="str">
         <f t="shared" si="148"/>
         <v>Cross-Sector</v>
@@ -37945,7 +37938,7 @@
       <c r="S463" s="57"/>
       <c r="T463" s="57"/>
     </row>
-    <row r="464" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="464" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A464" s="76" t="str">
         <f t="shared" si="148"/>
         <v>Cross-Sector</v>
@@ -37988,7 +37981,7 @@
       <c r="S464" s="57"/>
       <c r="T464" s="57"/>
     </row>
-    <row r="465" spans="1:20" s="5" customFormat="1" ht="42.75">
+    <row r="465" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A465" s="76" t="str">
         <f t="shared" ref="A465:C467" si="152">A$447</f>
         <v>Cross-Sector</v>
@@ -38046,7 +38039,7 @@
       </c>
       <c r="T465" s="57"/>
     </row>
-    <row r="466" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="466" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A466" s="76" t="str">
         <f t="shared" si="152"/>
         <v>Cross-Sector</v>
@@ -38089,7 +38082,7 @@
       <c r="S466" s="57"/>
       <c r="T466" s="57"/>
     </row>
-    <row r="467" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="467" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A467" s="76" t="str">
         <f t="shared" si="152"/>
         <v>Cross-Sector</v>
@@ -38132,7 +38125,7 @@
       <c r="S467" s="57"/>
       <c r="T467" s="57"/>
     </row>
-    <row r="468" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="468" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A468" s="97" t="s">
         <v>10</v>
       </c>
@@ -38166,7 +38159,7 @@
       <c r="S468" s="10"/>
       <c r="T468" s="10"/>
     </row>
-    <row r="469" spans="1:20" s="3" customFormat="1" ht="42.75">
+    <row r="469" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A469" s="97" t="s">
         <v>10</v>
       </c>
@@ -38204,7 +38197,7 @@
       <c r="S469" s="55"/>
       <c r="T469" s="10"/>
     </row>
-    <row r="470" spans="1:20" s="3" customFormat="1" ht="42.75">
+    <row r="470" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A470" s="76" t="str">
         <f>A$469</f>
         <v>Cross-Sector</v>
@@ -38245,7 +38238,7 @@
       <c r="S470" s="55"/>
       <c r="T470" s="10"/>
     </row>
-    <row r="471" spans="1:20" s="3" customFormat="1" ht="42.75">
+    <row r="471" spans="1:20" s="3" customFormat="1" ht="60">
       <c r="A471" s="76" t="str">
         <f>A$469</f>
         <v>Cross-Sector</v>
@@ -38286,7 +38279,7 @@
       <c r="S471" s="55"/>
       <c r="T471" s="10"/>
     </row>
-    <row r="472" spans="1:20" s="3" customFormat="1" ht="42.75">
+    <row r="472" spans="1:20" s="3" customFormat="1" ht="45">
       <c r="A472" s="97" t="s">
         <v>10</v>
       </c>
@@ -38334,7 +38327,7 @@
       <c r="S472" s="55"/>
       <c r="T472" s="10"/>
     </row>
-    <row r="473" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="473" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A473" s="76" t="str">
         <f>A$472</f>
         <v>Cross-Sector</v>
@@ -38377,7 +38370,7 @@
       <c r="S473" s="55"/>
       <c r="T473" s="10"/>
     </row>
-    <row r="474" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="474" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A474" s="76" t="str">
         <f t="shared" ref="A474:A486" si="156">A$472</f>
         <v>Cross-Sector</v>
@@ -38420,7 +38413,7 @@
       <c r="S474" s="55"/>
       <c r="T474" s="10"/>
     </row>
-    <row r="475" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="475" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A475" s="76" t="str">
         <f t="shared" si="156"/>
         <v>Cross-Sector</v>
@@ -38463,7 +38456,7 @@
       <c r="S475" s="55"/>
       <c r="T475" s="10"/>
     </row>
-    <row r="476" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="476" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A476" s="76" t="str">
         <f t="shared" si="156"/>
         <v>Cross-Sector</v>
@@ -38506,7 +38499,7 @@
       <c r="S476" s="55"/>
       <c r="T476" s="10"/>
     </row>
-    <row r="477" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="477" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A477" s="76" t="str">
         <f t="shared" si="156"/>
         <v>Cross-Sector</v>
@@ -38549,7 +38542,7 @@
       <c r="S477" s="55"/>
       <c r="T477" s="10"/>
     </row>
-    <row r="478" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="478" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A478" s="76" t="str">
         <f t="shared" si="156"/>
         <v>Cross-Sector</v>
@@ -38592,7 +38585,7 @@
       <c r="S478" s="55"/>
       <c r="T478" s="10"/>
     </row>
-    <row r="479" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="479" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A479" s="76" t="str">
         <f t="shared" si="156"/>
         <v>Cross-Sector</v>
@@ -38635,7 +38628,7 @@
       <c r="S479" s="55"/>
       <c r="T479" s="10"/>
     </row>
-    <row r="480" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="480" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A480" s="76" t="str">
         <f t="shared" si="156"/>
         <v>Cross-Sector</v>
@@ -38678,7 +38671,7 @@
       <c r="S480" s="55"/>
       <c r="T480" s="10"/>
     </row>
-    <row r="481" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="481" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A481" s="76" t="str">
         <f t="shared" si="156"/>
         <v>Cross-Sector</v>
@@ -38721,7 +38714,7 @@
       <c r="S481" s="55"/>
       <c r="T481" s="10"/>
     </row>
-    <row r="482" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="482" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A482" s="76" t="str">
         <f t="shared" si="156"/>
         <v>Cross-Sector</v>
@@ -38764,7 +38757,7 @@
       <c r="S482" s="55"/>
       <c r="T482" s="10"/>
     </row>
-    <row r="483" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="483" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A483" s="76" t="str">
         <f t="shared" si="156"/>
         <v>Cross-Sector</v>
@@ -38807,7 +38800,7 @@
       <c r="S483" s="55"/>
       <c r="T483" s="10"/>
     </row>
-    <row r="484" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="484" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A484" s="76" t="str">
         <f t="shared" si="156"/>
         <v>Cross-Sector</v>
@@ -38850,7 +38843,7 @@
       <c r="S484" s="55"/>
       <c r="T484" s="10"/>
     </row>
-    <row r="485" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="485" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A485" s="76" t="str">
         <f t="shared" si="156"/>
         <v>Cross-Sector</v>
@@ -38893,7 +38886,7 @@
       <c r="S485" s="55"/>
       <c r="T485" s="10"/>
     </row>
-    <row r="486" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="486" spans="1:20" s="3" customFormat="1" ht="30">
       <c r="A486" s="76" t="str">
         <f t="shared" si="156"/>
         <v>Cross-Sector</v>
@@ -38936,7 +38929,7 @@
       <c r="S486" s="55"/>
       <c r="T486" s="10"/>
     </row>
-    <row r="487" spans="1:20" s="5" customFormat="1" ht="42.75">
+    <row r="487" spans="1:20" s="5" customFormat="1" ht="60">
       <c r="A487" s="96" t="s">
         <v>10</v>
       </c>
@@ -38992,7 +38985,7 @@
       </c>
       <c r="T487" s="57"/>
     </row>
-    <row r="488" spans="1:20" s="5" customFormat="1" ht="57">
+    <row r="488" spans="1:20" s="5" customFormat="1" ht="75">
       <c r="A488" s="79" t="str">
         <f t="shared" ref="A488:C500" si="157">A$487</f>
         <v>Cross-Sector</v>
@@ -39058,7 +39051,7 @@
       </c>
       <c r="T488" s="57"/>
     </row>
-    <row r="489" spans="1:20" s="5" customFormat="1" ht="42.75">
+    <row r="489" spans="1:20" s="5" customFormat="1" ht="45">
       <c r="A489" s="79" t="str">
         <f t="shared" si="157"/>
         <v>Cross-Sector</v>
@@ -39124,7 +39117,7 @@
       </c>
       <c r="T489" s="57"/>
     </row>
-    <row r="490" spans="1:20" s="5" customFormat="1">
+    <row r="490" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A490" s="79" t="str">
         <f t="shared" si="157"/>
         <v>Cross-Sector</v>
@@ -39169,7 +39162,7 @@
       <c r="S490" s="57"/>
       <c r="T490" s="57"/>
     </row>
-    <row r="491" spans="1:20" s="5" customFormat="1">
+    <row r="491" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A491" s="79" t="str">
         <f t="shared" si="157"/>
         <v>Cross-Sector</v>
@@ -39214,7 +39207,7 @@
       <c r="S491" s="57"/>
       <c r="T491" s="57"/>
     </row>
-    <row r="492" spans="1:20" s="5" customFormat="1" ht="57">
+    <row r="492" spans="1:20" s="5" customFormat="1" ht="60">
       <c r="A492" s="79" t="str">
         <f t="shared" si="157"/>
         <v>Cross-Sector</v>
@@ -39280,7 +39273,7 @@
       </c>
       <c r="T492" s="57"/>
     </row>
-    <row r="493" spans="1:20" s="5" customFormat="1" ht="42.75">
+    <row r="493" spans="1:20" s="5" customFormat="1" ht="60">
       <c r="A493" s="79" t="str">
         <f t="shared" si="157"/>
         <v>Cross-Sector</v>
@@ -39346,7 +39339,7 @@
       </c>
       <c r="T493" s="57"/>
     </row>
-    <row r="494" spans="1:20" s="5" customFormat="1">
+    <row r="494" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A494" s="79" t="str">
         <f t="shared" si="157"/>
         <v>Cross-Sector</v>
@@ -39391,7 +39384,7 @@
       <c r="S494" s="57"/>
       <c r="T494" s="57"/>
     </row>
-    <row r="495" spans="1:20" s="5" customFormat="1">
+    <row r="495" spans="1:20" s="5" customFormat="1" ht="30">
       <c r="A495" s="79" t="str">
         <f t="shared" si="157"/>
         <v>Cross-Sector</v>
@@ -39436,7 +39429,7 @@
       <c r="S495" s="57"/>
       <c r="T495" s="57"/>
     </row>
-    <row r="496" spans="1:20" ht="42.75">
+    <row r="496" spans="1:20" ht="60">
       <c r="A496" s="79" t="str">
         <f t="shared" si="157"/>
         <v>Cross-Sector</v>
@@ -39497,7 +39490,7 @@
       </c>
       <c r="T496" s="55"/>
     </row>
-    <row r="497" spans="1:20">
+    <row r="497" spans="1:20" ht="30">
       <c r="A497" s="79" t="str">
         <f t="shared" si="157"/>
         <v>Cross-Sector</v>
@@ -39542,7 +39535,7 @@
       <c r="S497" s="55"/>
       <c r="T497" s="55"/>
     </row>
-    <row r="498" spans="1:20" ht="57">
+    <row r="498" spans="1:20" ht="75">
       <c r="A498" s="79" t="str">
         <f t="shared" si="157"/>
         <v>Cross-Sector</v>
@@ -39603,7 +39596,7 @@
       </c>
       <c r="T498" s="55"/>
     </row>
-    <row r="499" spans="1:20" ht="42.75">
+    <row r="499" spans="1:20" ht="45">
       <c r="A499" s="79" t="str">
         <f t="shared" si="157"/>
         <v>Cross-Sector</v>
@@ -39664,7 +39657,7 @@
       </c>
       <c r="T499" s="55"/>
     </row>
-    <row r="500" spans="1:20" ht="42.75">
+    <row r="500" spans="1:20" ht="45">
       <c r="A500" s="79" t="str">
         <f t="shared" si="157"/>
         <v>Cross-Sector</v>
@@ -39725,7 +39718,7 @@
       </c>
       <c r="T500" s="55"/>
     </row>
-    <row r="501" spans="1:20" ht="42.75">
+    <row r="501" spans="1:20" ht="45">
       <c r="A501" s="79" t="str">
         <f t="shared" ref="A501:C503" si="165">A$487</f>
         <v>Cross-Sector</v>
@@ -39786,7 +39779,7 @@
       </c>
       <c r="T501" s="55"/>
     </row>
-    <row r="502" spans="1:20">
+    <row r="502" spans="1:20" ht="30">
       <c r="A502" s="79" t="str">
         <f t="shared" si="165"/>
         <v>Cross-Sector</v>
@@ -39829,7 +39822,7 @@
       <c r="S502" s="55"/>
       <c r="T502" s="55"/>
     </row>
-    <row r="503" spans="1:20">
+    <row r="503" spans="1:20" ht="30">
       <c r="A503" s="79" t="str">
         <f t="shared" si="165"/>
         <v>Cross-Sector</v>
@@ -39872,7 +39865,7 @@
       <c r="S503" s="55"/>
       <c r="T503" s="55"/>
     </row>
-    <row r="504" spans="1:20" ht="85.5">
+    <row r="504" spans="1:20" ht="105">
       <c r="A504" s="96" t="s">
         <v>1183</v>
       </c>
@@ -39928,7 +39921,7 @@
       </c>
       <c r="T504" s="55"/>
     </row>
-    <row r="505" spans="1:20" ht="85.5">
+    <row r="505" spans="1:20" ht="105">
       <c r="A505" s="76" t="str">
         <f t="shared" ref="A505:A510" si="166">A$504</f>
         <v>Research and Development</v>
@@ -39993,7 +39986,7 @@
       </c>
       <c r="T505" s="55"/>
     </row>
-    <row r="506" spans="1:20" ht="85.5">
+    <row r="506" spans="1:20" ht="105">
       <c r="A506" s="76" t="str">
         <f t="shared" si="166"/>
         <v>Research and Development</v>
@@ -40058,7 +40051,7 @@
       </c>
       <c r="T506" s="55"/>
     </row>
-    <row r="507" spans="1:20" ht="85.5">
+    <row r="507" spans="1:20" ht="105">
       <c r="A507" s="76" t="str">
         <f t="shared" si="166"/>
         <v>Research and Development</v>
@@ -40123,7 +40116,7 @@
       </c>
       <c r="T507" s="55"/>
     </row>
-    <row r="508" spans="1:20" ht="85.5">
+    <row r="508" spans="1:20" ht="105">
       <c r="A508" s="76" t="str">
         <f t="shared" si="166"/>
         <v>Research and Development</v>
@@ -40188,7 +40181,7 @@
       </c>
       <c r="T508" s="55"/>
     </row>
-    <row r="509" spans="1:20" ht="99.75">
+    <row r="509" spans="1:20" ht="105">
       <c r="A509" s="76" t="str">
         <f t="shared" si="166"/>
         <v>Research and Development</v>
@@ -40253,7 +40246,7 @@
       </c>
       <c r="T509" s="55"/>
     </row>
-    <row r="510" spans="1:20" ht="99.75">
+    <row r="510" spans="1:20" ht="105">
       <c r="A510" s="76" t="str">
         <f t="shared" si="166"/>
         <v>Research and Development</v>
@@ -40310,7 +40303,7 @@
       </c>
       <c r="T510" s="55"/>
     </row>
-    <row r="511" spans="1:20" ht="85.5">
+    <row r="511" spans="1:20" ht="105">
       <c r="A511" s="96" t="s">
         <v>1183</v>
       </c>
@@ -40368,7 +40361,7 @@
       </c>
       <c r="T511" s="55"/>
     </row>
-    <row r="512" spans="1:20" ht="85.5">
+    <row r="512" spans="1:20" ht="105">
       <c r="A512" s="76" t="str">
         <f>A$511</f>
         <v>Research and Development</v>
@@ -40433,7 +40426,7 @@
       </c>
       <c r="T512" s="55"/>
     </row>
-    <row r="513" spans="1:20" ht="85.5">
+    <row r="513" spans="1:20" ht="105">
       <c r="A513" s="76" t="str">
         <f t="shared" ref="A513:C521" si="174">A$511</f>
         <v>Research and Development</v>
@@ -40498,7 +40491,7 @@
       </c>
       <c r="T513" s="55"/>
     </row>
-    <row r="514" spans="1:20" ht="85.5">
+    <row r="514" spans="1:20" ht="105">
       <c r="A514" s="76" t="str">
         <f t="shared" si="174"/>
         <v>Research and Development</v>
@@ -40563,7 +40556,7 @@
       </c>
       <c r="T514" s="55"/>
     </row>
-    <row r="515" spans="1:20" ht="85.5">
+    <row r="515" spans="1:20" ht="105">
       <c r="A515" s="76" t="str">
         <f t="shared" si="174"/>
         <v>Research and Development</v>
@@ -40628,7 +40621,7 @@
       </c>
       <c r="T515" s="55"/>
     </row>
-    <row r="516" spans="1:20" ht="85.5">
+    <row r="516" spans="1:20" ht="105">
       <c r="A516" s="76" t="str">
         <f t="shared" si="174"/>
         <v>Research and Development</v>
@@ -40693,7 +40686,7 @@
       </c>
       <c r="T516" s="55"/>
     </row>
-    <row r="517" spans="1:20" ht="85.5">
+    <row r="517" spans="1:20" ht="105">
       <c r="A517" s="76" t="str">
         <f t="shared" si="174"/>
         <v>Research and Development</v>
@@ -40758,7 +40751,7 @@
       </c>
       <c r="T517" s="55"/>
     </row>
-    <row r="518" spans="1:20" ht="85.5">
+    <row r="518" spans="1:20" ht="105">
       <c r="A518" s="76" t="str">
         <f t="shared" si="174"/>
         <v>Research and Development</v>
@@ -40823,7 +40816,7 @@
       </c>
       <c r="T518" s="55"/>
     </row>
-    <row r="519" spans="1:20" ht="85.5">
+    <row r="519" spans="1:20" ht="105">
       <c r="A519" s="76" t="str">
         <f>A$511</f>
         <v>Research and Development</v>
@@ -40888,7 +40881,7 @@
       </c>
       <c r="T519" s="55"/>
     </row>
-    <row r="520" spans="1:20" ht="85.5">
+    <row r="520" spans="1:20" ht="105">
       <c r="A520" s="76" t="str">
         <f t="shared" si="174"/>
         <v>Research and Development</v>
@@ -40953,7 +40946,7 @@
       </c>
       <c r="T520" s="55"/>
     </row>
-    <row r="521" spans="1:20" ht="85.5">
+    <row r="521" spans="1:20" ht="105">
       <c r="A521" s="76" t="str">
         <f t="shared" si="174"/>
         <v>Research and Development</v>
@@ -41018,7 +41011,7 @@
       </c>
       <c r="T521" s="55"/>
     </row>
-    <row r="522" spans="1:20" ht="85.5">
+    <row r="522" spans="1:20" ht="105">
       <c r="A522" s="96" t="s">
         <v>1183</v>
       </c>
@@ -41076,7 +41069,7 @@
       </c>
       <c r="T522" s="55"/>
     </row>
-    <row r="523" spans="1:20" ht="99.75">
+    <row r="523" spans="1:20" ht="105">
       <c r="A523" s="76" t="str">
         <f>A$522</f>
         <v>Research and Development</v>
@@ -41141,7 +41134,7 @@
       </c>
       <c r="T523" s="55"/>
     </row>
-    <row r="524" spans="1:20" ht="99.75">
+    <row r="524" spans="1:20" ht="105">
       <c r="A524" s="76" t="str">
         <f t="shared" ref="A524:A529" si="178">A$522</f>
         <v>Research and Development</v>
@@ -41206,7 +41199,7 @@
       </c>
       <c r="T524" s="55"/>
     </row>
-    <row r="525" spans="1:20" ht="99.75">
+    <row r="525" spans="1:20" ht="105">
       <c r="A525" s="76" t="str">
         <f t="shared" si="178"/>
         <v>Research and Development</v>
@@ -41271,7 +41264,7 @@
       </c>
       <c r="T525" s="55"/>
     </row>
-    <row r="526" spans="1:20" ht="85.5">
+    <row r="526" spans="1:20" ht="105">
       <c r="A526" s="76" t="str">
         <f t="shared" si="178"/>
         <v>Research and Development</v>
@@ -41336,7 +41329,7 @@
       </c>
       <c r="T526" s="55"/>
     </row>
-    <row r="527" spans="1:20" ht="99.75">
+    <row r="527" spans="1:20" ht="105">
       <c r="A527" s="76" t="str">
         <f t="shared" si="178"/>
         <v>Research and Development</v>
@@ -41401,7 +41394,7 @@
       </c>
       <c r="T527" s="55"/>
     </row>
-    <row r="528" spans="1:20" ht="99.75">
+    <row r="528" spans="1:20" ht="105">
       <c r="A528" s="76" t="str">
         <f t="shared" si="178"/>
         <v>Research and Development</v>
@@ -41466,7 +41459,7 @@
       </c>
       <c r="T528" s="55"/>
     </row>
-    <row r="529" spans="1:20" ht="85.5">
+    <row r="529" spans="1:20" ht="105">
       <c r="A529" s="76" t="str">
         <f t="shared" si="178"/>
         <v>Research and Development</v>
@@ -41531,7 +41524,7 @@
       </c>
       <c r="T529" s="55"/>
     </row>
-    <row r="530" spans="1:20" ht="85.5">
+    <row r="530" spans="1:20" ht="105">
       <c r="A530" s="96" t="s">
         <v>1183</v>
       </c>
@@ -41589,7 +41582,7 @@
       </c>
       <c r="T530" s="55"/>
     </row>
-    <row r="531" spans="1:20" ht="85.5">
+    <row r="531" spans="1:20" ht="105">
       <c r="A531" s="76" t="str">
         <f t="shared" ref="A531:A536" si="179">A$530</f>
         <v>Research and Development</v>
@@ -41654,7 +41647,7 @@
       </c>
       <c r="T531" s="55"/>
     </row>
-    <row r="532" spans="1:20" ht="99.75">
+    <row r="532" spans="1:20" ht="120">
       <c r="A532" s="76" t="str">
         <f t="shared" si="179"/>
         <v>Research and Development</v>
@@ -41719,7 +41712,7 @@
       </c>
       <c r="T532" s="55"/>
     </row>
-    <row r="533" spans="1:20" ht="99.75">
+    <row r="533" spans="1:20" ht="120">
       <c r="A533" s="76" t="str">
         <f t="shared" si="179"/>
         <v>Research and Development</v>
@@ -41784,7 +41777,7 @@
       </c>
       <c r="T533" s="55"/>
     </row>
-    <row r="534" spans="1:20" ht="85.5">
+    <row r="534" spans="1:20" ht="105">
       <c r="A534" s="76" t="str">
         <f t="shared" si="179"/>
         <v>Research and Development</v>
@@ -41849,7 +41842,7 @@
       </c>
       <c r="T534" s="55"/>
     </row>
-    <row r="535" spans="1:20" ht="85.5">
+    <row r="535" spans="1:20" ht="105">
       <c r="A535" s="76" t="str">
         <f t="shared" si="179"/>
         <v>Research and Development</v>
@@ -41914,7 +41907,7 @@
       </c>
       <c r="T535" s="55"/>
     </row>
-    <row r="536" spans="1:20" ht="85.5">
+    <row r="536" spans="1:20" ht="105">
       <c r="A536" s="76" t="str">
         <f t="shared" si="179"/>
         <v>Research and Development</v>
@@ -41979,7 +41972,7 @@
       </c>
       <c r="T536" s="55"/>
     </row>
-    <row r="537" spans="1:20" s="3" customFormat="1" ht="114">
+    <row r="537" spans="1:20" s="3" customFormat="1" ht="135">
       <c r="A537" s="97" t="s">
         <v>1183</v>
       </c>
@@ -42031,7 +42024,7 @@
       </c>
       <c r="T537" s="10"/>
     </row>
-    <row r="538" spans="1:20" ht="85.5">
+    <row r="538" spans="1:20" ht="105">
       <c r="A538" s="96" t="s">
         <v>1183</v>
       </c>
@@ -42087,7 +42080,7 @@
       </c>
       <c r="T538" s="55"/>
     </row>
-    <row r="539" spans="1:20" ht="85.5">
+    <row r="539" spans="1:20" ht="105">
       <c r="A539" s="76" t="str">
         <f>A$538</f>
         <v>Research and Development</v>
@@ -42152,7 +42145,7 @@
       </c>
       <c r="T539" s="55"/>
     </row>
-    <row r="540" spans="1:20" ht="28.5">
+    <row r="540" spans="1:20" ht="30">
       <c r="A540" s="76" t="str">
         <f>A$538</f>
         <v>Research and Development</v>
@@ -42195,7 +42188,7 @@
       <c r="S540" s="55"/>
       <c r="T540" s="55"/>
     </row>
-    <row r="541" spans="1:20" ht="85.5">
+    <row r="541" spans="1:20" ht="105">
       <c r="A541" s="76" t="str">
         <f>A$538</f>
         <v>Research and Development</v>
@@ -42260,7 +42253,7 @@
       </c>
       <c r="T541" s="55"/>
     </row>
-    <row r="542" spans="1:20" ht="85.5">
+    <row r="542" spans="1:20" ht="105">
       <c r="A542" s="76" t="str">
         <f>A$538</f>
         <v>Research and Development</v>
@@ -42325,7 +42318,7 @@
       </c>
       <c r="T542" s="55"/>
     </row>
-    <row r="543" spans="1:20" ht="85.5">
+    <row r="543" spans="1:20" ht="105">
       <c r="A543" s="76" t="str">
         <f>A$538</f>
         <v>Research and Development</v>
@@ -42390,7 +42383,7 @@
       </c>
       <c r="T543" s="55"/>
     </row>
-    <row r="544" spans="1:20" ht="99.75">
+    <row r="544" spans="1:20" ht="105">
       <c r="A544" s="96" t="s">
         <v>1183</v>
       </c>
@@ -42446,7 +42439,7 @@
       </c>
       <c r="T544" s="55"/>
     </row>
-    <row r="545" spans="1:20" ht="85.5">
+    <row r="545" spans="1:20" ht="105">
       <c r="A545" s="96" t="s">
         <v>1183</v>
       </c>
@@ -42504,7 +42497,7 @@
       </c>
       <c r="T545" s="55"/>
     </row>
-    <row r="546" spans="1:20" ht="85.5">
+    <row r="546" spans="1:20" ht="105">
       <c r="A546" s="76" t="str">
         <f>A$545</f>
         <v>Research and Development</v>
@@ -42569,7 +42562,7 @@
       </c>
       <c r="T546" s="55"/>
     </row>
-    <row r="547" spans="1:20" ht="85.5">
+    <row r="547" spans="1:20" ht="105">
       <c r="A547" s="76" t="str">
         <f t="shared" ref="A547:C555" si="190">A$545</f>
         <v>Research and Development</v>
@@ -42634,7 +42627,7 @@
       </c>
       <c r="T547" s="55"/>
     </row>
-    <row r="548" spans="1:20" ht="28.5">
+    <row r="548" spans="1:20" ht="45">
       <c r="A548" s="76" t="str">
         <f t="shared" si="190"/>
         <v>Research and Development</v>
@@ -42679,7 +42672,7 @@
       <c r="S548" s="55"/>
       <c r="T548" s="55"/>
     </row>
-    <row r="549" spans="1:20" ht="28.5">
+    <row r="549" spans="1:20" ht="45">
       <c r="A549" s="76" t="str">
         <f t="shared" si="190"/>
         <v>Research and Development</v>
@@ -42724,7 +42717,7 @@
       <c r="S549" s="55"/>
       <c r="T549" s="55"/>
     </row>
-    <row r="550" spans="1:20" ht="28.5">
+    <row r="550" spans="1:20" ht="45">
       <c r="A550" s="76" t="str">
         <f t="shared" si="190"/>
         <v>Research and Development</v>
@@ -42769,7 +42762,7 @@
       <c r="S550" s="55"/>
       <c r="T550" s="55"/>
     </row>
-    <row r="551" spans="1:20" ht="28.5">
+    <row r="551" spans="1:20" ht="45">
       <c r="A551" s="76" t="str">
         <f t="shared" si="190"/>
         <v>Research and Development</v>
@@ -42814,7 +42807,7 @@
       <c r="S551" s="55"/>
       <c r="T551" s="55"/>
     </row>
-    <row r="552" spans="1:20" ht="85.5">
+    <row r="552" spans="1:20" ht="105">
       <c r="A552" s="76" t="str">
         <f t="shared" si="190"/>
         <v>Research and Development</v>
@@ -42879,7 +42872,7 @@
       </c>
       <c r="T552" s="55"/>
     </row>
-    <row r="553" spans="1:20" ht="85.5">
+    <row r="553" spans="1:20" ht="105">
       <c r="A553" s="76" t="str">
         <f>A$545</f>
         <v>Research and Development</v>
@@ -42944,7 +42937,7 @@
       </c>
       <c r="T553" s="55"/>
     </row>
-    <row r="554" spans="1:20" ht="85.5">
+    <row r="554" spans="1:20" ht="105">
       <c r="A554" s="76" t="str">
         <f t="shared" si="190"/>
         <v>Research and Development</v>
@@ -43009,7 +43002,7 @@
       </c>
       <c r="T554" s="55"/>
     </row>
-    <row r="555" spans="1:20" ht="28.5">
+    <row r="555" spans="1:20" ht="45">
       <c r="A555" s="76" t="str">
         <f t="shared" si="190"/>
         <v>Research and Development</v>
@@ -43052,7 +43045,7 @@
       <c r="S555" s="55"/>
       <c r="T555" s="55"/>
     </row>
-    <row r="556" spans="1:20" ht="99.75">
+    <row r="556" spans="1:20" ht="105">
       <c r="A556" s="96" t="s">
         <v>1183</v>
       </c>
@@ -43110,7 +43103,7 @@
       </c>
       <c r="T556" s="55"/>
     </row>
-    <row r="557" spans="1:20" ht="99.75">
+    <row r="557" spans="1:20" ht="120">
       <c r="A557" s="76" t="str">
         <f>A$556</f>
         <v>Research and Development</v>
@@ -43175,7 +43168,7 @@
       </c>
       <c r="T557" s="55"/>
     </row>
-    <row r="558" spans="1:20" ht="99.75">
+    <row r="558" spans="1:20" ht="105">
       <c r="A558" s="76" t="str">
         <f t="shared" ref="A558:A563" si="197">A$556</f>
         <v>Research and Development</v>
@@ -43240,7 +43233,7 @@
       </c>
       <c r="T558" s="55"/>
     </row>
-    <row r="559" spans="1:20" ht="99.75">
+    <row r="559" spans="1:20" ht="105">
       <c r="A559" s="76" t="str">
         <f t="shared" si="197"/>
         <v>Research and Development</v>
@@ -43305,7 +43298,7 @@
       </c>
       <c r="T559" s="55"/>
     </row>
-    <row r="560" spans="1:20" ht="99.75">
+    <row r="560" spans="1:20" ht="105">
       <c r="A560" s="76" t="str">
         <f t="shared" si="197"/>
         <v>Research and Development</v>
@@ -43370,7 +43363,7 @@
       </c>
       <c r="T560" s="55"/>
     </row>
-    <row r="561" spans="1:20" ht="99.75">
+    <row r="561" spans="1:20" ht="105">
       <c r="A561" s="76" t="str">
         <f t="shared" si="197"/>
         <v>Research and Development</v>
@@ -43435,7 +43428,7 @@
       </c>
       <c r="T561" s="55"/>
     </row>
-    <row r="562" spans="1:20" ht="99.75">
+    <row r="562" spans="1:20" ht="105">
       <c r="A562" s="76" t="str">
         <f t="shared" si="197"/>
         <v>Research and Development</v>
@@ -43500,7 +43493,7 @@
       </c>
       <c r="T562" s="55"/>
     </row>
-    <row r="563" spans="1:20" ht="99.75">
+    <row r="563" spans="1:20" ht="105">
       <c r="A563" s="76" t="str">
         <f t="shared" si="197"/>
         <v>Research and Development</v>
@@ -43565,7 +43558,7 @@
       </c>
       <c r="T563" s="55"/>
     </row>
-    <row r="564" spans="1:20" ht="85.5">
+    <row r="564" spans="1:20" ht="105">
       <c r="A564" s="96" t="s">
         <v>1183</v>
       </c>
@@ -43623,7 +43616,7 @@
       </c>
       <c r="T564" s="55"/>
     </row>
-    <row r="565" spans="1:20" ht="85.5">
+    <row r="565" spans="1:20" ht="105">
       <c r="A565" s="76" t="str">
         <f t="shared" ref="A565:A570" si="198">A$564</f>
         <v>Research and Development</v>
@@ -43688,7 +43681,7 @@
       </c>
       <c r="T565" s="55"/>
     </row>
-    <row r="566" spans="1:20" ht="99.75">
+    <row r="566" spans="1:20" ht="120">
       <c r="A566" s="76" t="str">
         <f t="shared" si="198"/>
         <v>Research and Development</v>
@@ -43753,7 +43746,7 @@
       </c>
       <c r="T566" s="55"/>
     </row>
-    <row r="567" spans="1:20" ht="99.75">
+    <row r="567" spans="1:20" ht="120">
       <c r="A567" s="76" t="str">
         <f t="shared" si="198"/>
         <v>Research and Development</v>
@@ -43818,7 +43811,7 @@
       </c>
       <c r="T567" s="55"/>
     </row>
-    <row r="568" spans="1:20" ht="85.5">
+    <row r="568" spans="1:20" ht="105">
       <c r="A568" s="76" t="str">
         <f t="shared" si="198"/>
         <v>Research and Development</v>
@@ -43883,7 +43876,7 @@
       </c>
       <c r="T568" s="55"/>
     </row>
-    <row r="569" spans="1:20" ht="85.5">
+    <row r="569" spans="1:20" ht="105">
       <c r="A569" s="76" t="str">
         <f t="shared" si="198"/>
         <v>Research and Development</v>
@@ -43948,7 +43941,7 @@
       </c>
       <c r="T569" s="55"/>
     </row>
-    <row r="570" spans="1:20" ht="85.5">
+    <row r="570" spans="1:20" ht="105">
       <c r="A570" s="76" t="str">
         <f t="shared" si="198"/>
         <v>Research and Development</v>
@@ -44013,7 +44006,7 @@
       </c>
       <c r="T570" s="55"/>
     </row>
-    <row r="571" spans="1:20" ht="85.5">
+    <row r="571" spans="1:20" ht="90">
       <c r="A571" s="4" t="s">
         <v>1427</v>
       </c>
@@ -44257,245 +44250,245 @@
       <c r="T589" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A119:I139">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A119:I139">
     <sortCondition ref="B119:B139"/>
   </sortState>
   <conditionalFormatting sqref="I66 I74 I22 I32 I42 I52">
-    <cfRule type="containsText" dxfId="55" priority="45" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="51" priority="45" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="containsText" dxfId="54" priority="44" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="50" priority="44" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="49" priority="43" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67:I73">
-    <cfRule type="containsText" dxfId="52" priority="42" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="48" priority="42" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89">
-    <cfRule type="containsText" dxfId="51" priority="41" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="47" priority="41" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="containsText" dxfId="50" priority="40" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="46" priority="40" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I519">
-    <cfRule type="containsText" dxfId="49" priority="39" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="45" priority="39" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I519)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I553">
-    <cfRule type="containsText" dxfId="48" priority="38" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="44" priority="38" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I553)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:I62">
-    <cfRule type="containsText" dxfId="47" priority="37" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="43" priority="37" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:I51">
-    <cfRule type="containsText" dxfId="46" priority="36" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="42" priority="36" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:I31">
-    <cfRule type="containsText" dxfId="45" priority="34" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="41" priority="34" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I21">
-    <cfRule type="containsText" dxfId="44" priority="33" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="40" priority="33" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="43" priority="25" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="39" priority="25" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I350">
-    <cfRule type="containsText" dxfId="42" priority="24" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="38" priority="24" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I360">
-    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="37" priority="23" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I360)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I370">
-    <cfRule type="containsText" dxfId="40" priority="22" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="36" priority="22" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I380">
-    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="35" priority="21" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I390">
-    <cfRule type="containsText" dxfId="38" priority="20" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="34" priority="20" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I390)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I400">
-    <cfRule type="containsText" dxfId="37" priority="19" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I400)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I337">
-    <cfRule type="containsText" dxfId="36" priority="18" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="32" priority="18" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I337)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I338:I339">
-    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I338)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I348:I349">
-    <cfRule type="containsText" dxfId="34" priority="16" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I348)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I347">
-    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="29" priority="15" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I347)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I358:I359">
-    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I358)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I357">
-    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I357)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I368">
-    <cfRule type="containsText" dxfId="30" priority="12" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I367">
-    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I369">
-    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="24" priority="10" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I388:I389">
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I388)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I387">
-    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I387)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I383">
-    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I385">
-    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I385)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I398:I399">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I398)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I397">
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I536:I537">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I536)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I570">
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I570)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76:I88 I520:I535 I554 I556:I569 I577:I1048576 I90:I99 I1:I9 I12:I19 I24 I33:I36 I43:I46 I53:I59 I38:I39 I48:I49 I63:I64 I341:I346 I351:I356 I361:I366 I381:I382 I391:I396 I371:I379 I384 I386 I538:I552 I571:I575 I113:I336 I401:I518">
-    <cfRule type="containsText" dxfId="19" priority="47" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="15" priority="47" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I555">
-    <cfRule type="containsText" dxfId="18" priority="46" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="14" priority="46" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I555)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:I41">
-    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="13" priority="35" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I11">
-    <cfRule type="containsText" dxfId="16" priority="32" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="32" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:I29">
-    <cfRule type="containsText" dxfId="14" priority="30" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="30" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="9" priority="29" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="containsText" dxfId="12" priority="28" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="28" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101:I110">
-    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="7" priority="27" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111:I112">
-    <cfRule type="containsText" dxfId="10" priority="26" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="26" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="S101" r:id="rId1" display="https://wamu.org/story/19/03/18/japan-is-betting-big-on-the-future-of-hydrogen-cars/"/>
-    <hyperlink ref="S285" r:id="rId2"/>
-    <hyperlink ref="S131" r:id="rId3"/>
-    <hyperlink ref="S64" r:id="rId4"/>
-    <hyperlink ref="T425" r:id="rId5" display="https://www.fas.org/sgp/crs/misc/R40562.pdf, p.3, paragraph 1"/>
+    <hyperlink ref="S101" r:id="rId1" display="https://wamu.org/story/19/03/18/japan-is-betting-big-on-the-future-of-hydrogen-cars/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="S285" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="S131" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="S64" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="T425" r:id="rId5" display="https://www.fas.org/sgp/crs/misc/R40562.pdf, p.3, paragraph 1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
@@ -44507,7 +44500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -44517,17 +44510,17 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="76.86328125" style="95" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="95"/>
+    <col min="1" max="2" width="76.85546875" style="95" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="95"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="391" t="s">
+      <c r="A1" s="394" t="s">
         <v>1415</v>
       </c>
-      <c r="B1" s="391"/>
+      <c r="B1" s="394"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="166" t="s">
@@ -44813,10 +44806,10 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="391" t="s">
+      <c r="A37" s="394" t="s">
         <v>1419</v>
       </c>
-      <c r="B37" s="391"/>
+      <c r="B37" s="394"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="166" t="s">
@@ -44855,7 +44848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -44863,21 +44856,21 @@
       <selection pane="bottomLeft" activeCell="G84" sqref="G84:I84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.265625" style="80" customWidth="1"/>
-    <col min="2" max="2" width="27.59765625" style="80" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" style="80" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="80" customWidth="1"/>
     <col min="3" max="3" width="9" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.73046875" style="80" customWidth="1"/>
-    <col min="5" max="5" width="16.3984375" style="80" customWidth="1"/>
-    <col min="6" max="6" width="34.1328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="80" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="80" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" style="4" customWidth="1"/>
     <col min="7" max="7" width="95" style="80" customWidth="1"/>
-    <col min="8" max="8" width="37.3984375" style="80" customWidth="1"/>
-    <col min="9" max="9" width="34.265625" style="80" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="80"/>
+    <col min="8" max="8" width="37.42578125" style="80" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" style="80" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="93" customFormat="1" ht="28.5">
+    <row r="1" spans="1:9" s="93" customFormat="1" ht="30">
       <c r="A1" s="90" t="s">
         <v>722</v>
       </c>
@@ -44955,7 +44948,7 @@
       </c>
       <c r="I3" s="96"/>
     </row>
-    <row r="4" spans="1:9" ht="71.25">
+    <row r="4" spans="1:9" ht="90">
       <c r="A4" s="98" t="s">
         <v>753</v>
       </c>
@@ -44985,7 +44978,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.5">
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" s="98" t="s">
         <v>753</v>
       </c>
@@ -45015,7 +45008,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.5">
+    <row r="6" spans="1:9" ht="30">
       <c r="A6" s="98" t="s">
         <v>753</v>
       </c>
@@ -45245,7 +45238,7 @@
       </c>
       <c r="I14" s="96"/>
     </row>
-    <row r="15" spans="1:9" ht="14.65" thickBot="1">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1">
       <c r="A15" s="148" t="s">
         <v>753</v>
       </c>
@@ -45546,7 +45539,7 @@
       </c>
       <c r="I26" s="96"/>
     </row>
-    <row r="27" spans="1:9" ht="14.65" thickBot="1">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1">
       <c r="A27" s="142" t="s">
         <v>759</v>
       </c>
@@ -45572,7 +45565,7 @@
       <c r="H27" s="144"/>
       <c r="I27" s="143"/>
     </row>
-    <row r="28" spans="1:9" ht="57">
+    <row r="28" spans="1:9" ht="60">
       <c r="A28" s="97" t="s">
         <v>760</v>
       </c>
@@ -45602,7 +45595,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="71.25">
+    <row r="29" spans="1:9" ht="90">
       <c r="A29" s="97" t="s">
         <v>760</v>
       </c>
@@ -45632,7 +45625,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="42.75">
+    <row r="30" spans="1:9" ht="60">
       <c r="A30" s="97" t="s">
         <v>760</v>
       </c>
@@ -45662,7 +45655,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.65" thickBot="1">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1">
       <c r="A31" s="142" t="s">
         <v>760</v>
       </c>
@@ -45838,7 +45831,7 @@
       </c>
       <c r="I37" s="96"/>
     </row>
-    <row r="38" spans="1:9" ht="14.65" thickBot="1">
+    <row r="38" spans="1:9" ht="15.75" thickBot="1">
       <c r="A38" s="142" t="s">
         <v>1294</v>
       </c>
@@ -45864,7 +45857,7 @@
       <c r="H38" s="144"/>
       <c r="I38" s="143"/>
     </row>
-    <row r="39" spans="1:9" ht="28.5">
+    <row r="39" spans="1:9" ht="45">
       <c r="A39" s="97" t="s">
         <v>405</v>
       </c>
@@ -45889,7 +45882,7 @@
       </c>
       <c r="I39" s="96"/>
     </row>
-    <row r="40" spans="1:9" ht="28.5">
+    <row r="40" spans="1:9" ht="45">
       <c r="A40" s="97" t="s">
         <v>405</v>
       </c>
@@ -45914,7 +45907,7 @@
       </c>
       <c r="I40" s="96"/>
     </row>
-    <row r="41" spans="1:9" ht="28.5">
+    <row r="41" spans="1:9" ht="45">
       <c r="A41" s="97" t="s">
         <v>405</v>
       </c>
@@ -45939,7 +45932,7 @@
       </c>
       <c r="I41" s="96"/>
     </row>
-    <row r="42" spans="1:9" ht="28.9" thickBot="1">
+    <row r="42" spans="1:9" ht="45.75" thickBot="1">
       <c r="A42" s="142" t="s">
         <v>405</v>
       </c>
@@ -45965,7 +45958,7 @@
       <c r="H42" s="144"/>
       <c r="I42" s="143"/>
     </row>
-    <row r="43" spans="1:9" ht="42.75">
+    <row r="43" spans="1:9" ht="45">
       <c r="A43" s="97" t="s">
         <v>762</v>
       </c>
@@ -46020,7 +46013,7 @@
       </c>
       <c r="I44" s="96"/>
     </row>
-    <row r="45" spans="1:9" ht="28.5">
+    <row r="45" spans="1:9" ht="30">
       <c r="A45" s="97" t="s">
         <v>762</v>
       </c>
@@ -46050,7 +46043,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="14.65" thickBot="1">
+    <row r="46" spans="1:9" ht="15.75" thickBot="1">
       <c r="A46" s="142" t="s">
         <v>762</v>
       </c>
@@ -46076,7 +46069,7 @@
       <c r="H46" s="144"/>
       <c r="I46" s="143"/>
     </row>
-    <row r="47" spans="1:9" ht="71.25">
+    <row r="47" spans="1:9" ht="90">
       <c r="A47" s="97" t="s">
         <v>1312</v>
       </c>
@@ -46106,7 +46099,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="42.75">
+    <row r="48" spans="1:9" ht="45">
       <c r="A48" s="97" t="s">
         <v>1312</v>
       </c>
@@ -46136,7 +46129,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="57">
+    <row r="49" spans="1:9" ht="60">
       <c r="A49" s="97" t="s">
         <v>1312</v>
       </c>
@@ -46166,7 +46159,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="42.75">
+    <row r="50" spans="1:9" ht="45">
       <c r="A50" s="97" t="s">
         <v>1312</v>
       </c>
@@ -46196,7 +46189,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="42.75">
+    <row r="51" spans="1:9" ht="45">
       <c r="A51" s="97" t="s">
         <v>1312</v>
       </c>
@@ -46226,7 +46219,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="57">
+    <row r="52" spans="1:9" ht="60">
       <c r="A52" s="97" t="s">
         <v>1312</v>
       </c>
@@ -46256,7 +46249,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="57">
+    <row r="53" spans="1:9" ht="60">
       <c r="A53" s="97" t="s">
         <v>1312</v>
       </c>
@@ -46286,7 +46279,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="57">
+    <row r="54" spans="1:9" ht="75">
       <c r="A54" s="97" t="s">
         <v>1312</v>
       </c>
@@ -46316,7 +46309,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="57">
+    <row r="55" spans="1:9" ht="75">
       <c r="A55" s="97" t="s">
         <v>1312</v>
       </c>
@@ -46346,7 +46339,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="57.4" thickBot="1">
+    <row r="56" spans="1:9" ht="60.75" thickBot="1">
       <c r="A56" s="142" t="s">
         <v>1312</v>
       </c>
@@ -46376,7 +46369,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="28.5">
+    <row r="57" spans="1:9" ht="30">
       <c r="A57" s="97" t="s">
         <v>763</v>
       </c>
@@ -46401,7 +46394,7 @@
       </c>
       <c r="I57" s="96"/>
     </row>
-    <row r="58" spans="1:9" ht="28.9" thickBot="1">
+    <row r="58" spans="1:9" ht="30.75" thickBot="1">
       <c r="A58" s="142" t="s">
         <v>763</v>
       </c>
@@ -46427,7 +46420,7 @@
       <c r="H58" s="144"/>
       <c r="I58" s="143"/>
     </row>
-    <row r="59" spans="1:9" ht="114">
+    <row r="59" spans="1:9" ht="135">
       <c r="A59" s="97" t="s">
         <v>946</v>
       </c>
@@ -46457,7 +46450,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="128.25">
+    <row r="60" spans="1:9" ht="165">
       <c r="A60" s="97" t="s">
         <v>946</v>
       </c>
@@ -46487,7 +46480,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="114">
+    <row r="61" spans="1:9" ht="135">
       <c r="A61" s="97" t="s">
         <v>946</v>
       </c>
@@ -46517,7 +46510,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="128.25">
+    <row r="62" spans="1:9" ht="150">
       <c r="A62" s="97" t="s">
         <v>946</v>
       </c>
@@ -46547,7 +46540,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="43.15" thickBot="1">
+    <row r="63" spans="1:9" ht="45.75" thickBot="1">
       <c r="A63" s="142" t="s">
         <v>946</v>
       </c>
@@ -46577,7 +46570,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="99.75">
+    <row r="64" spans="1:9" ht="120">
       <c r="A64" s="97" t="s">
         <v>939</v>
       </c>
@@ -46607,7 +46600,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="28.5">
+    <row r="65" spans="1:9" ht="30">
       <c r="A65" s="97" t="s">
         <v>939</v>
       </c>
@@ -46637,7 +46630,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="85.5">
+    <row r="66" spans="1:9" ht="105">
       <c r="A66" s="97" t="s">
         <v>939</v>
       </c>
@@ -46667,7 +46660,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="100.15" thickBot="1">
+    <row r="67" spans="1:9" ht="120.75" thickBot="1">
       <c r="A67" s="142" t="s">
         <v>939</v>
       </c>
@@ -46697,7 +46690,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="42.75">
+    <row r="68" spans="1:9" ht="45">
       <c r="A68" s="97" t="s">
         <v>772</v>
       </c>
@@ -46727,7 +46720,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="43.15" thickBot="1">
+    <row r="69" spans="1:9" ht="45.75" thickBot="1">
       <c r="A69" s="142" t="s">
         <v>772</v>
       </c>
@@ -46757,7 +46750,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="71.25">
+    <row r="70" spans="1:9" ht="90">
       <c r="A70" s="97" t="s">
         <v>1313</v>
       </c>
@@ -46787,7 +46780,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="57">
+    <row r="71" spans="1:9" ht="75">
       <c r="A71" s="97" t="s">
         <v>1313</v>
       </c>
@@ -46817,7 +46810,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="42.75">
+    <row r="72" spans="1:9" ht="60">
       <c r="A72" s="97" t="s">
         <v>1313</v>
       </c>
@@ -46847,7 +46840,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="42.75">
+    <row r="73" spans="1:9" ht="60">
       <c r="A73" s="97" t="s">
         <v>1313</v>
       </c>
@@ -46877,7 +46870,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="28.5">
+    <row r="74" spans="1:9" ht="30">
       <c r="A74" s="97" t="s">
         <v>1313</v>
       </c>
@@ -46907,7 +46900,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="57">
+    <row r="75" spans="1:9" ht="90">
       <c r="A75" s="385" t="s">
         <v>1313</v>
       </c>
@@ -46936,7 +46929,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="57">
+    <row r="76" spans="1:9" ht="75">
       <c r="A76" s="97" t="s">
         <v>1313</v>
       </c>
@@ -46966,7 +46959,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="42.75">
+    <row r="77" spans="1:9" ht="60">
       <c r="A77" s="97" t="s">
         <v>1313</v>
       </c>
@@ -46996,7 +46989,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="42.75">
+    <row r="78" spans="1:9" ht="45">
       <c r="A78" s="97" t="s">
         <v>1313</v>
       </c>
@@ -47026,7 +47019,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="42.75">
+    <row r="79" spans="1:9" ht="45">
       <c r="A79" s="97" t="s">
         <v>1313</v>
       </c>
@@ -47056,7 +47049,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="28.9" thickBot="1">
+    <row r="80" spans="1:9" ht="30.75" thickBot="1">
       <c r="A80" s="142" t="s">
         <v>1313</v>
       </c>
@@ -47086,7 +47079,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="57.4" thickBot="1">
+    <row r="81" spans="1:9" ht="75.75" thickBot="1">
       <c r="A81" s="387" t="s">
         <v>1313</v>
       </c>
@@ -47115,7 +47108,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="128.25">
+    <row r="82" spans="1:9" ht="165">
       <c r="A82" s="97" t="s">
         <v>791</v>
       </c>
@@ -47145,7 +47138,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="85.5">
+    <row r="83" spans="1:9" ht="105">
       <c r="A83" s="97" t="s">
         <v>791</v>
       </c>
@@ -47175,7 +47168,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="128.65" thickBot="1">
+    <row r="84" spans="1:9" ht="150.75" thickBot="1">
       <c r="A84" s="142" t="s">
         <v>791</v>
       </c>
@@ -47205,7 +47198,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="57">
+    <row r="85" spans="1:9" ht="60">
       <c r="A85" s="99" t="s">
         <v>779</v>
       </c>
@@ -47235,7 +47228,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="71.25">
+    <row r="86" spans="1:9" ht="90">
       <c r="A86" s="99" t="s">
         <v>779</v>
       </c>
@@ -47265,7 +47258,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="71.25">
+    <row r="87" spans="1:9" ht="75">
       <c r="A87" s="99" t="s">
         <v>779</v>
       </c>
@@ -47295,7 +47288,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="100.15" thickBot="1">
+    <row r="88" spans="1:9" ht="120.75" thickBot="1">
       <c r="A88" s="145" t="s">
         <v>779</v>
       </c>
@@ -47325,7 +47318,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="57">
+    <row r="89" spans="1:9" ht="75">
       <c r="A89" s="99" t="s">
         <v>1410</v>
       </c>
@@ -47355,7 +47348,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="42.75">
+    <row r="90" spans="1:9" ht="45">
       <c r="A90" s="99" t="s">
         <v>1410</v>
       </c>
@@ -47385,7 +47378,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="57">
+    <row r="91" spans="1:9" ht="75">
       <c r="A91" s="99" t="s">
         <v>1410</v>
       </c>
@@ -47415,7 +47408,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="28.5">
+    <row r="92" spans="1:9" ht="45">
       <c r="A92" s="99" t="s">
         <v>1410</v>
       </c>
@@ -47445,7 +47438,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="163" customFormat="1" ht="71.25">
+    <row r="93" spans="1:9" s="163" customFormat="1" ht="90">
       <c r="A93" s="99" t="s">
         <v>1410</v>
       </c>
@@ -47475,7 +47468,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="28.9" thickBot="1">
+    <row r="94" spans="1:9" ht="45.75" thickBot="1">
       <c r="A94" s="145" t="s">
         <v>1410</v>
       </c>
@@ -47505,7 +47498,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="42.75">
+    <row r="95" spans="1:9" ht="60">
       <c r="A95" s="99" t="s">
         <v>780</v>
       </c>
@@ -47535,7 +47528,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="28.5">
+    <row r="96" spans="1:9" ht="30">
       <c r="A96" s="99" t="s">
         <v>780</v>
       </c>
@@ -47565,7 +47558,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="71.650000000000006" thickBot="1">
+    <row r="97" spans="1:9" ht="90.75" thickBot="1">
       <c r="A97" s="145" t="s">
         <v>780</v>
       </c>
@@ -47595,7 +47588,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="85.5">
+    <row r="98" spans="1:9" ht="105">
       <c r="A98" s="97" t="s">
         <v>876</v>
       </c>
@@ -47625,7 +47618,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="57">
+    <row r="99" spans="1:9" ht="60">
       <c r="A99" s="97" t="s">
         <v>876</v>
       </c>
@@ -47781,7 +47774,7 @@
       </c>
       <c r="I104" s="96"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" ht="30">
       <c r="A105" s="97" t="s">
         <v>876</v>
       </c>
@@ -47856,7 +47849,7 @@
       </c>
       <c r="I107" s="96"/>
     </row>
-    <row r="108" spans="1:9" ht="28.5">
+    <row r="108" spans="1:9" ht="30">
       <c r="A108" s="97" t="s">
         <v>876</v>
       </c>
@@ -47881,7 +47874,7 @@
       </c>
       <c r="I108" s="96"/>
     </row>
-    <row r="109" spans="1:9" ht="28.5">
+    <row r="109" spans="1:9" ht="30">
       <c r="A109" s="97" t="s">
         <v>876</v>
       </c>
@@ -47906,7 +47899,7 @@
       </c>
       <c r="I109" s="96"/>
     </row>
-    <row r="110" spans="1:9" ht="14.65" thickBot="1">
+    <row r="110" spans="1:9" ht="15.75" thickBot="1">
       <c r="A110" s="142" t="s">
         <v>876</v>
       </c>
@@ -47932,7 +47925,7 @@
       <c r="H110" s="144"/>
       <c r="I110" s="143"/>
     </row>
-    <row r="111" spans="1:9" ht="42.75">
+    <row r="111" spans="1:9" ht="60">
       <c r="A111" s="97" t="s">
         <v>1327</v>
       </c>
@@ -47962,7 +47955,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="57">
+    <row r="112" spans="1:9" ht="60">
       <c r="A112" s="97" t="s">
         <v>1327</v>
       </c>
@@ -47992,7 +47985,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="57">
+    <row r="113" spans="1:9" ht="60">
       <c r="A113" s="97" t="s">
         <v>1327</v>
       </c>
@@ -48022,7 +48015,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="57">
+    <row r="114" spans="1:9" ht="75">
       <c r="A114" s="97" t="s">
         <v>1327</v>
       </c>
@@ -48052,7 +48045,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="57">
+    <row r="115" spans="1:9" ht="60">
       <c r="A115" s="97" t="s">
         <v>1327</v>
       </c>
@@ -48082,7 +48075,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="71.25">
+    <row r="116" spans="1:9" ht="75">
       <c r="A116" s="97" t="s">
         <v>1327</v>
       </c>
@@ -48112,7 +48105,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="71.25">
+    <row r="117" spans="1:9" ht="75">
       <c r="A117" s="97" t="s">
         <v>1327</v>
       </c>
@@ -48142,7 +48135,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="71.25">
+    <row r="118" spans="1:9" ht="90">
       <c r="A118" s="97" t="s">
         <v>1327</v>
       </c>
@@ -48172,7 +48165,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="85.5">
+    <row r="119" spans="1:9" ht="105">
       <c r="A119" s="97" t="s">
         <v>1327</v>
       </c>
@@ -48202,7 +48195,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="100.15" thickBot="1">
+    <row r="120" spans="1:9" ht="120.75" thickBot="1">
       <c r="A120" s="142" t="s">
         <v>1327</v>
       </c>
@@ -48232,7 +48225,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="57">
+    <row r="121" spans="1:9" ht="75">
       <c r="A121" s="99" t="s">
         <v>784</v>
       </c>
@@ -48262,7 +48255,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="42.75">
+    <row r="122" spans="1:9" ht="45">
       <c r="A122" s="99" t="s">
         <v>784</v>
       </c>
@@ -48322,7 +48315,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="71.25">
+    <row r="124" spans="1:9" ht="75">
       <c r="A124" s="99" t="s">
         <v>784</v>
       </c>
@@ -48382,7 +48375,7 @@
         <v>969696</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="71.25">
+    <row r="126" spans="1:9" ht="90">
       <c r="A126" s="99" t="s">
         <v>784</v>
       </c>
@@ -48412,7 +48405,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="57">
+    <row r="127" spans="1:9" ht="60">
       <c r="A127" s="99" t="s">
         <v>784</v>
       </c>
@@ -48442,7 +48435,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="57">
+    <row r="128" spans="1:9" ht="60">
       <c r="A128" s="99" t="s">
         <v>784</v>
       </c>
@@ -48472,7 +48465,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="57">
+    <row r="129" spans="1:9" ht="60">
       <c r="A129" s="99" t="s">
         <v>784</v>
       </c>
@@ -48502,7 +48495,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="28.9" thickBot="1">
+    <row r="130" spans="1:9" ht="30.75" thickBot="1">
       <c r="A130" s="145" t="s">
         <v>784</v>
       </c>
@@ -48557,7 +48550,7 @@
       </c>
       <c r="I131" s="96"/>
     </row>
-    <row r="132" spans="1:9" ht="28.5">
+    <row r="132" spans="1:9" ht="30">
       <c r="A132" s="99" t="s">
         <v>785</v>
       </c>
@@ -48662,7 +48655,7 @@
       </c>
       <c r="I135" s="96"/>
     </row>
-    <row r="136" spans="1:9" ht="28.9" thickBot="1">
+    <row r="136" spans="1:9" ht="30.75" thickBot="1">
       <c r="A136" s="145" t="s">
         <v>785</v>
       </c>
@@ -48690,26 +48683,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C74 C76:C80 C82:C136">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48722,7 +48715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -48730,12 +48723,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.265625" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" style="118"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="118"/>
     <col min="4" max="4" width="46" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -50874,18 +50867,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36" style="9" customWidth="1"/>
-    <col min="2" max="2" width="34.1328125" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="8.86328125" style="9"/>
+    <col min="2" max="2" width="34.140625" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -50911,25 +50904,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AJ917"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.265625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.86328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.73046875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="73.3984375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.86328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.86328125" style="9"/>
+    <col min="1" max="1" width="49.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="73.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="42.75">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A1" s="1" t="s">
         <v>373</v>
       </c>
@@ -50946,7 +50939,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42.75">
+    <row r="2" spans="1:5" ht="45">
       <c r="A2" s="4" t="s">
         <v>378</v>
       </c>
@@ -51442,7 +51435,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:5" s="95" customFormat="1" ht="28.5">
+    <row r="59" spans="1:5" s="95" customFormat="1" ht="30">
       <c r="A59" s="115" t="s">
         <v>1886</v>
       </c>
@@ -51629,7 +51622,7 @@
       <c r="E74" s="377"/>
       <c r="F74" s="377"/>
     </row>
-    <row r="75" spans="1:7" s="95" customFormat="1" ht="28.5">
+    <row r="75" spans="1:7" s="95" customFormat="1" ht="30">
       <c r="A75" s="376"/>
       <c r="B75" s="375" t="s">
         <v>1882</v>
@@ -51648,7 +51641,7 @@
       </c>
       <c r="G75" s="110"/>
     </row>
-    <row r="76" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="76" spans="1:7" s="95" customFormat="1" ht="17.25">
       <c r="A76" s="373" t="s">
         <v>1879</v>
       </c>
@@ -51668,7 +51661,7 @@
         <v>1727706.1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="77" spans="1:7" s="95" customFormat="1" ht="17.25">
       <c r="A77" s="359" t="s">
         <v>1878</v>
       </c>
@@ -51686,7 +51679,7 @@
         <v>1100056.8899999999</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="78" spans="1:7" s="95" customFormat="1" ht="17.25">
       <c r="A78" s="355" t="s">
         <v>1877</v>
       </c>
@@ -51704,7 +51697,7 @@
         <v>719305.34</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="79" spans="1:7" s="95" customFormat="1" ht="17.25">
       <c r="A79" s="355" t="s">
         <v>1876</v>
       </c>
@@ -51722,7 +51715,7 @@
         <v>33845.32</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="80" spans="1:7" s="95" customFormat="1" ht="17.25">
       <c r="A80" s="355" t="s">
         <v>1875</v>
       </c>
@@ -51812,7 +51805,7 @@
         <v>1431.13</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="85" spans="1:7" s="95" customFormat="1" ht="17.25">
       <c r="A85" s="355" t="s">
         <v>548</v>
       </c>
@@ -51830,7 +51823,7 @@
         <v>137838.49</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="86" spans="1:7" s="95" customFormat="1" ht="17.25">
       <c r="A86" s="355" t="s">
         <v>1872</v>
       </c>
@@ -51848,7 +51841,7 @@
         <v>1673.18</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="87" spans="1:7" s="95" customFormat="1" ht="17.25">
       <c r="A87" s="355" t="s">
         <v>1871</v>
       </c>
@@ -51866,7 +51859,7 @@
         <v>33658.699999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="88" spans="1:7" s="95" customFormat="1" ht="17.25">
       <c r="A88" s="355" t="s">
         <v>551</v>
       </c>
@@ -51880,7 +51873,7 @@
         <v>31697.3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="89" spans="1:7" s="95" customFormat="1" ht="17.25">
       <c r="A89" s="359" t="s">
         <v>1870</v>
       </c>
@@ -51899,7 +51892,7 @@
       </c>
       <c r="G89" s="110"/>
     </row>
-    <row r="90" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="90" spans="1:7" s="95" customFormat="1" ht="17.25">
       <c r="A90" s="369" t="s">
         <v>1869</v>
       </c>
@@ -51917,7 +51910,7 @@
         <v>130933.27</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="91" spans="1:7" s="95" customFormat="1" ht="17.25">
       <c r="A91" s="355" t="s">
         <v>1868</v>
       </c>
@@ -51931,7 +51924,7 @@
         <v>129920</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="92" spans="1:7" s="95" customFormat="1" ht="17.25">
       <c r="A92" s="355" t="s">
         <v>1867</v>
       </c>
@@ -51949,7 +51942,7 @@
         <v>427.14</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="93" spans="1:7" s="95" customFormat="1" ht="17.25">
       <c r="A93" s="355" t="s">
         <v>1866</v>
       </c>
@@ -51963,7 +51956,7 @@
         <v>586.12</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="94" spans="1:7" s="95" customFormat="1" ht="17.25">
       <c r="A94" s="369" t="s">
         <v>1093</v>
       </c>
@@ -51981,7 +51974,7 @@
         <v>33496.42</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="95" spans="1:7" s="95" customFormat="1" ht="17.25">
       <c r="A95" s="355" t="s">
         <v>1865</v>
       </c>
@@ -51995,7 +51988,7 @@
         <v>10056.43</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="96" spans="1:7" s="95" customFormat="1" ht="17.25">
       <c r="A96" s="355" t="s">
         <v>1864</v>
       </c>
@@ -52009,7 +52002,7 @@
         <v>4975.5</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="97" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A97" s="355" t="s">
         <v>1863</v>
       </c>
@@ -52023,7 +52016,7 @@
         <v>119.58</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="98" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A98" s="355" t="s">
         <v>1862</v>
       </c>
@@ -52037,7 +52030,7 @@
         <v>88.04</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="99" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A99" s="355" t="s">
         <v>1861</v>
       </c>
@@ -52053,7 +52046,7 @@
         <v>285.37</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="100" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A100" s="355" t="s">
         <v>1860</v>
       </c>
@@ -52069,7 +52062,7 @@
         <v>7270.64</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="101" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A101" s="355" t="s">
         <v>1859</v>
       </c>
@@ -52083,7 +52076,7 @@
         <v>198.91</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="102" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A102" s="355" t="s">
         <v>1858</v>
       </c>
@@ -52099,7 +52092,7 @@
         <v>97.71</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="103" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A103" s="355" t="s">
         <v>1857</v>
       </c>
@@ -52115,7 +52108,7 @@
         <v>37.979999999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="104" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A104" s="355" t="s">
         <v>1856</v>
       </c>
@@ -52131,7 +52124,7 @@
         <v>1156.07</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="105" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A105" s="355" t="s">
         <v>1855</v>
       </c>
@@ -52145,7 +52138,7 @@
         <v>336.22</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="106" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A106" s="355" t="s">
         <v>1854</v>
       </c>
@@ -52163,7 +52156,7 @@
         <v>8873.9699999999993</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="107" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A107" s="369" t="s">
         <v>1853</v>
       </c>
@@ -52181,7 +52174,7 @@
         <v>122736.91</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="108" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A108" s="355" t="s">
         <v>1852</v>
       </c>
@@ -52199,7 +52192,7 @@
         <v>117315.63</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="109" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A109" s="355" t="s">
         <v>1851</v>
       </c>
@@ -52215,7 +52208,7 @@
         <v>2462.29</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="110" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A110" s="355" t="s">
         <v>1850</v>
       </c>
@@ -52233,7 +52226,7 @@
         <v>2729.91</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="111" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A111" s="355" t="s">
         <v>1849</v>
       </c>
@@ -52251,7 +52244,7 @@
         <v>86.38</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="112" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A112" s="355" t="s">
         <v>1848</v>
       </c>
@@ -52269,7 +52262,7 @@
         <v>77.989999999999995</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="113" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A113" s="355" t="s">
         <v>1847</v>
       </c>
@@ -52287,7 +52280,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="114" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A114" s="369" t="s">
         <v>153</v>
       </c>
@@ -52305,7 +52298,7 @@
         <v>124530.44</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="115" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A115" s="355" t="s">
         <v>1846</v>
       </c>
@@ -52323,7 +52316,7 @@
         <v>5248.35</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="116" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A116" s="355" t="s">
         <v>1845</v>
       </c>
@@ -52341,7 +52334,7 @@
         <v>27717.25</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="117" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A117" s="355" t="s">
         <v>1844</v>
       </c>
@@ -52359,7 +52352,7 @@
         <v>1867.94</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="118" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A118" s="355" t="s">
         <v>1843</v>
       </c>
@@ -52377,7 +52370,7 @@
         <v>1464.62</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="119" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A119" s="355" t="s">
         <v>1842</v>
       </c>
@@ -52395,7 +52388,7 @@
         <v>88232.28</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="120" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A120" s="366" t="s">
         <v>1841</v>
       </c>
@@ -52409,7 +52402,7 @@
         <v>849.49</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="121" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A121" s="355" t="s">
         <v>1840</v>
       </c>
@@ -52423,7 +52416,7 @@
         <v>776.75</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="122" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A122" s="355" t="s">
         <v>1839</v>
       </c>
@@ -52437,7 +52430,7 @@
         <v>72.75</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="123" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A123" s="359" t="s">
         <v>1838</v>
       </c>
@@ -52453,7 +52446,7 @@
         <v>334405.5</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="124" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A124" s="355" t="s">
         <v>1837</v>
       </c>
@@ -52467,7 +52460,7 @@
         <v>212095.8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="125" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A125" s="355" t="s">
         <v>1836</v>
       </c>
@@ -52483,7 +52476,7 @@
         <v>2436.6999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="126" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A126" s="355" t="s">
         <v>1835</v>
       </c>
@@ -52497,7 +52490,7 @@
         <v>69867</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="127" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A127" s="355" t="s">
         <v>1834</v>
       </c>
@@ -52511,7 +52504,7 @@
         <v>43400</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="128" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A128" s="355" t="s">
         <v>1833</v>
       </c>
@@ -52527,7 +52520,7 @@
         <v>6606</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="129" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A129" s="359" t="s">
         <v>1832</v>
       </c>
@@ -52543,7 +52536,7 @@
         <v>-177028</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="130" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A130" s="355" t="s">
         <v>1831</v>
       </c>
@@ -52557,7 +52550,7 @@
         <v>-67800</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="131" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A131" s="355" t="s">
         <v>1830</v>
       </c>
@@ -52571,7 +52564,7 @@
         <v>-207520</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="132" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A132" s="355" t="s">
         <v>1829</v>
       </c>
@@ -52585,7 +52578,7 @@
         <v>10490</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="133" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A133" s="355" t="s">
         <v>1828</v>
       </c>
@@ -52599,7 +52592,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="134" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A134" s="355" t="s">
         <v>1827</v>
       </c>
@@ -52613,7 +52606,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="135" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A135" s="355" t="s">
         <v>1826</v>
       </c>
@@ -52627,7 +52620,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="136" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A136" s="355" t="s">
         <v>1825</v>
       </c>
@@ -52641,7 +52634,7 @@
         <v>87840</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="137" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A137" s="359" t="s">
         <v>1824</v>
       </c>
@@ -52657,7 +52650,7 @@
         <v>57725.18</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="138" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A138" s="355" t="s">
         <v>1823</v>
       </c>
@@ -52671,7 +52664,7 @@
         <v>12694.71</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="139" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A139" s="355" t="s">
         <v>1822</v>
       </c>
@@ -52687,7 +52680,7 @@
         <v>22980.47</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="140" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A140" s="355" t="s">
         <v>1821</v>
       </c>
@@ -52701,7 +52694,7 @@
         <v>22050</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="141" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A141" s="359" t="s">
         <v>1820</v>
       </c>
@@ -52719,7 +52712,7 @@
         <v>3484.45</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="142" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A142" s="355" t="s">
         <v>1819</v>
       </c>
@@ -52737,7 +52730,7 @@
         <v>3355.31</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
+    <row r="143" spans="1:6" s="95" customFormat="1" ht="17.25">
       <c r="A143" s="355" t="s">
         <v>1818</v>
       </c>
@@ -52864,7 +52857,7 @@
       <c r="J152" s="344"/>
       <c r="K152" s="344"/>
     </row>
-    <row r="153" spans="1:11" s="95" customFormat="1" ht="40.5">
+    <row r="153" spans="1:11" s="95" customFormat="1" ht="42.75">
       <c r="A153" s="342"/>
       <c r="B153" s="342" t="s">
         <v>1811</v>
@@ -53047,7 +53040,7 @@
         <v>18726.43</v>
       </c>
     </row>
-    <row r="160" spans="1:11" s="95" customFormat="1" ht="27">
+    <row r="160" spans="1:11" s="95" customFormat="1" ht="28.5">
       <c r="A160" s="326" t="s">
         <v>1803</v>
       </c>
@@ -54834,22 +54827,22 @@
       </c>
     </row>
     <row r="246" spans="1:11" s="95" customFormat="1" ht="15" customHeight="1">
-      <c r="A246" s="392" t="s">
+      <c r="A246" s="395" t="s">
         <v>1727</v>
       </c>
-      <c r="B246" s="393"/>
-      <c r="C246" s="393"/>
-      <c r="D246" s="393"/>
-      <c r="E246" s="393"/>
-      <c r="F246" s="393"/>
-      <c r="G246" s="393"/>
-      <c r="H246" s="393"/>
-      <c r="I246" s="393"/>
-      <c r="J246" s="393"/>
-      <c r="K246" s="394"/>
+      <c r="B246" s="396"/>
+      <c r="C246" s="396"/>
+      <c r="D246" s="396"/>
+      <c r="E246" s="396"/>
+      <c r="F246" s="396"/>
+      <c r="G246" s="396"/>
+      <c r="H246" s="396"/>
+      <c r="I246" s="396"/>
+      <c r="J246" s="396"/>
+      <c r="K246" s="397"/>
     </row>
     <row r="247" spans="1:11" s="95" customFormat="1"/>
-    <row r="248" spans="1:11" s="95" customFormat="1" ht="28.5">
+    <row r="248" spans="1:11" s="95" customFormat="1" ht="30">
       <c r="A248" s="4" t="s">
         <v>1726</v>
       </c>
@@ -56617,7 +56610,7 @@
       <c r="D405" s="192"/>
       <c r="E405" s="192"/>
     </row>
-    <row r="406" spans="1:13" s="23" customFormat="1" ht="15.4">
+    <row r="406" spans="1:13" s="23" customFormat="1" ht="15.75">
       <c r="A406" s="306"/>
       <c r="B406" s="306"/>
       <c r="C406" s="306"/>
@@ -56632,7 +56625,7 @@
       <c r="L406" s="255"/>
       <c r="M406" s="256"/>
     </row>
-    <row r="407" spans="1:13" s="23" customFormat="1" ht="15.4">
+    <row r="407" spans="1:13" s="23" customFormat="1" ht="15.75">
       <c r="A407" s="268"/>
       <c r="B407" s="257"/>
       <c r="C407" s="257"/>
@@ -57456,7 +57449,7 @@
       <c r="D462" s="192"/>
       <c r="E462" s="192"/>
     </row>
-    <row r="463" spans="1:36" s="23" customFormat="1" ht="15">
+    <row r="463" spans="1:36" s="23" customFormat="1" ht="15.75">
       <c r="A463" s="259"/>
       <c r="B463" s="259"/>
       <c r="C463" s="259"/>
@@ -57494,7 +57487,7 @@
       <c r="AI463" s="256"/>
       <c r="AJ463" s="256"/>
     </row>
-    <row r="464" spans="1:36" s="23" customFormat="1" ht="15.4">
+    <row r="464" spans="1:36" s="23" customFormat="1" ht="15.75">
       <c r="A464" s="258"/>
       <c r="B464" s="301"/>
       <c r="C464" s="301"/>
@@ -59149,7 +59142,7 @@
       <c r="D509" s="192"/>
       <c r="E509" s="192"/>
     </row>
-    <row r="510" spans="1:36" s="23" customFormat="1" ht="15">
+    <row r="510" spans="1:36" s="23" customFormat="1" ht="15.75">
       <c r="A510" s="258"/>
       <c r="B510" s="255"/>
       <c r="C510" s="255"/>
@@ -59158,7 +59151,7 @@
       <c r="F510" s="256"/>
       <c r="G510" s="256"/>
     </row>
-    <row r="511" spans="1:36" s="23" customFormat="1" ht="15">
+    <row r="511" spans="1:36" s="23" customFormat="1" ht="15.75">
       <c r="A511" s="258"/>
       <c r="B511" s="255"/>
       <c r="C511" s="255"/>
@@ -59896,7 +59889,7 @@
       <c r="D594" s="192"/>
       <c r="E594" s="192"/>
     </row>
-    <row r="595" spans="1:7" s="23" customFormat="1" ht="15.4">
+    <row r="595" spans="1:7" s="23" customFormat="1" ht="15.75">
       <c r="A595" s="268"/>
       <c r="B595" s="255"/>
       <c r="C595" s="255"/>
@@ -59905,7 +59898,7 @@
       <c r="F595" s="255"/>
       <c r="G595" s="256"/>
     </row>
-    <row r="596" spans="1:7" s="23" customFormat="1" ht="15.4">
+    <row r="596" spans="1:7" s="23" customFormat="1" ht="15.75">
       <c r="A596" s="268"/>
       <c r="B596" s="255"/>
       <c r="C596" s="255"/>
@@ -60205,7 +60198,7 @@
       <c r="D629" s="192"/>
       <c r="E629" s="192"/>
     </row>
-    <row r="630" spans="1:8" s="23" customFormat="1" ht="15">
+    <row r="630" spans="1:8" s="23" customFormat="1" ht="15.75">
       <c r="A630" s="259"/>
       <c r="B630" s="259"/>
       <c r="C630" s="255"/>
@@ -60215,7 +60208,7 @@
       <c r="G630" s="255"/>
       <c r="H630" s="256"/>
     </row>
-    <row r="631" spans="1:8" s="23" customFormat="1" ht="15.4">
+    <row r="631" spans="1:8" s="23" customFormat="1" ht="15.75">
       <c r="A631" s="258"/>
       <c r="B631" s="257"/>
       <c r="C631" s="255"/>
@@ -60843,7 +60836,7 @@
       <c r="D690" s="192"/>
       <c r="E690" s="192"/>
     </row>
-    <row r="691" spans="1:14" s="23" customFormat="1" ht="15">
+    <row r="691" spans="1:14" s="23" customFormat="1" ht="15.75">
       <c r="A691" s="82"/>
       <c r="B691" s="83"/>
       <c r="C691" s="83"/>
@@ -64480,14 +64473,14 @@
     <mergeCell ref="A246:K246"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A557:G582"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A557:G582" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A33" r:id="rId1"/>
-    <hyperlink ref="A40" r:id="rId2"/>
-    <hyperlink ref="A47" r:id="rId3"/>
-    <hyperlink ref="A54" r:id="rId4"/>
-    <hyperlink ref="A16" r:id="rId5"/>
+    <hyperlink ref="A33" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A40" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="A47" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="A54" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="A16" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -64495,33 +64488,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AM197"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="79.73046875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="79.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="9" customWidth="1"/>
     <col min="4" max="4" width="22" style="9" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="26.1328125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="26.73046875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.86328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.3984375" style="9" customWidth="1"/>
-    <col min="11" max="16" width="9.1328125" style="9"/>
-    <col min="17" max="17" width="25.86328125" style="9" customWidth="1"/>
-    <col min="18" max="18" width="12.3984375" style="9" customWidth="1"/>
-    <col min="19" max="19" width="19.86328125" style="9" customWidth="1"/>
-    <col min="20" max="21" width="12.3984375" style="9" customWidth="1"/>
-    <col min="22" max="23" width="16.265625" style="9" customWidth="1"/>
-    <col min="24" max="24" width="10.86328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1328125" style="9"/>
+    <col min="5" max="5" width="19.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="9" customWidth="1"/>
+    <col min="11" max="16" width="9.140625" style="9"/>
+    <col min="17" max="17" width="25.85546875" style="9" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" style="9" customWidth="1"/>
+    <col min="20" max="21" width="12.42578125" style="9" customWidth="1"/>
+    <col min="22" max="23" width="16.28515625" style="9" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -64534,13 +64527,13 @@
       <c r="E1" s="398"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="402" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="399"/>
-      <c r="C2" s="399"/>
-      <c r="D2" s="399"/>
-      <c r="E2" s="399"/>
+      <c r="B2" s="402"/>
+      <c r="C2" s="402"/>
+      <c r="D2" s="402"/>
+      <c r="E2" s="402"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
@@ -64556,13 +64549,13 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="399" t="s">
+      <c r="A21" s="402" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="399"/>
-      <c r="C21" s="399"/>
-      <c r="D21" s="399"/>
-      <c r="E21" s="399"/>
+      <c r="B21" s="402"/>
+      <c r="C21" s="402"/>
+      <c r="D21" s="402"/>
+      <c r="E21" s="402"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="9" t="s">
@@ -64578,20 +64571,20 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="399" t="s">
+      <c r="A40" s="402" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="399"/>
-      <c r="C40" s="399"/>
-      <c r="D40" s="399"/>
-      <c r="E40" s="399"/>
-    </row>
-    <row r="57" spans="1:5" ht="14.65" thickBot="1">
+      <c r="B40" s="402"/>
+      <c r="C40" s="402"/>
+      <c r="D40" s="402"/>
+      <c r="E40" s="402"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1">
       <c r="A57" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.65" thickBot="1">
+    <row r="58" spans="1:5" ht="15.75" thickBot="1">
       <c r="A58" s="11">
         <v>194000</v>
       </c>
@@ -64700,8 +64693,8 @@
       <c r="AL86" s="9"/>
       <c r="AM86" s="9"/>
     </row>
-    <row r="87" spans="1:39" ht="14.65" thickBot="1"/>
-    <row r="88" spans="1:39" ht="14.65" thickBot="1">
+    <row r="87" spans="1:39" ht="15.75" thickBot="1"/>
+    <row r="88" spans="1:39" ht="15.75" thickBot="1">
       <c r="A88" s="13" t="s">
         <v>411</v>
       </c>
@@ -64778,7 +64771,7 @@
       </c>
       <c r="L94" s="15"/>
     </row>
-    <row r="95" spans="1:39" ht="14.65" thickBot="1">
+    <row r="95" spans="1:39" ht="15.75" thickBot="1">
       <c r="A95" s="9">
         <v>8.0274920000000005</v>
       </c>
@@ -64790,7 +64783,7 @@
       </c>
       <c r="L95" s="15"/>
     </row>
-    <row r="96" spans="1:39" ht="14.65" thickBot="1">
+    <row r="96" spans="1:39" ht="15.75" thickBot="1">
       <c r="A96" s="16">
         <f>(A94-A95)/A95</f>
         <v>0.65158059329115492</v>
@@ -64872,7 +64865,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="14.65" thickBot="1">
+    <row r="106" spans="1:5" ht="15.75" thickBot="1">
       <c r="A106" s="9">
         <f>1/A105</f>
         <v>139.56043956043956</v>
@@ -64881,7 +64874,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="14.65" thickBot="1">
+    <row r="107" spans="1:5" ht="15.75" thickBot="1">
       <c r="A107" s="19">
         <f>(A106-A103)/A103</f>
         <v>0.53846153846153832</v>
@@ -64902,8 +64895,8 @@
       <c r="D109" s="398"/>
       <c r="E109" s="398"/>
     </row>
-    <row r="110" spans="1:5" ht="14.65" thickBot="1"/>
-    <row r="111" spans="1:5" ht="14.65" thickBot="1">
+    <row r="110" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="111" spans="1:5" ht="15.75" thickBot="1">
       <c r="A111" s="19">
         <f>A122</f>
         <v>0.20481927710843381</v>
@@ -64981,7 +64974,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="14.65" thickBot="1">
+    <row r="121" spans="1:14" ht="15.75" thickBot="1">
       <c r="A121" s="9">
         <f>1/A120</f>
         <v>2.9367469879518069</v>
@@ -64990,7 +64983,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="14.65" thickBot="1">
+    <row r="122" spans="1:14" ht="15.75" thickBot="1">
       <c r="A122" s="19">
         <f>(A121-A118)/A118</f>
         <v>0.20481927710843381</v>
@@ -65066,7 +65059,7 @@
       <c r="M129" s="17"/>
       <c r="N129" s="15"/>
     </row>
-    <row r="130" spans="1:14" ht="14.65" thickBot="1">
+    <row r="130" spans="1:14" ht="15.75" thickBot="1">
       <c r="A130" s="9">
         <f>1/A129</f>
         <v>0.93457943925233644</v>
@@ -65078,7 +65071,7 @@
       <c r="M130" s="15"/>
       <c r="N130" s="15"/>
     </row>
-    <row r="131" spans="1:14" ht="14.65" thickBot="1">
+    <row r="131" spans="1:14" ht="15.75" thickBot="1">
       <c r="A131" s="19">
         <f>(A130-A128)/A128</f>
         <v>0.73592369435785332</v>
@@ -65088,7 +65081,7 @@
       </c>
       <c r="F131" s="24"/>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" ht="16.5">
       <c r="J132" s="26"/>
     </row>
     <row r="133" spans="1:14">
@@ -65116,31 +65109,31 @@
       <c r="F135" s="28"/>
       <c r="G135" s="28"/>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" ht="15.75">
       <c r="A136" s="29"/>
-      <c r="B136" s="395" t="s">
+      <c r="B136" s="399" t="s">
         <v>452</v>
       </c>
-      <c r="C136" s="396"/>
-      <c r="D136" s="396"/>
-      <c r="E136" s="397"/>
+      <c r="C136" s="400"/>
+      <c r="D136" s="400"/>
+      <c r="E136" s="401"/>
       <c r="F136" s="28"/>
       <c r="G136" s="28"/>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" ht="15.75">
       <c r="A137" s="30"/>
-      <c r="B137" s="395" t="s">
+      <c r="B137" s="399" t="s">
         <v>453</v>
       </c>
-      <c r="C137" s="397"/>
-      <c r="D137" s="395" t="s">
+      <c r="C137" s="401"/>
+      <c r="D137" s="399" t="s">
         <v>454</v>
       </c>
-      <c r="E137" s="397"/>
+      <c r="E137" s="401"/>
       <c r="F137" s="28"/>
       <c r="G137" s="28"/>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" ht="15.75">
       <c r="A138" s="31" t="s">
         <v>455</v>
       </c>
@@ -65691,7 +65684,7 @@
       <c r="D165" s="398"/>
       <c r="E165" s="398"/>
     </row>
-    <row r="166" spans="1:7" ht="14.65" thickBot="1">
+    <row r="166" spans="1:7" ht="15.75" thickBot="1">
       <c r="A166" s="23" t="s">
         <v>184</v>
       </c>
@@ -65699,7 +65692,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="14.65" thickBot="1">
+    <row r="167" spans="1:7" ht="15.75" thickBot="1">
       <c r="A167" s="9" t="s">
         <v>185</v>
       </c>
@@ -65725,7 +65718,7 @@
         <v>972.7</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="14.65" thickBot="1">
+    <row r="171" spans="1:7" ht="15.75" thickBot="1">
       <c r="A171" s="23" t="s">
         <v>445</v>
       </c>
@@ -65734,7 +65727,7 @@
         <v>4124.8</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="14.65" thickBot="1">
+    <row r="172" spans="1:7" ht="15.75" thickBot="1">
       <c r="A172" s="23" t="s">
         <v>446</v>
       </c>
@@ -65755,7 +65748,7 @@
       <c r="D174" s="398"/>
       <c r="E174" s="398"/>
     </row>
-    <row r="175" spans="1:7" ht="14.65" thickBot="1">
+    <row r="175" spans="1:7" ht="15.75" thickBot="1">
       <c r="A175" s="23" t="s">
         <v>450</v>
       </c>
@@ -65763,7 +65756,7 @@
         <v>0.1246</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="14.65" thickBot="1">
+    <row r="176" spans="1:7" ht="15.75" thickBot="1">
       <c r="A176" s="23" t="s">
         <v>447</v>
       </c>
@@ -65789,7 +65782,7 @@
         <v>197000</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="14.65" thickBot="1">
+    <row r="180" spans="1:5" ht="15.75" thickBot="1">
       <c r="A180" s="9" t="s">
         <v>449</v>
       </c>
@@ -65797,7 +65790,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="14.65" thickBot="1">
+    <row r="181" spans="1:5" ht="15.75" thickBot="1">
       <c r="A181" s="9" t="s">
         <v>187</v>
       </c>
@@ -65849,7 +65842,7 @@
         <v>0.67139665221009714</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="14.65" thickBot="1">
+    <row r="188" spans="1:5" ht="15.75" thickBot="1">
       <c r="A188" s="23" t="s">
         <v>583</v>
       </c>
@@ -65858,7 +65851,7 @@
         <v>0.44858421050781644</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="14.65" thickBot="1">
+    <row r="189" spans="1:5" ht="15.75" thickBot="1">
       <c r="A189" s="23" t="s">
         <v>584</v>
       </c>
@@ -65914,7 +65907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="14.65" thickBot="1">
+    <row r="196" spans="1:3" ht="15.75" thickBot="1">
       <c r="A196" s="9" t="s">
         <v>200</v>
       </c>
@@ -65923,7 +65916,7 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="14.65" thickBot="1">
+    <row r="197" spans="1:3" ht="15.75" thickBot="1">
       <c r="A197" s="9" t="s">
         <v>201</v>
       </c>
@@ -65934,12 +65927,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -65954,6 +65941,12 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -9626,9 +9626,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -9637,6 +9634,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -11022,8 +11022,8 @@
   <dimension ref="A1:T589"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I115" sqref="I115"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M137" sqref="M137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -18987,7 +18987,7 @@
         <v>0</v>
       </c>
       <c r="M131" s="61">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="N131" s="61">
         <v>0.01</v>
@@ -19055,7 +19055,7 @@
         <v>0</v>
       </c>
       <c r="M132" s="65">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="N132" s="63">
         <f t="shared" ref="N132:N148" si="54">N$131</f>
@@ -19131,7 +19131,7 @@
         <v>0</v>
       </c>
       <c r="M133" s="65">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="N133" s="63">
         <f t="shared" si="54"/>
@@ -19209,7 +19209,7 @@
         <v>0</v>
       </c>
       <c r="M134" s="65">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N134" s="63">
         <f t="shared" si="54"/>
@@ -19287,7 +19287,7 @@
         <v>0</v>
       </c>
       <c r="M135" s="65">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="N135" s="63">
         <f t="shared" si="54"/>
@@ -19365,7 +19365,7 @@
         <v>0</v>
       </c>
       <c r="M136" s="65">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N136" s="63">
         <f t="shared" si="54"/>
@@ -19444,7 +19444,7 @@
       </c>
       <c r="M137" s="63">
         <f>M131</f>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="N137" s="63">
         <f t="shared" si="54"/>
@@ -19523,7 +19523,7 @@
       </c>
       <c r="M138" s="63">
         <f t="shared" ref="M138:M142" si="58">M132</f>
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="N138" s="63">
         <f t="shared" si="54"/>
@@ -19602,7 +19602,7 @@
       </c>
       <c r="M139" s="63">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="N139" s="63">
         <f t="shared" si="54"/>
@@ -19681,7 +19681,7 @@
       </c>
       <c r="M140" s="63">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N140" s="63">
         <f t="shared" si="54"/>
@@ -19760,7 +19760,7 @@
       </c>
       <c r="M141" s="63">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="N141" s="63">
         <f t="shared" si="54"/>
@@ -19839,7 +19839,7 @@
       </c>
       <c r="M142" s="63">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N142" s="63">
         <f t="shared" si="54"/>
@@ -19918,7 +19918,7 @@
       </c>
       <c r="M143" s="63">
         <f>M137</f>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="N143" s="63">
         <f t="shared" si="54"/>
@@ -64546,13 +64546,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="398" t="s">
+      <c r="A1" s="401" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="398"/>
-      <c r="C1" s="398"/>
-      <c r="D1" s="398"/>
-      <c r="E1" s="398"/>
+      <c r="B1" s="401"/>
+      <c r="C1" s="401"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="402" t="s">
@@ -64621,13 +64621,13 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="398" t="s">
+      <c r="A60" s="401" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="398"/>
-      <c r="C60" s="398"/>
-      <c r="D60" s="398"/>
-      <c r="E60" s="398"/>
+      <c r="B60" s="401"/>
+      <c r="C60" s="401"/>
+      <c r="D60" s="401"/>
+      <c r="E60" s="401"/>
     </row>
     <row r="85" spans="1:39" s="12" customFormat="1">
       <c r="A85" s="9" t="s">
@@ -64732,13 +64732,13 @@
       </c>
     </row>
     <row r="89" spans="1:39">
-      <c r="A89" s="398" t="s">
+      <c r="A89" s="401" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="398"/>
-      <c r="C89" s="398"/>
-      <c r="D89" s="398"/>
-      <c r="E89" s="398"/>
+      <c r="B89" s="401"/>
+      <c r="C89" s="401"/>
+      <c r="D89" s="401"/>
+      <c r="E89" s="401"/>
     </row>
     <row r="90" spans="1:39">
       <c r="A90" s="9">
@@ -64825,13 +64825,13 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="398" t="s">
+      <c r="A98" s="401" t="s">
         <v>178</v>
       </c>
-      <c r="B98" s="398"/>
-      <c r="C98" s="398"/>
-      <c r="D98" s="398"/>
-      <c r="E98" s="398"/>
+      <c r="B98" s="401"/>
+      <c r="C98" s="401"/>
+      <c r="D98" s="401"/>
+      <c r="E98" s="401"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="17">
@@ -64915,13 +64915,13 @@
       <c r="A108" s="20"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="398" t="s">
+      <c r="A109" s="401" t="s">
         <v>180</v>
       </c>
-      <c r="B109" s="398"/>
-      <c r="C109" s="398"/>
-      <c r="D109" s="398"/>
-      <c r="E109" s="398"/>
+      <c r="B109" s="401"/>
+      <c r="C109" s="401"/>
+      <c r="D109" s="401"/>
+      <c r="E109" s="401"/>
     </row>
     <row r="110" spans="1:5" ht="14.65" thickBot="1"/>
     <row r="111" spans="1:5" ht="14.65" thickBot="1">
@@ -64934,13 +64934,13 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="398" t="s">
+      <c r="A113" s="401" t="s">
         <v>179</v>
       </c>
-      <c r="B113" s="398"/>
-      <c r="C113" s="398"/>
-      <c r="D113" s="398"/>
-      <c r="E113" s="398"/>
+      <c r="B113" s="401"/>
+      <c r="C113" s="401"/>
+      <c r="D113" s="401"/>
+      <c r="E113" s="401"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="17">
@@ -65021,13 +65021,13 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="398" t="s">
+      <c r="A124" s="401" t="s">
         <v>435</v>
       </c>
-      <c r="B124" s="398"/>
-      <c r="C124" s="398"/>
-      <c r="D124" s="398"/>
-      <c r="E124" s="398"/>
+      <c r="B124" s="401"/>
+      <c r="C124" s="401"/>
+      <c r="D124" s="401"/>
+      <c r="E124" s="401"/>
       <c r="L124" s="21"/>
     </row>
     <row r="125" spans="1:14">
@@ -65118,13 +65118,13 @@
       <c r="C133" s="15"/>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="398" t="s">
+      <c r="A134" s="401" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="398"/>
-      <c r="C134" s="398"/>
-      <c r="D134" s="398"/>
-      <c r="E134" s="398"/>
+      <c r="B134" s="401"/>
+      <c r="C134" s="401"/>
+      <c r="D134" s="401"/>
+      <c r="E134" s="401"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="27" t="s">
@@ -65139,25 +65139,25 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="29"/>
-      <c r="B136" s="399" t="s">
+      <c r="B136" s="398" t="s">
         <v>452</v>
       </c>
-      <c r="C136" s="400"/>
-      <c r="D136" s="400"/>
-      <c r="E136" s="401"/>
+      <c r="C136" s="399"/>
+      <c r="D136" s="399"/>
+      <c r="E136" s="400"/>
       <c r="F136" s="28"/>
       <c r="G136" s="28"/>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="30"/>
-      <c r="B137" s="399" t="s">
+      <c r="B137" s="398" t="s">
         <v>453</v>
       </c>
-      <c r="C137" s="401"/>
-      <c r="D137" s="399" t="s">
+      <c r="C137" s="400"/>
+      <c r="D137" s="398" t="s">
         <v>454</v>
       </c>
-      <c r="E137" s="401"/>
+      <c r="E137" s="400"/>
       <c r="F137" s="28"/>
       <c r="G137" s="28"/>
     </row>
@@ -65704,13 +65704,13 @@
       <c r="G163" s="28"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="398" t="s">
+      <c r="A165" s="401" t="s">
         <v>183</v>
       </c>
-      <c r="B165" s="398"/>
-      <c r="C165" s="398"/>
-      <c r="D165" s="398"/>
-      <c r="E165" s="398"/>
+      <c r="B165" s="401"/>
+      <c r="C165" s="401"/>
+      <c r="D165" s="401"/>
+      <c r="E165" s="401"/>
     </row>
     <row r="166" spans="1:7" ht="14.65" thickBot="1">
       <c r="A166" s="23" t="s">
@@ -65733,10 +65733,10 @@
       <c r="B168" s="46"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="398" t="s">
+      <c r="A169" s="401" t="s">
         <v>443</v>
       </c>
-      <c r="B169" s="398"/>
+      <c r="B169" s="401"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="23" t="s">
@@ -65768,13 +65768,13 @@
       <c r="B173" s="46"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="398" t="s">
+      <c r="A174" s="401" t="s">
         <v>192</v>
       </c>
-      <c r="B174" s="398"/>
-      <c r="C174" s="398"/>
-      <c r="D174" s="398"/>
-      <c r="E174" s="398"/>
+      <c r="B174" s="401"/>
+      <c r="C174" s="401"/>
+      <c r="D174" s="401"/>
+      <c r="E174" s="401"/>
     </row>
     <row r="175" spans="1:7" ht="14.65" thickBot="1">
       <c r="A175" s="23" t="s">
@@ -65794,13 +65794,13 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="398" t="s">
+      <c r="A178" s="401" t="s">
         <v>186</v>
       </c>
-      <c r="B178" s="398"/>
-      <c r="C178" s="398"/>
-      <c r="D178" s="398"/>
-      <c r="E178" s="398"/>
+      <c r="B178" s="401"/>
+      <c r="C178" s="401"/>
+      <c r="D178" s="401"/>
+      <c r="E178" s="401"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="25" t="s">
@@ -65828,13 +65828,13 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="398" t="s">
+      <c r="A183" s="401" t="s">
         <v>188</v>
       </c>
-      <c r="B183" s="398"/>
-      <c r="C183" s="398"/>
-      <c r="D183" s="398"/>
-      <c r="E183" s="398"/>
+      <c r="B183" s="401"/>
+      <c r="C183" s="401"/>
+      <c r="D183" s="401"/>
+      <c r="E183" s="401"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="23" t="s">
@@ -65889,13 +65889,13 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="398" t="s">
+      <c r="A191" s="401" t="s">
         <v>202</v>
       </c>
-      <c r="B191" s="398"/>
-      <c r="C191" s="398"/>
-      <c r="D191" s="398"/>
-      <c r="E191" s="398"/>
+      <c r="B191" s="401"/>
+      <c r="C191" s="401"/>
+      <c r="D191" s="401"/>
+      <c r="E191" s="401"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="21" t="s">
@@ -65955,6 +65955,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -65969,12 +65975,6 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -7503,7 +7503,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="16">
+  <numFmts count="15">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
@@ -7519,7 +7519,6 @@
     <numFmt numFmtId="175" formatCode="###0.0000;###0.0000"/>
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="###0.00"/>
-    <numFmt numFmtId="178" formatCode="0.000%"/>
   </numFmts>
   <fonts count="56">
     <font>
@@ -9611,9 +9610,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9626,6 +9622,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -9635,11 +9634,11 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="10" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -11022,8 +11021,8 @@
   <dimension ref="A1:T589"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M137" sqref="M137"/>
+      <pane ySplit="1" topLeftCell="A564" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N571" sqref="N571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -44039,13 +44038,13 @@
         <v>1429</v>
       </c>
       <c r="L571" s="196">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="M571" s="389">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="N571" s="393">
-        <v>5.0000000000000002E-5</v>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="N571" s="402">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="O571" s="4" t="s">
         <v>1434</v>
@@ -44529,10 +44528,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="394" t="s">
+      <c r="A1" s="393" t="s">
         <v>1415</v>
       </c>
-      <c r="B1" s="394"/>
+      <c r="B1" s="393"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="166" t="s">
@@ -44818,10 +44817,10 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="394" t="s">
+      <c r="A37" s="393" t="s">
         <v>1419</v>
       </c>
-      <c r="B37" s="394"/>
+      <c r="B37" s="393"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="166" t="s">
@@ -54855,19 +54854,19 @@
       </c>
     </row>
     <row r="246" spans="1:11" s="95" customFormat="1" ht="15" customHeight="1">
-      <c r="A246" s="395" t="s">
+      <c r="A246" s="394" t="s">
         <v>1726</v>
       </c>
-      <c r="B246" s="396"/>
-      <c r="C246" s="396"/>
-      <c r="D246" s="396"/>
-      <c r="E246" s="396"/>
-      <c r="F246" s="396"/>
-      <c r="G246" s="396"/>
-      <c r="H246" s="396"/>
-      <c r="I246" s="396"/>
-      <c r="J246" s="396"/>
-      <c r="K246" s="397"/>
+      <c r="B246" s="395"/>
+      <c r="C246" s="395"/>
+      <c r="D246" s="395"/>
+      <c r="E246" s="395"/>
+      <c r="F246" s="395"/>
+      <c r="G246" s="395"/>
+      <c r="H246" s="395"/>
+      <c r="I246" s="395"/>
+      <c r="J246" s="395"/>
+      <c r="K246" s="396"/>
     </row>
     <row r="247" spans="1:11" s="95" customFormat="1"/>
     <row r="248" spans="1:11" s="95" customFormat="1" ht="28.5">
@@ -64546,22 +64545,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="401" t="s">
+      <c r="A1" s="397" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="401"/>
-      <c r="C1" s="401"/>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
+      <c r="B1" s="397"/>
+      <c r="C1" s="397"/>
+      <c r="D1" s="397"/>
+      <c r="E1" s="397"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="401" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="402"/>
-      <c r="C2" s="402"/>
-      <c r="D2" s="402"/>
-      <c r="E2" s="402"/>
+      <c r="B2" s="401"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
@@ -64577,13 +64576,13 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="402" t="s">
+      <c r="A21" s="401" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="402"/>
-      <c r="C21" s="402"/>
-      <c r="D21" s="402"/>
-      <c r="E21" s="402"/>
+      <c r="B21" s="401"/>
+      <c r="C21" s="401"/>
+      <c r="D21" s="401"/>
+      <c r="E21" s="401"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="9" t="s">
@@ -64599,13 +64598,13 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="402" t="s">
+      <c r="A40" s="401" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="402"/>
-      <c r="C40" s="402"/>
-      <c r="D40" s="402"/>
-      <c r="E40" s="402"/>
+      <c r="B40" s="401"/>
+      <c r="C40" s="401"/>
+      <c r="D40" s="401"/>
+      <c r="E40" s="401"/>
     </row>
     <row r="57" spans="1:5" ht="14.65" thickBot="1">
       <c r="A57" s="9" t="s">
@@ -64621,13 +64620,13 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="401" t="s">
+      <c r="A60" s="397" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="401"/>
-      <c r="C60" s="401"/>
-      <c r="D60" s="401"/>
-      <c r="E60" s="401"/>
+      <c r="B60" s="397"/>
+      <c r="C60" s="397"/>
+      <c r="D60" s="397"/>
+      <c r="E60" s="397"/>
     </row>
     <row r="85" spans="1:39" s="12" customFormat="1">
       <c r="A85" s="9" t="s">
@@ -64732,13 +64731,13 @@
       </c>
     </row>
     <row r="89" spans="1:39">
-      <c r="A89" s="401" t="s">
+      <c r="A89" s="397" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="401"/>
-      <c r="C89" s="401"/>
-      <c r="D89" s="401"/>
-      <c r="E89" s="401"/>
+      <c r="B89" s="397"/>
+      <c r="C89" s="397"/>
+      <c r="D89" s="397"/>
+      <c r="E89" s="397"/>
     </row>
     <row r="90" spans="1:39">
       <c r="A90" s="9">
@@ -64825,13 +64824,13 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="401" t="s">
+      <c r="A98" s="397" t="s">
         <v>178</v>
       </c>
-      <c r="B98" s="401"/>
-      <c r="C98" s="401"/>
-      <c r="D98" s="401"/>
-      <c r="E98" s="401"/>
+      <c r="B98" s="397"/>
+      <c r="C98" s="397"/>
+      <c r="D98" s="397"/>
+      <c r="E98" s="397"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="17">
@@ -64915,13 +64914,13 @@
       <c r="A108" s="20"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="401" t="s">
+      <c r="A109" s="397" t="s">
         <v>180</v>
       </c>
-      <c r="B109" s="401"/>
-      <c r="C109" s="401"/>
-      <c r="D109" s="401"/>
-      <c r="E109" s="401"/>
+      <c r="B109" s="397"/>
+      <c r="C109" s="397"/>
+      <c r="D109" s="397"/>
+      <c r="E109" s="397"/>
     </row>
     <row r="110" spans="1:5" ht="14.65" thickBot="1"/>
     <row r="111" spans="1:5" ht="14.65" thickBot="1">
@@ -64934,13 +64933,13 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="401" t="s">
+      <c r="A113" s="397" t="s">
         <v>179</v>
       </c>
-      <c r="B113" s="401"/>
-      <c r="C113" s="401"/>
-      <c r="D113" s="401"/>
-      <c r="E113" s="401"/>
+      <c r="B113" s="397"/>
+      <c r="C113" s="397"/>
+      <c r="D113" s="397"/>
+      <c r="E113" s="397"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="17">
@@ -65021,13 +65020,13 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="401" t="s">
+      <c r="A124" s="397" t="s">
         <v>435</v>
       </c>
-      <c r="B124" s="401"/>
-      <c r="C124" s="401"/>
-      <c r="D124" s="401"/>
-      <c r="E124" s="401"/>
+      <c r="B124" s="397"/>
+      <c r="C124" s="397"/>
+      <c r="D124" s="397"/>
+      <c r="E124" s="397"/>
       <c r="L124" s="21"/>
     </row>
     <row r="125" spans="1:14">
@@ -65118,13 +65117,13 @@
       <c r="C133" s="15"/>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="401" t="s">
+      <c r="A134" s="397" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="401"/>
-      <c r="C134" s="401"/>
-      <c r="D134" s="401"/>
-      <c r="E134" s="401"/>
+      <c r="B134" s="397"/>
+      <c r="C134" s="397"/>
+      <c r="D134" s="397"/>
+      <c r="E134" s="397"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="27" t="s">
@@ -65704,13 +65703,13 @@
       <c r="G163" s="28"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="401" t="s">
+      <c r="A165" s="397" t="s">
         <v>183</v>
       </c>
-      <c r="B165" s="401"/>
-      <c r="C165" s="401"/>
-      <c r="D165" s="401"/>
-      <c r="E165" s="401"/>
+      <c r="B165" s="397"/>
+      <c r="C165" s="397"/>
+      <c r="D165" s="397"/>
+      <c r="E165" s="397"/>
     </row>
     <row r="166" spans="1:7" ht="14.65" thickBot="1">
       <c r="A166" s="23" t="s">
@@ -65733,10 +65732,10 @@
       <c r="B168" s="46"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="401" t="s">
+      <c r="A169" s="397" t="s">
         <v>443</v>
       </c>
-      <c r="B169" s="401"/>
+      <c r="B169" s="397"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="23" t="s">
@@ -65768,13 +65767,13 @@
       <c r="B173" s="46"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="401" t="s">
+      <c r="A174" s="397" t="s">
         <v>192</v>
       </c>
-      <c r="B174" s="401"/>
-      <c r="C174" s="401"/>
-      <c r="D174" s="401"/>
-      <c r="E174" s="401"/>
+      <c r="B174" s="397"/>
+      <c r="C174" s="397"/>
+      <c r="D174" s="397"/>
+      <c r="E174" s="397"/>
     </row>
     <row r="175" spans="1:7" ht="14.65" thickBot="1">
       <c r="A175" s="23" t="s">
@@ -65794,13 +65793,13 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="401" t="s">
+      <c r="A178" s="397" t="s">
         <v>186</v>
       </c>
-      <c r="B178" s="401"/>
-      <c r="C178" s="401"/>
-      <c r="D178" s="401"/>
-      <c r="E178" s="401"/>
+      <c r="B178" s="397"/>
+      <c r="C178" s="397"/>
+      <c r="D178" s="397"/>
+      <c r="E178" s="397"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="25" t="s">
@@ -65828,13 +65827,13 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="401" t="s">
+      <c r="A183" s="397" t="s">
         <v>188</v>
       </c>
-      <c r="B183" s="401"/>
-      <c r="C183" s="401"/>
-      <c r="D183" s="401"/>
-      <c r="E183" s="401"/>
+      <c r="B183" s="397"/>
+      <c r="C183" s="397"/>
+      <c r="D183" s="397"/>
+      <c r="E183" s="397"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="23" t="s">
@@ -65889,13 +65888,13 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="401" t="s">
+      <c r="A191" s="397" t="s">
         <v>202</v>
       </c>
-      <c r="B191" s="401"/>
-      <c r="C191" s="401"/>
-      <c r="D191" s="401"/>
-      <c r="E191" s="401"/>
+      <c r="B191" s="397"/>
+      <c r="C191" s="397"/>
+      <c r="D191" s="397"/>
+      <c r="E191" s="397"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="21" t="s">
@@ -65955,12 +65954,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -65975,6 +65968,12 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -25,16 +25,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PolicyLevers!$A$1:$T$571</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -5704,9 +5694,6 @@
     <t>**Description:** This policy increases the tax rate for LPG.  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:**  In 2018, the national and state-level Goods and Services Tax (GST) rates on domestic LPG were 2.5% each, adding up to a national average tax rate of 5%.</t>
   </si>
   <si>
-    <t>**Description:** This control setting adjusts the GDP impact of the recession caused by SARS-CoV-2 (COVID-19).  It is set in terms of the GDP growth rate for 2020, relative to 2019 (with negative values indicating GDP shrinkage).  Recession impacts can extend beyond 2020, and can be adjusted using the Implementation Schedule feature for this control setting.  // **Guidance for setting values:** As of April 2020, projections for GDP impacts in India vary across several studies. Estimates by six national and global agencies range between a GDP shrinkage of 0.5% on the optimistic end to a high of 5.4% (relative to counter-factual growth projections of 5%-6%). On average, the projected shrinkage is 3.2%, which is the default setting.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -7497,6 +7484,9 @@
   </si>
   <si>
     <t>Scenario_Post2030Policies.cin</t>
+  </si>
+  <si>
+    <t>**Description:** This control setting adjusts the GDP impact of the recession caused by SARS-CoV-2 (COVID-19).  It is set in terms of the GDP growth rate for 2020, relative to 2019 (with negative values indicating GDP shrinkage).  Recession impacts can extend beyond 2020, and can be adjusted using the Implementation Schedule feature for this control setting.  // **Guidance for setting values:** As of 27 May 2020, projections for GDP impacts in India vary across several studies. Estimates by nine national and global agencies range between a GDP reduction of 2.3% on the optimistic end to a high of 11% (relative to an average counter-factual growth projection of 5.8%). On average, the projected reduction is 5.9%, resulting in a new GDP growth rate of -0.1%. This is the default setting.</t>
   </si>
 </sst>
 </file>
@@ -8564,7 +8554,7 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="403">
+  <cellXfs count="404">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9610,6 +9600,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9622,9 +9615,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -9634,10 +9624,13 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10841,7 +10834,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="50" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B16" s="176"/>
     </row>
@@ -10856,7 +10849,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="391" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B18" s="118" t="str">
         <f t="array" ref="B18">IF(MIN(IF(COUNTIF(PolicyLevers!$H$2:$H$1500,PolicyLevers!$H$2:$H$1500)&gt;1,PolicyLevers!$H$2:$H$1500, ""))=0,"No duplicate ID numbers",MIN(IF(COUNTIF(PolicyLevers!$H$2:$H$1500,PolicyLevers!$H$2:$H$1500)&gt;1,PolicyLevers!$H$2:$H$1500, "")))</f>
@@ -10865,7 +10858,7 @@
     </row>
     <row r="19" spans="1:6" ht="28.5">
       <c r="A19" s="392" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B19" s="118" t="str">
         <f>IF(MIN(IF((NOT(ISNUMBER(PolicyLevers!$H$2:$H$1500)))*(PolicyLevers!$I$2:$I$1500="Yes"),ROW(PolicyLevers!$H$2:$H$1500)))=0,"No missing ID numbers",MIN(IF((NOT(ISNUMBER(PolicyLevers!$H$2:$H$1500)))*(PolicyLevers!$I$2:$I$1500="Yes"),ROW(PolicyLevers!$H$2:$H$1500))))</f>
@@ -11022,7 +11015,7 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A564" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N571" sqref="N571"/>
+      <selection pane="bottomLeft" activeCell="P571" sqref="P571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -11165,7 +11158,7 @@
         <v>823</v>
       </c>
       <c r="S2" s="71" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="T2" s="99"/>
     </row>
@@ -11236,7 +11229,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S3" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="3" customFormat="1" ht="57">
@@ -11306,7 +11299,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S4" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="3" customFormat="1" ht="57">
@@ -11376,7 +11369,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S5" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="3" customFormat="1" ht="57">
@@ -11446,7 +11439,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S6" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="3" customFormat="1" ht="28.5">
@@ -11576,7 +11569,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S8" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="3" customFormat="1" ht="57">
@@ -11646,7 +11639,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S9" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="3" customFormat="1" ht="28.5">
@@ -11800,7 +11793,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S12" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="3" customFormat="1" ht="57">
@@ -11870,7 +11863,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S13" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="3" customFormat="1" ht="57">
@@ -11940,7 +11933,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S14" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="3" customFormat="1" ht="57">
@@ -12010,7 +12003,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S15" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="3" customFormat="1" ht="57">
@@ -12080,7 +12073,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S16" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1" ht="28.5">
@@ -12210,7 +12203,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S18" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1" ht="57">
@@ -12280,7 +12273,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S19" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="3" customFormat="1" ht="28.5">
@@ -12434,7 +12427,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S22" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1" ht="28.5">
@@ -12546,7 +12539,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S24" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1" ht="28.5">
@@ -12910,7 +12903,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S32" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="33" spans="1:19" s="3" customFormat="1" ht="57">
@@ -12980,7 +12973,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S33" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="34" spans="1:19" s="3" customFormat="1" ht="57">
@@ -13050,7 +13043,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S34" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="35" spans="1:19" s="3" customFormat="1" ht="57">
@@ -13120,7 +13113,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S35" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="36" spans="1:19" s="3" customFormat="1" ht="57">
@@ -13190,7 +13183,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S36" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="37" spans="1:19" s="3" customFormat="1" ht="28.5">
@@ -13302,7 +13295,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S38" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="39" spans="1:19" s="3" customFormat="1" ht="57">
@@ -13372,7 +13365,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S39" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="40" spans="1:19" s="3" customFormat="1" ht="28.5">
@@ -13526,7 +13519,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S42" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="3" customFormat="1" ht="57">
@@ -13596,7 +13589,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S43" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="44" spans="1:19" s="3" customFormat="1" ht="57">
@@ -13666,7 +13659,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S44" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="45" spans="1:19" s="3" customFormat="1" ht="57">
@@ -13736,7 +13729,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S45" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="46" spans="1:19" s="3" customFormat="1" ht="57">
@@ -13806,7 +13799,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S46" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="47" spans="1:19" s="3" customFormat="1" ht="28.5">
@@ -13918,7 +13911,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S48" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="3" customFormat="1" ht="57">
@@ -13988,7 +13981,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S49" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="3" customFormat="1" ht="28.5">
@@ -14142,7 +14135,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S52" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="3" customFormat="1" ht="57">
@@ -14212,7 +14205,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S53" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="3" customFormat="1" ht="57">
@@ -14282,7 +14275,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S54" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="3" customFormat="1" ht="57">
@@ -14352,7 +14345,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S55" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="3" customFormat="1" ht="57">
@@ -14422,7 +14415,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S56" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="3" customFormat="1" ht="28.5">
@@ -14552,7 +14545,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S58" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="3" customFormat="1" ht="57">
@@ -14622,7 +14615,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S59" s="108" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="3" customFormat="1" ht="28.5">
@@ -14750,7 +14743,7 @@
         <v>1237</v>
       </c>
       <c r="S62" s="71" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="T62" s="99"/>
     </row>
@@ -14800,7 +14793,7 @@
         <v>1238</v>
       </c>
       <c r="S63" s="75" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="T63" s="10"/>
     </row>
@@ -14860,7 +14853,7 @@
         <v>524</v>
       </c>
       <c r="S64" s="185" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="T64" s="10"/>
     </row>
@@ -15509,7 +15502,7 @@
         <v>ev-mandate.html</v>
       </c>
       <c r="S74" s="187" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="T74" s="10"/>
     </row>
@@ -15616,7 +15609,7 @@
         <v>517</v>
       </c>
       <c r="S76" s="75" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="T76" s="10"/>
     </row>
@@ -15681,7 +15674,7 @@
       <c r="Q77" s="79"/>
       <c r="R77" s="157"/>
       <c r="S77" s="75" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="T77" s="96"/>
     </row>
@@ -15746,7 +15739,7 @@
       <c r="Q78" s="79"/>
       <c r="R78" s="157"/>
       <c r="S78" s="75" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="T78" s="96"/>
     </row>
@@ -16140,7 +16133,7 @@
       <c r="Q86" s="79"/>
       <c r="R86" s="157"/>
       <c r="S86" s="75" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="T86" s="96"/>
     </row>
@@ -16205,7 +16198,7 @@
       <c r="Q87" s="79"/>
       <c r="R87" s="157"/>
       <c r="S87" s="75" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="T87" s="96"/>
     </row>
@@ -16319,7 +16312,7 @@
         <v>211</v>
       </c>
       <c r="S89" s="188" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="T89" s="182" t="s">
         <v>412</v>
@@ -16392,7 +16385,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S90" s="188" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="T90" s="182" t="s">
         <v>412</v>
@@ -16464,7 +16457,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S91" s="188" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="T91" s="182" t="s">
         <v>423</v>
@@ -16537,7 +16530,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S92" s="188" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="T92" s="182" t="s">
         <v>423</v>
@@ -16609,7 +16602,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S93" s="182" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T93" s="182" t="s">
         <v>190</v>
@@ -16682,7 +16675,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S94" s="182" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T94" s="106" t="str">
         <f>T$93</f>
@@ -16755,7 +16748,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S95" s="182" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T95" s="55" t="s">
         <v>191</v>
@@ -16817,7 +16810,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P96" s="177" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="Q96" s="76" t="str">
         <f t="shared" si="23"/>
@@ -16828,7 +16821,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S96" s="182" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T96" s="106" t="str">
         <f>T$95</f>
@@ -16901,7 +16894,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S97" s="182" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T97" s="55" t="s">
         <v>190</v>
@@ -16974,7 +16967,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S98" s="182" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T98" s="106" t="str">
         <f>T$97</f>
@@ -17047,7 +17040,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S99" s="182" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T99" s="55" t="s">
         <v>441</v>
@@ -17156,7 +17149,7 @@
         <v>1239</v>
       </c>
       <c r="S101" s="189" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="T101" s="10"/>
     </row>
@@ -17224,7 +17217,7 @@
         <v>hydrogen-vehicle-mandate.html</v>
       </c>
       <c r="S102" s="55" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="T102" s="55"/>
     </row>
@@ -17292,7 +17285,7 @@
         <v>hydrogen-vehicle-mandate.html</v>
       </c>
       <c r="S103" s="55" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="T103" s="55"/>
     </row>
@@ -17360,7 +17353,7 @@
         <v>hydrogen-vehicle-mandate.html</v>
       </c>
       <c r="S104" s="55" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="T104" s="55"/>
     </row>
@@ -17834,7 +17827,7 @@
       <c r="Q112" s="57"/>
       <c r="R112" s="159"/>
       <c r="S112" s="55" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="T112" s="55"/>
     </row>
@@ -17886,7 +17879,7 @@
         <v>530</v>
       </c>
       <c r="S113" s="10" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="T113" s="10"/>
     </row>
@@ -18070,7 +18063,7 @@
         <v>215</v>
       </c>
       <c r="S116" s="10" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="T116" s="55"/>
     </row>
@@ -18117,7 +18110,7 @@
       <c r="Q117" s="60"/>
       <c r="R117" s="160"/>
       <c r="S117" s="57" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="T117" s="60"/>
     </row>
@@ -18164,7 +18157,7 @@
       <c r="Q118" s="60"/>
       <c r="R118" s="160"/>
       <c r="S118" s="57" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="T118" s="60"/>
     </row>
@@ -18235,7 +18228,7 @@
         <v>building-component-electrification.html</v>
       </c>
       <c r="S119" s="57" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="T119" s="60"/>
     </row>
@@ -18306,7 +18299,7 @@
         <v>building-component-electrification.html</v>
       </c>
       <c r="S120" s="57" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="T120" s="60"/>
     </row>
@@ -18377,7 +18370,7 @@
         <v>building-component-electrification.html</v>
       </c>
       <c r="S121" s="57" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="T121" s="60"/>
     </row>
@@ -18424,7 +18417,7 @@
       <c r="Q122" s="60"/>
       <c r="R122" s="160"/>
       <c r="S122" s="57" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="T122" s="60"/>
     </row>
@@ -18483,7 +18476,7 @@
       <c r="Q123" s="60"/>
       <c r="R123" s="160"/>
       <c r="S123" s="57" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="T123" s="60"/>
     </row>
@@ -18554,7 +18547,7 @@
         <v>building-component-electrification.html</v>
       </c>
       <c r="S124" s="57" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="T124" s="60"/>
     </row>
@@ -18625,7 +18618,7 @@
         <v>building-component-electrification.html</v>
       </c>
       <c r="S125" s="57" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="T125" s="60"/>
     </row>
@@ -18696,7 +18689,7 @@
         <v>building-component-electrification.html</v>
       </c>
       <c r="S126" s="57" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="T126" s="60"/>
     </row>
@@ -18743,7 +18736,7 @@
       <c r="Q127" s="60"/>
       <c r="R127" s="160"/>
       <c r="S127" s="57" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="T127" s="60"/>
     </row>
@@ -18802,7 +18795,7 @@
       <c r="Q128" s="60"/>
       <c r="R128" s="160"/>
       <c r="S128" s="57" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="T128" s="60"/>
     </row>
@@ -18873,7 +18866,7 @@
         <v>building-component-electrification.html</v>
       </c>
       <c r="S129" s="57" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="T129" s="60"/>
     </row>
@@ -18944,7 +18937,7 @@
         <v>building-component-electrification.html</v>
       </c>
       <c r="S130" s="57" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="T130" s="60"/>
     </row>
@@ -19004,7 +18997,7 @@
         <v>217</v>
       </c>
       <c r="S131" s="185" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="T131" s="55" t="s">
         <v>479</v>
@@ -19076,7 +19069,7 @@
         <v>building-energy-efficiency-standards.html</v>
       </c>
       <c r="S132" s="190" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="T132" s="57" t="str">
         <f>T131</f>
@@ -20013,10 +20006,10 @@
         <v>building-energy-efficiency-standards.html</v>
       </c>
       <c r="S144" s="57" t="s">
+        <v>1644</v>
+      </c>
+      <c r="T144" s="57" t="s">
         <v>1645</v>
-      </c>
-      <c r="T144" s="57" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="145" spans="1:20" s="5" customFormat="1" ht="85.5">
@@ -20085,10 +20078,10 @@
         <v>building-energy-efficiency-standards.html</v>
       </c>
       <c r="S145" s="57" t="s">
+        <v>1644</v>
+      </c>
+      <c r="T145" s="57" t="s">
         <v>1645</v>
-      </c>
-      <c r="T145" s="57" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="146" spans="1:20" s="5" customFormat="1" ht="85.5">
@@ -20157,10 +20150,10 @@
         <v>building-energy-efficiency-standards.html</v>
       </c>
       <c r="S146" s="57" t="s">
+        <v>1644</v>
+      </c>
+      <c r="T146" s="57" t="s">
         <v>1645</v>
-      </c>
-      <c r="T146" s="57" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="147" spans="1:20" s="5" customFormat="1" ht="85.5">
@@ -20229,10 +20222,10 @@
         <v>building-energy-efficiency-standards.html</v>
       </c>
       <c r="S147" s="57" t="s">
+        <v>1644</v>
+      </c>
+      <c r="T147" s="57" t="s">
         <v>1645</v>
-      </c>
-      <c r="T147" s="57" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="148" spans="1:20" s="5" customFormat="1" ht="85.5">
@@ -20301,10 +20294,10 @@
         <v>building-energy-efficiency-standards.html</v>
       </c>
       <c r="S148" s="57" t="s">
+        <v>1644</v>
+      </c>
+      <c r="T148" s="57" t="s">
         <v>1645</v>
-      </c>
-      <c r="T148" s="57" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="149" spans="1:20" s="5" customFormat="1" ht="57">
@@ -20407,7 +20400,7 @@
         <v>289</v>
       </c>
       <c r="S150" s="10" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="T150" s="10"/>
     </row>
@@ -20459,7 +20452,7 @@
         <v>292</v>
       </c>
       <c r="S151" s="10" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="T151" s="57"/>
     </row>
@@ -20511,7 +20504,7 @@
         <v>221</v>
       </c>
       <c r="S152" s="10" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="T152" s="57"/>
     </row>
@@ -20567,7 +20560,7 @@
         <v>223</v>
       </c>
       <c r="S153" s="10" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="T153" s="10"/>
     </row>
@@ -21842,7 +21835,7 @@
         <v>39</v>
       </c>
       <c r="P178" s="180" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="Q178" s="55" t="s">
         <v>926</v>
@@ -21851,7 +21844,7 @@
         <v>927</v>
       </c>
       <c r="S178" s="10" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="T178" s="55"/>
     </row>
@@ -21903,7 +21896,7 @@
         <v>303</v>
       </c>
       <c r="S179" s="10" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="T179" s="10"/>
     </row>
@@ -21959,7 +21952,7 @@
         <v>303</v>
       </c>
       <c r="S180" s="10" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="T180" s="10"/>
     </row>
@@ -23057,7 +23050,7 @@
         <v>227</v>
       </c>
       <c r="S197" s="55" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="T197" s="55"/>
     </row>
@@ -23113,7 +23106,7 @@
         <v>229</v>
       </c>
       <c r="S198" s="55" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="T198" s="55"/>
     </row>
@@ -23223,7 +23216,7 @@
         <v>229</v>
       </c>
       <c r="S200" s="55" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="T200" s="55"/>
     </row>
@@ -23844,7 +23837,7 @@
         <v>231</v>
       </c>
       <c r="S214" s="55" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="T214" s="55"/>
     </row>
@@ -23896,7 +23889,7 @@
         <v>233</v>
       </c>
       <c r="S215" s="55" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="T215" s="55"/>
     </row>
@@ -26866,7 +26859,7 @@
         <v>276</v>
       </c>
       <c r="S282" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="T282" s="10"/>
     </row>
@@ -27158,7 +27151,7 @@
       </c>
       <c r="R287" s="158"/>
       <c r="S287" s="150" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="T287" s="10"/>
     </row>
@@ -27222,7 +27215,7 @@
       </c>
       <c r="R288" s="158"/>
       <c r="S288" s="150" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="T288" s="10"/>
     </row>
@@ -27286,7 +27279,7 @@
       </c>
       <c r="R289" s="158"/>
       <c r="S289" s="150" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="T289" s="10"/>
     </row>
@@ -27350,7 +27343,7 @@
       </c>
       <c r="R290" s="158"/>
       <c r="S290" s="150" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="T290" s="10"/>
     </row>
@@ -27472,7 +27465,7 @@
       </c>
       <c r="R292" s="158"/>
       <c r="S292" s="150" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="T292" s="10"/>
     </row>
@@ -27793,7 +27786,7 @@
         <v>236</v>
       </c>
       <c r="S298" s="188" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="T298" s="55"/>
     </row>
@@ -28395,7 +28388,7 @@
         <v>238</v>
       </c>
       <c r="S309" s="182" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="T309" s="55"/>
     </row>
@@ -28447,7 +28440,7 @@
         <v>240</v>
       </c>
       <c r="S310" s="55" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="T310" s="57"/>
     </row>
@@ -28499,7 +28492,7 @@
         <v>242</v>
       </c>
       <c r="S311" s="55" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="T311" s="57"/>
     </row>
@@ -28555,7 +28548,7 @@
         <v>244</v>
       </c>
       <c r="S312" s="191" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="T312" s="10" t="s">
         <v>585</v>
@@ -28951,7 +28944,7 @@
         <v>244</v>
       </c>
       <c r="S318" s="57" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="T318" s="57" t="str">
         <f t="shared" si="105"/>
@@ -29072,7 +29065,7 @@
         <v>246</v>
       </c>
       <c r="S320" s="55" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="T320" s="57"/>
     </row>
@@ -34539,7 +34532,7 @@
         <v>589</v>
       </c>
       <c r="S401" s="10" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="T401" s="10"/>
     </row>
@@ -34591,7 +34584,7 @@
         <v>589</v>
       </c>
       <c r="S402" s="10" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="T402" s="10"/>
     </row>
@@ -34643,7 +34636,7 @@
         <v>589</v>
       </c>
       <c r="S403" s="10" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="T403" s="10"/>
     </row>
@@ -34695,7 +34688,7 @@
         <v>589</v>
       </c>
       <c r="S404" s="10" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="T404" s="10"/>
     </row>
@@ -35058,7 +35051,7 @@
         <v>249</v>
       </c>
       <c r="S410" s="10" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="T410" s="55"/>
     </row>
@@ -35441,7 +35434,7 @@
         <v>1242</v>
       </c>
       <c r="S416" s="55" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="T416" s="55"/>
     </row>
@@ -35986,7 +35979,7 @@
         <v>253</v>
       </c>
       <c r="S425" s="55" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="T425" s="182" t="s">
         <v>203</v>
@@ -36040,7 +36033,7 @@
         <v>348</v>
       </c>
       <c r="S426" s="55" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="T426" s="55"/>
     </row>
@@ -36090,7 +36083,7 @@
         <v>1248</v>
       </c>
       <c r="S427" s="55" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="T427" s="55"/>
     </row>
@@ -36142,7 +36135,7 @@
         <v>255</v>
       </c>
       <c r="S428" s="55" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="T428" s="55"/>
     </row>
@@ -36194,7 +36187,7 @@
         <v>257</v>
       </c>
       <c r="S429" s="55" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="T429" s="55"/>
     </row>
@@ -36246,7 +36239,7 @@
         <v>259</v>
       </c>
       <c r="S430" s="55" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="T430" s="55"/>
     </row>
@@ -36298,7 +36291,7 @@
         <v>261</v>
       </c>
       <c r="S431" s="55" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="T431" s="55"/>
     </row>
@@ -36529,14 +36522,14 @@
         <v>967</v>
       </c>
       <c r="P436" s="183" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="Q436" s="10"/>
       <c r="R436" s="158" t="s">
         <v>1246</v>
       </c>
       <c r="S436" s="55" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="T436" s="10"/>
     </row>
@@ -36592,7 +36585,7 @@
         <v>263</v>
       </c>
       <c r="S437" s="182" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="T437" s="55"/>
     </row>
@@ -36659,7 +36652,7 @@
         <v>carbon-capture-and-sequestration.html</v>
       </c>
       <c r="S438" s="182" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="T438" s="55"/>
     </row>
@@ -36716,7 +36709,7 @@
         <v>265</v>
       </c>
       <c r="S439" s="10" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="T439" s="10"/>
     </row>
@@ -36783,7 +36776,7 @@
         <v>carbon-tax.html</v>
       </c>
       <c r="S440" s="57" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="T440" s="57"/>
     </row>
@@ -36850,7 +36843,7 @@
         <v>carbon-tax.html</v>
       </c>
       <c r="S441" s="57" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="T441" s="57"/>
     </row>
@@ -36917,7 +36910,7 @@
         <v>carbon-tax.html</v>
       </c>
       <c r="S442" s="57" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="T442" s="57"/>
     </row>
@@ -36984,7 +36977,7 @@
         <v>carbon-tax.html</v>
       </c>
       <c r="S443" s="57" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="T443" s="57"/>
     </row>
@@ -37122,7 +37115,7 @@
         <v>265</v>
       </c>
       <c r="S446" s="57" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="T446" s="10"/>
     </row>
@@ -37283,7 +37276,7 @@
         <v>269</v>
       </c>
       <c r="S449" s="55" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="T449" s="57"/>
     </row>
@@ -38046,7 +38039,7 @@
       <c r="Q465" s="57"/>
       <c r="R465" s="158"/>
       <c r="S465" s="76" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="T465" s="57"/>
     </row>
@@ -38992,7 +38985,7 @@
         <v>271</v>
       </c>
       <c r="S487" s="55" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="T487" s="57"/>
     </row>
@@ -44043,21 +44036,21 @@
       <c r="M571" s="389">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="N571" s="402">
+      <c r="N571" s="393">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="O571" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="P571" s="2" t="s">
-        <v>1629</v>
+      <c r="P571" s="403" t="s">
+        <v>1963</v>
       </c>
       <c r="R571" s="162"/>
       <c r="S571" s="67" t="s">
+        <v>1675</v>
+      </c>
+      <c r="T571" s="2" t="s">
         <v>1676</v>
-      </c>
-      <c r="T571" s="2" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="572" spans="1:20">
@@ -44528,10 +44521,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="393" t="s">
+      <c r="A1" s="394" t="s">
         <v>1415</v>
       </c>
-      <c r="B1" s="393"/>
+      <c r="B1" s="394"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="166" t="s">
@@ -44555,7 +44548,7 @@
         <v>1425</v>
       </c>
       <c r="B4" s="193" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -44572,7 +44565,7 @@
         <v>1426</v>
       </c>
       <c r="B6" s="193" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -44580,7 +44573,7 @@
         <v>828</v>
       </c>
       <c r="B7" s="193" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -44588,7 +44581,7 @@
         <v>829</v>
       </c>
       <c r="B8" s="193" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -44623,7 +44616,7 @@
         <v>830</v>
       </c>
       <c r="B12" s="193" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -44640,7 +44633,7 @@
         <v>817</v>
       </c>
       <c r="B14" s="193" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -44648,7 +44641,7 @@
         <v>818</v>
       </c>
       <c r="B15" s="193" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -44692,7 +44685,7 @@
         <v>512</v>
       </c>
       <c r="B20" s="193" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -44700,7 +44693,7 @@
         <v>1424</v>
       </c>
       <c r="B21" s="193" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -44708,7 +44701,7 @@
         <v>800</v>
       </c>
       <c r="B22" s="193" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -44716,7 +44709,7 @@
         <v>801</v>
       </c>
       <c r="B23" s="193" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -44724,7 +44717,7 @@
         <v>724</v>
       </c>
       <c r="B24" s="193" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -44732,7 +44725,7 @@
         <v>1144</v>
       </c>
       <c r="B25" s="193" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -44749,7 +44742,7 @@
         <v>831</v>
       </c>
       <c r="B27" s="193" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -44757,7 +44750,7 @@
         <v>832</v>
       </c>
       <c r="B28" s="193" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -44765,7 +44758,7 @@
         <v>833</v>
       </c>
       <c r="B29" s="193" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -44773,7 +44766,7 @@
         <v>1177</v>
       </c>
       <c r="B30" s="194" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -44781,7 +44774,7 @@
         <v>1178</v>
       </c>
       <c r="B31" s="194" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -44789,7 +44782,7 @@
         <v>834</v>
       </c>
       <c r="B32" s="193" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -44797,7 +44790,7 @@
         <v>839</v>
       </c>
       <c r="B33" s="193" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -44805,7 +44798,7 @@
         <v>866</v>
       </c>
       <c r="B34" s="193" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -44813,14 +44806,14 @@
         <v>973</v>
       </c>
       <c r="B35" s="193" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="393" t="s">
+      <c r="A37" s="394" t="s">
         <v>1419</v>
       </c>
-      <c r="B37" s="393"/>
+      <c r="B37" s="394"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="166" t="s">
@@ -44835,7 +44828,7 @@
         <v>160</v>
       </c>
       <c r="B39" s="193" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -44843,7 +44836,7 @@
         <v>162</v>
       </c>
       <c r="B40" s="193" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -46725,7 +46718,7 @@
         <v>793</v>
       </c>
       <c r="H68" s="380" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="I68" s="96" t="s">
         <v>1073</v>
@@ -46752,13 +46745,13 @@
         <v>trillion freight ton-km / year</v>
       </c>
       <c r="G69" s="381" t="s">
+        <v>1926</v>
+      </c>
+      <c r="H69" s="382" t="s">
         <v>1927</v>
       </c>
-      <c r="H69" s="382" t="s">
+      <c r="I69" s="381" t="s">
         <v>1928</v>
-      </c>
-      <c r="I69" s="381" t="s">
-        <v>1929</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="71.25">
@@ -46812,13 +46805,13 @@
         <v>thousand vehicles / year</v>
       </c>
       <c r="G71" s="383" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H71" s="383" t="s">
         <v>1930</v>
       </c>
-      <c r="H71" s="383" t="s">
+      <c r="I71" s="383" t="s">
         <v>1931</v>
-      </c>
-      <c r="I71" s="383" t="s">
-        <v>1932</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="42.75">
@@ -46842,13 +46835,13 @@
         <v>thousand vehicles / year</v>
       </c>
       <c r="G72" s="383" t="s">
+        <v>1932</v>
+      </c>
+      <c r="H72" s="383" t="s">
         <v>1933</v>
       </c>
-      <c r="H72" s="383" t="s">
+      <c r="I72" s="383" t="s">
         <v>1934</v>
-      </c>
-      <c r="I72" s="383" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="42.75">
@@ -46872,13 +46865,13 @@
         <v>thousand vehicles / year</v>
       </c>
       <c r="G73" s="383" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="H73" s="383" t="s">
+        <v>1933</v>
+      </c>
+      <c r="I73" s="383" t="s">
         <v>1934</v>
-      </c>
-      <c r="I73" s="383" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="28.5">
@@ -46886,7 +46879,7 @@
         <v>1313</v>
       </c>
       <c r="B74" s="384" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C74" s="164">
         <v>1</v>
@@ -46916,7 +46909,7 @@
         <v>1313</v>
       </c>
       <c r="B75" s="384" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="C75" s="385">
         <v>1</v>
@@ -46931,13 +46924,13 @@
         <v>795</v>
       </c>
       <c r="G75" s="383" t="s">
+        <v>1938</v>
+      </c>
+      <c r="H75" s="383" t="s">
         <v>1939</v>
       </c>
-      <c r="H75" s="383" t="s">
+      <c r="I75" s="383" t="s">
         <v>1940</v>
-      </c>
-      <c r="I75" s="383" t="s">
-        <v>1941</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="57">
@@ -46991,13 +46984,13 @@
         <v>thousand vehicles</v>
       </c>
       <c r="G77" s="383" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="H77" s="383" t="s">
+        <v>1930</v>
+      </c>
+      <c r="I77" s="383" t="s">
         <v>1931</v>
-      </c>
-      <c r="I77" s="383" t="s">
-        <v>1932</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="42.75">
@@ -47021,13 +47014,13 @@
         <v>million vehicles</v>
       </c>
       <c r="G78" s="383" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="H78" s="383" t="s">
+        <v>1933</v>
+      </c>
+      <c r="I78" s="383" t="s">
         <v>1934</v>
-      </c>
-      <c r="I78" s="383" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="42.75">
@@ -47051,13 +47044,13 @@
         <v>million vehicles</v>
       </c>
       <c r="G79" s="383" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="H79" s="383" t="s">
+        <v>1933</v>
+      </c>
+      <c r="I79" s="383" t="s">
         <v>1934</v>
-      </c>
-      <c r="I79" s="383" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="28.9" thickBot="1">
@@ -47065,7 +47058,7 @@
         <v>1313</v>
       </c>
       <c r="B80" s="386" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="C80" s="171">
         <v>1</v>
@@ -47095,7 +47088,7 @@
         <v>1313</v>
       </c>
       <c r="B81" s="386" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C81" s="387">
         <v>1</v>
@@ -47110,13 +47103,13 @@
         <v>794</v>
       </c>
       <c r="G81" s="383" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="H81" s="383" t="s">
+        <v>1939</v>
+      </c>
+      <c r="I81" s="383" t="s">
         <v>1940</v>
-      </c>
-      <c r="I81" s="383" t="s">
-        <v>1941</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="128.25">
@@ -47140,13 +47133,13 @@
         <v>million metric tons / year</v>
       </c>
       <c r="G82" s="383" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H82" s="383" t="s">
         <v>1948</v>
       </c>
-      <c r="H82" s="383" t="s">
+      <c r="I82" s="383" t="s">
         <v>1949</v>
-      </c>
-      <c r="I82" s="383" t="s">
-        <v>1950</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="85.5">
@@ -47200,13 +47193,13 @@
         <v>petajoules / year</v>
       </c>
       <c r="G84" s="383" t="s">
+        <v>1950</v>
+      </c>
+      <c r="H84" s="383" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I84" s="381" t="s">
         <v>1951</v>
-      </c>
-      <c r="H84" s="383" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I84" s="381" t="s">
-        <v>1952</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="57">
@@ -50910,18 +50903,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>1960</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1961</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>1962</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1963</v>
       </c>
     </row>
   </sheetData>
@@ -50982,7 +50975,7 @@
         <v>5382.9603750904134</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -50991,7 +50984,7 @@
     </row>
     <row r="4" spans="1:5" s="95" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B4" s="168"/>
       <c r="C4" s="378"/>
@@ -51000,7 +50993,7 @@
     </row>
     <row r="5" spans="1:5" s="95" customFormat="1">
       <c r="A5" s="25" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="6"/>
@@ -51009,7 +51002,7 @@
     </row>
     <row r="6" spans="1:5" s="95" customFormat="1">
       <c r="A6" s="25" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="6"/>
@@ -51018,7 +51011,7 @@
     </row>
     <row r="7" spans="1:5" s="95" customFormat="1">
       <c r="A7" s="25" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="6"/>
@@ -51034,7 +51027,7 @@
     </row>
     <row r="9" spans="1:5" s="95" customFormat="1">
       <c r="A9" s="25" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="6"/>
@@ -51043,7 +51036,7 @@
     </row>
     <row r="10" spans="1:5" s="95" customFormat="1">
       <c r="A10" s="25" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="6"/>
@@ -51059,7 +51052,7 @@
     </row>
     <row r="12" spans="1:5" s="95" customFormat="1">
       <c r="A12" s="25" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="6"/>
@@ -51068,7 +51061,7 @@
     </row>
     <row r="13" spans="1:5" s="95" customFormat="1">
       <c r="A13" s="25" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="6"/>
@@ -51077,7 +51070,7 @@
     </row>
     <row r="14" spans="1:5" s="95" customFormat="1">
       <c r="A14" s="25" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="6"/>
@@ -51086,7 +51079,7 @@
     </row>
     <row r="15" spans="1:5" s="95" customFormat="1">
       <c r="A15" s="25" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="6"/>
@@ -51095,7 +51088,7 @@
     </row>
     <row r="16" spans="1:5" s="95" customFormat="1">
       <c r="A16" s="49" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="6"/>
@@ -51111,7 +51104,7 @@
     </row>
     <row r="18" spans="1:5" s="95" customFormat="1">
       <c r="A18" s="25" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="6"/>
@@ -51120,7 +51113,7 @@
     </row>
     <row r="19" spans="1:5" s="95" customFormat="1">
       <c r="A19" s="25" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="6"/>
@@ -51129,7 +51122,7 @@
     </row>
     <row r="20" spans="1:5" s="95" customFormat="1">
       <c r="A20" s="25" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="6"/>
@@ -51138,7 +51131,7 @@
     </row>
     <row r="21" spans="1:5" s="95" customFormat="1">
       <c r="A21" s="25" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="6"/>
@@ -51147,7 +51140,7 @@
     </row>
     <row r="22" spans="1:5" s="95" customFormat="1">
       <c r="A22" s="25" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="6"/>
@@ -51163,7 +51156,7 @@
     </row>
     <row r="24" spans="1:5" s="95" customFormat="1">
       <c r="A24" s="21" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="6"/>
@@ -51172,7 +51165,7 @@
     </row>
     <row r="25" spans="1:5" s="95" customFormat="1">
       <c r="A25" s="25" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="6"/>
@@ -51181,7 +51174,7 @@
     </row>
     <row r="26" spans="1:5" s="95" customFormat="1">
       <c r="A26" s="25" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="6"/>
@@ -51204,7 +51197,7 @@
     </row>
     <row r="29" spans="1:5" s="95" customFormat="1">
       <c r="A29" s="50" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="6"/>
@@ -51213,7 +51206,7 @@
     </row>
     <row r="30" spans="1:5" s="95" customFormat="1">
       <c r="A30" s="25" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="6"/>
@@ -51231,7 +51224,7 @@
     </row>
     <row r="32" spans="1:5" s="95" customFormat="1">
       <c r="A32" s="95" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="6"/>
@@ -51240,7 +51233,7 @@
     </row>
     <row r="33" spans="1:5" s="95" customFormat="1">
       <c r="A33" s="49" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="6"/>
@@ -51249,7 +51242,7 @@
     </row>
     <row r="34" spans="1:5" s="95" customFormat="1">
       <c r="A34" s="25" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="6"/>
@@ -51265,7 +51258,7 @@
     </row>
     <row r="36" spans="1:5" s="95" customFormat="1">
       <c r="A36" s="50" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="6"/>
@@ -51274,7 +51267,7 @@
     </row>
     <row r="37" spans="1:5" s="95" customFormat="1">
       <c r="A37" s="25" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="6"/>
@@ -51292,7 +51285,7 @@
     </row>
     <row r="39" spans="1:5" s="95" customFormat="1">
       <c r="A39" s="95" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="6"/>
@@ -51301,7 +51294,7 @@
     </row>
     <row r="40" spans="1:5" s="95" customFormat="1">
       <c r="A40" s="49" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="6"/>
@@ -51310,7 +51303,7 @@
     </row>
     <row r="41" spans="1:5" s="95" customFormat="1">
       <c r="A41" s="25" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="6"/>
@@ -51326,7 +51319,7 @@
     </row>
     <row r="43" spans="1:5" s="95" customFormat="1">
       <c r="A43" s="50" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="6"/>
@@ -51335,7 +51328,7 @@
     </row>
     <row r="44" spans="1:5" s="95" customFormat="1">
       <c r="A44" s="95" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="6"/>
@@ -51353,7 +51346,7 @@
     </row>
     <row r="46" spans="1:5" s="95" customFormat="1">
       <c r="A46" s="95" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="6"/>
@@ -51362,7 +51355,7 @@
     </row>
     <row r="47" spans="1:5" s="95" customFormat="1">
       <c r="A47" s="49" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="6"/>
@@ -51371,7 +51364,7 @@
     </row>
     <row r="48" spans="1:5" s="95" customFormat="1">
       <c r="A48" s="25" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="6"/>
@@ -51387,7 +51380,7 @@
     </row>
     <row r="50" spans="1:5" s="95" customFormat="1">
       <c r="A50" s="50" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="6"/>
@@ -51396,7 +51389,7 @@
     </row>
     <row r="51" spans="1:5" s="95" customFormat="1">
       <c r="A51" s="25" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="6"/>
@@ -51414,7 +51407,7 @@
     </row>
     <row r="53" spans="1:5" s="95" customFormat="1">
       <c r="A53" s="25" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="6"/>
@@ -51423,7 +51416,7 @@
     </row>
     <row r="54" spans="1:5" s="95" customFormat="1">
       <c r="A54" s="49" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="6"/>
@@ -51432,7 +51425,7 @@
     </row>
     <row r="55" spans="1:5" s="95" customFormat="1">
       <c r="A55" s="25" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="6"/>
@@ -51455,7 +51448,7 @@
     </row>
     <row r="58" spans="1:5" s="95" customFormat="1">
       <c r="A58" s="50" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B58" s="168"/>
       <c r="C58" s="378"/>
@@ -51464,13 +51457,13 @@
     </row>
     <row r="59" spans="1:5" s="95" customFormat="1" ht="28.5">
       <c r="A59" s="115" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B59" s="377" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C59" s="377" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="4"/>
@@ -51641,7 +51634,7 @@
     <row r="73" spans="1:7" s="95" customFormat="1"/>
     <row r="74" spans="1:7" s="95" customFormat="1" ht="15.75">
       <c r="A74" s="343" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B74" s="376"/>
       <c r="C74" s="376"/>
@@ -51652,10 +51645,10 @@
     <row r="75" spans="1:7" s="95" customFormat="1" ht="28.5">
       <c r="A75" s="375"/>
       <c r="B75" s="374" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C75" s="374" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D75" s="374" t="s">
         <v>569</v>
@@ -51664,13 +51657,13 @@
         <v>570</v>
       </c>
       <c r="F75" s="373" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="G75" s="110"/>
     </row>
     <row r="76" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A76" s="372" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B76" s="371">
         <v>1497029.2</v>
@@ -51690,7 +51683,7 @@
     </row>
     <row r="77" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A77" s="358" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B77" s="355">
         <v>992836.3</v>
@@ -51708,7 +51701,7 @@
     </row>
     <row r="78" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A78" s="354" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B78" s="350">
         <v>715829.8</v>
@@ -51726,7 +51719,7 @@
     </row>
     <row r="79" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A79" s="354" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B79" s="350">
         <v>33787.5</v>
@@ -51744,7 +51737,7 @@
     </row>
     <row r="80" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A80" s="354" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B80" s="350">
         <v>138858</v>
@@ -51762,7 +51755,7 @@
     </row>
     <row r="81" spans="1:7" s="95" customFormat="1">
       <c r="A81" s="370" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B81" s="369">
         <v>121211</v>
@@ -51780,7 +51773,7 @@
     </row>
     <row r="82" spans="1:7" s="95" customFormat="1">
       <c r="A82" s="370" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B82" s="369">
         <v>6109</v>
@@ -51852,7 +51845,7 @@
     </row>
     <row r="86" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A86" s="354" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B86" s="350">
         <v>1657</v>
@@ -51870,7 +51863,7 @@
     </row>
     <row r="87" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A87" s="354" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B87" s="350">
         <v>33277</v>
@@ -51902,7 +51895,7 @@
     </row>
     <row r="89" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A89" s="358" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B89" s="355">
         <v>405862.9</v>
@@ -51921,7 +51914,7 @@
     </row>
     <row r="90" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A90" s="368" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B90" s="366">
         <v>130783.95</v>
@@ -51939,7 +51932,7 @@
     </row>
     <row r="91" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A91" s="354" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B91" s="350">
         <v>129920</v>
@@ -51953,7 +51946,7 @@
     </row>
     <row r="92" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A92" s="354" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B92" s="350">
         <v>277.82</v>
@@ -51971,7 +51964,7 @@
     </row>
     <row r="93" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A93" s="354" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B93" s="350">
         <v>586.12</v>
@@ -52003,7 +51996,7 @@
     </row>
     <row r="95" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A95" s="354" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B95" s="350">
         <v>10056.43</v>
@@ -52017,7 +52010,7 @@
     </row>
     <row r="96" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A96" s="354" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B96" s="352"/>
       <c r="C96" s="352"/>
@@ -52031,7 +52024,7 @@
     </row>
     <row r="97" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A97" s="354" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B97" s="350">
         <v>119.58</v>
@@ -52045,7 +52038,7 @@
     </row>
     <row r="98" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A98" s="354" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B98" s="350">
         <v>88.04</v>
@@ -52059,7 +52052,7 @@
     </row>
     <row r="99" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A99" s="354" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B99" s="350">
         <v>266.18</v>
@@ -52075,7 +52068,7 @@
     </row>
     <row r="100" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A100" s="354" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B100" s="350">
         <v>7072.52</v>
@@ -52091,7 +52084,7 @@
     </row>
     <row r="101" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A101" s="354" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B101" s="350">
         <v>198.91</v>
@@ -52105,7 +52098,7 @@
     </row>
     <row r="102" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A102" s="354" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B102" s="350">
         <v>93.64</v>
@@ -52121,7 +52114,7 @@
     </row>
     <row r="103" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A103" s="354" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B103" s="350">
         <v>37.840000000000003</v>
@@ -52137,7 +52130,7 @@
     </row>
     <row r="104" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A104" s="354" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B104" s="350">
         <v>1155.52</v>
@@ -52153,7 +52146,7 @@
     </row>
     <row r="105" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A105" s="354" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B105" s="352"/>
       <c r="C105" s="352"/>
@@ -52167,7 +52160,7 @@
     </row>
     <row r="106" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A106" s="354" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B106" s="350">
         <v>8800.2099999999991</v>
@@ -52185,7 +52178,7 @@
     </row>
     <row r="107" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A107" s="368" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B107" s="366">
         <v>122371.43</v>
@@ -52203,7 +52196,7 @@
     </row>
     <row r="108" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A108" s="354" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B108" s="350">
         <v>116958.37</v>
@@ -52221,7 +52214,7 @@
     </row>
     <row r="109" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A109" s="354" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B109" s="350">
         <v>2460.6999999999998</v>
@@ -52237,7 +52230,7 @@
     </row>
     <row r="110" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A110" s="354" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B110" s="350">
         <v>2728.87</v>
@@ -52255,7 +52248,7 @@
     </row>
     <row r="111" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A111" s="354" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B111" s="350">
         <v>84.13</v>
@@ -52273,7 +52266,7 @@
     </row>
     <row r="112" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A112" s="354" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B112" s="350">
         <v>76.11</v>
@@ -52291,7 +52284,7 @@
     </row>
     <row r="113" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A113" s="354" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B113" s="350">
         <v>63.25</v>
@@ -52327,7 +52320,7 @@
     </row>
     <row r="115" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A115" s="354" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B115" s="350">
         <v>5222.5</v>
@@ -52345,7 +52338,7 @@
     </row>
     <row r="116" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A116" s="354" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B116" s="350">
         <v>27625.53</v>
@@ -52363,7 +52356,7 @@
     </row>
     <row r="117" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A117" s="354" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B117" s="350">
         <v>1861.11</v>
@@ -52381,7 +52374,7 @@
     </row>
     <row r="118" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A118" s="354" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B118" s="350">
         <v>1460.26</v>
@@ -52399,7 +52392,7 @@
     </row>
     <row r="119" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A119" s="354" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B119" s="350">
         <v>87799.77</v>
@@ -52417,7 +52410,7 @@
     </row>
     <row r="120" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A120" s="365" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B120" s="364">
         <v>849.49</v>
@@ -52431,7 +52424,7 @@
     </row>
     <row r="121" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A121" s="354" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B121" s="350">
         <v>776.75</v>
@@ -52445,7 +52438,7 @@
     </row>
     <row r="122" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A122" s="354" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B122" s="350">
         <v>72.75</v>
@@ -52459,7 +52452,7 @@
     </row>
     <row r="123" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A123" s="358" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B123" s="356"/>
       <c r="C123" s="356"/>
@@ -52475,7 +52468,7 @@
     </row>
     <row r="124" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A124" s="354" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B124" s="352"/>
       <c r="C124" s="352"/>
@@ -52489,7 +52482,7 @@
     </row>
     <row r="125" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A125" s="354" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B125" s="352"/>
       <c r="C125" s="352"/>
@@ -52505,7 +52498,7 @@
     </row>
     <row r="126" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A126" s="354" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B126" s="352"/>
       <c r="C126" s="352"/>
@@ -52519,7 +52512,7 @@
     </row>
     <row r="127" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A127" s="354" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B127" s="352"/>
       <c r="C127" s="352"/>
@@ -52533,7 +52526,7 @@
     </row>
     <row r="128" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A128" s="354" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B128" s="352"/>
       <c r="C128" s="352"/>
@@ -52549,7 +52542,7 @@
     </row>
     <row r="129" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A129" s="358" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B129" s="355">
         <v>98330</v>
@@ -52565,7 +52558,7 @@
     </row>
     <row r="130" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A130" s="354" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B130" s="352"/>
       <c r="C130" s="350">
@@ -52579,7 +52572,7 @@
     </row>
     <row r="131" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A131" s="354" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B131" s="352"/>
       <c r="C131" s="350">
@@ -52593,7 +52586,7 @@
     </row>
     <row r="132" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A132" s="354" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B132" s="350">
         <v>10490</v>
@@ -52607,7 +52600,7 @@
     </row>
     <row r="133" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A133" s="354" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B133" s="352"/>
       <c r="C133" s="350">
@@ -52621,7 +52614,7 @@
     </row>
     <row r="134" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A134" s="354" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B134" s="359" t="s">
         <v>543</v>
@@ -52635,7 +52628,7 @@
     </row>
     <row r="135" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A135" s="354" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B135" s="354" t="s">
         <v>544</v>
@@ -52649,7 +52642,7 @@
     </row>
     <row r="136" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A136" s="354" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B136" s="350">
         <v>87840</v>
@@ -52663,7 +52656,7 @@
     </row>
     <row r="137" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A137" s="358" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B137" s="356"/>
       <c r="C137" s="356"/>
@@ -52679,7 +52672,7 @@
     </row>
     <row r="138" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A138" s="354" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B138" s="352"/>
       <c r="C138" s="352"/>
@@ -52693,7 +52686,7 @@
     </row>
     <row r="139" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A139" s="354" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B139" s="352"/>
       <c r="C139" s="352"/>
@@ -52709,7 +52702,7 @@
     </row>
     <row r="140" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A140" s="354" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B140" s="352"/>
       <c r="C140" s="352"/>
@@ -52723,7 +52716,7 @@
     </row>
     <row r="141" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A141" s="358" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B141" s="357">
         <v>3454</v>
@@ -52741,7 +52734,7 @@
     </row>
     <row r="142" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A142" s="354" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B142" s="353">
         <v>3326</v>
@@ -52759,7 +52752,7 @@
     </row>
     <row r="143" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A143" s="354" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B143" s="353">
         <v>128</v>
@@ -52777,7 +52770,7 @@
     </row>
     <row r="144" spans="1:6" s="95" customFormat="1">
       <c r="A144" s="349" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B144" s="83"/>
       <c r="C144" s="83"/>
@@ -52787,7 +52780,7 @@
     </row>
     <row r="145" spans="1:11" s="95" customFormat="1">
       <c r="A145" s="349" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B145" s="83"/>
       <c r="C145" s="83"/>
@@ -52811,7 +52804,7 @@
     </row>
     <row r="147" spans="1:11" s="95" customFormat="1">
       <c r="A147" s="319" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B147" s="347">
         <f>B76-C76</f>
@@ -52830,7 +52823,7 @@
     </row>
     <row r="148" spans="1:11" s="95" customFormat="1">
       <c r="A148" s="319" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B148" s="83">
         <f>B147*$C$60</f>
@@ -52849,7 +52842,7 @@
     </row>
     <row r="149" spans="1:11" s="95" customFormat="1">
       <c r="A149" s="319" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B149" s="83">
         <f>SUM(B148:E148)</f>
@@ -52871,7 +52864,7 @@
     <row r="151" spans="1:11" s="95" customFormat="1"/>
     <row r="152" spans="1:11" s="95" customFormat="1" ht="15" customHeight="1">
       <c r="A152" s="344" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B152" s="343"/>
       <c r="C152" s="343"/>
@@ -52887,10 +52880,10 @@
     <row r="153" spans="1:11" s="95" customFormat="1" ht="40.5">
       <c r="A153" s="341"/>
       <c r="B153" s="341" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="C153" s="341" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D153" s="341" t="s">
         <v>569</v>
@@ -52914,12 +52907,12 @@
         <v>559</v>
       </c>
       <c r="K153" s="341" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="154" spans="1:11" s="95" customFormat="1">
       <c r="A154" s="340" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B154" s="337">
         <v>1024772.84</v>
@@ -52954,7 +52947,7 @@
     </row>
     <row r="155" spans="1:11" s="95" customFormat="1">
       <c r="A155" s="327" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B155" s="328">
         <v>952212.06</v>
@@ -52977,7 +52970,7 @@
     </row>
     <row r="156" spans="1:11" s="95" customFormat="1">
       <c r="A156" s="334" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B156" s="321">
         <v>952212.06</v>
@@ -53023,7 +53016,7 @@
     </row>
     <row r="158" spans="1:11" s="95" customFormat="1">
       <c r="A158" s="325" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B158" s="321">
         <v>522495.43</v>
@@ -53046,7 +53039,7 @@
     </row>
     <row r="159" spans="1:11" s="95" customFormat="1">
       <c r="A159" s="325" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B159" s="321">
         <v>18695.900000000001</v>
@@ -53069,10 +53062,10 @@
     </row>
     <row r="160" spans="1:11" s="95" customFormat="1" ht="27">
       <c r="A160" s="325" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B160" s="325" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C160" s="322"/>
       <c r="D160" s="325" t="s">
@@ -53115,7 +53108,7 @@
     </row>
     <row r="162" spans="1:11" s="95" customFormat="1">
       <c r="A162" s="325" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B162" s="321">
         <v>39696</v>
@@ -53134,7 +53127,7 @@
     </row>
     <row r="163" spans="1:11" s="95" customFormat="1">
       <c r="A163" s="325" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B163" s="321">
         <v>52366.02</v>
@@ -53157,7 +53150,7 @@
     </row>
     <row r="164" spans="1:11" s="95" customFormat="1">
       <c r="A164" s="325" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B164" s="321">
         <v>1885.88</v>
@@ -53180,7 +53173,7 @@
     </row>
     <row r="165" spans="1:11" s="95" customFormat="1">
       <c r="A165" s="325" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B165" s="321">
         <v>34482.44</v>
@@ -53203,7 +53196,7 @@
     </row>
     <row r="166" spans="1:11" s="95" customFormat="1">
       <c r="A166" s="325" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B166" s="321">
         <v>5331.75</v>
@@ -53226,7 +53219,7 @@
     </row>
     <row r="167" spans="1:11" s="95" customFormat="1">
       <c r="A167" s="325" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B167" s="321">
         <v>24577.85</v>
@@ -53249,7 +53242,7 @@
     </row>
     <row r="168" spans="1:11" s="95" customFormat="1">
       <c r="A168" s="325" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B168" s="321">
         <v>1010.93</v>
@@ -53272,7 +53265,7 @@
     </row>
     <row r="169" spans="1:11" s="95" customFormat="1">
       <c r="A169" s="325" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B169" s="321">
         <v>2509.79</v>
@@ -53295,7 +53288,7 @@
     </row>
     <row r="170" spans="1:11" s="95" customFormat="1">
       <c r="A170" s="325" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B170" s="321">
         <v>7669.09</v>
@@ -53318,7 +53311,7 @@
     </row>
     <row r="171" spans="1:11" s="95" customFormat="1">
       <c r="A171" s="325" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B171" s="321">
         <v>58717.17</v>
@@ -53364,7 +53357,7 @@
     </row>
     <row r="173" spans="1:11" s="95" customFormat="1">
       <c r="A173" s="325" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B173" s="321">
         <v>85515.82</v>
@@ -53387,7 +53380,7 @@
     </row>
     <row r="174" spans="1:11" s="95" customFormat="1">
       <c r="A174" s="325" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B174" s="321">
         <v>4021.98</v>
@@ -53410,7 +53403,7 @@
     </row>
     <row r="175" spans="1:11" s="95" customFormat="1">
       <c r="A175" s="325" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B175" s="321">
         <v>5426.32</v>
@@ -53433,7 +53426,7 @@
     </row>
     <row r="176" spans="1:11" s="95" customFormat="1">
       <c r="A176" s="325" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B176" s="321">
         <v>1012.71</v>
@@ -53479,7 +53472,7 @@
     </row>
     <row r="178" spans="1:11" s="95" customFormat="1">
       <c r="A178" s="325" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B178" s="321">
         <v>3268</v>
@@ -53502,7 +53495,7 @@
     </row>
     <row r="179" spans="1:11" s="95" customFormat="1">
       <c r="A179" s="325" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B179" s="321">
         <v>55182</v>
@@ -53525,7 +53518,7 @@
     </row>
     <row r="180" spans="1:11" s="95" customFormat="1">
       <c r="A180" s="325" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B180" s="321">
         <v>28347</v>
@@ -53548,7 +53541,7 @@
     </row>
     <row r="181" spans="1:11" s="95" customFormat="1">
       <c r="A181" s="334" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B181" s="322"/>
       <c r="C181" s="322"/>
@@ -53586,7 +53579,7 @@
     </row>
     <row r="183" spans="1:11" s="95" customFormat="1">
       <c r="A183" s="325" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B183" s="322"/>
       <c r="C183" s="322"/>
@@ -53605,7 +53598,7 @@
     </row>
     <row r="184" spans="1:11" s="95" customFormat="1">
       <c r="A184" s="325" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B184" s="322"/>
       <c r="C184" s="322"/>
@@ -53624,7 +53617,7 @@
     </row>
     <row r="185" spans="1:11" s="95" customFormat="1">
       <c r="A185" s="334" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B185" s="322"/>
       <c r="C185" s="322"/>
@@ -53643,7 +53636,7 @@
     </row>
     <row r="186" spans="1:11" s="95" customFormat="1">
       <c r="A186" s="325" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B186" s="322"/>
       <c r="C186" s="322"/>
@@ -53662,7 +53655,7 @@
     </row>
     <row r="187" spans="1:11" s="95" customFormat="1">
       <c r="A187" s="325" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B187" s="322"/>
       <c r="C187" s="322"/>
@@ -53681,7 +53674,7 @@
     </row>
     <row r="188" spans="1:11" s="95" customFormat="1">
       <c r="A188" s="325" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B188" s="322"/>
       <c r="C188" s="322"/>
@@ -53700,7 +53693,7 @@
     </row>
     <row r="189" spans="1:11" s="95" customFormat="1">
       <c r="A189" s="327" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B189" s="328">
         <v>72560.78</v>
@@ -53733,7 +53726,7 @@
     </row>
     <row r="190" spans="1:11" s="95" customFormat="1">
       <c r="A190" s="334" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B190" s="321">
         <v>53558.17</v>
@@ -53752,7 +53745,7 @@
     </row>
     <row r="191" spans="1:11" s="95" customFormat="1">
       <c r="A191" s="325" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B191" s="321">
         <v>44056</v>
@@ -53771,7 +53764,7 @@
     </row>
     <row r="192" spans="1:11" s="95" customFormat="1">
       <c r="A192" s="325" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B192" s="321">
         <v>2921</v>
@@ -53790,7 +53783,7 @@
     </row>
     <row r="193" spans="1:11" s="95" customFormat="1">
       <c r="A193" s="325" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B193" s="321">
         <v>5961.68</v>
@@ -53809,7 +53802,7 @@
     </row>
     <row r="194" spans="1:11" s="95" customFormat="1">
       <c r="A194" s="325" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B194" s="323">
         <v>463.94</v>
@@ -53828,7 +53821,7 @@
     </row>
     <row r="195" spans="1:11" s="95" customFormat="1">
       <c r="A195" s="325" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B195" s="323">
         <v>155.54</v>
@@ -53847,7 +53840,7 @@
     </row>
     <row r="196" spans="1:11" s="95" customFormat="1">
       <c r="A196" s="334" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B196" s="321">
         <v>15785.98</v>
@@ -53870,7 +53863,7 @@
     </row>
     <row r="197" spans="1:11" s="95" customFormat="1">
       <c r="A197" s="325" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B197" s="321">
         <v>11067.3</v>
@@ -53889,7 +53882,7 @@
     </row>
     <row r="198" spans="1:11" s="95" customFormat="1">
       <c r="A198" s="325" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B198" s="323">
         <v>0</v>
@@ -53910,7 +53903,7 @@
     </row>
     <row r="199" spans="1:11" s="95" customFormat="1">
       <c r="A199" s="325" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B199" s="323">
         <v>102.72</v>
@@ -53929,7 +53922,7 @@
     </row>
     <row r="200" spans="1:11" s="95" customFormat="1">
       <c r="A200" s="325" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B200" s="323">
         <v>43.75</v>
@@ -53948,7 +53941,7 @@
     </row>
     <row r="201" spans="1:11" s="95" customFormat="1">
       <c r="A201" s="325" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B201" s="323">
         <v>229.84</v>
@@ -53969,7 +53962,7 @@
     </row>
     <row r="202" spans="1:11" s="95" customFormat="1">
       <c r="A202" s="325" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B202" s="321">
         <v>3317.23</v>
@@ -53990,7 +53983,7 @@
     </row>
     <row r="203" spans="1:11" s="95" customFormat="1">
       <c r="A203" s="325" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B203" s="323">
         <v>233.23</v>
@@ -54009,7 +54002,7 @@
     </row>
     <row r="204" spans="1:11" s="95" customFormat="1">
       <c r="A204" s="325" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B204" s="323">
         <v>51.29</v>
@@ -54030,7 +54023,7 @@
     </row>
     <row r="205" spans="1:11" s="95" customFormat="1">
       <c r="A205" s="325" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B205" s="323">
         <v>26.98</v>
@@ -54051,7 +54044,7 @@
     </row>
     <row r="206" spans="1:11" s="95" customFormat="1">
       <c r="A206" s="325" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B206" s="323">
         <v>713.64</v>
@@ -54072,7 +54065,7 @@
     </row>
     <row r="207" spans="1:11" s="95" customFormat="1">
       <c r="A207" s="325" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B207" s="322"/>
       <c r="C207" s="322"/>
@@ -54091,7 +54084,7 @@
     </row>
     <row r="208" spans="1:11" s="95" customFormat="1">
       <c r="A208" s="334" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B208" s="332">
         <v>2522.5</v>
@@ -54118,7 +54111,7 @@
     </row>
     <row r="209" spans="1:11" s="95" customFormat="1">
       <c r="A209" s="325" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B209" s="322"/>
       <c r="C209" s="322"/>
@@ -54133,7 +54126,7 @@
     </row>
     <row r="210" spans="1:11" s="95" customFormat="1">
       <c r="A210" s="325" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B210" s="321">
         <v>1467.55</v>
@@ -54177,7 +54170,7 @@
     </row>
     <row r="212" spans="1:11" s="95" customFormat="1">
       <c r="A212" s="325" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B212" s="323">
         <v>23.22</v>
@@ -54196,7 +54189,7 @@
     </row>
     <row r="213" spans="1:11" s="95" customFormat="1">
       <c r="A213" s="325" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B213" s="323">
         <v>6.42</v>
@@ -54215,7 +54208,7 @@
     </row>
     <row r="214" spans="1:11" s="95" customFormat="1">
       <c r="A214" s="325" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B214" s="322"/>
       <c r="C214" s="322"/>
@@ -54234,7 +54227,7 @@
     </row>
     <row r="215" spans="1:11" s="95" customFormat="1">
       <c r="A215" s="334" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B215" s="322"/>
       <c r="C215" s="322"/>
@@ -54257,7 +54250,7 @@
     </row>
     <row r="216" spans="1:11" s="95" customFormat="1">
       <c r="A216" s="325" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B216" s="322"/>
       <c r="C216" s="322"/>
@@ -54278,7 +54271,7 @@
     </row>
     <row r="217" spans="1:11" s="95" customFormat="1">
       <c r="A217" s="322" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B217" s="322"/>
       <c r="C217" s="322"/>
@@ -54297,7 +54290,7 @@
     </row>
     <row r="218" spans="1:11" s="95" customFormat="1">
       <c r="A218" s="334" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B218" s="323">
         <v>694.14</v>
@@ -54316,7 +54309,7 @@
     </row>
     <row r="219" spans="1:11" s="95" customFormat="1">
       <c r="A219" s="325" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B219" s="323">
         <v>672.91</v>
@@ -54335,7 +54328,7 @@
     </row>
     <row r="220" spans="1:11" s="95" customFormat="1">
       <c r="A220" s="325" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B220" s="323">
         <v>21.23</v>
@@ -54354,7 +54347,7 @@
     </row>
     <row r="221" spans="1:11" s="95" customFormat="1">
       <c r="A221" s="327" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B221" s="326"/>
       <c r="C221" s="326"/>
@@ -54396,7 +54389,7 @@
     </row>
     <row r="223" spans="1:11" s="95" customFormat="1">
       <c r="A223" s="325" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B223" s="322"/>
       <c r="C223" s="322"/>
@@ -54417,7 +54410,7 @@
     </row>
     <row r="224" spans="1:11" s="95" customFormat="1">
       <c r="A224" s="325" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B224" s="322"/>
       <c r="C224" s="322"/>
@@ -54438,7 +54431,7 @@
     </row>
     <row r="225" spans="1:11" s="95" customFormat="1">
       <c r="A225" s="325" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B225" s="322"/>
       <c r="C225" s="322"/>
@@ -54457,7 +54450,7 @@
     </row>
     <row r="226" spans="1:11" s="95" customFormat="1">
       <c r="A226" s="325" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B226" s="322"/>
       <c r="C226" s="322"/>
@@ -54478,7 +54471,7 @@
     </row>
     <row r="227" spans="1:11" s="95" customFormat="1">
       <c r="A227" s="327" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B227" s="326"/>
       <c r="C227" s="328">
@@ -54562,7 +54555,7 @@
     </row>
     <row r="231" spans="1:11" s="95" customFormat="1">
       <c r="A231" s="325" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B231" s="322"/>
       <c r="C231" s="323">
@@ -54581,7 +54574,7 @@
     </row>
     <row r="232" spans="1:11" s="95" customFormat="1">
       <c r="A232" s="325" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B232" s="322"/>
       <c r="C232" s="322"/>
@@ -54598,7 +54591,7 @@
     </row>
     <row r="233" spans="1:11" s="95" customFormat="1">
       <c r="A233" s="325" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B233" s="322"/>
       <c r="C233" s="322"/>
@@ -54615,7 +54608,7 @@
     </row>
     <row r="234" spans="1:11" s="95" customFormat="1">
       <c r="A234" s="325" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B234" s="322"/>
       <c r="C234" s="322"/>
@@ -54632,7 +54625,7 @@
     </row>
     <row r="235" spans="1:11" s="95" customFormat="1">
       <c r="A235" s="327" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B235" s="326"/>
       <c r="C235" s="326"/>
@@ -54653,7 +54646,7 @@
     </row>
     <row r="236" spans="1:11" s="95" customFormat="1">
       <c r="A236" s="325" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B236" s="322"/>
       <c r="C236" s="322"/>
@@ -54672,7 +54665,7 @@
     </row>
     <row r="237" spans="1:11" s="95" customFormat="1">
       <c r="A237" s="325" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B237" s="322"/>
       <c r="C237" s="322"/>
@@ -54691,7 +54684,7 @@
     </row>
     <row r="238" spans="1:11" s="95" customFormat="1">
       <c r="A238" s="325" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B238" s="322"/>
       <c r="C238" s="322"/>
@@ -54712,7 +54705,7 @@
     </row>
     <row r="239" spans="1:11" s="95" customFormat="1">
       <c r="A239" s="325" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B239" s="322"/>
       <c r="C239" s="322"/>
@@ -54731,7 +54724,7 @@
     </row>
     <row r="240" spans="1:11" s="95" customFormat="1">
       <c r="A240" s="325" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B240" s="322"/>
       <c r="C240" s="322"/>
@@ -54752,7 +54745,7 @@
     </row>
     <row r="241" spans="1:11" s="95" customFormat="1">
       <c r="A241" s="327" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B241" s="326"/>
       <c r="C241" s="326"/>
@@ -54813,7 +54806,7 @@
     </row>
     <row r="244" spans="1:11" s="95" customFormat="1">
       <c r="A244" s="325" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B244" s="323">
         <v>273</v>
@@ -54836,7 +54829,7 @@
     </row>
     <row r="245" spans="1:11" s="95" customFormat="1">
       <c r="A245" s="322" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B245" s="321">
         <v>376005</v>
@@ -54854,24 +54847,24 @@
       </c>
     </row>
     <row r="246" spans="1:11" s="95" customFormat="1" ht="15" customHeight="1">
-      <c r="A246" s="394" t="s">
-        <v>1726</v>
-      </c>
-      <c r="B246" s="395"/>
-      <c r="C246" s="395"/>
-      <c r="D246" s="395"/>
-      <c r="E246" s="395"/>
-      <c r="F246" s="395"/>
-      <c r="G246" s="395"/>
-      <c r="H246" s="395"/>
-      <c r="I246" s="395"/>
-      <c r="J246" s="395"/>
-      <c r="K246" s="396"/>
+      <c r="A246" s="395" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B246" s="396"/>
+      <c r="C246" s="396"/>
+      <c r="D246" s="396"/>
+      <c r="E246" s="396"/>
+      <c r="F246" s="396"/>
+      <c r="G246" s="396"/>
+      <c r="H246" s="396"/>
+      <c r="I246" s="396"/>
+      <c r="J246" s="396"/>
+      <c r="K246" s="397"/>
     </row>
     <row r="247" spans="1:11" s="95" customFormat="1"/>
     <row r="248" spans="1:11" s="95" customFormat="1" ht="28.5">
       <c r="A248" s="4" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B248" s="320" t="s">
         <v>561</v>
@@ -54886,7 +54879,7 @@
     </row>
     <row r="249" spans="1:11" s="95" customFormat="1">
       <c r="A249" s="319" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B249" s="318">
         <f>B154-C154</f>
@@ -54904,7 +54897,7 @@
     </row>
     <row r="250" spans="1:11" s="95" customFormat="1">
       <c r="A250" s="319" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B250" s="318">
         <f>B249*$C$60</f>
@@ -54922,7 +54915,7 @@
     </row>
     <row r="251" spans="1:11" s="95" customFormat="1">
       <c r="A251" s="319" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B251" s="318">
         <f>SUM(B250:E250)</f>
@@ -54936,24 +54929,24 @@
     <row r="253" spans="1:11" s="95" customFormat="1"/>
     <row r="254" spans="1:11" s="95" customFormat="1">
       <c r="A254" s="317" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B254" s="84"/>
     </row>
     <row r="255" spans="1:11" s="95" customFormat="1">
       <c r="A255" s="95" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="256" spans="1:11" s="95" customFormat="1">
       <c r="A256" s="95" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="257" spans="1:4" s="95" customFormat="1"/>
     <row r="258" spans="1:4" s="95" customFormat="1">
       <c r="A258" s="95" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B258" s="95">
         <v>719</v>
@@ -54961,7 +54954,7 @@
     </row>
     <row r="259" spans="1:4" s="95" customFormat="1">
       <c r="A259" s="95" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B259" s="95">
         <v>11</v>
@@ -54969,7 +54962,7 @@
     </row>
     <row r="260" spans="1:4" s="95" customFormat="1">
       <c r="A260" s="95" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B260" s="315">
         <f>B259/B258*10^6</f>
@@ -54980,86 +54973,86 @@
     <row r="262" spans="1:4" s="95" customFormat="1"/>
     <row r="263" spans="1:4" s="95" customFormat="1">
       <c r="A263" s="85" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B263" s="84"/>
       <c r="C263" s="84"/>
     </row>
     <row r="264" spans="1:4" s="95" customFormat="1">
       <c r="A264" s="95" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B264" s="315">
         <f>(B149-B251)/(2007-2000)*(2005-2000)+B251+B260</f>
         <v>1749351.5192827338</v>
       </c>
       <c r="C264" s="95" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="265" spans="1:4" s="95" customFormat="1">
       <c r="A265" s="95" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B265" s="95">
         <f>B264/B266</f>
         <v>0.71977393159643066</v>
       </c>
       <c r="C265" s="95" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="266" spans="1:4" s="95" customFormat="1">
       <c r="A266" s="95" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B266" s="95">
         <v>2430418</v>
       </c>
       <c r="C266" s="95" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D266" s="95" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="267" spans="1:4" s="95" customFormat="1">
       <c r="A267" s="95" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B267" s="95">
         <v>11162212</v>
       </c>
       <c r="C267" s="95" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="268" spans="1:4" s="95" customFormat="1">
       <c r="A268" s="95" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B268" s="316">
         <v>0.33</v>
       </c>
       <c r="C268" s="95" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="269" spans="1:4" s="95" customFormat="1">
       <c r="A269" s="95" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B269" s="316">
         <v>0.35</v>
       </c>
       <c r="C269" s="95" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="270" spans="1:4" s="95" customFormat="1"/>
     <row r="271" spans="1:4" s="95" customFormat="1">
       <c r="A271" s="95" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B271" s="95">
         <f>B265*(1-B268)</f>
@@ -55068,7 +55061,7 @@
     </row>
     <row r="272" spans="1:4" s="95" customFormat="1">
       <c r="A272" s="95" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B272" s="95">
         <f>B265*(1-B269)</f>
@@ -55078,51 +55071,51 @@
     <row r="273" spans="1:10" s="95" customFormat="1"/>
     <row r="274" spans="1:10" s="95" customFormat="1">
       <c r="A274" s="95" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B274" s="95">
         <f>B267*B271</f>
         <v>5382960.3750904137</v>
       </c>
       <c r="C274" s="95" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="275" spans="1:10" s="95" customFormat="1">
       <c r="A275" s="95" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B275" s="95">
         <f>B267*B272</f>
         <v>5222274.9907593569</v>
       </c>
       <c r="C275" s="95" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="276" spans="1:10" s="95" customFormat="1"/>
     <row r="277" spans="1:10" s="95" customFormat="1">
       <c r="A277" s="95" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B277" s="315">
         <f>B274/1000</f>
         <v>5382.9603750904134</v>
       </c>
       <c r="C277" s="95" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="278" spans="1:10" s="95" customFormat="1">
       <c r="A278" s="95" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B278" s="315">
         <f>B275/1000</f>
         <v>5222.274990759357</v>
       </c>
       <c r="C278" s="95" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="279" spans="1:10" s="23" customFormat="1">
@@ -64545,22 +64538,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="397" t="s">
+      <c r="A1" s="401" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
+      <c r="B1" s="401"/>
+      <c r="C1" s="401"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="401" t="s">
+      <c r="A2" s="402" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="401"/>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
-      <c r="E2" s="401"/>
+      <c r="B2" s="402"/>
+      <c r="C2" s="402"/>
+      <c r="D2" s="402"/>
+      <c r="E2" s="402"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
@@ -64576,13 +64569,13 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="401" t="s">
+      <c r="A21" s="402" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="401"/>
-      <c r="C21" s="401"/>
-      <c r="D21" s="401"/>
-      <c r="E21" s="401"/>
+      <c r="B21" s="402"/>
+      <c r="C21" s="402"/>
+      <c r="D21" s="402"/>
+      <c r="E21" s="402"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="9" t="s">
@@ -64598,13 +64591,13 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="401" t="s">
+      <c r="A40" s="402" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="401"/>
-      <c r="C40" s="401"/>
-      <c r="D40" s="401"/>
-      <c r="E40" s="401"/>
+      <c r="B40" s="402"/>
+      <c r="C40" s="402"/>
+      <c r="D40" s="402"/>
+      <c r="E40" s="402"/>
     </row>
     <row r="57" spans="1:5" ht="14.65" thickBot="1">
       <c r="A57" s="9" t="s">
@@ -64620,13 +64613,13 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="397" t="s">
+      <c r="A60" s="401" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="397"/>
-      <c r="C60" s="397"/>
-      <c r="D60" s="397"/>
-      <c r="E60" s="397"/>
+      <c r="B60" s="401"/>
+      <c r="C60" s="401"/>
+      <c r="D60" s="401"/>
+      <c r="E60" s="401"/>
     </row>
     <row r="85" spans="1:39" s="12" customFormat="1">
       <c r="A85" s="9" t="s">
@@ -64731,13 +64724,13 @@
       </c>
     </row>
     <row r="89" spans="1:39">
-      <c r="A89" s="397" t="s">
+      <c r="A89" s="401" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="397"/>
-      <c r="C89" s="397"/>
-      <c r="D89" s="397"/>
-      <c r="E89" s="397"/>
+      <c r="B89" s="401"/>
+      <c r="C89" s="401"/>
+      <c r="D89" s="401"/>
+      <c r="E89" s="401"/>
     </row>
     <row r="90" spans="1:39">
       <c r="A90" s="9">
@@ -64824,13 +64817,13 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="397" t="s">
+      <c r="A98" s="401" t="s">
         <v>178</v>
       </c>
-      <c r="B98" s="397"/>
-      <c r="C98" s="397"/>
-      <c r="D98" s="397"/>
-      <c r="E98" s="397"/>
+      <c r="B98" s="401"/>
+      <c r="C98" s="401"/>
+      <c r="D98" s="401"/>
+      <c r="E98" s="401"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="17">
@@ -64914,13 +64907,13 @@
       <c r="A108" s="20"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="397" t="s">
+      <c r="A109" s="401" t="s">
         <v>180</v>
       </c>
-      <c r="B109" s="397"/>
-      <c r="C109" s="397"/>
-      <c r="D109" s="397"/>
-      <c r="E109" s="397"/>
+      <c r="B109" s="401"/>
+      <c r="C109" s="401"/>
+      <c r="D109" s="401"/>
+      <c r="E109" s="401"/>
     </row>
     <row r="110" spans="1:5" ht="14.65" thickBot="1"/>
     <row r="111" spans="1:5" ht="14.65" thickBot="1">
@@ -64933,13 +64926,13 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="397" t="s">
+      <c r="A113" s="401" t="s">
         <v>179</v>
       </c>
-      <c r="B113" s="397"/>
-      <c r="C113" s="397"/>
-      <c r="D113" s="397"/>
-      <c r="E113" s="397"/>
+      <c r="B113" s="401"/>
+      <c r="C113" s="401"/>
+      <c r="D113" s="401"/>
+      <c r="E113" s="401"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="17">
@@ -65020,13 +65013,13 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="397" t="s">
+      <c r="A124" s="401" t="s">
         <v>435</v>
       </c>
-      <c r="B124" s="397"/>
-      <c r="C124" s="397"/>
-      <c r="D124" s="397"/>
-      <c r="E124" s="397"/>
+      <c r="B124" s="401"/>
+      <c r="C124" s="401"/>
+      <c r="D124" s="401"/>
+      <c r="E124" s="401"/>
       <c r="L124" s="21"/>
     </row>
     <row r="125" spans="1:14">
@@ -65117,13 +65110,13 @@
       <c r="C133" s="15"/>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="397" t="s">
+      <c r="A134" s="401" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="397"/>
-      <c r="C134" s="397"/>
-      <c r="D134" s="397"/>
-      <c r="E134" s="397"/>
+      <c r="B134" s="401"/>
+      <c r="C134" s="401"/>
+      <c r="D134" s="401"/>
+      <c r="E134" s="401"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="27" t="s">
@@ -65703,13 +65696,13 @@
       <c r="G163" s="28"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="397" t="s">
+      <c r="A165" s="401" t="s">
         <v>183</v>
       </c>
-      <c r="B165" s="397"/>
-      <c r="C165" s="397"/>
-      <c r="D165" s="397"/>
-      <c r="E165" s="397"/>
+      <c r="B165" s="401"/>
+      <c r="C165" s="401"/>
+      <c r="D165" s="401"/>
+      <c r="E165" s="401"/>
     </row>
     <row r="166" spans="1:7" ht="14.65" thickBot="1">
       <c r="A166" s="23" t="s">
@@ -65732,10 +65725,10 @@
       <c r="B168" s="46"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="397" t="s">
+      <c r="A169" s="401" t="s">
         <v>443</v>
       </c>
-      <c r="B169" s="397"/>
+      <c r="B169" s="401"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="23" t="s">
@@ -65767,13 +65760,13 @@
       <c r="B173" s="46"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="397" t="s">
+      <c r="A174" s="401" t="s">
         <v>192</v>
       </c>
-      <c r="B174" s="397"/>
-      <c r="C174" s="397"/>
-      <c r="D174" s="397"/>
-      <c r="E174" s="397"/>
+      <c r="B174" s="401"/>
+      <c r="C174" s="401"/>
+      <c r="D174" s="401"/>
+      <c r="E174" s="401"/>
     </row>
     <row r="175" spans="1:7" ht="14.65" thickBot="1">
       <c r="A175" s="23" t="s">
@@ -65793,13 +65786,13 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="397" t="s">
+      <c r="A178" s="401" t="s">
         <v>186</v>
       </c>
-      <c r="B178" s="397"/>
-      <c r="C178" s="397"/>
-      <c r="D178" s="397"/>
-      <c r="E178" s="397"/>
+      <c r="B178" s="401"/>
+      <c r="C178" s="401"/>
+      <c r="D178" s="401"/>
+      <c r="E178" s="401"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="25" t="s">
@@ -65827,13 +65820,13 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="397" t="s">
+      <c r="A183" s="401" t="s">
         <v>188</v>
       </c>
-      <c r="B183" s="397"/>
-      <c r="C183" s="397"/>
-      <c r="D183" s="397"/>
-      <c r="E183" s="397"/>
+      <c r="B183" s="401"/>
+      <c r="C183" s="401"/>
+      <c r="D183" s="401"/>
+      <c r="E183" s="401"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="23" t="s">
@@ -65888,13 +65881,13 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="397" t="s">
+      <c r="A191" s="401" t="s">
         <v>202</v>
       </c>
-      <c r="B191" s="397"/>
-      <c r="C191" s="397"/>
-      <c r="D191" s="397"/>
-      <c r="E191" s="397"/>
+      <c r="B191" s="401"/>
+      <c r="C191" s="401"/>
+      <c r="D191" s="401"/>
+      <c r="E191" s="401"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="21" t="s">
@@ -65954,6 +65947,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -65968,12 +65967,6 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -7427,9 +7427,6 @@
     <t>620e7a, c01b00, 004185, af64ff, 00b050, 04ffaf, 087bf1, c2dffd, 000000, f1bb18, f593e0, 969696</t>
   </si>
   <si>
-    <t>Output Transportation Sector Fuel Used by Vehicle Type[motorbikes,freight,CO2]; Output Transportation Sector Fuel Used by Vehicle Type[motorbikes,passenger,CO2]; Output Transportation Sector Fuel Used by Vehicle Type[ships,freight,CO2]; Output Transportation Sector Fuel Used by Vehicle Type[ships,passenger,CO2]; Output Transportation Sector Fuel Used by Vehicle Type[rail,freight,CO2]; Output Transportation Sector Fuel Used by Vehicle Type[rail,passenger,CO2]; Output Transportation Sector Fuel Used by Vehicle Type[aircraft,freight,CO2]; Output Transportation Sector Fuel Used by Vehicle Type[aircraft,passenger,CO2]; Output Transportation Sector Fuel Used by Vehicle Type[HDVs,freight,CO2]; Output Transportation Sector Fuel Used by Vehicle Type[HDVs,passenger,CO2]; Output Transportation Sector Fuel Used by Vehicle Type[LDVs,freight,CO2]; Output Transportation Sector Fuel Used by Vehicle Type[LDVs,passenger,CO2]</t>
-  </si>
-  <si>
     <t>620e7a, c01b00, 004185, af64ff, 00b050, 04ffaf, 087bf1, f1bb18, f593e0, c2dffd, 000000, 969696</t>
   </si>
   <si>
@@ -7487,6 +7484,9 @@
   </si>
   <si>
     <t>**Description:** This control setting adjusts the GDP impact of the recession caused by SARS-CoV-2 (COVID-19).  It is set in terms of the GDP growth rate for 2020, relative to 2019 (with negative values indicating GDP shrinkage).  Recession impacts can extend beyond 2020, and can be adjusted using the Implementation Schedule feature for this control setting.  // **Guidance for setting values:** As of 27 May 2020, projections for GDP impacts in India vary across several studies. Estimates by nine national and global agencies range between a GDP reduction of 2.3% on the optimistic end to a high of 11% (relative to an average counter-factual growth projection of 5.8%). On average, the projected reduction is 5.9%, resulting in a new GDP growth rate of -0.1%. This is the default setting.</t>
+  </si>
+  <si>
+    <t>Output Transportation Sector Fuel Used by Vehicle Type[motorbikes,freight]; Output Transportation Sector Fuel Used by Vehicle Type[motorbikes,passenger]; Output Transportation Sector Fuel Used by Vehicle Type[ships,freight]; Output Transportation Sector Fuel Used by Vehicle Type[ships,passenger]; Output Transportation Sector Fuel Used by Vehicle Type[rail,freight]; Output Transportation Sector Fuel Used by Vehicle Type[rail,passenger]; Output Transportation Sector Fuel Used by Vehicle Type[aircraft,freight]; Output Transportation Sector Fuel Used by Vehicle Type[aircraft,passenger]; Output Transportation Sector Fuel Used by Vehicle Type[HDVs,freight]; Output Transportation Sector Fuel Used by Vehicle Type[HDVs,passenger]; Output Transportation Sector Fuel Used by Vehicle Type[LDVs,freight]; Output Transportation Sector Fuel Used by Vehicle Type[LDVs,passenger]</t>
   </si>
 </sst>
 </file>
@@ -9603,6 +9603,9 @@
     <xf numFmtId="10" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9629,9 +9632,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -10834,7 +10834,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="50" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B16" s="176"/>
     </row>
@@ -10849,7 +10849,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="391" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B18" s="118" t="str">
         <f t="array" ref="B18">IF(MIN(IF(COUNTIF(PolicyLevers!$H$2:$H$1500,PolicyLevers!$H$2:$H$1500)&gt;1,PolicyLevers!$H$2:$H$1500, ""))=0,"No duplicate ID numbers",MIN(IF(COUNTIF(PolicyLevers!$H$2:$H$1500,PolicyLevers!$H$2:$H$1500)&gt;1,PolicyLevers!$H$2:$H$1500, "")))</f>
@@ -10858,7 +10858,7 @@
     </row>
     <row r="19" spans="1:6" ht="28.5">
       <c r="A19" s="392" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B19" s="118" t="str">
         <f>IF(MIN(IF((NOT(ISNUMBER(PolicyLevers!$H$2:$H$1500)))*(PolicyLevers!$I$2:$I$1500="Yes"),ROW(PolicyLevers!$H$2:$H$1500)))=0,"No missing ID numbers",MIN(IF((NOT(ISNUMBER(PolicyLevers!$H$2:$H$1500)))*(PolicyLevers!$I$2:$I$1500="Yes"),ROW(PolicyLevers!$H$2:$H$1500))))</f>
@@ -11014,8 +11014,8 @@
   <dimension ref="A1:T589"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A564" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P571" sqref="P571"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -16810,7 +16810,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P96" s="177" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="Q96" s="76" t="str">
         <f t="shared" si="23"/>
@@ -21835,7 +21835,7 @@
         <v>39</v>
       </c>
       <c r="P178" s="180" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="Q178" s="55" t="s">
         <v>926</v>
@@ -36522,14 +36522,14 @@
         <v>967</v>
       </c>
       <c r="P436" s="183" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="Q436" s="10"/>
       <c r="R436" s="158" t="s">
         <v>1246</v>
       </c>
       <c r="S436" s="55" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="T436" s="10"/>
     </row>
@@ -44042,8 +44042,8 @@
       <c r="O571" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="P571" s="403" t="s">
-        <v>1963</v>
+      <c r="P571" s="394" t="s">
+        <v>1962</v>
       </c>
       <c r="R571" s="162"/>
       <c r="S571" s="67" t="s">
@@ -44521,10 +44521,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="394" t="s">
+      <c r="A1" s="395" t="s">
         <v>1415</v>
       </c>
-      <c r="B1" s="394"/>
+      <c r="B1" s="395"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="166" t="s">
@@ -44810,10 +44810,10 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="394" t="s">
+      <c r="A37" s="395" t="s">
         <v>1419</v>
       </c>
-      <c r="B37" s="394"/>
+      <c r="B37" s="395"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="166" t="s">
@@ -44857,7 +44857,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G84" sqref="G84:I84"/>
+      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -47172,7 +47172,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="128.65" thickBot="1">
+    <row r="84" spans="1:9" ht="114.4" thickBot="1">
       <c r="A84" s="142" t="s">
         <v>791</v>
       </c>
@@ -47193,13 +47193,13 @@
         <v>petajoules / year</v>
       </c>
       <c r="G84" s="383" t="s">
-        <v>1950</v>
+        <v>1963</v>
       </c>
       <c r="H84" s="383" t="s">
         <v>1948</v>
       </c>
       <c r="I84" s="381" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="57">
@@ -50903,18 +50903,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>1959</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1960</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>1961</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1962</v>
       </c>
     </row>
   </sheetData>
@@ -54847,19 +54847,19 @@
       </c>
     </row>
     <row r="246" spans="1:11" s="95" customFormat="1" ht="15" customHeight="1">
-      <c r="A246" s="395" t="s">
+      <c r="A246" s="396" t="s">
         <v>1725</v>
       </c>
-      <c r="B246" s="396"/>
-      <c r="C246" s="396"/>
-      <c r="D246" s="396"/>
-      <c r="E246" s="396"/>
-      <c r="F246" s="396"/>
-      <c r="G246" s="396"/>
-      <c r="H246" s="396"/>
-      <c r="I246" s="396"/>
-      <c r="J246" s="396"/>
-      <c r="K246" s="397"/>
+      <c r="B246" s="397"/>
+      <c r="C246" s="397"/>
+      <c r="D246" s="397"/>
+      <c r="E246" s="397"/>
+      <c r="F246" s="397"/>
+      <c r="G246" s="397"/>
+      <c r="H246" s="397"/>
+      <c r="I246" s="397"/>
+      <c r="J246" s="397"/>
+      <c r="K246" s="398"/>
     </row>
     <row r="247" spans="1:11" s="95" customFormat="1"/>
     <row r="248" spans="1:11" s="95" customFormat="1" ht="28.5">
@@ -64538,22 +64538,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="401" t="s">
+      <c r="A1" s="402" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="401"/>
-      <c r="C1" s="401"/>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="402"/>
+      <c r="E1" s="402"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="403" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="402"/>
-      <c r="C2" s="402"/>
-      <c r="D2" s="402"/>
-      <c r="E2" s="402"/>
+      <c r="B2" s="403"/>
+      <c r="C2" s="403"/>
+      <c r="D2" s="403"/>
+      <c r="E2" s="403"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
@@ -64569,13 +64569,13 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="402" t="s">
+      <c r="A21" s="403" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="402"/>
-      <c r="C21" s="402"/>
-      <c r="D21" s="402"/>
-      <c r="E21" s="402"/>
+      <c r="B21" s="403"/>
+      <c r="C21" s="403"/>
+      <c r="D21" s="403"/>
+      <c r="E21" s="403"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="9" t="s">
@@ -64591,13 +64591,13 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="402" t="s">
+      <c r="A40" s="403" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="402"/>
-      <c r="C40" s="402"/>
-      <c r="D40" s="402"/>
-      <c r="E40" s="402"/>
+      <c r="B40" s="403"/>
+      <c r="C40" s="403"/>
+      <c r="D40" s="403"/>
+      <c r="E40" s="403"/>
     </row>
     <row r="57" spans="1:5" ht="14.65" thickBot="1">
       <c r="A57" s="9" t="s">
@@ -64613,13 +64613,13 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="401" t="s">
+      <c r="A60" s="402" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="401"/>
-      <c r="C60" s="401"/>
-      <c r="D60" s="401"/>
-      <c r="E60" s="401"/>
+      <c r="B60" s="402"/>
+      <c r="C60" s="402"/>
+      <c r="D60" s="402"/>
+      <c r="E60" s="402"/>
     </row>
     <row r="85" spans="1:39" s="12" customFormat="1">
       <c r="A85" s="9" t="s">
@@ -64724,13 +64724,13 @@
       </c>
     </row>
     <row r="89" spans="1:39">
-      <c r="A89" s="401" t="s">
+      <c r="A89" s="402" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="401"/>
-      <c r="C89" s="401"/>
-      <c r="D89" s="401"/>
-      <c r="E89" s="401"/>
+      <c r="B89" s="402"/>
+      <c r="C89" s="402"/>
+      <c r="D89" s="402"/>
+      <c r="E89" s="402"/>
     </row>
     <row r="90" spans="1:39">
       <c r="A90" s="9">
@@ -64817,13 +64817,13 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="401" t="s">
+      <c r="A98" s="402" t="s">
         <v>178</v>
       </c>
-      <c r="B98" s="401"/>
-      <c r="C98" s="401"/>
-      <c r="D98" s="401"/>
-      <c r="E98" s="401"/>
+      <c r="B98" s="402"/>
+      <c r="C98" s="402"/>
+      <c r="D98" s="402"/>
+      <c r="E98" s="402"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="17">
@@ -64907,13 +64907,13 @@
       <c r="A108" s="20"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="401" t="s">
+      <c r="A109" s="402" t="s">
         <v>180</v>
       </c>
-      <c r="B109" s="401"/>
-      <c r="C109" s="401"/>
-      <c r="D109" s="401"/>
-      <c r="E109" s="401"/>
+      <c r="B109" s="402"/>
+      <c r="C109" s="402"/>
+      <c r="D109" s="402"/>
+      <c r="E109" s="402"/>
     </row>
     <row r="110" spans="1:5" ht="14.65" thickBot="1"/>
     <row r="111" spans="1:5" ht="14.65" thickBot="1">
@@ -64926,13 +64926,13 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="401" t="s">
+      <c r="A113" s="402" t="s">
         <v>179</v>
       </c>
-      <c r="B113" s="401"/>
-      <c r="C113" s="401"/>
-      <c r="D113" s="401"/>
-      <c r="E113" s="401"/>
+      <c r="B113" s="402"/>
+      <c r="C113" s="402"/>
+      <c r="D113" s="402"/>
+      <c r="E113" s="402"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="17">
@@ -65013,13 +65013,13 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="401" t="s">
+      <c r="A124" s="402" t="s">
         <v>435</v>
       </c>
-      <c r="B124" s="401"/>
-      <c r="C124" s="401"/>
-      <c r="D124" s="401"/>
-      <c r="E124" s="401"/>
+      <c r="B124" s="402"/>
+      <c r="C124" s="402"/>
+      <c r="D124" s="402"/>
+      <c r="E124" s="402"/>
       <c r="L124" s="21"/>
     </row>
     <row r="125" spans="1:14">
@@ -65110,13 +65110,13 @@
       <c r="C133" s="15"/>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="401" t="s">
+      <c r="A134" s="402" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="401"/>
-      <c r="C134" s="401"/>
-      <c r="D134" s="401"/>
-      <c r="E134" s="401"/>
+      <c r="B134" s="402"/>
+      <c r="C134" s="402"/>
+      <c r="D134" s="402"/>
+      <c r="E134" s="402"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="27" t="s">
@@ -65131,25 +65131,25 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="29"/>
-      <c r="B136" s="398" t="s">
+      <c r="B136" s="399" t="s">
         <v>452</v>
       </c>
-      <c r="C136" s="399"/>
-      <c r="D136" s="399"/>
-      <c r="E136" s="400"/>
+      <c r="C136" s="400"/>
+      <c r="D136" s="400"/>
+      <c r="E136" s="401"/>
       <c r="F136" s="28"/>
       <c r="G136" s="28"/>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="30"/>
-      <c r="B137" s="398" t="s">
+      <c r="B137" s="399" t="s">
         <v>453</v>
       </c>
-      <c r="C137" s="400"/>
-      <c r="D137" s="398" t="s">
+      <c r="C137" s="401"/>
+      <c r="D137" s="399" t="s">
         <v>454</v>
       </c>
-      <c r="E137" s="400"/>
+      <c r="E137" s="401"/>
       <c r="F137" s="28"/>
       <c r="G137" s="28"/>
     </row>
@@ -65696,13 +65696,13 @@
       <c r="G163" s="28"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="401" t="s">
+      <c r="A165" s="402" t="s">
         <v>183</v>
       </c>
-      <c r="B165" s="401"/>
-      <c r="C165" s="401"/>
-      <c r="D165" s="401"/>
-      <c r="E165" s="401"/>
+      <c r="B165" s="402"/>
+      <c r="C165" s="402"/>
+      <c r="D165" s="402"/>
+      <c r="E165" s="402"/>
     </row>
     <row r="166" spans="1:7" ht="14.65" thickBot="1">
       <c r="A166" s="23" t="s">
@@ -65725,10 +65725,10 @@
       <c r="B168" s="46"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="401" t="s">
+      <c r="A169" s="402" t="s">
         <v>443</v>
       </c>
-      <c r="B169" s="401"/>
+      <c r="B169" s="402"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="23" t="s">
@@ -65760,13 +65760,13 @@
       <c r="B173" s="46"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="401" t="s">
+      <c r="A174" s="402" t="s">
         <v>192</v>
       </c>
-      <c r="B174" s="401"/>
-      <c r="C174" s="401"/>
-      <c r="D174" s="401"/>
-      <c r="E174" s="401"/>
+      <c r="B174" s="402"/>
+      <c r="C174" s="402"/>
+      <c r="D174" s="402"/>
+      <c r="E174" s="402"/>
     </row>
     <row r="175" spans="1:7" ht="14.65" thickBot="1">
       <c r="A175" s="23" t="s">
@@ -65786,13 +65786,13 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="401" t="s">
+      <c r="A178" s="402" t="s">
         <v>186</v>
       </c>
-      <c r="B178" s="401"/>
-      <c r="C178" s="401"/>
-      <c r="D178" s="401"/>
-      <c r="E178" s="401"/>
+      <c r="B178" s="402"/>
+      <c r="C178" s="402"/>
+      <c r="D178" s="402"/>
+      <c r="E178" s="402"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="25" t="s">
@@ -65820,13 +65820,13 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="401" t="s">
+      <c r="A183" s="402" t="s">
         <v>188</v>
       </c>
-      <c r="B183" s="401"/>
-      <c r="C183" s="401"/>
-      <c r="D183" s="401"/>
-      <c r="E183" s="401"/>
+      <c r="B183" s="402"/>
+      <c r="C183" s="402"/>
+      <c r="D183" s="402"/>
+      <c r="E183" s="402"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="23" t="s">
@@ -65881,13 +65881,13 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="401" t="s">
+      <c r="A191" s="402" t="s">
         <v>202</v>
       </c>
-      <c r="B191" s="401"/>
-      <c r="C191" s="401"/>
-      <c r="D191" s="401"/>
-      <c r="E191" s="401"/>
+      <c r="B191" s="402"/>
+      <c r="C191" s="402"/>
+      <c r="D191" s="402"/>
+      <c r="E191" s="402"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="21" t="s">

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -7373,9 +7373,6 @@
     <t>620e7a, f1bb18, 00b050, c01b00, 000000</t>
   </si>
   <si>
-    <t>Output New Vehicles in Thousands[LDVs,freight,hydrogen vehicle]; Output New Vehicles in Thousands[LDVs,freight,battery electric vehicle]; Output New Vehicles in Thousands[LDVs,freight,plugin hybrid vehicle]; Output New Vehicles in Thousands[LDVs,freight,diesel vehicle];</t>
-  </si>
-  <si>
     <t>Hydrogen Vehicle, Battery Electric Vehicle, Plug-in Hybrid Vehicle, Diesel Engine Vehicle</t>
   </si>
   <si>
@@ -7487,6 +7484,9 @@
   </si>
   <si>
     <t>Output Transportation Sector Fuel Used by Vehicle Type[motorbikes,freight]; Output Transportation Sector Fuel Used by Vehicle Type[motorbikes,passenger]; Output Transportation Sector Fuel Used by Vehicle Type[ships,freight]; Output Transportation Sector Fuel Used by Vehicle Type[ships,passenger]; Output Transportation Sector Fuel Used by Vehicle Type[rail,freight]; Output Transportation Sector Fuel Used by Vehicle Type[rail,passenger]; Output Transportation Sector Fuel Used by Vehicle Type[aircraft,freight]; Output Transportation Sector Fuel Used by Vehicle Type[aircraft,passenger]; Output Transportation Sector Fuel Used by Vehicle Type[HDVs,freight]; Output Transportation Sector Fuel Used by Vehicle Type[HDVs,passenger]; Output Transportation Sector Fuel Used by Vehicle Type[LDVs,freight]; Output Transportation Sector Fuel Used by Vehicle Type[LDVs,passenger]</t>
+  </si>
+  <si>
+    <t>Output New Vehicles in Thousands[LDVs,freight,hydrogen vehicle]; Output New Vehicles in Thousands[LDVs,freight,battery electric vehicle]; Output New Vehicles in Thousands[LDVs,freight,plugin hybrid vehicle]; Output New Vehicles in Thousands[LDVs,freight,diesel vehicle]</t>
   </si>
 </sst>
 </file>
@@ -9618,6 +9618,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -9626,9 +9629,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -10834,7 +10834,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="50" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B16" s="176"/>
     </row>
@@ -10849,7 +10849,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="391" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B18" s="118" t="str">
         <f t="array" ref="B18">IF(MIN(IF(COUNTIF(PolicyLevers!$H$2:$H$1500,PolicyLevers!$H$2:$H$1500)&gt;1,PolicyLevers!$H$2:$H$1500, ""))=0,"No duplicate ID numbers",MIN(IF(COUNTIF(PolicyLevers!$H$2:$H$1500,PolicyLevers!$H$2:$H$1500)&gt;1,PolicyLevers!$H$2:$H$1500, "")))</f>
@@ -10858,7 +10858,7 @@
     </row>
     <row r="19" spans="1:6" ht="28.5">
       <c r="A19" s="392" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B19" s="118" t="str">
         <f>IF(MIN(IF((NOT(ISNUMBER(PolicyLevers!$H$2:$H$1500)))*(PolicyLevers!$I$2:$I$1500="Yes"),ROW(PolicyLevers!$H$2:$H$1500)))=0,"No missing ID numbers",MIN(IF((NOT(ISNUMBER(PolicyLevers!$H$2:$H$1500)))*(PolicyLevers!$I$2:$I$1500="Yes"),ROW(PolicyLevers!$H$2:$H$1500))))</f>
@@ -11015,7 +11015,7 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84:XFD84"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -16810,7 +16810,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P96" s="177" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="Q96" s="76" t="str">
         <f t="shared" si="23"/>
@@ -21835,7 +21835,7 @@
         <v>39</v>
       </c>
       <c r="P178" s="180" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="Q178" s="55" t="s">
         <v>926</v>
@@ -36522,14 +36522,14 @@
         <v>967</v>
       </c>
       <c r="P436" s="183" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="Q436" s="10"/>
       <c r="R436" s="158" t="s">
         <v>1246</v>
       </c>
       <c r="S436" s="55" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="T436" s="10"/>
     </row>
@@ -44043,7 +44043,7 @@
         <v>1434</v>
       </c>
       <c r="P571" s="394" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="R571" s="162"/>
       <c r="S571" s="67" t="s">
@@ -44510,7 +44510,7 @@
   </sheetPr>
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -44855,9 +44855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -46835,13 +46835,13 @@
         <v>thousand vehicles / year</v>
       </c>
       <c r="G72" s="383" t="s">
+        <v>1963</v>
+      </c>
+      <c r="H72" s="383" t="s">
         <v>1932</v>
       </c>
-      <c r="H72" s="383" t="s">
+      <c r="I72" s="383" t="s">
         <v>1933</v>
-      </c>
-      <c r="I72" s="383" t="s">
-        <v>1934</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="42.75">
@@ -46865,13 +46865,13 @@
         <v>thousand vehicles / year</v>
       </c>
       <c r="G73" s="383" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="H73" s="383" t="s">
+        <v>1932</v>
+      </c>
+      <c r="I73" s="383" t="s">
         <v>1933</v>
-      </c>
-      <c r="I73" s="383" t="s">
-        <v>1934</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="28.5">
@@ -46879,7 +46879,7 @@
         <v>1313</v>
       </c>
       <c r="B74" s="384" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="C74" s="164">
         <v>1</v>
@@ -46909,7 +46909,7 @@
         <v>1313</v>
       </c>
       <c r="B75" s="384" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C75" s="385">
         <v>1</v>
@@ -46924,13 +46924,13 @@
         <v>795</v>
       </c>
       <c r="G75" s="383" t="s">
+        <v>1937</v>
+      </c>
+      <c r="H75" s="383" t="s">
         <v>1938</v>
       </c>
-      <c r="H75" s="383" t="s">
+      <c r="I75" s="383" t="s">
         <v>1939</v>
-      </c>
-      <c r="I75" s="383" t="s">
-        <v>1940</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="57">
@@ -46984,7 +46984,7 @@
         <v>thousand vehicles</v>
       </c>
       <c r="G77" s="383" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="H77" s="383" t="s">
         <v>1930</v>
@@ -47014,13 +47014,13 @@
         <v>million vehicles</v>
       </c>
       <c r="G78" s="383" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="H78" s="383" t="s">
+        <v>1932</v>
+      </c>
+      <c r="I78" s="383" t="s">
         <v>1933</v>
-      </c>
-      <c r="I78" s="383" t="s">
-        <v>1934</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="42.75">
@@ -47044,13 +47044,13 @@
         <v>million vehicles</v>
       </c>
       <c r="G79" s="383" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="H79" s="383" t="s">
+        <v>1932</v>
+      </c>
+      <c r="I79" s="383" t="s">
         <v>1933</v>
-      </c>
-      <c r="I79" s="383" t="s">
-        <v>1934</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="28.9" thickBot="1">
@@ -47058,7 +47058,7 @@
         <v>1313</v>
       </c>
       <c r="B80" s="386" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="C80" s="171">
         <v>1</v>
@@ -47088,7 +47088,7 @@
         <v>1313</v>
       </c>
       <c r="B81" s="386" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="C81" s="387">
         <v>1</v>
@@ -47103,13 +47103,13 @@
         <v>794</v>
       </c>
       <c r="G81" s="383" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="H81" s="383" t="s">
+        <v>1938</v>
+      </c>
+      <c r="I81" s="383" t="s">
         <v>1939</v>
-      </c>
-      <c r="I81" s="383" t="s">
-        <v>1940</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="128.25">
@@ -47133,13 +47133,13 @@
         <v>million metric tons / year</v>
       </c>
       <c r="G82" s="383" t="s">
+        <v>1946</v>
+      </c>
+      <c r="H82" s="383" t="s">
         <v>1947</v>
       </c>
-      <c r="H82" s="383" t="s">
+      <c r="I82" s="383" t="s">
         <v>1948</v>
-      </c>
-      <c r="I82" s="383" t="s">
-        <v>1949</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="85.5">
@@ -47193,13 +47193,13 @@
         <v>petajoules / year</v>
       </c>
       <c r="G84" s="383" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="H84" s="383" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="I84" s="381" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="57">
@@ -50903,18 +50903,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>1958</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1959</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>1960</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1961</v>
       </c>
     </row>
   </sheetData>
@@ -64538,13 +64538,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="402" t="s">
+      <c r="A1" s="399" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="402"/>
-      <c r="C1" s="402"/>
-      <c r="D1" s="402"/>
-      <c r="E1" s="402"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="403" t="s">
@@ -64613,13 +64613,13 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="402" t="s">
+      <c r="A60" s="399" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="402"/>
-      <c r="C60" s="402"/>
-      <c r="D60" s="402"/>
-      <c r="E60" s="402"/>
+      <c r="B60" s="399"/>
+      <c r="C60" s="399"/>
+      <c r="D60" s="399"/>
+      <c r="E60" s="399"/>
     </row>
     <row r="85" spans="1:39" s="12" customFormat="1">
       <c r="A85" s="9" t="s">
@@ -64724,13 +64724,13 @@
       </c>
     </row>
     <row r="89" spans="1:39">
-      <c r="A89" s="402" t="s">
+      <c r="A89" s="399" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="402"/>
-      <c r="C89" s="402"/>
-      <c r="D89" s="402"/>
-      <c r="E89" s="402"/>
+      <c r="B89" s="399"/>
+      <c r="C89" s="399"/>
+      <c r="D89" s="399"/>
+      <c r="E89" s="399"/>
     </row>
     <row r="90" spans="1:39">
       <c r="A90" s="9">
@@ -64817,13 +64817,13 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="402" t="s">
+      <c r="A98" s="399" t="s">
         <v>178</v>
       </c>
-      <c r="B98" s="402"/>
-      <c r="C98" s="402"/>
-      <c r="D98" s="402"/>
-      <c r="E98" s="402"/>
+      <c r="B98" s="399"/>
+      <c r="C98" s="399"/>
+      <c r="D98" s="399"/>
+      <c r="E98" s="399"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="17">
@@ -64907,13 +64907,13 @@
       <c r="A108" s="20"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="402" t="s">
+      <c r="A109" s="399" t="s">
         <v>180</v>
       </c>
-      <c r="B109" s="402"/>
-      <c r="C109" s="402"/>
-      <c r="D109" s="402"/>
-      <c r="E109" s="402"/>
+      <c r="B109" s="399"/>
+      <c r="C109" s="399"/>
+      <c r="D109" s="399"/>
+      <c r="E109" s="399"/>
     </row>
     <row r="110" spans="1:5" ht="14.65" thickBot="1"/>
     <row r="111" spans="1:5" ht="14.65" thickBot="1">
@@ -64926,13 +64926,13 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="402" t="s">
+      <c r="A113" s="399" t="s">
         <v>179</v>
       </c>
-      <c r="B113" s="402"/>
-      <c r="C113" s="402"/>
-      <c r="D113" s="402"/>
-      <c r="E113" s="402"/>
+      <c r="B113" s="399"/>
+      <c r="C113" s="399"/>
+      <c r="D113" s="399"/>
+      <c r="E113" s="399"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="17">
@@ -65013,13 +65013,13 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="402" t="s">
+      <c r="A124" s="399" t="s">
         <v>435</v>
       </c>
-      <c r="B124" s="402"/>
-      <c r="C124" s="402"/>
-      <c r="D124" s="402"/>
-      <c r="E124" s="402"/>
+      <c r="B124" s="399"/>
+      <c r="C124" s="399"/>
+      <c r="D124" s="399"/>
+      <c r="E124" s="399"/>
       <c r="L124" s="21"/>
     </row>
     <row r="125" spans="1:14">
@@ -65110,13 +65110,13 @@
       <c r="C133" s="15"/>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="402" t="s">
+      <c r="A134" s="399" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="402"/>
-      <c r="C134" s="402"/>
-      <c r="D134" s="402"/>
-      <c r="E134" s="402"/>
+      <c r="B134" s="399"/>
+      <c r="C134" s="399"/>
+      <c r="D134" s="399"/>
+      <c r="E134" s="399"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="27" t="s">
@@ -65131,25 +65131,25 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="29"/>
-      <c r="B136" s="399" t="s">
+      <c r="B136" s="400" t="s">
         <v>452</v>
       </c>
-      <c r="C136" s="400"/>
-      <c r="D136" s="400"/>
-      <c r="E136" s="401"/>
+      <c r="C136" s="401"/>
+      <c r="D136" s="401"/>
+      <c r="E136" s="402"/>
       <c r="F136" s="28"/>
       <c r="G136" s="28"/>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="30"/>
-      <c r="B137" s="399" t="s">
+      <c r="B137" s="400" t="s">
         <v>453</v>
       </c>
-      <c r="C137" s="401"/>
-      <c r="D137" s="399" t="s">
+      <c r="C137" s="402"/>
+      <c r="D137" s="400" t="s">
         <v>454</v>
       </c>
-      <c r="E137" s="401"/>
+      <c r="E137" s="402"/>
       <c r="F137" s="28"/>
       <c r="G137" s="28"/>
     </row>
@@ -65696,13 +65696,13 @@
       <c r="G163" s="28"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="402" t="s">
+      <c r="A165" s="399" t="s">
         <v>183</v>
       </c>
-      <c r="B165" s="402"/>
-      <c r="C165" s="402"/>
-      <c r="D165" s="402"/>
-      <c r="E165" s="402"/>
+      <c r="B165" s="399"/>
+      <c r="C165" s="399"/>
+      <c r="D165" s="399"/>
+      <c r="E165" s="399"/>
     </row>
     <row r="166" spans="1:7" ht="14.65" thickBot="1">
       <c r="A166" s="23" t="s">
@@ -65725,10 +65725,10 @@
       <c r="B168" s="46"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="402" t="s">
+      <c r="A169" s="399" t="s">
         <v>443</v>
       </c>
-      <c r="B169" s="402"/>
+      <c r="B169" s="399"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="23" t="s">
@@ -65760,13 +65760,13 @@
       <c r="B173" s="46"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="402" t="s">
+      <c r="A174" s="399" t="s">
         <v>192</v>
       </c>
-      <c r="B174" s="402"/>
-      <c r="C174" s="402"/>
-      <c r="D174" s="402"/>
-      <c r="E174" s="402"/>
+      <c r="B174" s="399"/>
+      <c r="C174" s="399"/>
+      <c r="D174" s="399"/>
+      <c r="E174" s="399"/>
     </row>
     <row r="175" spans="1:7" ht="14.65" thickBot="1">
       <c r="A175" s="23" t="s">
@@ -65786,13 +65786,13 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="402" t="s">
+      <c r="A178" s="399" t="s">
         <v>186</v>
       </c>
-      <c r="B178" s="402"/>
-      <c r="C178" s="402"/>
-      <c r="D178" s="402"/>
-      <c r="E178" s="402"/>
+      <c r="B178" s="399"/>
+      <c r="C178" s="399"/>
+      <c r="D178" s="399"/>
+      <c r="E178" s="399"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="25" t="s">
@@ -65820,13 +65820,13 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="402" t="s">
+      <c r="A183" s="399" t="s">
         <v>188</v>
       </c>
-      <c r="B183" s="402"/>
-      <c r="C183" s="402"/>
-      <c r="D183" s="402"/>
-      <c r="E183" s="402"/>
+      <c r="B183" s="399"/>
+      <c r="C183" s="399"/>
+      <c r="D183" s="399"/>
+      <c r="E183" s="399"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="23" t="s">
@@ -65881,13 +65881,13 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="402" t="s">
+      <c r="A191" s="399" t="s">
         <v>202</v>
       </c>
-      <c r="B191" s="402"/>
-      <c r="C191" s="402"/>
-      <c r="D191" s="402"/>
-      <c r="E191" s="402"/>
+      <c r="B191" s="399"/>
+      <c r="C191" s="399"/>
+      <c r="D191" s="399"/>
+      <c r="E191" s="399"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="21" t="s">
@@ -65947,12 +65947,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -65967,6 +65961,12 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PolicyLevers!$A$1:$T$571</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -9600,6 +9600,9 @@
     <xf numFmtId="10" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9612,6 +9615,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -9621,14 +9627,8 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -11010,9 +11010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T589"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P90" sqref="P90"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -14733,7 +14733,7 @@
       <c r="O62" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="P62" s="402" t="s">
+      <c r="P62" s="393" t="s">
         <v>1962</v>
       </c>
       <c r="R62" s="153" t="s">
@@ -17961,7 +17961,7 @@
         <v>179</v>
       </c>
       <c r="I115" s="55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J115" s="76" t="str">
         <f t="shared" ref="J115:S115" si="35">J$114</f>
@@ -44518,10 +44518,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="393" t="s">
+      <c r="A1" s="394" t="s">
         <v>1415</v>
       </c>
-      <c r="B1" s="393"/>
+      <c r="B1" s="394"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="166" t="s">
@@ -44807,10 +44807,10 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="393" t="s">
+      <c r="A37" s="394" t="s">
         <v>1419</v>
       </c>
-      <c r="B37" s="393"/>
+      <c r="B37" s="394"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="166" t="s">
@@ -54844,19 +54844,19 @@
       </c>
     </row>
     <row r="246" spans="1:11" s="95" customFormat="1" ht="15" customHeight="1">
-      <c r="A246" s="394" t="s">
+      <c r="A246" s="395" t="s">
         <v>1723</v>
       </c>
-      <c r="B246" s="395"/>
-      <c r="C246" s="395"/>
-      <c r="D246" s="395"/>
-      <c r="E246" s="395"/>
-      <c r="F246" s="395"/>
-      <c r="G246" s="395"/>
-      <c r="H246" s="395"/>
-      <c r="I246" s="395"/>
-      <c r="J246" s="395"/>
-      <c r="K246" s="396"/>
+      <c r="B246" s="396"/>
+      <c r="C246" s="396"/>
+      <c r="D246" s="396"/>
+      <c r="E246" s="396"/>
+      <c r="F246" s="396"/>
+      <c r="G246" s="396"/>
+      <c r="H246" s="396"/>
+      <c r="I246" s="396"/>
+      <c r="J246" s="396"/>
+      <c r="K246" s="397"/>
     </row>
     <row r="247" spans="1:11" s="95" customFormat="1"/>
     <row r="248" spans="1:11" s="95" customFormat="1" ht="28.5">
@@ -64535,22 +64535,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="400" t="s">
+      <c r="A1" s="398" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="400"/>
-      <c r="C1" s="400"/>
-      <c r="D1" s="400"/>
-      <c r="E1" s="400"/>
+      <c r="B1" s="398"/>
+      <c r="C1" s="398"/>
+      <c r="D1" s="398"/>
+      <c r="E1" s="398"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="401" t="s">
+      <c r="A2" s="402" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="401"/>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
-      <c r="E2" s="401"/>
+      <c r="B2" s="402"/>
+      <c r="C2" s="402"/>
+      <c r="D2" s="402"/>
+      <c r="E2" s="402"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
@@ -64566,13 +64566,13 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="401" t="s">
+      <c r="A21" s="402" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="401"/>
-      <c r="C21" s="401"/>
-      <c r="D21" s="401"/>
-      <c r="E21" s="401"/>
+      <c r="B21" s="402"/>
+      <c r="C21" s="402"/>
+      <c r="D21" s="402"/>
+      <c r="E21" s="402"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="9" t="s">
@@ -64588,13 +64588,13 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="401" t="s">
+      <c r="A40" s="402" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="401"/>
-      <c r="C40" s="401"/>
-      <c r="D40" s="401"/>
-      <c r="E40" s="401"/>
+      <c r="B40" s="402"/>
+      <c r="C40" s="402"/>
+      <c r="D40" s="402"/>
+      <c r="E40" s="402"/>
     </row>
     <row r="57" spans="1:5" ht="14.65" thickBot="1">
       <c r="A57" s="9" t="s">
@@ -64610,13 +64610,13 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="400" t="s">
+      <c r="A60" s="398" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="400"/>
-      <c r="C60" s="400"/>
-      <c r="D60" s="400"/>
-      <c r="E60" s="400"/>
+      <c r="B60" s="398"/>
+      <c r="C60" s="398"/>
+      <c r="D60" s="398"/>
+      <c r="E60" s="398"/>
     </row>
     <row r="85" spans="1:39" s="12" customFormat="1">
       <c r="A85" s="9" t="s">
@@ -64721,13 +64721,13 @@
       </c>
     </row>
     <row r="89" spans="1:39">
-      <c r="A89" s="400" t="s">
+      <c r="A89" s="398" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="400"/>
-      <c r="C89" s="400"/>
-      <c r="D89" s="400"/>
-      <c r="E89" s="400"/>
+      <c r="B89" s="398"/>
+      <c r="C89" s="398"/>
+      <c r="D89" s="398"/>
+      <c r="E89" s="398"/>
     </row>
     <row r="90" spans="1:39">
       <c r="A90" s="9">
@@ -64814,13 +64814,13 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="400" t="s">
+      <c r="A98" s="398" t="s">
         <v>178</v>
       </c>
-      <c r="B98" s="400"/>
-      <c r="C98" s="400"/>
-      <c r="D98" s="400"/>
-      <c r="E98" s="400"/>
+      <c r="B98" s="398"/>
+      <c r="C98" s="398"/>
+      <c r="D98" s="398"/>
+      <c r="E98" s="398"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="17">
@@ -64904,13 +64904,13 @@
       <c r="A108" s="20"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="400" t="s">
+      <c r="A109" s="398" t="s">
         <v>180</v>
       </c>
-      <c r="B109" s="400"/>
-      <c r="C109" s="400"/>
-      <c r="D109" s="400"/>
-      <c r="E109" s="400"/>
+      <c r="B109" s="398"/>
+      <c r="C109" s="398"/>
+      <c r="D109" s="398"/>
+      <c r="E109" s="398"/>
     </row>
     <row r="110" spans="1:5" ht="14.65" thickBot="1"/>
     <row r="111" spans="1:5" ht="14.65" thickBot="1">
@@ -64923,13 +64923,13 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="400" t="s">
+      <c r="A113" s="398" t="s">
         <v>179</v>
       </c>
-      <c r="B113" s="400"/>
-      <c r="C113" s="400"/>
-      <c r="D113" s="400"/>
-      <c r="E113" s="400"/>
+      <c r="B113" s="398"/>
+      <c r="C113" s="398"/>
+      <c r="D113" s="398"/>
+      <c r="E113" s="398"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="17">
@@ -65010,13 +65010,13 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="400" t="s">
+      <c r="A124" s="398" t="s">
         <v>435</v>
       </c>
-      <c r="B124" s="400"/>
-      <c r="C124" s="400"/>
-      <c r="D124" s="400"/>
-      <c r="E124" s="400"/>
+      <c r="B124" s="398"/>
+      <c r="C124" s="398"/>
+      <c r="D124" s="398"/>
+      <c r="E124" s="398"/>
       <c r="L124" s="21"/>
     </row>
     <row r="125" spans="1:14">
@@ -65107,13 +65107,13 @@
       <c r="C133" s="15"/>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="400" t="s">
+      <c r="A134" s="398" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="400"/>
-      <c r="C134" s="400"/>
-      <c r="D134" s="400"/>
-      <c r="E134" s="400"/>
+      <c r="B134" s="398"/>
+      <c r="C134" s="398"/>
+      <c r="D134" s="398"/>
+      <c r="E134" s="398"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="27" t="s">
@@ -65128,25 +65128,25 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="29"/>
-      <c r="B136" s="397" t="s">
+      <c r="B136" s="399" t="s">
         <v>452</v>
       </c>
-      <c r="C136" s="398"/>
-      <c r="D136" s="398"/>
-      <c r="E136" s="399"/>
+      <c r="C136" s="400"/>
+      <c r="D136" s="400"/>
+      <c r="E136" s="401"/>
       <c r="F136" s="28"/>
       <c r="G136" s="28"/>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="30"/>
-      <c r="B137" s="397" t="s">
+      <c r="B137" s="399" t="s">
         <v>453</v>
       </c>
-      <c r="C137" s="399"/>
-      <c r="D137" s="397" t="s">
+      <c r="C137" s="401"/>
+      <c r="D137" s="399" t="s">
         <v>454</v>
       </c>
-      <c r="E137" s="399"/>
+      <c r="E137" s="401"/>
       <c r="F137" s="28"/>
       <c r="G137" s="28"/>
     </row>
@@ -65693,13 +65693,13 @@
       <c r="G163" s="28"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="400" t="s">
+      <c r="A165" s="398" t="s">
         <v>183</v>
       </c>
-      <c r="B165" s="400"/>
-      <c r="C165" s="400"/>
-      <c r="D165" s="400"/>
-      <c r="E165" s="400"/>
+      <c r="B165" s="398"/>
+      <c r="C165" s="398"/>
+      <c r="D165" s="398"/>
+      <c r="E165" s="398"/>
     </row>
     <row r="166" spans="1:7" ht="14.65" thickBot="1">
       <c r="A166" s="23" t="s">
@@ -65722,10 +65722,10 @@
       <c r="B168" s="46"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="400" t="s">
+      <c r="A169" s="398" t="s">
         <v>443</v>
       </c>
-      <c r="B169" s="400"/>
+      <c r="B169" s="398"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="23" t="s">
@@ -65757,13 +65757,13 @@
       <c r="B173" s="46"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="400" t="s">
+      <c r="A174" s="398" t="s">
         <v>192</v>
       </c>
-      <c r="B174" s="400"/>
-      <c r="C174" s="400"/>
-      <c r="D174" s="400"/>
-      <c r="E174" s="400"/>
+      <c r="B174" s="398"/>
+      <c r="C174" s="398"/>
+      <c r="D174" s="398"/>
+      <c r="E174" s="398"/>
     </row>
     <row r="175" spans="1:7" ht="14.65" thickBot="1">
       <c r="A175" s="23" t="s">
@@ -65783,13 +65783,13 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="400" t="s">
+      <c r="A178" s="398" t="s">
         <v>186</v>
       </c>
-      <c r="B178" s="400"/>
-      <c r="C178" s="400"/>
-      <c r="D178" s="400"/>
-      <c r="E178" s="400"/>
+      <c r="B178" s="398"/>
+      <c r="C178" s="398"/>
+      <c r="D178" s="398"/>
+      <c r="E178" s="398"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="25" t="s">
@@ -65817,13 +65817,13 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="400" t="s">
+      <c r="A183" s="398" t="s">
         <v>188</v>
       </c>
-      <c r="B183" s="400"/>
-      <c r="C183" s="400"/>
-      <c r="D183" s="400"/>
-      <c r="E183" s="400"/>
+      <c r="B183" s="398"/>
+      <c r="C183" s="398"/>
+      <c r="D183" s="398"/>
+      <c r="E183" s="398"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="23" t="s">
@@ -65878,13 +65878,13 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="400" t="s">
+      <c r="A191" s="398" t="s">
         <v>202</v>
       </c>
-      <c r="B191" s="400"/>
-      <c r="C191" s="400"/>
-      <c r="D191" s="400"/>
-      <c r="E191" s="400"/>
+      <c r="B191" s="398"/>
+      <c r="C191" s="398"/>
+      <c r="D191" s="398"/>
+      <c r="E191" s="398"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="21" t="s">
@@ -65944,12 +65944,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -65964,6 +65958,12 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PolicyLevers!$A$1:$T$571</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
@@ -7421,9 +7421,6 @@
     <t>620e7a, c01b00, 004185, af64ff, 00b050, 04ffaf, 087bf1, f1bb18, f593e0, c2dffd, 000000, 969696</t>
   </si>
   <si>
-    <t>**Description:** This policy specifies an increase in the fraction of electricity generation that must come from qualifying carbon-free sources (wind, solar, biomass, nuclear, hydro, and geothermal) in 2050.  This policy has no effect until the user-set value exceeds the existing fraction of carbon-free electricity and any carbon-free electricity standards which have been enacted at the state level. // **Guidance for setting values:** India's Ministry of Power has recently notified the growth trajectory of solar- and non-solar Renewable Purchase Obligations (RPOs) for all states to reach a total RPO target of 21% by 2022, which is held constant thereafter till 2050 in the BAU case.</t>
-  </si>
-  <si>
     <t>**Description:** This policy causes a percentage of merchant hydrogen (i.e. hydrogen produced for sale, not hydrogen produced and consumed on-site within a facility) to be produced via electrolysis rather than via other production pathways. // **Guidance for setting values:** Hydrogen production using electrolysis in India is in the R&amp;D stage. Oil and Natural Gas Corporation Energy Centre (OEC) has implemented a few research projects on the electrolysis of Copper-Chlorine for hydrogen production. There is no hydrogen production in the BAU case.</t>
   </si>
   <si>
@@ -7487,6 +7484,10 @@
   </si>
   <si>
     <t>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for new light-duty freight vehicles (light commercial trucks) with gasoline or diesel engines. // **Guidance for setting values:** India has recently notified testing standards for Light and Medium Commercial freight vehicles with Gross Vehicle Weight (GVW) of 3.5 - 12 tonnes. To be implemented from April 2020, the fuel economy testing standards range between 14 km/liter to 5 km/liter for GVW of 3.5 tonnes and 12 tonnes respectively. In the current BAU case, new freight LDV fuel economy is not projected to change, and is constant at 20 km/liter between 2018-2050.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description:** This policy specifies an increase in the fraction of electricity generation that must come from qualifying carbon-free sources (wind, solar, geothermal, and municipal solid waste) in 2050.  This policy has no effect until the user-set value exceeds the existing fraction of carbon-free electricity and any carbon-free electricity standards which have been enacted at the state level. // **Guidance for setting values:** India's Renewable Purchase Obligations (RPOs) in the BAU case are differentiated by solar and non-solar (excluding hydro). The Ministry of Power has recently notified the growth trajectory of solar- and non-solar RPOs for all states to reach a total RPO target of 21% by 2022, which is held constant thereafter till 2050 in the BAU case. Non-solar BAU RPOs include wind and biomass. 
+In the non-BAU case, the lever setting is a total RPO target that includes generation from wind, solar, geothermal, and Municipal Solid Waste (MSW) sources. Geothermal and MSW are included as they may be feasible for a more ambitious Renewable Energy (RE) scenario with a delayed start. Biomass is excluded because it has issues such as adverse impacts on local air quality, competing land use, and feedstock availability challenges. Nuclear is excluded because of the need to manage radioactive waste, and large-hydro is not included due to potential state-level challenges in implementing additional capacity. When setting a high target with this lever, users should also turn on supporting power sector policies (i.e., Grid-Scale Electricity Storage, Increase Transmission, and Demand Response) to avoid curtailment of renewables. </t>
   </si>
 </sst>
 </file>
@@ -9615,9 +9616,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -9626,6 +9624,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -10831,7 +10832,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="50" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B16" s="176"/>
     </row>
@@ -10846,7 +10847,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="390" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B18" s="118" t="str">
         <f t="array" ref="B18">IF(MIN(IF(COUNTIF(PolicyLevers!$H$2:$H$1500,PolicyLevers!$H$2:$H$1500)&gt;1,PolicyLevers!$H$2:$H$1500, ""))=0,"No duplicate ID numbers",MIN(IF(COUNTIF(PolicyLevers!$H$2:$H$1500,PolicyLevers!$H$2:$H$1500)&gt;1,PolicyLevers!$H$2:$H$1500, "")))</f>
@@ -10855,7 +10856,7 @@
     </row>
     <row r="19" spans="1:6" ht="28.5">
       <c r="A19" s="391" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B19" s="118" t="str">
         <f>IF(MIN(IF((NOT(ISNUMBER(PolicyLevers!$H$2:$H$1500)))*(PolicyLevers!$I$2:$I$1500="Yes"),ROW(PolicyLevers!$H$2:$H$1500)))=0,"No missing ID numbers",MIN(IF((NOT(ISNUMBER(PolicyLevers!$H$2:$H$1500)))*(PolicyLevers!$I$2:$I$1500="Yes"),ROW(PolicyLevers!$H$2:$H$1500))))</f>
@@ -11011,8 +11012,8 @@
   <dimension ref="A1:T589"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I116" sqref="I116"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P178" sqref="P178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -14734,7 +14735,7 @@
         <v>937</v>
       </c>
       <c r="P62" s="393" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="R62" s="153" t="s">
         <v>1237</v>
@@ -16371,7 +16372,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P90" s="177" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="Q90" s="76" t="str">
         <f t="shared" si="23"/>
@@ -16807,7 +16808,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P96" s="177" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="Q96" s="76" t="str">
         <f t="shared" si="23"/>
@@ -21793,7 +21794,7 @@
       <c r="S177" s="57"/>
       <c r="T177" s="57"/>
     </row>
-    <row r="178" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="178" spans="1:20" s="5" customFormat="1" ht="185.25">
       <c r="A178" s="96" t="s">
         <v>8</v>
       </c>
@@ -21831,8 +21832,8 @@
       <c r="O178" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="P178" s="179" t="s">
-        <v>1948</v>
+      <c r="P178" s="183" t="s">
+        <v>1963</v>
       </c>
       <c r="Q178" s="55" t="s">
         <v>926</v>
@@ -36519,14 +36520,14 @@
         <v>967</v>
       </c>
       <c r="P436" s="182" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="Q436" s="10"/>
       <c r="R436" s="158" t="s">
         <v>1246</v>
       </c>
       <c r="S436" s="55" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="T436" s="10"/>
     </row>
@@ -44040,7 +44041,7 @@
         <v>1434</v>
       </c>
       <c r="P571" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="R571" s="162"/>
       <c r="S571" s="67" t="s">
@@ -46832,7 +46833,7 @@
         <v>thousand vehicles / year</v>
       </c>
       <c r="G72" s="382" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="H72" s="382" t="s">
         <v>1930</v>
@@ -47190,7 +47191,7 @@
         <v>petajoules / year</v>
       </c>
       <c r="G84" s="382" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="H84" s="382" t="s">
         <v>1945</v>
@@ -50900,18 +50901,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>1955</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1956</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>1957</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1958</v>
       </c>
     </row>
   </sheetData>
@@ -64535,13 +64536,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="398" t="s">
+      <c r="A1" s="401" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="398"/>
-      <c r="C1" s="398"/>
-      <c r="D1" s="398"/>
-      <c r="E1" s="398"/>
+      <c r="B1" s="401"/>
+      <c r="C1" s="401"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="402" t="s">
@@ -64610,13 +64611,13 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="398" t="s">
+      <c r="A60" s="401" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="398"/>
-      <c r="C60" s="398"/>
-      <c r="D60" s="398"/>
-      <c r="E60" s="398"/>
+      <c r="B60" s="401"/>
+      <c r="C60" s="401"/>
+      <c r="D60" s="401"/>
+      <c r="E60" s="401"/>
     </row>
     <row r="85" spans="1:39" s="12" customFormat="1">
       <c r="A85" s="9" t="s">
@@ -64721,13 +64722,13 @@
       </c>
     </row>
     <row r="89" spans="1:39">
-      <c r="A89" s="398" t="s">
+      <c r="A89" s="401" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="398"/>
-      <c r="C89" s="398"/>
-      <c r="D89" s="398"/>
-      <c r="E89" s="398"/>
+      <c r="B89" s="401"/>
+      <c r="C89" s="401"/>
+      <c r="D89" s="401"/>
+      <c r="E89" s="401"/>
     </row>
     <row r="90" spans="1:39">
       <c r="A90" s="9">
@@ -64814,13 +64815,13 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="398" t="s">
+      <c r="A98" s="401" t="s">
         <v>178</v>
       </c>
-      <c r="B98" s="398"/>
-      <c r="C98" s="398"/>
-      <c r="D98" s="398"/>
-      <c r="E98" s="398"/>
+      <c r="B98" s="401"/>
+      <c r="C98" s="401"/>
+      <c r="D98" s="401"/>
+      <c r="E98" s="401"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="17">
@@ -64904,13 +64905,13 @@
       <c r="A108" s="20"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="398" t="s">
+      <c r="A109" s="401" t="s">
         <v>180</v>
       </c>
-      <c r="B109" s="398"/>
-      <c r="C109" s="398"/>
-      <c r="D109" s="398"/>
-      <c r="E109" s="398"/>
+      <c r="B109" s="401"/>
+      <c r="C109" s="401"/>
+      <c r="D109" s="401"/>
+      <c r="E109" s="401"/>
     </row>
     <row r="110" spans="1:5" ht="14.65" thickBot="1"/>
     <row r="111" spans="1:5" ht="14.65" thickBot="1">
@@ -64923,13 +64924,13 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="398" t="s">
+      <c r="A113" s="401" t="s">
         <v>179</v>
       </c>
-      <c r="B113" s="398"/>
-      <c r="C113" s="398"/>
-      <c r="D113" s="398"/>
-      <c r="E113" s="398"/>
+      <c r="B113" s="401"/>
+      <c r="C113" s="401"/>
+      <c r="D113" s="401"/>
+      <c r="E113" s="401"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="17">
@@ -65010,13 +65011,13 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="398" t="s">
+      <c r="A124" s="401" t="s">
         <v>435</v>
       </c>
-      <c r="B124" s="398"/>
-      <c r="C124" s="398"/>
-      <c r="D124" s="398"/>
-      <c r="E124" s="398"/>
+      <c r="B124" s="401"/>
+      <c r="C124" s="401"/>
+      <c r="D124" s="401"/>
+      <c r="E124" s="401"/>
       <c r="L124" s="21"/>
     </row>
     <row r="125" spans="1:14">
@@ -65107,13 +65108,13 @@
       <c r="C133" s="15"/>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="398" t="s">
+      <c r="A134" s="401" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="398"/>
-      <c r="C134" s="398"/>
-      <c r="D134" s="398"/>
-      <c r="E134" s="398"/>
+      <c r="B134" s="401"/>
+      <c r="C134" s="401"/>
+      <c r="D134" s="401"/>
+      <c r="E134" s="401"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="27" t="s">
@@ -65128,25 +65129,25 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="29"/>
-      <c r="B136" s="399" t="s">
+      <c r="B136" s="398" t="s">
         <v>452</v>
       </c>
-      <c r="C136" s="400"/>
-      <c r="D136" s="400"/>
-      <c r="E136" s="401"/>
+      <c r="C136" s="399"/>
+      <c r="D136" s="399"/>
+      <c r="E136" s="400"/>
       <c r="F136" s="28"/>
       <c r="G136" s="28"/>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="30"/>
-      <c r="B137" s="399" t="s">
+      <c r="B137" s="398" t="s">
         <v>453</v>
       </c>
-      <c r="C137" s="401"/>
-      <c r="D137" s="399" t="s">
+      <c r="C137" s="400"/>
+      <c r="D137" s="398" t="s">
         <v>454</v>
       </c>
-      <c r="E137" s="401"/>
+      <c r="E137" s="400"/>
       <c r="F137" s="28"/>
       <c r="G137" s="28"/>
     </row>
@@ -65693,13 +65694,13 @@
       <c r="G163" s="28"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="398" t="s">
+      <c r="A165" s="401" t="s">
         <v>183</v>
       </c>
-      <c r="B165" s="398"/>
-      <c r="C165" s="398"/>
-      <c r="D165" s="398"/>
-      <c r="E165" s="398"/>
+      <c r="B165" s="401"/>
+      <c r="C165" s="401"/>
+      <c r="D165" s="401"/>
+      <c r="E165" s="401"/>
     </row>
     <row r="166" spans="1:7" ht="14.65" thickBot="1">
       <c r="A166" s="23" t="s">
@@ -65722,10 +65723,10 @@
       <c r="B168" s="46"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="398" t="s">
+      <c r="A169" s="401" t="s">
         <v>443</v>
       </c>
-      <c r="B169" s="398"/>
+      <c r="B169" s="401"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="23" t="s">
@@ -65757,13 +65758,13 @@
       <c r="B173" s="46"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="398" t="s">
+      <c r="A174" s="401" t="s">
         <v>192</v>
       </c>
-      <c r="B174" s="398"/>
-      <c r="C174" s="398"/>
-      <c r="D174" s="398"/>
-      <c r="E174" s="398"/>
+      <c r="B174" s="401"/>
+      <c r="C174" s="401"/>
+      <c r="D174" s="401"/>
+      <c r="E174" s="401"/>
     </row>
     <row r="175" spans="1:7" ht="14.65" thickBot="1">
       <c r="A175" s="23" t="s">
@@ -65783,13 +65784,13 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="398" t="s">
+      <c r="A178" s="401" t="s">
         <v>186</v>
       </c>
-      <c r="B178" s="398"/>
-      <c r="C178" s="398"/>
-      <c r="D178" s="398"/>
-      <c r="E178" s="398"/>
+      <c r="B178" s="401"/>
+      <c r="C178" s="401"/>
+      <c r="D178" s="401"/>
+      <c r="E178" s="401"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="25" t="s">
@@ -65817,13 +65818,13 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="398" t="s">
+      <c r="A183" s="401" t="s">
         <v>188</v>
       </c>
-      <c r="B183" s="398"/>
-      <c r="C183" s="398"/>
-      <c r="D183" s="398"/>
-      <c r="E183" s="398"/>
+      <c r="B183" s="401"/>
+      <c r="C183" s="401"/>
+      <c r="D183" s="401"/>
+      <c r="E183" s="401"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="23" t="s">
@@ -65878,13 +65879,13 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="398" t="s">
+      <c r="A191" s="401" t="s">
         <v>202</v>
       </c>
-      <c r="B191" s="398"/>
-      <c r="C191" s="398"/>
-      <c r="D191" s="398"/>
-      <c r="E191" s="398"/>
+      <c r="B191" s="401"/>
+      <c r="C191" s="401"/>
+      <c r="D191" s="401"/>
+      <c r="E191" s="401"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="21" t="s">
@@ -65944,6 +65945,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -65958,12 +65965,6 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PolicyLevers!$A$1:$T$571</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -5472,9 +5472,6 @@
     <t>**Description:** This policy represents regulations that cause more demand response (DR) capacity to be added to the electric grid.  Demand response provides flexibility that allows for the integration of more wind and solar PV, if the electricity system is flexibility-constrained. // **Guidance for setting values:** A 100% setting provides for an additional 77 GW of demand response capacity in 2050 (on top of a BAU quantity of 7 GW).</t>
   </si>
   <si>
-    <t>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** India has 191 GW of coal capacity in the model start year, 40 GW of which is projected to retire by 2027 in the BAU case as per Central Electricity Authority (CEA's) National Electricity Plan. An additional retirement setting of 7,000 MW/year would retire all of the pre-existing coal capacity by 2033.</t>
-  </si>
-  <si>
     <t>**Description:** This policy causes the specified quantity of otherwise non-retiring nuclear capacity to be retired each year. // **Guidance for setting values:** India has about 6.8 GW of nuclear plant capacity, none of which is projected to retire by 2050 in the BAU case. A setting of 300 MW/year of accelerated retirements would retire all the nuclear capacity by 2041.</t>
   </si>
   <si>
@@ -7483,11 +7480,14 @@
     <t>**Description:** This policy expands the definitions for qualifying carbon-free sources for the carbon-free electricity standard to be wind, solar, geothermal, and municipal solid waste.  **Guidance for setting values:** The BAU case assumes wind, solar, and biomass qualify for the carbon-free electricity standard.</t>
   </si>
   <si>
-    <t xml:space="preserve">Description:** This policy specifies an increase in the fraction of electricity generation that must come from qualifying carbon-free sources. By default, it includes wind, solar, and biomass. However, the definition can be expanded to include geothermal and municipal solid waste with the  This policy has no effect until the user-set value exceeds the existing fraction of carbon-free electricity and any carbon-free electricity standards which have been enacted at the state level. // **Guidance for setting values:** India's Renewable Purchase Obligations (RPOs) in the BAU case are differentiated by solar and non-solar (excluding hydro). The Ministry of Power has recently notified the growth trajectory of solar- and non-solar RPOs for all states to reach a total RPO target of 21% by 2022, which is held constant thereafter till 2050 in the BAU case. Non-solar BAU RPOs include wind and biomass. 
-In the non-BAU case, the lever setting is a total RPO target that includes generation from wind, solar, geothermal, and Municipal Solid Waste (MSW) sources. Geothermal and MSW are included as they may be feasible for a more ambitious Renewable Energy (RE) scenario with a delayed start. Biomass is excluded because it has issues such as adverse impacts on local air quality, competing land use, and feedstock availability challenges. Nuclear is excluded because of the need to manage radioactive waste, and hydro is not included due to potential state-level challenges in implementing additional capacity. For the non-BAU case, users need to turn on the 'Non BAU RPS Qualifying Resource Definitions' lever. When setting a high target with this lever, users should also turn on supporting power sector policies (i.e., Grid-Scale Electricity Storage, Increase Transmission, and Demand Response) to avoid curtailment of renewables. </t>
-  </si>
-  <si>
     <t>Expand Carbon-free Electricity Standard Qualifying Definitions</t>
+  </si>
+  <si>
+    <t>**Description:** This policy specifies an increase in the fraction of electricity generation that must come from qualifying carbon-free sources (wind, solar, and biomass) in 2050.  This policy has no effect until the user-set value exceeds the existing fraction of carbon-free electricity and any carbon-free electricity standards which have been enacted at the state level. // **Guidance for setting values:** India's Renewable Purchase Obligations (RPOs) are differentiated by solar and non-solar (wind and biomass). In the BAU case, the model assumes the solar- and non-solar RPOs for all states to reach a total RPO target of 17.5% by 2020, 19% by 2021, and 21% by 2022 as per the growth trajectory notified by the Ministry of Power. It is held constant thereafter till 2050. 
+If the policy "Expand Carbon-free Electricity Standard Qualifying Definitions" is also enabled, the lever setting is a total RPO target that includes generation from wind, solar, geothermal, and Municipal Solid Waste (MSW) sources. Geothermal and MSW are included as they may be feasible for a more ambitious Renewable Energy (RE) scenario with a delayed start. Biomass is excluded because it has issues such as adverse impacts on local air quality, competing land use, and feedstock availability challenges. Nuclear is excluded because of the need to manage radioactive waste, and hydro is not included due to potential state-level challenges in implementing additional capacity. When setting a high target with the CES lever, users should also turn on supporting power sector policies (i.e., Grid-Scale Electricity Storage, Increase Transmission, and Demand Response) to avoid curtailment of renewables.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** India had 191 GW of coal capacity in 2018, about 43 GW of which is projected to retire by 2027 in the BAU case as per Central Electricity Authority (CEA's) National Electricity Plan. This includes actual retirements till 2019. An additional retirement setting of 7,000 MW/year would retire all of the pre-existing coal capacity by 2032.</t>
   </si>
 </sst>
 </file>
@@ -8555,7 +8555,7 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="408">
+  <cellXfs count="409">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9604,33 +9604,6 @@
     <xf numFmtId="49" fontId="2" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -9644,6 +9617,36 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10847,7 +10850,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="50" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B16" s="176"/>
     </row>
@@ -10862,7 +10865,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="390" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B18" s="118" t="str">
         <f t="array" ref="B18">IF(MIN(IF(COUNTIF(PolicyLevers!$H$2:$H$1500,PolicyLevers!$H$2:$H$1500)&gt;1,PolicyLevers!$H$2:$H$1500, ""))=0,"No duplicate ID numbers",MIN(IF(COUNTIF(PolicyLevers!$H$2:$H$1500,PolicyLevers!$H$2:$H$1500)&gt;1,PolicyLevers!$H$2:$H$1500, "")))</f>
@@ -10871,7 +10874,7 @@
     </row>
     <row r="19" spans="1:6" ht="28.5">
       <c r="A19" s="391" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B19" s="118" t="str">
         <f>IF(MIN(IF((NOT(ISNUMBER(PolicyLevers!$H$2:$H$1500)))*(PolicyLevers!$I$2:$I$1500="Yes"),ROW(PolicyLevers!$H$2:$H$1500)))=0,"No missing ID numbers",MIN(IF((NOT(ISNUMBER(PolicyLevers!$H$2:$H$1500)))*(PolicyLevers!$I$2:$I$1500="Yes"),ROW(PolicyLevers!$H$2:$H$1500))))</f>
@@ -11026,9 +11029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T589"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B233" sqref="B233"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P198" sqref="P198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -11171,7 +11174,7 @@
         <v>821</v>
       </c>
       <c r="S2" s="71" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="T2" s="99"/>
     </row>
@@ -11242,7 +11245,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S3" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="3" customFormat="1" ht="57">
@@ -11312,7 +11315,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S4" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="3" customFormat="1" ht="57">
@@ -11382,7 +11385,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S5" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="3" customFormat="1" ht="57">
@@ -11452,7 +11455,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S6" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="3" customFormat="1" ht="28.5">
@@ -11582,7 +11585,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S8" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="3" customFormat="1" ht="57">
@@ -11652,7 +11655,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S9" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="3" customFormat="1" ht="28.5">
@@ -11806,7 +11809,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S12" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="3" customFormat="1" ht="57">
@@ -11876,7 +11879,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S13" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="3" customFormat="1" ht="57">
@@ -11946,7 +11949,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S14" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="3" customFormat="1" ht="57">
@@ -12016,7 +12019,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S15" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="3" customFormat="1" ht="57">
@@ -12086,7 +12089,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S16" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1" ht="28.5">
@@ -12216,7 +12219,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S18" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1" ht="57">
@@ -12286,7 +12289,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S19" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="3" customFormat="1" ht="28.5">
@@ -12440,7 +12443,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S22" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1" ht="28.5">
@@ -12552,7 +12555,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S24" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1" ht="28.5">
@@ -12916,7 +12919,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S32" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="33" spans="1:19" s="3" customFormat="1" ht="57">
@@ -12986,7 +12989,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S33" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="34" spans="1:19" s="3" customFormat="1" ht="57">
@@ -13056,7 +13059,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S34" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="35" spans="1:19" s="3" customFormat="1" ht="57">
@@ -13126,7 +13129,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S35" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="36" spans="1:19" s="3" customFormat="1" ht="57">
@@ -13196,7 +13199,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S36" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="37" spans="1:19" s="3" customFormat="1" ht="28.5">
@@ -13308,7 +13311,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S38" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="39" spans="1:19" s="3" customFormat="1" ht="57">
@@ -13378,7 +13381,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S39" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="40" spans="1:19" s="3" customFormat="1" ht="28.5">
@@ -13532,7 +13535,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S42" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="3" customFormat="1" ht="57">
@@ -13602,7 +13605,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S43" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="44" spans="1:19" s="3" customFormat="1" ht="57">
@@ -13672,7 +13675,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S44" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="45" spans="1:19" s="3" customFormat="1" ht="57">
@@ -13742,7 +13745,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S45" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="46" spans="1:19" s="3" customFormat="1" ht="57">
@@ -13812,7 +13815,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S46" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="47" spans="1:19" s="3" customFormat="1" ht="28.5">
@@ -13924,7 +13927,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S48" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="3" customFormat="1" ht="57">
@@ -13994,7 +13997,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S49" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="3" customFormat="1" ht="28.5">
@@ -14148,7 +14151,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S52" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="3" customFormat="1" ht="57">
@@ -14218,7 +14221,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S53" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="3" customFormat="1" ht="57">
@@ -14288,7 +14291,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S54" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="3" customFormat="1" ht="57">
@@ -14358,7 +14361,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S55" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="3" customFormat="1" ht="57">
@@ -14428,7 +14431,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S56" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="3" customFormat="1" ht="28.5">
@@ -14558,7 +14561,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S58" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="3" customFormat="1" ht="57">
@@ -14628,7 +14631,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
       <c r="S59" s="108" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="3" customFormat="1" ht="28.5">
@@ -14750,13 +14753,13 @@
         <v>935</v>
       </c>
       <c r="P62" s="393" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="R62" s="153" t="s">
         <v>1235</v>
       </c>
       <c r="S62" s="71" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="T62" s="99"/>
     </row>
@@ -14806,7 +14809,7 @@
         <v>1236</v>
       </c>
       <c r="S63" s="75" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="T63" s="10"/>
     </row>
@@ -14866,7 +14869,7 @@
         <v>523</v>
       </c>
       <c r="S64" s="184" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="T64" s="10"/>
     </row>
@@ -15515,7 +15518,7 @@
         <v>ev-mandate.html</v>
       </c>
       <c r="S74" s="186" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="T74" s="10"/>
     </row>
@@ -15622,7 +15625,7 @@
         <v>516</v>
       </c>
       <c r="S76" s="75" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="T76" s="10"/>
     </row>
@@ -15687,7 +15690,7 @@
       <c r="Q77" s="79"/>
       <c r="R77" s="157"/>
       <c r="S77" s="75" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="T77" s="96"/>
     </row>
@@ -15752,7 +15755,7 @@
       <c r="Q78" s="79"/>
       <c r="R78" s="157"/>
       <c r="S78" s="75" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="T78" s="96"/>
     </row>
@@ -16146,7 +16149,7 @@
       <c r="Q86" s="79"/>
       <c r="R86" s="157"/>
       <c r="S86" s="75" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="T86" s="96"/>
     </row>
@@ -16211,7 +16214,7 @@
       <c r="Q87" s="79"/>
       <c r="R87" s="157"/>
       <c r="S87" s="75" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="T87" s="96"/>
     </row>
@@ -16325,7 +16328,7 @@
         <v>211</v>
       </c>
       <c r="S89" s="187" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="T89" s="181" t="s">
         <v>411</v>
@@ -16387,7 +16390,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P90" s="177" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="Q90" s="76" t="str">
         <f t="shared" si="23"/>
@@ -16398,7 +16401,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S90" s="187" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="T90" s="181" t="s">
         <v>411</v>
@@ -16470,7 +16473,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S91" s="187" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="T91" s="181" t="s">
         <v>422</v>
@@ -16543,7 +16546,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S92" s="187" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="T92" s="181" t="s">
         <v>422</v>
@@ -16615,7 +16618,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S93" s="181" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="T93" s="181" t="s">
         <v>190</v>
@@ -16688,7 +16691,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S94" s="181" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="T94" s="106" t="str">
         <f>T$93</f>
@@ -16761,7 +16764,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S95" s="181" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="T95" s="55" t="s">
         <v>191</v>
@@ -16823,7 +16826,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P96" s="177" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="Q96" s="76" t="str">
         <f t="shared" si="23"/>
@@ -16834,7 +16837,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S96" s="181" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="T96" s="106" t="str">
         <f>T$95</f>
@@ -16907,7 +16910,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S97" s="181" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="T97" s="55" t="s">
         <v>190</v>
@@ -16980,7 +16983,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S98" s="181" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="T98" s="106" t="str">
         <f>T$97</f>
@@ -17053,7 +17056,7 @@
         <v>fuel-economy-standard.html</v>
       </c>
       <c r="S99" s="181" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="T99" s="55" t="s">
         <v>440</v>
@@ -17162,7 +17165,7 @@
         <v>1237</v>
       </c>
       <c r="S101" s="188" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="T101" s="10"/>
     </row>
@@ -17230,7 +17233,7 @@
         <v>hydrogen-vehicle-mandate.html</v>
       </c>
       <c r="S102" s="55" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="T102" s="55"/>
     </row>
@@ -17298,7 +17301,7 @@
         <v>hydrogen-vehicle-mandate.html</v>
       </c>
       <c r="S103" s="55" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="T103" s="55"/>
     </row>
@@ -17366,7 +17369,7 @@
         <v>hydrogen-vehicle-mandate.html</v>
       </c>
       <c r="S104" s="55" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="T104" s="55"/>
     </row>
@@ -17840,7 +17843,7 @@
       <c r="Q112" s="57"/>
       <c r="R112" s="159"/>
       <c r="S112" s="55" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="T112" s="55"/>
     </row>
@@ -17892,7 +17895,7 @@
         <v>529</v>
       </c>
       <c r="S113" s="10" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="T113" s="10"/>
     </row>
@@ -18076,7 +18079,7 @@
         <v>215</v>
       </c>
       <c r="S116" s="10" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T116" s="55"/>
     </row>
@@ -18123,7 +18126,7 @@
       <c r="Q117" s="60"/>
       <c r="R117" s="160"/>
       <c r="S117" s="57" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T117" s="60"/>
     </row>
@@ -18170,7 +18173,7 @@
       <c r="Q118" s="60"/>
       <c r="R118" s="160"/>
       <c r="S118" s="57" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T118" s="60"/>
     </row>
@@ -18241,7 +18244,7 @@
         <v>building-component-electrification.html</v>
       </c>
       <c r="S119" s="57" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T119" s="60"/>
     </row>
@@ -18312,7 +18315,7 @@
         <v>building-component-electrification.html</v>
       </c>
       <c r="S120" s="57" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T120" s="60"/>
     </row>
@@ -18383,7 +18386,7 @@
         <v>building-component-electrification.html</v>
       </c>
       <c r="S121" s="57" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T121" s="60"/>
     </row>
@@ -18430,7 +18433,7 @@
       <c r="Q122" s="60"/>
       <c r="R122" s="160"/>
       <c r="S122" s="57" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T122" s="60"/>
     </row>
@@ -18489,7 +18492,7 @@
       <c r="Q123" s="60"/>
       <c r="R123" s="160"/>
       <c r="S123" s="57" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T123" s="60"/>
     </row>
@@ -18560,7 +18563,7 @@
         <v>building-component-electrification.html</v>
       </c>
       <c r="S124" s="57" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T124" s="60"/>
     </row>
@@ -18631,7 +18634,7 @@
         <v>building-component-electrification.html</v>
       </c>
       <c r="S125" s="57" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T125" s="60"/>
     </row>
@@ -18702,7 +18705,7 @@
         <v>building-component-electrification.html</v>
       </c>
       <c r="S126" s="57" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T126" s="60"/>
     </row>
@@ -18749,7 +18752,7 @@
       <c r="Q127" s="60"/>
       <c r="R127" s="160"/>
       <c r="S127" s="57" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T127" s="60"/>
     </row>
@@ -18808,7 +18811,7 @@
       <c r="Q128" s="60"/>
       <c r="R128" s="160"/>
       <c r="S128" s="57" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T128" s="60"/>
     </row>
@@ -18879,7 +18882,7 @@
         <v>building-component-electrification.html</v>
       </c>
       <c r="S129" s="57" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T129" s="60"/>
     </row>
@@ -18950,7 +18953,7 @@
         <v>building-component-electrification.html</v>
       </c>
       <c r="S130" s="57" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="T130" s="60"/>
     </row>
@@ -19010,7 +19013,7 @@
         <v>217</v>
       </c>
       <c r="S131" s="184" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="T131" s="55" t="s">
         <v>478</v>
@@ -19082,7 +19085,7 @@
         <v>building-energy-efficiency-standards.html</v>
       </c>
       <c r="S132" s="189" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="T132" s="57" t="str">
         <f>T131</f>
@@ -20019,10 +20022,10 @@
         <v>building-energy-efficiency-standards.html</v>
       </c>
       <c r="S144" s="57" t="s">
+        <v>1639</v>
+      </c>
+      <c r="T144" s="57" t="s">
         <v>1640</v>
-      </c>
-      <c r="T144" s="57" t="s">
-        <v>1641</v>
       </c>
     </row>
     <row r="145" spans="1:20" s="5" customFormat="1" ht="85.5">
@@ -20091,10 +20094,10 @@
         <v>building-energy-efficiency-standards.html</v>
       </c>
       <c r="S145" s="57" t="s">
+        <v>1639</v>
+      </c>
+      <c r="T145" s="57" t="s">
         <v>1640</v>
-      </c>
-      <c r="T145" s="57" t="s">
-        <v>1641</v>
       </c>
     </row>
     <row r="146" spans="1:20" s="5" customFormat="1" ht="85.5">
@@ -20163,10 +20166,10 @@
         <v>building-energy-efficiency-standards.html</v>
       </c>
       <c r="S146" s="57" t="s">
+        <v>1639</v>
+      </c>
+      <c r="T146" s="57" t="s">
         <v>1640</v>
-      </c>
-      <c r="T146" s="57" t="s">
-        <v>1641</v>
       </c>
     </row>
     <row r="147" spans="1:20" s="5" customFormat="1" ht="85.5">
@@ -20235,10 +20238,10 @@
         <v>building-energy-efficiency-standards.html</v>
       </c>
       <c r="S147" s="57" t="s">
+        <v>1639</v>
+      </c>
+      <c r="T147" s="57" t="s">
         <v>1640</v>
-      </c>
-      <c r="T147" s="57" t="s">
-        <v>1641</v>
       </c>
     </row>
     <row r="148" spans="1:20" s="5" customFormat="1" ht="85.5">
@@ -20307,10 +20310,10 @@
         <v>building-energy-efficiency-standards.html</v>
       </c>
       <c r="S148" s="57" t="s">
+        <v>1639</v>
+      </c>
+      <c r="T148" s="57" t="s">
         <v>1640</v>
-      </c>
-      <c r="T148" s="57" t="s">
-        <v>1641</v>
       </c>
     </row>
     <row r="149" spans="1:20" s="5" customFormat="1" ht="57">
@@ -20413,7 +20416,7 @@
         <v>289</v>
       </c>
       <c r="S150" s="10" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="T150" s="10"/>
     </row>
@@ -20465,7 +20468,7 @@
         <v>292</v>
       </c>
       <c r="S151" s="10" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="T151" s="57"/>
     </row>
@@ -20517,7 +20520,7 @@
         <v>221</v>
       </c>
       <c r="S152" s="10" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="T152" s="57"/>
     </row>
@@ -20573,7 +20576,7 @@
         <v>223</v>
       </c>
       <c r="S153" s="10" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="T153" s="10"/>
     </row>
@@ -21809,7 +21812,7 @@
       <c r="S177" s="57"/>
       <c r="T177" s="57"/>
     </row>
-    <row r="178" spans="1:20" s="5" customFormat="1" ht="213.75">
+    <row r="178" spans="1:20" s="5" customFormat="1" ht="199.5">
       <c r="A178" s="96" t="s">
         <v>8</v>
       </c>
@@ -21847,7 +21850,7 @@
       <c r="O178" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="P178" s="183" t="s">
+      <c r="P178" s="408" t="s">
         <v>1962</v>
       </c>
       <c r="Q178" s="55" t="s">
@@ -21857,7 +21860,7 @@
         <v>925</v>
       </c>
       <c r="S178" s="10" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="T178" s="55"/>
     </row>
@@ -21909,7 +21912,7 @@
         <v>303</v>
       </c>
       <c r="S179" s="10" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="T179" s="10"/>
     </row>
@@ -21965,7 +21968,7 @@
         <v>303</v>
       </c>
       <c r="S180" s="10" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="T180" s="10"/>
     </row>
@@ -23063,7 +23066,7 @@
         <v>227</v>
       </c>
       <c r="S197" s="55" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="T197" s="55"/>
     </row>
@@ -23109,8 +23112,8 @@
       <c r="O198" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="P198" s="179" t="s">
-        <v>1555</v>
+      <c r="P198" s="183" t="s">
+        <v>1963</v>
       </c>
       <c r="Q198" s="55" t="s">
         <v>228</v>
@@ -23119,7 +23122,7 @@
         <v>229</v>
       </c>
       <c r="S198" s="55" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="T198" s="55"/>
     </row>
@@ -23220,7 +23223,7 @@
         <v>MW/year</v>
       </c>
       <c r="P200" s="179" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="Q200" s="55" t="s">
         <v>228</v>
@@ -23229,7 +23232,7 @@
         <v>229</v>
       </c>
       <c r="S200" s="55" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="T200" s="55"/>
     </row>
@@ -23841,7 +23844,7 @@
         <v>34</v>
       </c>
       <c r="P214" s="179" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="Q214" s="55" t="s">
         <v>230</v>
@@ -23850,7 +23853,7 @@
         <v>231</v>
       </c>
       <c r="S214" s="55" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="T214" s="55"/>
     </row>
@@ -23893,7 +23896,7 @@
         <v>144</v>
       </c>
       <c r="P215" s="179" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="Q215" s="55" t="s">
         <v>232</v>
@@ -23902,7 +23905,7 @@
         <v>233</v>
       </c>
       <c r="S215" s="55" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="T215" s="55"/>
     </row>
@@ -24544,12 +24547,12 @@
       <c r="S231" s="57"/>
       <c r="T231" s="57"/>
     </row>
-    <row r="232" spans="1:20" s="407" customFormat="1" ht="42.75">
+    <row r="232" spans="1:20" s="398" customFormat="1" ht="42.75">
       <c r="A232" s="382" t="s">
         <v>8</v>
       </c>
       <c r="B232" s="382" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="C232" s="382" t="s">
         <v>406</v>
@@ -24558,7 +24561,7 @@
       <c r="E232" s="179"/>
       <c r="F232" s="179"/>
       <c r="G232" s="179"/>
-      <c r="H232" s="403">
+      <c r="H232" s="394">
         <v>556</v>
       </c>
       <c r="I232" s="179" t="s">
@@ -24570,25 +24573,25 @@
       <c r="K232" s="382" t="s">
         <v>622</v>
       </c>
-      <c r="L232" s="404">
+      <c r="L232" s="395">
         <v>0</v>
       </c>
-      <c r="M232" s="404">
+      <c r="M232" s="395">
         <v>1</v>
       </c>
-      <c r="N232" s="404">
+      <c r="N232" s="395">
         <v>1</v>
       </c>
       <c r="O232" s="179" t="s">
         <v>33</v>
       </c>
       <c r="P232" s="183" t="s">
-        <v>1961</v>
-      </c>
-      <c r="Q232" s="405"/>
-      <c r="R232" s="406"/>
-      <c r="S232" s="405"/>
-      <c r="T232" s="405"/>
+        <v>1960</v>
+      </c>
+      <c r="Q232" s="396"/>
+      <c r="R232" s="397"/>
+      <c r="S232" s="396"/>
+      <c r="T232" s="396"/>
     </row>
     <row r="233" spans="1:20" s="5" customFormat="1" ht="85.5">
       <c r="A233" s="96" t="s">
@@ -24627,7 +24630,7 @@
         <v>141</v>
       </c>
       <c r="P233" s="181" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="Q233" s="55" t="s">
         <v>234</v>
@@ -24818,7 +24821,7 @@
         <v>282</v>
       </c>
       <c r="P237" s="179" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="Q237" s="10" t="s">
         <v>571</v>
@@ -25313,7 +25316,7 @@
         <v>282</v>
       </c>
       <c r="P248" s="179" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="Q248" s="10" t="s">
         <v>571</v>
@@ -26260,7 +26263,7 @@
         <v>282</v>
       </c>
       <c r="P269" s="179" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="Q269" s="10" t="s">
         <v>571</v>
@@ -26873,7 +26876,7 @@
         <v>275</v>
       </c>
       <c r="P282" s="179" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="Q282" s="10" t="s">
         <v>572</v>
@@ -26882,7 +26885,7 @@
         <v>276</v>
       </c>
       <c r="S282" s="10" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="T282" s="10"/>
     </row>
@@ -27166,7 +27169,7 @@
         <v>% of construction cost</v>
       </c>
       <c r="P287" s="179" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="Q287" s="89" t="str">
         <f t="shared" si="94"/>
@@ -27174,7 +27177,7 @@
       </c>
       <c r="R287" s="158"/>
       <c r="S287" s="150" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="T287" s="10"/>
     </row>
@@ -27230,7 +27233,7 @@
         <v>% of construction cost</v>
       </c>
       <c r="P288" s="179" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="Q288" s="89" t="str">
         <f t="shared" si="94"/>
@@ -27238,7 +27241,7 @@
       </c>
       <c r="R288" s="158"/>
       <c r="S288" s="150" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="T288" s="10"/>
     </row>
@@ -27294,7 +27297,7 @@
         <v>% of construction cost</v>
       </c>
       <c r="P289" s="55" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="Q289" s="89" t="str">
         <f t="shared" si="94"/>
@@ -27302,7 +27305,7 @@
       </c>
       <c r="R289" s="158"/>
       <c r="S289" s="150" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="T289" s="10"/>
     </row>
@@ -27358,7 +27361,7 @@
         <v>% of construction cost</v>
       </c>
       <c r="P290" s="179" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="Q290" s="89" t="str">
         <f t="shared" si="94"/>
@@ -27366,7 +27369,7 @@
       </c>
       <c r="R290" s="158"/>
       <c r="S290" s="150" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="T290" s="10"/>
     </row>
@@ -27480,7 +27483,7 @@
         <v>% of construction cost</v>
       </c>
       <c r="P292" s="179" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="Q292" s="89" t="str">
         <f t="shared" si="94"/>
@@ -27488,7 +27491,7 @@
       </c>
       <c r="R292" s="158"/>
       <c r="S292" s="150" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="T292" s="10"/>
     </row>
@@ -27800,7 +27803,7 @@
         <v>2018 INR / MWh</v>
       </c>
       <c r="P298" s="179" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="Q298" s="55" t="s">
         <v>235</v>
@@ -27809,7 +27812,7 @@
         <v>236</v>
       </c>
       <c r="S298" s="187" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="T298" s="55"/>
     </row>
@@ -27908,7 +27911,7 @@
         <v>2018 INR / MWh</v>
       </c>
       <c r="P300" s="179" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="Q300" s="55" t="s">
         <v>235</v>
@@ -27975,7 +27978,7 @@
         <v>2018 INR / MWh</v>
       </c>
       <c r="P301" s="179" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="Q301" s="55" t="s">
         <v>235</v>
@@ -28042,7 +28045,7 @@
         <v>2018 INR / MWh</v>
       </c>
       <c r="P302" s="179" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="Q302" s="55" t="s">
         <v>235</v>
@@ -28109,7 +28112,7 @@
         <v>2018 INR / MWh</v>
       </c>
       <c r="P303" s="179" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="Q303" s="55" t="s">
         <v>235</v>
@@ -28219,7 +28222,7 @@
         <v>2018 INR / MWh</v>
       </c>
       <c r="P305" s="179" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="Q305" s="55" t="s">
         <v>235</v>
@@ -28402,7 +28405,7 @@
         <v>38</v>
       </c>
       <c r="P309" s="179" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="Q309" s="55" t="s">
         <v>237</v>
@@ -28411,7 +28414,7 @@
         <v>238</v>
       </c>
       <c r="S309" s="181" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="T309" s="55"/>
     </row>
@@ -28454,7 +28457,7 @@
         <v>38</v>
       </c>
       <c r="P310" s="179" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="Q310" s="55" t="s">
         <v>239</v>
@@ -28463,7 +28466,7 @@
         <v>240</v>
       </c>
       <c r="S310" s="55" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="T310" s="57"/>
     </row>
@@ -28515,7 +28518,7 @@
         <v>242</v>
       </c>
       <c r="S311" s="55" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="T311" s="57"/>
     </row>
@@ -28562,7 +28565,7 @@
         <v>35</v>
       </c>
       <c r="P312" s="179" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="Q312" s="55" t="s">
         <v>243</v>
@@ -28571,7 +28574,7 @@
         <v>244</v>
       </c>
       <c r="S312" s="190" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="T312" s="10" t="s">
         <v>584</v>
@@ -28629,7 +28632,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P313" s="179" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="Q313" s="55" t="s">
         <v>243</v>
@@ -28695,7 +28698,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P314" s="179" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="Q314" s="55" t="s">
         <v>243</v>
@@ -28761,7 +28764,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P315" s="179" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="Q315" s="55" t="s">
         <v>243</v>
@@ -28827,7 +28830,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P316" s="179" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="Q316" s="55" t="s">
         <v>243</v>
@@ -28893,7 +28896,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P317" s="179" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="Q317" s="55" t="s">
         <v>243</v>
@@ -28958,7 +28961,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P318" s="179" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="Q318" s="55" t="s">
         <v>243</v>
@@ -28967,7 +28970,7 @@
         <v>244</v>
       </c>
       <c r="S318" s="57" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="T318" s="57" t="str">
         <f t="shared" si="105"/>
@@ -29026,7 +29029,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P319" s="179" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="Q319" s="55" t="s">
         <v>243</v>
@@ -29079,7 +29082,7 @@
         <v>38</v>
       </c>
       <c r="P320" s="55" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="Q320" s="55" t="s">
         <v>245</v>
@@ -29088,7 +29091,7 @@
         <v>246</v>
       </c>
       <c r="S320" s="55" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="T320" s="57"/>
     </row>
@@ -34546,7 +34549,7 @@
         <v>38</v>
       </c>
       <c r="P401" s="182" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="Q401" s="10" t="s">
         <v>587</v>
@@ -34555,7 +34558,7 @@
         <v>588</v>
       </c>
       <c r="S401" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="T401" s="10"/>
     </row>
@@ -34598,7 +34601,7 @@
         <v>38</v>
       </c>
       <c r="P402" s="182" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="Q402" s="10" t="s">
         <v>587</v>
@@ -34607,7 +34610,7 @@
         <v>588</v>
       </c>
       <c r="S402" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="T402" s="10"/>
     </row>
@@ -34650,7 +34653,7 @@
         <v>38</v>
       </c>
       <c r="P403" s="182" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="Q403" s="10" t="s">
         <v>587</v>
@@ -34659,7 +34662,7 @@
         <v>588</v>
       </c>
       <c r="S403" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="T403" s="10"/>
     </row>
@@ -34702,7 +34705,7 @@
         <v>38</v>
       </c>
       <c r="P404" s="182" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="Q404" s="10" t="s">
         <v>587</v>
@@ -34711,7 +34714,7 @@
         <v>588</v>
       </c>
       <c r="S404" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="T404" s="10"/>
     </row>
@@ -35065,7 +35068,7 @@
         <v>38</v>
       </c>
       <c r="P410" s="179" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="Q410" s="55" t="s">
         <v>248</v>
@@ -35074,7 +35077,7 @@
         <v>249</v>
       </c>
       <c r="S410" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="T410" s="55"/>
     </row>
@@ -35130,7 +35133,7 @@
         <v>% of potential achieved</v>
       </c>
       <c r="P411" s="179" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="Q411" s="76" t="str">
         <f t="shared" si="123"/>
@@ -35198,7 +35201,7 @@
         <v>% of potential achieved</v>
       </c>
       <c r="P412" s="179" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="Q412" s="76" t="str">
         <f t="shared" si="123"/>
@@ -35257,7 +35260,7 @@
         <v>38</v>
       </c>
       <c r="P413" s="179" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="Q413" s="55" t="s">
         <v>250</v>
@@ -35323,7 +35326,7 @@
         <v>% of potential achieved</v>
       </c>
       <c r="P414" s="179" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="Q414" s="76" t="str">
         <f t="shared" si="126"/>
@@ -35391,7 +35394,7 @@
         <v>% of potential achieved</v>
       </c>
       <c r="P415" s="179" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="Q415" s="76" t="str">
         <f t="shared" si="126"/>
@@ -35450,14 +35453,14 @@
         <v>976</v>
       </c>
       <c r="P416" s="179" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="Q416" s="55"/>
       <c r="R416" s="158" t="s">
         <v>1240</v>
       </c>
       <c r="S416" s="55" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="T416" s="55"/>
     </row>
@@ -35576,7 +35579,7 @@
         <v>% reduction in exports</v>
       </c>
       <c r="P418" s="179" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="Q418" s="55"/>
       <c r="R418" s="149" t="str">
@@ -35641,7 +35644,7 @@
         <v>% reduction in exports</v>
       </c>
       <c r="P419" s="179" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="Q419" s="55"/>
       <c r="R419" s="149" t="str">
@@ -35706,7 +35709,7 @@
         <v>% reduction in exports</v>
       </c>
       <c r="P420" s="179" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="Q420" s="55"/>
       <c r="R420" s="149" t="str">
@@ -35876,7 +35879,7 @@
         <v>% reduction in exports</v>
       </c>
       <c r="P423" s="179" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="Q423" s="55"/>
       <c r="R423" s="149" t="str">
@@ -35941,7 +35944,7 @@
         <v>% reduction in exports</v>
       </c>
       <c r="P424" s="179" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="Q424" s="55"/>
       <c r="R424" s="149" t="str">
@@ -35993,7 +35996,7 @@
         <v>38</v>
       </c>
       <c r="P425" s="179" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="Q425" s="55" t="s">
         <v>252</v>
@@ -36002,7 +36005,7 @@
         <v>253</v>
       </c>
       <c r="S425" s="55" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="T425" s="181" t="s">
         <v>203</v>
@@ -36047,7 +36050,7 @@
         <v>38</v>
       </c>
       <c r="P426" s="183" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="Q426" s="55" t="s">
         <v>347</v>
@@ -36056,7 +36059,7 @@
         <v>348</v>
       </c>
       <c r="S426" s="55" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="T426" s="55"/>
     </row>
@@ -36099,14 +36102,14 @@
         <v>38</v>
       </c>
       <c r="P427" s="183" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="Q427" s="55"/>
       <c r="R427" s="158" t="s">
         <v>1246</v>
       </c>
       <c r="S427" s="55" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="T427" s="55"/>
     </row>
@@ -36158,7 +36161,7 @@
         <v>255</v>
       </c>
       <c r="S428" s="55" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="T428" s="55"/>
     </row>
@@ -36201,7 +36204,7 @@
         <v>38</v>
       </c>
       <c r="P429" s="179" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="Q429" s="55" t="s">
         <v>256</v>
@@ -36210,7 +36213,7 @@
         <v>257</v>
       </c>
       <c r="S429" s="55" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="T429" s="55"/>
     </row>
@@ -36253,7 +36256,7 @@
         <v>38</v>
       </c>
       <c r="P430" s="179" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="Q430" s="55" t="s">
         <v>258</v>
@@ -36262,7 +36265,7 @@
         <v>259</v>
       </c>
       <c r="S430" s="55" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="T430" s="55"/>
     </row>
@@ -36305,7 +36308,7 @@
         <v>38</v>
       </c>
       <c r="P431" s="179" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="Q431" s="55" t="s">
         <v>260</v>
@@ -36314,7 +36317,7 @@
         <v>261</v>
       </c>
       <c r="S431" s="55" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="T431" s="55"/>
     </row>
@@ -36445,7 +36448,7 @@
         <v>64</v>
       </c>
       <c r="P434" s="10" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="Q434" s="10" t="s">
         <v>266</v>
@@ -36495,7 +36498,7 @@
         <v>1303</v>
       </c>
       <c r="P435" s="10" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="Q435" s="10" t="s">
         <v>391</v>
@@ -36545,14 +36548,14 @@
         <v>965</v>
       </c>
       <c r="P436" s="182" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="Q436" s="10"/>
       <c r="R436" s="158" t="s">
         <v>1244</v>
       </c>
       <c r="S436" s="55" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="T436" s="10"/>
     </row>
@@ -36599,7 +36602,7 @@
         <v>1412</v>
       </c>
       <c r="P437" s="179" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="Q437" s="55" t="s">
         <v>262</v>
@@ -36608,7 +36611,7 @@
         <v>263</v>
       </c>
       <c r="S437" s="181" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="T437" s="55"/>
     </row>
@@ -36664,7 +36667,7 @@
         <v>% of CO2 captured</v>
       </c>
       <c r="P438" s="179" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="Q438" s="57" t="str">
         <f>Q$437</f>
@@ -36675,7 +36678,7 @@
         <v>carbon-capture-and-sequestration.html</v>
       </c>
       <c r="S438" s="181" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="T438" s="55"/>
     </row>
@@ -36723,7 +36726,7 @@
         <v>2018 INR / metric ton CO2e</v>
       </c>
       <c r="P439" s="179" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="Q439" s="55" t="s">
         <v>264</v>
@@ -36732,7 +36735,7 @@
         <v>265</v>
       </c>
       <c r="S439" s="10" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="T439" s="10"/>
     </row>
@@ -36788,7 +36791,7 @@
         <v>2018 INR / metric ton CO2e</v>
       </c>
       <c r="P440" s="179" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="Q440" s="57" t="str">
         <f t="shared" ref="Q440:R443" si="144">Q$439</f>
@@ -36799,7 +36802,7 @@
         <v>carbon-tax.html</v>
       </c>
       <c r="S440" s="57" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="T440" s="57"/>
     </row>
@@ -36855,7 +36858,7 @@
         <v>2018 INR / metric ton CO2e</v>
       </c>
       <c r="P441" s="179" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Q441" s="57" t="str">
         <f t="shared" si="144"/>
@@ -36866,7 +36869,7 @@
         <v>carbon-tax.html</v>
       </c>
       <c r="S441" s="57" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="T441" s="57"/>
     </row>
@@ -36922,7 +36925,7 @@
         <v>2018 INR / metric ton CO2e</v>
       </c>
       <c r="P442" s="179" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="Q442" s="57" t="str">
         <f t="shared" si="144"/>
@@ -36933,7 +36936,7 @@
         <v>carbon-tax.html</v>
       </c>
       <c r="S442" s="57" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="T442" s="57"/>
     </row>
@@ -36989,7 +36992,7 @@
         <v>2018 INR / metric ton CO2e</v>
       </c>
       <c r="P443" s="179" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="Q443" s="57" t="str">
         <f t="shared" si="144"/>
@@ -37000,7 +37003,7 @@
         <v>carbon-tax.html</v>
       </c>
       <c r="S443" s="57" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="T443" s="57"/>
     </row>
@@ -37138,7 +37141,7 @@
         <v>265</v>
       </c>
       <c r="S446" s="57" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="T446" s="10"/>
     </row>
@@ -37290,7 +37293,7 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="P449" s="182" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="Q449" s="10" t="s">
         <v>268</v>
@@ -37299,7 +37302,7 @@
         <v>269</v>
       </c>
       <c r="S449" s="55" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="T449" s="57"/>
     </row>
@@ -38057,12 +38060,12 @@
         <v>163</v>
       </c>
       <c r="P465" s="182" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="Q465" s="57"/>
       <c r="R465" s="158"/>
       <c r="S465" s="76" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="T465" s="57"/>
     </row>
@@ -38999,7 +39002,7 @@
         <v>164</v>
       </c>
       <c r="P487" s="179" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="Q487" s="10" t="s">
         <v>270</v>
@@ -39008,7 +39011,7 @@
         <v>271</v>
       </c>
       <c r="S487" s="55" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="T487" s="57"/>
     </row>
@@ -39064,7 +39067,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P488" s="179" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="Q488" s="10" t="s">
         <v>270</v>
@@ -39130,7 +39133,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P489" s="179" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="Q489" s="10" t="s">
         <v>270</v>
@@ -39286,7 +39289,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P492" s="179" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="Q492" s="10" t="s">
         <v>270</v>
@@ -39352,7 +39355,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P493" s="179" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="Q493" s="10" t="s">
         <v>270</v>
@@ -39507,7 +39510,7 @@
         <v>164</v>
       </c>
       <c r="P496" s="179" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="Q496" s="10"/>
       <c r="R496" s="158"/>
@@ -39613,7 +39616,7 @@
         <v>164</v>
       </c>
       <c r="P498" s="179" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="Q498" s="55"/>
       <c r="R498" s="158"/>
@@ -39674,7 +39677,7 @@
         <v>164</v>
       </c>
       <c r="P499" s="179" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="Q499" s="55"/>
       <c r="R499" s="158"/>
@@ -39735,7 +39738,7 @@
         <v>164</v>
       </c>
       <c r="P500" s="179" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="Q500" s="55"/>
       <c r="R500" s="158"/>
@@ -39796,7 +39799,7 @@
         <v>164</v>
       </c>
       <c r="P501" s="179" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="Q501" s="55"/>
       <c r="R501" s="158"/>
@@ -44066,14 +44069,14 @@
         <v>1432</v>
       </c>
       <c r="P571" s="4" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="R571" s="162"/>
       <c r="S571" s="67" t="s">
+        <v>1670</v>
+      </c>
+      <c r="T571" s="2" t="s">
         <v>1671</v>
-      </c>
-      <c r="T571" s="2" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="572" spans="1:20">
@@ -44544,10 +44547,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="394" t="s">
+      <c r="A1" s="399" t="s">
         <v>1413</v>
       </c>
-      <c r="B1" s="394"/>
+      <c r="B1" s="399"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="166" t="s">
@@ -44571,7 +44574,7 @@
         <v>1423</v>
       </c>
       <c r="B4" s="192" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -44588,7 +44591,7 @@
         <v>1424</v>
       </c>
       <c r="B6" s="192" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -44596,7 +44599,7 @@
         <v>826</v>
       </c>
       <c r="B7" s="192" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -44604,7 +44607,7 @@
         <v>827</v>
       </c>
       <c r="B8" s="192" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -44639,7 +44642,7 @@
         <v>828</v>
       </c>
       <c r="B12" s="192" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -44656,7 +44659,7 @@
         <v>815</v>
       </c>
       <c r="B14" s="192" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -44664,7 +44667,7 @@
         <v>816</v>
       </c>
       <c r="B15" s="192" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -44708,7 +44711,7 @@
         <v>511</v>
       </c>
       <c r="B20" s="192" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -44716,7 +44719,7 @@
         <v>1422</v>
       </c>
       <c r="B21" s="192" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -44724,7 +44727,7 @@
         <v>798</v>
       </c>
       <c r="B22" s="192" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -44732,7 +44735,7 @@
         <v>799</v>
       </c>
       <c r="B23" s="192" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -44740,7 +44743,7 @@
         <v>722</v>
       </c>
       <c r="B24" s="192" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -44748,7 +44751,7 @@
         <v>1142</v>
       </c>
       <c r="B25" s="192" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -44765,7 +44768,7 @@
         <v>829</v>
       </c>
       <c r="B27" s="192" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -44773,7 +44776,7 @@
         <v>830</v>
       </c>
       <c r="B28" s="192" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -44781,7 +44784,7 @@
         <v>831</v>
       </c>
       <c r="B29" s="192" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -44789,7 +44792,7 @@
         <v>1175</v>
       </c>
       <c r="B30" s="193" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -44797,7 +44800,7 @@
         <v>1176</v>
       </c>
       <c r="B31" s="193" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -44805,7 +44808,7 @@
         <v>832</v>
       </c>
       <c r="B32" s="192" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -44813,7 +44816,7 @@
         <v>837</v>
       </c>
       <c r="B33" s="192" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -44821,7 +44824,7 @@
         <v>864</v>
       </c>
       <c r="B34" s="192" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -44829,14 +44832,14 @@
         <v>971</v>
       </c>
       <c r="B35" s="192" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="394" t="s">
+      <c r="A37" s="399" t="s">
         <v>1417</v>
       </c>
-      <c r="B37" s="394"/>
+      <c r="B37" s="399"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="166" t="s">
@@ -44851,7 +44854,7 @@
         <v>160</v>
       </c>
       <c r="B39" s="192" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -44859,7 +44862,7 @@
         <v>162</v>
       </c>
       <c r="B40" s="192" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -46741,7 +46744,7 @@
         <v>791</v>
       </c>
       <c r="H68" s="379" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="I68" s="96" t="s">
         <v>1071</v>
@@ -46768,13 +46771,13 @@
         <v>trillion freight ton-km / year</v>
       </c>
       <c r="G69" s="380" t="s">
+        <v>1921</v>
+      </c>
+      <c r="H69" s="381" t="s">
         <v>1922</v>
       </c>
-      <c r="H69" s="381" t="s">
+      <c r="I69" s="380" t="s">
         <v>1923</v>
-      </c>
-      <c r="I69" s="380" t="s">
-        <v>1924</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="71.25">
@@ -46828,13 +46831,13 @@
         <v>thousand vehicles / year</v>
       </c>
       <c r="G71" s="382" t="s">
+        <v>1924</v>
+      </c>
+      <c r="H71" s="382" t="s">
         <v>1925</v>
       </c>
-      <c r="H71" s="382" t="s">
+      <c r="I71" s="382" t="s">
         <v>1926</v>
-      </c>
-      <c r="I71" s="382" t="s">
-        <v>1927</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="42.75">
@@ -46858,13 +46861,13 @@
         <v>thousand vehicles / year</v>
       </c>
       <c r="G72" s="382" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="H72" s="382" t="s">
+        <v>1927</v>
+      </c>
+      <c r="I72" s="382" t="s">
         <v>1928</v>
-      </c>
-      <c r="I72" s="382" t="s">
-        <v>1929</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="42.75">
@@ -46888,13 +46891,13 @@
         <v>thousand vehicles / year</v>
       </c>
       <c r="G73" s="382" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="H73" s="382" t="s">
+        <v>1927</v>
+      </c>
+      <c r="I73" s="382" t="s">
         <v>1928</v>
-      </c>
-      <c r="I73" s="382" t="s">
-        <v>1929</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="28.5">
@@ -46902,7 +46905,7 @@
         <v>1311</v>
       </c>
       <c r="B74" s="383" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C74" s="164">
         <v>1</v>
@@ -46932,7 +46935,7 @@
         <v>1311</v>
       </c>
       <c r="B75" s="383" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="C75" s="384">
         <v>1</v>
@@ -46947,13 +46950,13 @@
         <v>793</v>
       </c>
       <c r="G75" s="382" t="s">
+        <v>1932</v>
+      </c>
+      <c r="H75" s="382" t="s">
         <v>1933</v>
       </c>
-      <c r="H75" s="382" t="s">
+      <c r="I75" s="382" t="s">
         <v>1934</v>
-      </c>
-      <c r="I75" s="382" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="57">
@@ -47007,13 +47010,13 @@
         <v>thousand vehicles</v>
       </c>
       <c r="G77" s="382" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="H77" s="382" t="s">
+        <v>1925</v>
+      </c>
+      <c r="I77" s="382" t="s">
         <v>1926</v>
-      </c>
-      <c r="I77" s="382" t="s">
-        <v>1927</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="42.75">
@@ -47037,13 +47040,13 @@
         <v>million vehicles</v>
       </c>
       <c r="G78" s="382" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="H78" s="382" t="s">
+        <v>1927</v>
+      </c>
+      <c r="I78" s="382" t="s">
         <v>1928</v>
-      </c>
-      <c r="I78" s="382" t="s">
-        <v>1929</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="42.75">
@@ -47067,13 +47070,13 @@
         <v>million vehicles</v>
       </c>
       <c r="G79" s="382" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="H79" s="382" t="s">
+        <v>1927</v>
+      </c>
+      <c r="I79" s="382" t="s">
         <v>1928</v>
-      </c>
-      <c r="I79" s="382" t="s">
-        <v>1929</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="28.9" thickBot="1">
@@ -47081,7 +47084,7 @@
         <v>1311</v>
       </c>
       <c r="B80" s="385" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C80" s="171">
         <v>1</v>
@@ -47111,7 +47114,7 @@
         <v>1311</v>
       </c>
       <c r="B81" s="385" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C81" s="386">
         <v>1</v>
@@ -47126,13 +47129,13 @@
         <v>792</v>
       </c>
       <c r="G81" s="382" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="H81" s="382" t="s">
+        <v>1933</v>
+      </c>
+      <c r="I81" s="382" t="s">
         <v>1934</v>
-      </c>
-      <c r="I81" s="382" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="128.25">
@@ -47156,13 +47159,13 @@
         <v>million metric tons / year</v>
       </c>
       <c r="G82" s="382" t="s">
+        <v>1941</v>
+      </c>
+      <c r="H82" s="382" t="s">
         <v>1942</v>
       </c>
-      <c r="H82" s="382" t="s">
+      <c r="I82" s="382" t="s">
         <v>1943</v>
-      </c>
-      <c r="I82" s="382" t="s">
-        <v>1944</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="85.5">
@@ -47216,13 +47219,13 @@
         <v>petajoules / year</v>
       </c>
       <c r="G84" s="382" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="H84" s="382" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="I84" s="380" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="57">
@@ -50926,18 +50929,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>1952</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1953</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>1954</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1955</v>
       </c>
     </row>
   </sheetData>
@@ -50998,7 +51001,7 @@
         <v>5382.9603750904134</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -51007,7 +51010,7 @@
     </row>
     <row r="4" spans="1:5" s="95" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B4" s="168"/>
       <c r="C4" s="377"/>
@@ -51016,7 +51019,7 @@
     </row>
     <row r="5" spans="1:5" s="95" customFormat="1">
       <c r="A5" s="25" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="6"/>
@@ -51025,7 +51028,7 @@
     </row>
     <row r="6" spans="1:5" s="95" customFormat="1">
       <c r="A6" s="25" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="6"/>
@@ -51034,7 +51037,7 @@
     </row>
     <row r="7" spans="1:5" s="95" customFormat="1">
       <c r="A7" s="25" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="6"/>
@@ -51050,7 +51053,7 @@
     </row>
     <row r="9" spans="1:5" s="95" customFormat="1">
       <c r="A9" s="25" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="6"/>
@@ -51059,7 +51062,7 @@
     </row>
     <row r="10" spans="1:5" s="95" customFormat="1">
       <c r="A10" s="25" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="6"/>
@@ -51075,7 +51078,7 @@
     </row>
     <row r="12" spans="1:5" s="95" customFormat="1">
       <c r="A12" s="25" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="6"/>
@@ -51084,7 +51087,7 @@
     </row>
     <row r="13" spans="1:5" s="95" customFormat="1">
       <c r="A13" s="25" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="6"/>
@@ -51093,7 +51096,7 @@
     </row>
     <row r="14" spans="1:5" s="95" customFormat="1">
       <c r="A14" s="25" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="6"/>
@@ -51102,7 +51105,7 @@
     </row>
     <row r="15" spans="1:5" s="95" customFormat="1">
       <c r="A15" s="25" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="6"/>
@@ -51111,7 +51114,7 @@
     </row>
     <row r="16" spans="1:5" s="95" customFormat="1">
       <c r="A16" s="49" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="6"/>
@@ -51127,7 +51130,7 @@
     </row>
     <row r="18" spans="1:5" s="95" customFormat="1">
       <c r="A18" s="25" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="6"/>
@@ -51136,7 +51139,7 @@
     </row>
     <row r="19" spans="1:5" s="95" customFormat="1">
       <c r="A19" s="25" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="6"/>
@@ -51145,7 +51148,7 @@
     </row>
     <row r="20" spans="1:5" s="95" customFormat="1">
       <c r="A20" s="25" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="6"/>
@@ -51154,7 +51157,7 @@
     </row>
     <row r="21" spans="1:5" s="95" customFormat="1">
       <c r="A21" s="25" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="6"/>
@@ -51163,7 +51166,7 @@
     </row>
     <row r="22" spans="1:5" s="95" customFormat="1">
       <c r="A22" s="25" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="6"/>
@@ -51179,7 +51182,7 @@
     </row>
     <row r="24" spans="1:5" s="95" customFormat="1">
       <c r="A24" s="21" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="6"/>
@@ -51188,7 +51191,7 @@
     </row>
     <row r="25" spans="1:5" s="95" customFormat="1">
       <c r="A25" s="25" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="6"/>
@@ -51197,7 +51200,7 @@
     </row>
     <row r="26" spans="1:5" s="95" customFormat="1">
       <c r="A26" s="25" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="6"/>
@@ -51220,7 +51223,7 @@
     </row>
     <row r="29" spans="1:5" s="95" customFormat="1">
       <c r="A29" s="50" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="6"/>
@@ -51229,7 +51232,7 @@
     </row>
     <row r="30" spans="1:5" s="95" customFormat="1">
       <c r="A30" s="25" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="6"/>
@@ -51247,7 +51250,7 @@
     </row>
     <row r="32" spans="1:5" s="95" customFormat="1">
       <c r="A32" s="95" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="6"/>
@@ -51256,7 +51259,7 @@
     </row>
     <row r="33" spans="1:5" s="95" customFormat="1">
       <c r="A33" s="49" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="6"/>
@@ -51265,7 +51268,7 @@
     </row>
     <row r="34" spans="1:5" s="95" customFormat="1">
       <c r="A34" s="25" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="6"/>
@@ -51281,7 +51284,7 @@
     </row>
     <row r="36" spans="1:5" s="95" customFormat="1">
       <c r="A36" s="50" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="6"/>
@@ -51290,7 +51293,7 @@
     </row>
     <row r="37" spans="1:5" s="95" customFormat="1">
       <c r="A37" s="25" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="6"/>
@@ -51308,7 +51311,7 @@
     </row>
     <row r="39" spans="1:5" s="95" customFormat="1">
       <c r="A39" s="95" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="6"/>
@@ -51317,7 +51320,7 @@
     </row>
     <row r="40" spans="1:5" s="95" customFormat="1">
       <c r="A40" s="49" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="6"/>
@@ -51326,7 +51329,7 @@
     </row>
     <row r="41" spans="1:5" s="95" customFormat="1">
       <c r="A41" s="25" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="6"/>
@@ -51342,7 +51345,7 @@
     </row>
     <row r="43" spans="1:5" s="95" customFormat="1">
       <c r="A43" s="50" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="6"/>
@@ -51351,7 +51354,7 @@
     </row>
     <row r="44" spans="1:5" s="95" customFormat="1">
       <c r="A44" s="95" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="6"/>
@@ -51369,7 +51372,7 @@
     </row>
     <row r="46" spans="1:5" s="95" customFormat="1">
       <c r="A46" s="95" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="6"/>
@@ -51378,7 +51381,7 @@
     </row>
     <row r="47" spans="1:5" s="95" customFormat="1">
       <c r="A47" s="49" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="6"/>
@@ -51387,7 +51390,7 @@
     </row>
     <row r="48" spans="1:5" s="95" customFormat="1">
       <c r="A48" s="25" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="6"/>
@@ -51403,7 +51406,7 @@
     </row>
     <row r="50" spans="1:5" s="95" customFormat="1">
       <c r="A50" s="50" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="6"/>
@@ -51412,7 +51415,7 @@
     </row>
     <row r="51" spans="1:5" s="95" customFormat="1">
       <c r="A51" s="25" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="6"/>
@@ -51430,7 +51433,7 @@
     </row>
     <row r="53" spans="1:5" s="95" customFormat="1">
       <c r="A53" s="25" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="6"/>
@@ -51439,7 +51442,7 @@
     </row>
     <row r="54" spans="1:5" s="95" customFormat="1">
       <c r="A54" s="49" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="6"/>
@@ -51448,7 +51451,7 @@
     </row>
     <row r="55" spans="1:5" s="95" customFormat="1">
       <c r="A55" s="25" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="6"/>
@@ -51471,7 +51474,7 @@
     </row>
     <row r="58" spans="1:5" s="95" customFormat="1">
       <c r="A58" s="50" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B58" s="168"/>
       <c r="C58" s="377"/>
@@ -51480,13 +51483,13 @@
     </row>
     <row r="59" spans="1:5" s="95" customFormat="1" ht="28.5">
       <c r="A59" s="115" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B59" s="376" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C59" s="376" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="4"/>
@@ -51657,7 +51660,7 @@
     <row r="73" spans="1:7" s="95" customFormat="1"/>
     <row r="74" spans="1:7" s="95" customFormat="1" ht="15.75">
       <c r="A74" s="342" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B74" s="375"/>
       <c r="C74" s="375"/>
@@ -51668,10 +51671,10 @@
     <row r="75" spans="1:7" s="95" customFormat="1" ht="28.5">
       <c r="A75" s="374"/>
       <c r="B75" s="373" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C75" s="373" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D75" s="373" t="s">
         <v>568</v>
@@ -51680,13 +51683,13 @@
         <v>569</v>
       </c>
       <c r="F75" s="372" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="G75" s="110"/>
     </row>
     <row r="76" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A76" s="371" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B76" s="370">
         <v>1497029.2</v>
@@ -51706,7 +51709,7 @@
     </row>
     <row r="77" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A77" s="357" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B77" s="354">
         <v>992836.3</v>
@@ -51724,7 +51727,7 @@
     </row>
     <row r="78" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A78" s="353" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B78" s="349">
         <v>715829.8</v>
@@ -51742,7 +51745,7 @@
     </row>
     <row r="79" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A79" s="353" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B79" s="349">
         <v>33787.5</v>
@@ -51760,7 +51763,7 @@
     </row>
     <row r="80" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A80" s="353" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B80" s="349">
         <v>138858</v>
@@ -51778,7 +51781,7 @@
     </row>
     <row r="81" spans="1:7" s="95" customFormat="1">
       <c r="A81" s="369" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B81" s="368">
         <v>121211</v>
@@ -51796,7 +51799,7 @@
     </row>
     <row r="82" spans="1:7" s="95" customFormat="1">
       <c r="A82" s="369" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B82" s="368">
         <v>6109</v>
@@ -51868,7 +51871,7 @@
     </row>
     <row r="86" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A86" s="353" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B86" s="349">
         <v>1657</v>
@@ -51886,7 +51889,7 @@
     </row>
     <row r="87" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A87" s="353" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B87" s="349">
         <v>33277</v>
@@ -51918,7 +51921,7 @@
     </row>
     <row r="89" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A89" s="357" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B89" s="354">
         <v>405862.9</v>
@@ -51937,7 +51940,7 @@
     </row>
     <row r="90" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A90" s="367" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B90" s="365">
         <v>130783.95</v>
@@ -51955,7 +51958,7 @@
     </row>
     <row r="91" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A91" s="353" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B91" s="349">
         <v>129920</v>
@@ -51969,7 +51972,7 @@
     </row>
     <row r="92" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A92" s="353" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B92" s="349">
         <v>277.82</v>
@@ -51987,7 +51990,7 @@
     </row>
     <row r="93" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A93" s="353" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B93" s="349">
         <v>586.12</v>
@@ -52019,7 +52022,7 @@
     </row>
     <row r="95" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A95" s="353" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B95" s="349">
         <v>10056.43</v>
@@ -52033,7 +52036,7 @@
     </row>
     <row r="96" spans="1:7" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A96" s="353" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B96" s="351"/>
       <c r="C96" s="351"/>
@@ -52047,7 +52050,7 @@
     </row>
     <row r="97" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A97" s="353" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B97" s="349">
         <v>119.58</v>
@@ -52061,7 +52064,7 @@
     </row>
     <row r="98" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A98" s="353" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B98" s="349">
         <v>88.04</v>
@@ -52075,7 +52078,7 @@
     </row>
     <row r="99" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A99" s="353" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B99" s="349">
         <v>266.18</v>
@@ -52091,7 +52094,7 @@
     </row>
     <row r="100" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A100" s="353" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B100" s="349">
         <v>7072.52</v>
@@ -52107,7 +52110,7 @@
     </row>
     <row r="101" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A101" s="353" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B101" s="349">
         <v>198.91</v>
@@ -52121,7 +52124,7 @@
     </row>
     <row r="102" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A102" s="353" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B102" s="349">
         <v>93.64</v>
@@ -52137,7 +52140,7 @@
     </row>
     <row r="103" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A103" s="353" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B103" s="349">
         <v>37.840000000000003</v>
@@ -52153,7 +52156,7 @@
     </row>
     <row r="104" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A104" s="353" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B104" s="349">
         <v>1155.52</v>
@@ -52169,7 +52172,7 @@
     </row>
     <row r="105" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A105" s="353" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B105" s="351"/>
       <c r="C105" s="351"/>
@@ -52183,7 +52186,7 @@
     </row>
     <row r="106" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A106" s="353" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B106" s="349">
         <v>8800.2099999999991</v>
@@ -52201,7 +52204,7 @@
     </row>
     <row r="107" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A107" s="367" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B107" s="365">
         <v>122371.43</v>
@@ -52219,7 +52222,7 @@
     </row>
     <row r="108" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A108" s="353" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B108" s="349">
         <v>116958.37</v>
@@ -52237,7 +52240,7 @@
     </row>
     <row r="109" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A109" s="353" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B109" s="349">
         <v>2460.6999999999998</v>
@@ -52253,7 +52256,7 @@
     </row>
     <row r="110" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A110" s="353" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B110" s="349">
         <v>2728.87</v>
@@ -52271,7 +52274,7 @@
     </row>
     <row r="111" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A111" s="353" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B111" s="349">
         <v>84.13</v>
@@ -52289,7 +52292,7 @@
     </row>
     <row r="112" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A112" s="353" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B112" s="349">
         <v>76.11</v>
@@ -52307,7 +52310,7 @@
     </row>
     <row r="113" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A113" s="353" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B113" s="349">
         <v>63.25</v>
@@ -52343,7 +52346,7 @@
     </row>
     <row r="115" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A115" s="353" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B115" s="349">
         <v>5222.5</v>
@@ -52361,7 +52364,7 @@
     </row>
     <row r="116" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A116" s="353" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B116" s="349">
         <v>27625.53</v>
@@ -52379,7 +52382,7 @@
     </row>
     <row r="117" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A117" s="353" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B117" s="349">
         <v>1861.11</v>
@@ -52397,7 +52400,7 @@
     </row>
     <row r="118" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A118" s="353" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B118" s="349">
         <v>1460.26</v>
@@ -52415,7 +52418,7 @@
     </row>
     <row r="119" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A119" s="353" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B119" s="349">
         <v>87799.77</v>
@@ -52433,7 +52436,7 @@
     </row>
     <row r="120" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A120" s="364" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B120" s="363">
         <v>849.49</v>
@@ -52447,7 +52450,7 @@
     </row>
     <row r="121" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A121" s="353" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B121" s="349">
         <v>776.75</v>
@@ -52461,7 +52464,7 @@
     </row>
     <row r="122" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A122" s="353" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B122" s="349">
         <v>72.75</v>
@@ -52475,7 +52478,7 @@
     </row>
     <row r="123" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A123" s="357" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B123" s="355"/>
       <c r="C123" s="355"/>
@@ -52491,7 +52494,7 @@
     </row>
     <row r="124" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A124" s="353" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B124" s="351"/>
       <c r="C124" s="351"/>
@@ -52505,7 +52508,7 @@
     </row>
     <row r="125" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A125" s="353" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B125" s="351"/>
       <c r="C125" s="351"/>
@@ -52521,7 +52524,7 @@
     </row>
     <row r="126" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A126" s="353" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B126" s="351"/>
       <c r="C126" s="351"/>
@@ -52535,7 +52538,7 @@
     </row>
     <row r="127" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A127" s="353" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B127" s="351"/>
       <c r="C127" s="351"/>
@@ -52549,7 +52552,7 @@
     </row>
     <row r="128" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A128" s="353" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B128" s="351"/>
       <c r="C128" s="351"/>
@@ -52565,7 +52568,7 @@
     </row>
     <row r="129" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A129" s="357" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B129" s="354">
         <v>98330</v>
@@ -52581,7 +52584,7 @@
     </row>
     <row r="130" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A130" s="353" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B130" s="351"/>
       <c r="C130" s="349">
@@ -52595,7 +52598,7 @@
     </row>
     <row r="131" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A131" s="353" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B131" s="351"/>
       <c r="C131" s="349">
@@ -52609,7 +52612,7 @@
     </row>
     <row r="132" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A132" s="353" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B132" s="349">
         <v>10490</v>
@@ -52623,7 +52626,7 @@
     </row>
     <row r="133" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A133" s="353" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B133" s="351"/>
       <c r="C133" s="349">
@@ -52637,7 +52640,7 @@
     </row>
     <row r="134" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A134" s="353" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B134" s="358" t="s">
         <v>542</v>
@@ -52651,7 +52654,7 @@
     </row>
     <row r="135" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A135" s="353" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B135" s="353" t="s">
         <v>543</v>
@@ -52665,7 +52668,7 @@
     </row>
     <row r="136" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A136" s="353" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B136" s="349">
         <v>87840</v>
@@ -52679,7 +52682,7 @@
     </row>
     <row r="137" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A137" s="357" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B137" s="355"/>
       <c r="C137" s="355"/>
@@ -52695,7 +52698,7 @@
     </row>
     <row r="138" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A138" s="353" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B138" s="351"/>
       <c r="C138" s="351"/>
@@ -52709,7 +52712,7 @@
     </row>
     <row r="139" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A139" s="353" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B139" s="351"/>
       <c r="C139" s="351"/>
@@ -52725,7 +52728,7 @@
     </row>
     <row r="140" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A140" s="353" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B140" s="351"/>
       <c r="C140" s="351"/>
@@ -52739,7 +52742,7 @@
     </row>
     <row r="141" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A141" s="357" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B141" s="356">
         <v>3454</v>
@@ -52757,7 +52760,7 @@
     </row>
     <row r="142" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A142" s="353" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B142" s="352">
         <v>3326</v>
@@ -52775,7 +52778,7 @@
     </row>
     <row r="143" spans="1:6" s="95" customFormat="1" ht="16.149999999999999">
       <c r="A143" s="353" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B143" s="352">
         <v>128</v>
@@ -52793,7 +52796,7 @@
     </row>
     <row r="144" spans="1:6" s="95" customFormat="1">
       <c r="A144" s="348" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B144" s="83"/>
       <c r="C144" s="83"/>
@@ -52803,7 +52806,7 @@
     </row>
     <row r="145" spans="1:11" s="95" customFormat="1">
       <c r="A145" s="348" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B145" s="83"/>
       <c r="C145" s="83"/>
@@ -52827,7 +52830,7 @@
     </row>
     <row r="147" spans="1:11" s="95" customFormat="1">
       <c r="A147" s="318" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B147" s="346">
         <f>B76-C76</f>
@@ -52846,7 +52849,7 @@
     </row>
     <row r="148" spans="1:11" s="95" customFormat="1">
       <c r="A148" s="318" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B148" s="83">
         <f>B147*$C$60</f>
@@ -52865,7 +52868,7 @@
     </row>
     <row r="149" spans="1:11" s="95" customFormat="1">
       <c r="A149" s="318" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B149" s="83">
         <f>SUM(B148:E148)</f>
@@ -52887,7 +52890,7 @@
     <row r="151" spans="1:11" s="95" customFormat="1"/>
     <row r="152" spans="1:11" s="95" customFormat="1" ht="15" customHeight="1">
       <c r="A152" s="343" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B152" s="342"/>
       <c r="C152" s="342"/>
@@ -52903,10 +52906,10 @@
     <row r="153" spans="1:11" s="95" customFormat="1" ht="40.5">
       <c r="A153" s="340"/>
       <c r="B153" s="340" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C153" s="340" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D153" s="340" t="s">
         <v>568</v>
@@ -52930,12 +52933,12 @@
         <v>558</v>
       </c>
       <c r="K153" s="340" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="154" spans="1:11" s="95" customFormat="1">
       <c r="A154" s="339" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B154" s="336">
         <v>1024772.84</v>
@@ -52970,7 +52973,7 @@
     </row>
     <row r="155" spans="1:11" s="95" customFormat="1">
       <c r="A155" s="326" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B155" s="327">
         <v>952212.06</v>
@@ -52993,7 +52996,7 @@
     </row>
     <row r="156" spans="1:11" s="95" customFormat="1">
       <c r="A156" s="333" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B156" s="320">
         <v>952212.06</v>
@@ -53039,7 +53042,7 @@
     </row>
     <row r="158" spans="1:11" s="95" customFormat="1">
       <c r="A158" s="324" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B158" s="320">
         <v>522495.43</v>
@@ -53062,7 +53065,7 @@
     </row>
     <row r="159" spans="1:11" s="95" customFormat="1">
       <c r="A159" s="324" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B159" s="320">
         <v>18695.900000000001</v>
@@ -53085,10 +53088,10 @@
     </row>
     <row r="160" spans="1:11" s="95" customFormat="1" ht="27">
       <c r="A160" s="324" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B160" s="324" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C160" s="321"/>
       <c r="D160" s="324" t="s">
@@ -53131,7 +53134,7 @@
     </row>
     <row r="162" spans="1:11" s="95" customFormat="1">
       <c r="A162" s="324" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B162" s="320">
         <v>39696</v>
@@ -53150,7 +53153,7 @@
     </row>
     <row r="163" spans="1:11" s="95" customFormat="1">
       <c r="A163" s="324" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B163" s="320">
         <v>52366.02</v>
@@ -53173,7 +53176,7 @@
     </row>
     <row r="164" spans="1:11" s="95" customFormat="1">
       <c r="A164" s="324" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B164" s="320">
         <v>1885.88</v>
@@ -53196,7 +53199,7 @@
     </row>
     <row r="165" spans="1:11" s="95" customFormat="1">
       <c r="A165" s="324" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B165" s="320">
         <v>34482.44</v>
@@ -53219,7 +53222,7 @@
     </row>
     <row r="166" spans="1:11" s="95" customFormat="1">
       <c r="A166" s="324" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B166" s="320">
         <v>5331.75</v>
@@ -53242,7 +53245,7 @@
     </row>
     <row r="167" spans="1:11" s="95" customFormat="1">
       <c r="A167" s="324" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B167" s="320">
         <v>24577.85</v>
@@ -53265,7 +53268,7 @@
     </row>
     <row r="168" spans="1:11" s="95" customFormat="1">
       <c r="A168" s="324" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B168" s="320">
         <v>1010.93</v>
@@ -53288,7 +53291,7 @@
     </row>
     <row r="169" spans="1:11" s="95" customFormat="1">
       <c r="A169" s="324" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B169" s="320">
         <v>2509.79</v>
@@ -53311,7 +53314,7 @@
     </row>
     <row r="170" spans="1:11" s="95" customFormat="1">
       <c r="A170" s="324" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B170" s="320">
         <v>7669.09</v>
@@ -53334,7 +53337,7 @@
     </row>
     <row r="171" spans="1:11" s="95" customFormat="1">
       <c r="A171" s="324" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B171" s="320">
         <v>58717.17</v>
@@ -53380,7 +53383,7 @@
     </row>
     <row r="173" spans="1:11" s="95" customFormat="1">
       <c r="A173" s="324" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B173" s="320">
         <v>85515.82</v>
@@ -53403,7 +53406,7 @@
     </row>
     <row r="174" spans="1:11" s="95" customFormat="1">
       <c r="A174" s="324" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B174" s="320">
         <v>4021.98</v>
@@ -53426,7 +53429,7 @@
     </row>
     <row r="175" spans="1:11" s="95" customFormat="1">
       <c r="A175" s="324" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B175" s="320">
         <v>5426.32</v>
@@ -53449,7 +53452,7 @@
     </row>
     <row r="176" spans="1:11" s="95" customFormat="1">
       <c r="A176" s="324" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B176" s="320">
         <v>1012.71</v>
@@ -53495,7 +53498,7 @@
     </row>
     <row r="178" spans="1:11" s="95" customFormat="1">
       <c r="A178" s="324" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B178" s="320">
         <v>3268</v>
@@ -53518,7 +53521,7 @@
     </row>
     <row r="179" spans="1:11" s="95" customFormat="1">
       <c r="A179" s="324" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B179" s="320">
         <v>55182</v>
@@ -53541,7 +53544,7 @@
     </row>
     <row r="180" spans="1:11" s="95" customFormat="1">
       <c r="A180" s="324" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B180" s="320">
         <v>28347</v>
@@ -53564,7 +53567,7 @@
     </row>
     <row r="181" spans="1:11" s="95" customFormat="1">
       <c r="A181" s="333" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B181" s="321"/>
       <c r="C181" s="321"/>
@@ -53602,7 +53605,7 @@
     </row>
     <row r="183" spans="1:11" s="95" customFormat="1">
       <c r="A183" s="324" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B183" s="321"/>
       <c r="C183" s="321"/>
@@ -53621,7 +53624,7 @@
     </row>
     <row r="184" spans="1:11" s="95" customFormat="1">
       <c r="A184" s="324" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B184" s="321"/>
       <c r="C184" s="321"/>
@@ -53640,7 +53643,7 @@
     </row>
     <row r="185" spans="1:11" s="95" customFormat="1">
       <c r="A185" s="333" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B185" s="321"/>
       <c r="C185" s="321"/>
@@ -53659,7 +53662,7 @@
     </row>
     <row r="186" spans="1:11" s="95" customFormat="1">
       <c r="A186" s="324" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B186" s="321"/>
       <c r="C186" s="321"/>
@@ -53678,7 +53681,7 @@
     </row>
     <row r="187" spans="1:11" s="95" customFormat="1">
       <c r="A187" s="324" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B187" s="321"/>
       <c r="C187" s="321"/>
@@ -53697,7 +53700,7 @@
     </row>
     <row r="188" spans="1:11" s="95" customFormat="1">
       <c r="A188" s="324" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B188" s="321"/>
       <c r="C188" s="321"/>
@@ -53716,7 +53719,7 @@
     </row>
     <row r="189" spans="1:11" s="95" customFormat="1">
       <c r="A189" s="326" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B189" s="327">
         <v>72560.78</v>
@@ -53749,7 +53752,7 @@
     </row>
     <row r="190" spans="1:11" s="95" customFormat="1">
       <c r="A190" s="333" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B190" s="320">
         <v>53558.17</v>
@@ -53768,7 +53771,7 @@
     </row>
     <row r="191" spans="1:11" s="95" customFormat="1">
       <c r="A191" s="324" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B191" s="320">
         <v>44056</v>
@@ -53787,7 +53790,7 @@
     </row>
     <row r="192" spans="1:11" s="95" customFormat="1">
       <c r="A192" s="324" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B192" s="320">
         <v>2921</v>
@@ -53806,7 +53809,7 @@
     </row>
     <row r="193" spans="1:11" s="95" customFormat="1">
       <c r="A193" s="324" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B193" s="320">
         <v>5961.68</v>
@@ -53825,7 +53828,7 @@
     </row>
     <row r="194" spans="1:11" s="95" customFormat="1">
       <c r="A194" s="324" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B194" s="322">
         <v>463.94</v>
@@ -53844,7 +53847,7 @@
     </row>
     <row r="195" spans="1:11" s="95" customFormat="1">
       <c r="A195" s="324" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B195" s="322">
         <v>155.54</v>
@@ -53863,7 +53866,7 @@
     </row>
     <row r="196" spans="1:11" s="95" customFormat="1">
       <c r="A196" s="333" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B196" s="320">
         <v>15785.98</v>
@@ -53886,7 +53889,7 @@
     </row>
     <row r="197" spans="1:11" s="95" customFormat="1">
       <c r="A197" s="324" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B197" s="320">
         <v>11067.3</v>
@@ -53905,7 +53908,7 @@
     </row>
     <row r="198" spans="1:11" s="95" customFormat="1">
       <c r="A198" s="324" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B198" s="322">
         <v>0</v>
@@ -53926,7 +53929,7 @@
     </row>
     <row r="199" spans="1:11" s="95" customFormat="1">
       <c r="A199" s="324" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B199" s="322">
         <v>102.72</v>
@@ -53945,7 +53948,7 @@
     </row>
     <row r="200" spans="1:11" s="95" customFormat="1">
       <c r="A200" s="324" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B200" s="322">
         <v>43.75</v>
@@ -53964,7 +53967,7 @@
     </row>
     <row r="201" spans="1:11" s="95" customFormat="1">
       <c r="A201" s="324" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B201" s="322">
         <v>229.84</v>
@@ -53985,7 +53988,7 @@
     </row>
     <row r="202" spans="1:11" s="95" customFormat="1">
       <c r="A202" s="324" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B202" s="320">
         <v>3317.23</v>
@@ -54006,7 +54009,7 @@
     </row>
     <row r="203" spans="1:11" s="95" customFormat="1">
       <c r="A203" s="324" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B203" s="322">
         <v>233.23</v>
@@ -54025,7 +54028,7 @@
     </row>
     <row r="204" spans="1:11" s="95" customFormat="1">
       <c r="A204" s="324" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B204" s="322">
         <v>51.29</v>
@@ -54046,7 +54049,7 @@
     </row>
     <row r="205" spans="1:11" s="95" customFormat="1">
       <c r="A205" s="324" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B205" s="322">
         <v>26.98</v>
@@ -54067,7 +54070,7 @@
     </row>
     <row r="206" spans="1:11" s="95" customFormat="1">
       <c r="A206" s="324" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B206" s="322">
         <v>713.64</v>
@@ -54088,7 +54091,7 @@
     </row>
     <row r="207" spans="1:11" s="95" customFormat="1">
       <c r="A207" s="324" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B207" s="321"/>
       <c r="C207" s="321"/>
@@ -54107,7 +54110,7 @@
     </row>
     <row r="208" spans="1:11" s="95" customFormat="1">
       <c r="A208" s="333" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B208" s="331">
         <v>2522.5</v>
@@ -54134,7 +54137,7 @@
     </row>
     <row r="209" spans="1:11" s="95" customFormat="1">
       <c r="A209" s="324" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B209" s="321"/>
       <c r="C209" s="321"/>
@@ -54149,7 +54152,7 @@
     </row>
     <row r="210" spans="1:11" s="95" customFormat="1">
       <c r="A210" s="324" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B210" s="320">
         <v>1467.55</v>
@@ -54193,7 +54196,7 @@
     </row>
     <row r="212" spans="1:11" s="95" customFormat="1">
       <c r="A212" s="324" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B212" s="322">
         <v>23.22</v>
@@ -54212,7 +54215,7 @@
     </row>
     <row r="213" spans="1:11" s="95" customFormat="1">
       <c r="A213" s="324" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B213" s="322">
         <v>6.42</v>
@@ -54231,7 +54234,7 @@
     </row>
     <row r="214" spans="1:11" s="95" customFormat="1">
       <c r="A214" s="324" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B214" s="321"/>
       <c r="C214" s="321"/>
@@ -54250,7 +54253,7 @@
     </row>
     <row r="215" spans="1:11" s="95" customFormat="1">
       <c r="A215" s="333" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B215" s="321"/>
       <c r="C215" s="321"/>
@@ -54273,7 +54276,7 @@
     </row>
     <row r="216" spans="1:11" s="95" customFormat="1">
       <c r="A216" s="324" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B216" s="321"/>
       <c r="C216" s="321"/>
@@ -54294,7 +54297,7 @@
     </row>
     <row r="217" spans="1:11" s="95" customFormat="1">
       <c r="A217" s="321" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B217" s="321"/>
       <c r="C217" s="321"/>
@@ -54313,7 +54316,7 @@
     </row>
     <row r="218" spans="1:11" s="95" customFormat="1">
       <c r="A218" s="333" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B218" s="322">
         <v>694.14</v>
@@ -54332,7 +54335,7 @@
     </row>
     <row r="219" spans="1:11" s="95" customFormat="1">
       <c r="A219" s="324" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B219" s="322">
         <v>672.91</v>
@@ -54351,7 +54354,7 @@
     </row>
     <row r="220" spans="1:11" s="95" customFormat="1">
       <c r="A220" s="324" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B220" s="322">
         <v>21.23</v>
@@ -54370,7 +54373,7 @@
     </row>
     <row r="221" spans="1:11" s="95" customFormat="1">
       <c r="A221" s="326" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B221" s="325"/>
       <c r="C221" s="325"/>
@@ -54412,7 +54415,7 @@
     </row>
     <row r="223" spans="1:11" s="95" customFormat="1">
       <c r="A223" s="324" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B223" s="321"/>
       <c r="C223" s="321"/>
@@ -54433,7 +54436,7 @@
     </row>
     <row r="224" spans="1:11" s="95" customFormat="1">
       <c r="A224" s="324" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B224" s="321"/>
       <c r="C224" s="321"/>
@@ -54454,7 +54457,7 @@
     </row>
     <row r="225" spans="1:11" s="95" customFormat="1">
       <c r="A225" s="324" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B225" s="321"/>
       <c r="C225" s="321"/>
@@ -54473,7 +54476,7 @@
     </row>
     <row r="226" spans="1:11" s="95" customFormat="1">
       <c r="A226" s="324" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B226" s="321"/>
       <c r="C226" s="321"/>
@@ -54494,7 +54497,7 @@
     </row>
     <row r="227" spans="1:11" s="95" customFormat="1">
       <c r="A227" s="326" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B227" s="325"/>
       <c r="C227" s="327">
@@ -54578,7 +54581,7 @@
     </row>
     <row r="231" spans="1:11" s="95" customFormat="1">
       <c r="A231" s="324" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B231" s="321"/>
       <c r="C231" s="322">
@@ -54597,7 +54600,7 @@
     </row>
     <row r="232" spans="1:11" s="95" customFormat="1">
       <c r="A232" s="324" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B232" s="321"/>
       <c r="C232" s="321"/>
@@ -54614,7 +54617,7 @@
     </row>
     <row r="233" spans="1:11" s="95" customFormat="1">
       <c r="A233" s="324" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B233" s="321"/>
       <c r="C233" s="321"/>
@@ -54631,7 +54634,7 @@
     </row>
     <row r="234" spans="1:11" s="95" customFormat="1">
       <c r="A234" s="324" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B234" s="321"/>
       <c r="C234" s="321"/>
@@ -54648,7 +54651,7 @@
     </row>
     <row r="235" spans="1:11" s="95" customFormat="1">
       <c r="A235" s="326" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B235" s="325"/>
       <c r="C235" s="325"/>
@@ -54669,7 +54672,7 @@
     </row>
     <row r="236" spans="1:11" s="95" customFormat="1">
       <c r="A236" s="324" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B236" s="321"/>
       <c r="C236" s="321"/>
@@ -54688,7 +54691,7 @@
     </row>
     <row r="237" spans="1:11" s="95" customFormat="1">
       <c r="A237" s="324" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B237" s="321"/>
       <c r="C237" s="321"/>
@@ -54707,7 +54710,7 @@
     </row>
     <row r="238" spans="1:11" s="95" customFormat="1">
       <c r="A238" s="324" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B238" s="321"/>
       <c r="C238" s="321"/>
@@ -54728,7 +54731,7 @@
     </row>
     <row r="239" spans="1:11" s="95" customFormat="1">
       <c r="A239" s="324" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B239" s="321"/>
       <c r="C239" s="321"/>
@@ -54747,7 +54750,7 @@
     </row>
     <row r="240" spans="1:11" s="95" customFormat="1">
       <c r="A240" s="324" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B240" s="321"/>
       <c r="C240" s="321"/>
@@ -54768,7 +54771,7 @@
     </row>
     <row r="241" spans="1:11" s="95" customFormat="1">
       <c r="A241" s="326" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B241" s="325"/>
       <c r="C241" s="325"/>
@@ -54829,7 +54832,7 @@
     </row>
     <row r="244" spans="1:11" s="95" customFormat="1">
       <c r="A244" s="324" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B244" s="322">
         <v>273</v>
@@ -54852,7 +54855,7 @@
     </row>
     <row r="245" spans="1:11" s="95" customFormat="1">
       <c r="A245" s="321" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B245" s="320">
         <v>376005</v>
@@ -54870,24 +54873,24 @@
       </c>
     </row>
     <row r="246" spans="1:11" s="95" customFormat="1" ht="15" customHeight="1">
-      <c r="A246" s="395" t="s">
-        <v>1721</v>
-      </c>
-      <c r="B246" s="396"/>
-      <c r="C246" s="396"/>
-      <c r="D246" s="396"/>
-      <c r="E246" s="396"/>
-      <c r="F246" s="396"/>
-      <c r="G246" s="396"/>
-      <c r="H246" s="396"/>
-      <c r="I246" s="396"/>
-      <c r="J246" s="396"/>
-      <c r="K246" s="397"/>
+      <c r="A246" s="400" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B246" s="401"/>
+      <c r="C246" s="401"/>
+      <c r="D246" s="401"/>
+      <c r="E246" s="401"/>
+      <c r="F246" s="401"/>
+      <c r="G246" s="401"/>
+      <c r="H246" s="401"/>
+      <c r="I246" s="401"/>
+      <c r="J246" s="401"/>
+      <c r="K246" s="402"/>
     </row>
     <row r="247" spans="1:11" s="95" customFormat="1"/>
     <row r="248" spans="1:11" s="95" customFormat="1" ht="28.5">
       <c r="A248" s="4" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B248" s="319" t="s">
         <v>560</v>
@@ -54902,7 +54905,7 @@
     </row>
     <row r="249" spans="1:11" s="95" customFormat="1">
       <c r="A249" s="318" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B249" s="317">
         <f>B154-C154</f>
@@ -54920,7 +54923,7 @@
     </row>
     <row r="250" spans="1:11" s="95" customFormat="1">
       <c r="A250" s="318" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B250" s="317">
         <f>B249*$C$60</f>
@@ -54938,7 +54941,7 @@
     </row>
     <row r="251" spans="1:11" s="95" customFormat="1">
       <c r="A251" s="318" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B251" s="317">
         <f>SUM(B250:E250)</f>
@@ -54952,24 +54955,24 @@
     <row r="253" spans="1:11" s="95" customFormat="1"/>
     <row r="254" spans="1:11" s="95" customFormat="1">
       <c r="A254" s="316" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B254" s="84"/>
     </row>
     <row r="255" spans="1:11" s="95" customFormat="1">
       <c r="A255" s="95" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="256" spans="1:11" s="95" customFormat="1">
       <c r="A256" s="95" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="257" spans="1:4" s="95" customFormat="1"/>
     <row r="258" spans="1:4" s="95" customFormat="1">
       <c r="A258" s="95" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B258" s="95">
         <v>719</v>
@@ -54977,7 +54980,7 @@
     </row>
     <row r="259" spans="1:4" s="95" customFormat="1">
       <c r="A259" s="95" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B259" s="95">
         <v>11</v>
@@ -54985,7 +54988,7 @@
     </row>
     <row r="260" spans="1:4" s="95" customFormat="1">
       <c r="A260" s="95" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B260" s="314">
         <f>B259/B258*10^6</f>
@@ -54996,86 +54999,86 @@
     <row r="262" spans="1:4" s="95" customFormat="1"/>
     <row r="263" spans="1:4" s="95" customFormat="1">
       <c r="A263" s="85" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B263" s="84"/>
       <c r="C263" s="84"/>
     </row>
     <row r="264" spans="1:4" s="95" customFormat="1">
       <c r="A264" s="95" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B264" s="314">
         <f>(B149-B251)/(2007-2000)*(2005-2000)+B251+B260</f>
         <v>1749351.5192827338</v>
       </c>
       <c r="C264" s="95" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="265" spans="1:4" s="95" customFormat="1">
       <c r="A265" s="95" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B265" s="95">
         <f>B264/B266</f>
         <v>0.71977393159643066</v>
       </c>
       <c r="C265" s="95" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="266" spans="1:4" s="95" customFormat="1">
       <c r="A266" s="95" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B266" s="95">
         <v>2430418</v>
       </c>
       <c r="C266" s="95" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D266" s="95" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="267" spans="1:4" s="95" customFormat="1">
       <c r="A267" s="95" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B267" s="95">
         <v>11162212</v>
       </c>
       <c r="C267" s="95" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="268" spans="1:4" s="95" customFormat="1">
       <c r="A268" s="95" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B268" s="315">
         <v>0.33</v>
       </c>
       <c r="C268" s="95" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="269" spans="1:4" s="95" customFormat="1">
       <c r="A269" s="95" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B269" s="315">
         <v>0.35</v>
       </c>
       <c r="C269" s="95" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="270" spans="1:4" s="95" customFormat="1"/>
     <row r="271" spans="1:4" s="95" customFormat="1">
       <c r="A271" s="95" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B271" s="95">
         <f>B265*(1-B268)</f>
@@ -55084,7 +55087,7 @@
     </row>
     <row r="272" spans="1:4" s="95" customFormat="1">
       <c r="A272" s="95" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B272" s="95">
         <f>B265*(1-B269)</f>
@@ -55094,51 +55097,51 @@
     <row r="273" spans="1:10" s="95" customFormat="1"/>
     <row r="274" spans="1:10" s="95" customFormat="1">
       <c r="A274" s="95" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B274" s="95">
         <f>B267*B271</f>
         <v>5382960.3750904137</v>
       </c>
       <c r="C274" s="95" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="275" spans="1:10" s="95" customFormat="1">
       <c r="A275" s="95" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B275" s="95">
         <f>B267*B272</f>
         <v>5222274.9907593569</v>
       </c>
       <c r="C275" s="95" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="276" spans="1:10" s="95" customFormat="1"/>
     <row r="277" spans="1:10" s="95" customFormat="1">
       <c r="A277" s="95" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B277" s="314">
         <f>B274/1000</f>
         <v>5382.9603750904134</v>
       </c>
       <c r="C277" s="95" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="278" spans="1:10" s="95" customFormat="1">
       <c r="A278" s="95" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B278" s="314">
         <f>B275/1000</f>
         <v>5222.274990759357</v>
       </c>
       <c r="C278" s="95" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="279" spans="1:10" s="23" customFormat="1">
@@ -64561,22 +64564,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="398" t="s">
+      <c r="A1" s="406" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="398"/>
-      <c r="C1" s="398"/>
-      <c r="D1" s="398"/>
-      <c r="E1" s="398"/>
+      <c r="B1" s="406"/>
+      <c r="C1" s="406"/>
+      <c r="D1" s="406"/>
+      <c r="E1" s="406"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="407" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="402"/>
-      <c r="C2" s="402"/>
-      <c r="D2" s="402"/>
-      <c r="E2" s="402"/>
+      <c r="B2" s="407"/>
+      <c r="C2" s="407"/>
+      <c r="D2" s="407"/>
+      <c r="E2" s="407"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
@@ -64592,13 +64595,13 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="402" t="s">
+      <c r="A21" s="407" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="402"/>
-      <c r="C21" s="402"/>
-      <c r="D21" s="402"/>
-      <c r="E21" s="402"/>
+      <c r="B21" s="407"/>
+      <c r="C21" s="407"/>
+      <c r="D21" s="407"/>
+      <c r="E21" s="407"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="9" t="s">
@@ -64614,13 +64617,13 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="402" t="s">
+      <c r="A40" s="407" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="402"/>
-      <c r="C40" s="402"/>
-      <c r="D40" s="402"/>
-      <c r="E40" s="402"/>
+      <c r="B40" s="407"/>
+      <c r="C40" s="407"/>
+      <c r="D40" s="407"/>
+      <c r="E40" s="407"/>
     </row>
     <row r="57" spans="1:5" ht="14.65" thickBot="1">
       <c r="A57" s="9" t="s">
@@ -64636,13 +64639,13 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="398" t="s">
+      <c r="A60" s="406" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="398"/>
-      <c r="C60" s="398"/>
-      <c r="D60" s="398"/>
-      <c r="E60" s="398"/>
+      <c r="B60" s="406"/>
+      <c r="C60" s="406"/>
+      <c r="D60" s="406"/>
+      <c r="E60" s="406"/>
     </row>
     <row r="85" spans="1:39" s="12" customFormat="1">
       <c r="A85" s="9" t="s">
@@ -64747,13 +64750,13 @@
       </c>
     </row>
     <row r="89" spans="1:39">
-      <c r="A89" s="398" t="s">
+      <c r="A89" s="406" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="398"/>
-      <c r="C89" s="398"/>
-      <c r="D89" s="398"/>
-      <c r="E89" s="398"/>
+      <c r="B89" s="406"/>
+      <c r="C89" s="406"/>
+      <c r="D89" s="406"/>
+      <c r="E89" s="406"/>
     </row>
     <row r="90" spans="1:39">
       <c r="A90" s="9">
@@ -64840,13 +64843,13 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="398" t="s">
+      <c r="A98" s="406" t="s">
         <v>178</v>
       </c>
-      <c r="B98" s="398"/>
-      <c r="C98" s="398"/>
-      <c r="D98" s="398"/>
-      <c r="E98" s="398"/>
+      <c r="B98" s="406"/>
+      <c r="C98" s="406"/>
+      <c r="D98" s="406"/>
+      <c r="E98" s="406"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="17">
@@ -64930,13 +64933,13 @@
       <c r="A108" s="20"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="398" t="s">
+      <c r="A109" s="406" t="s">
         <v>180</v>
       </c>
-      <c r="B109" s="398"/>
-      <c r="C109" s="398"/>
-      <c r="D109" s="398"/>
-      <c r="E109" s="398"/>
+      <c r="B109" s="406"/>
+      <c r="C109" s="406"/>
+      <c r="D109" s="406"/>
+      <c r="E109" s="406"/>
     </row>
     <row r="110" spans="1:5" ht="14.65" thickBot="1"/>
     <row r="111" spans="1:5" ht="14.65" thickBot="1">
@@ -64949,13 +64952,13 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="398" t="s">
+      <c r="A113" s="406" t="s">
         <v>179</v>
       </c>
-      <c r="B113" s="398"/>
-      <c r="C113" s="398"/>
-      <c r="D113" s="398"/>
-      <c r="E113" s="398"/>
+      <c r="B113" s="406"/>
+      <c r="C113" s="406"/>
+      <c r="D113" s="406"/>
+      <c r="E113" s="406"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="17">
@@ -65036,13 +65039,13 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="398" t="s">
+      <c r="A124" s="406" t="s">
         <v>434</v>
       </c>
-      <c r="B124" s="398"/>
-      <c r="C124" s="398"/>
-      <c r="D124" s="398"/>
-      <c r="E124" s="398"/>
+      <c r="B124" s="406"/>
+      <c r="C124" s="406"/>
+      <c r="D124" s="406"/>
+      <c r="E124" s="406"/>
       <c r="L124" s="21"/>
     </row>
     <row r="125" spans="1:14">
@@ -65133,13 +65136,13 @@
       <c r="C133" s="15"/>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="398" t="s">
+      <c r="A134" s="406" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="398"/>
-      <c r="C134" s="398"/>
-      <c r="D134" s="398"/>
-      <c r="E134" s="398"/>
+      <c r="B134" s="406"/>
+      <c r="C134" s="406"/>
+      <c r="D134" s="406"/>
+      <c r="E134" s="406"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="27" t="s">
@@ -65154,25 +65157,25 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="29"/>
-      <c r="B136" s="399" t="s">
+      <c r="B136" s="403" t="s">
         <v>451</v>
       </c>
-      <c r="C136" s="400"/>
-      <c r="D136" s="400"/>
-      <c r="E136" s="401"/>
+      <c r="C136" s="404"/>
+      <c r="D136" s="404"/>
+      <c r="E136" s="405"/>
       <c r="F136" s="28"/>
       <c r="G136" s="28"/>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="30"/>
-      <c r="B137" s="399" t="s">
+      <c r="B137" s="403" t="s">
         <v>452</v>
       </c>
-      <c r="C137" s="401"/>
-      <c r="D137" s="399" t="s">
+      <c r="C137" s="405"/>
+      <c r="D137" s="403" t="s">
         <v>453</v>
       </c>
-      <c r="E137" s="401"/>
+      <c r="E137" s="405"/>
       <c r="F137" s="28"/>
       <c r="G137" s="28"/>
     </row>
@@ -65719,13 +65722,13 @@
       <c r="G163" s="28"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="398" t="s">
+      <c r="A165" s="406" t="s">
         <v>183</v>
       </c>
-      <c r="B165" s="398"/>
-      <c r="C165" s="398"/>
-      <c r="D165" s="398"/>
-      <c r="E165" s="398"/>
+      <c r="B165" s="406"/>
+      <c r="C165" s="406"/>
+      <c r="D165" s="406"/>
+      <c r="E165" s="406"/>
     </row>
     <row r="166" spans="1:7" ht="14.65" thickBot="1">
       <c r="A166" s="23" t="s">
@@ -65748,10 +65751,10 @@
       <c r="B168" s="46"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="398" t="s">
+      <c r="A169" s="406" t="s">
         <v>442</v>
       </c>
-      <c r="B169" s="398"/>
+      <c r="B169" s="406"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="23" t="s">
@@ -65783,13 +65786,13 @@
       <c r="B173" s="46"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="398" t="s">
+      <c r="A174" s="406" t="s">
         <v>192</v>
       </c>
-      <c r="B174" s="398"/>
-      <c r="C174" s="398"/>
-      <c r="D174" s="398"/>
-      <c r="E174" s="398"/>
+      <c r="B174" s="406"/>
+      <c r="C174" s="406"/>
+      <c r="D174" s="406"/>
+      <c r="E174" s="406"/>
     </row>
     <row r="175" spans="1:7" ht="14.65" thickBot="1">
       <c r="A175" s="23" t="s">
@@ -65809,13 +65812,13 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="398" t="s">
+      <c r="A178" s="406" t="s">
         <v>186</v>
       </c>
-      <c r="B178" s="398"/>
-      <c r="C178" s="398"/>
-      <c r="D178" s="398"/>
-      <c r="E178" s="398"/>
+      <c r="B178" s="406"/>
+      <c r="C178" s="406"/>
+      <c r="D178" s="406"/>
+      <c r="E178" s="406"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="25" t="s">
@@ -65843,13 +65846,13 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="398" t="s">
+      <c r="A183" s="406" t="s">
         <v>188</v>
       </c>
-      <c r="B183" s="398"/>
-      <c r="C183" s="398"/>
-      <c r="D183" s="398"/>
-      <c r="E183" s="398"/>
+      <c r="B183" s="406"/>
+      <c r="C183" s="406"/>
+      <c r="D183" s="406"/>
+      <c r="E183" s="406"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="23" t="s">
@@ -65904,13 +65907,13 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="398" t="s">
+      <c r="A191" s="406" t="s">
         <v>202</v>
       </c>
-      <c r="B191" s="398"/>
-      <c r="C191" s="398"/>
-      <c r="D191" s="398"/>
-      <c r="E191" s="398"/>
+      <c r="B191" s="406"/>
+      <c r="C191" s="406"/>
+      <c r="D191" s="406"/>
+      <c r="E191" s="406"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="21" t="s">
@@ -65970,6 +65973,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -65984,12 +65993,6 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PolicyLevers!$A$1:$T$571</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
@@ -7483,11 +7483,11 @@
     <t>Expand Carbon-free Electricity Standard Qualifying Definitions</t>
   </si>
   <si>
-    <t>**Description:** This policy specifies an increase in the fraction of electricity generation that must come from qualifying carbon-free sources (wind, solar, and biomass) in 2050.  This policy has no effect until the user-set value exceeds the existing fraction of carbon-free electricity and any carbon-free electricity standards which have been enacted at the state level. // **Guidance for setting values:** India's Renewable Purchase Obligations (RPOs) are differentiated by solar and non-solar (wind and biomass). In the BAU case, the model assumes the solar- and non-solar RPOs for all states to reach a total RPO target of 17.5% by 2020, 19% by 2021, and 21% by 2022 as per the growth trajectory notified by the Ministry of Power. It is held constant thereafter till 2050. 
+    <t>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** India had 191 GW of coal capacity in 2018, about 43 GW of which is projected to retire by 2027 in the BAU case as per Central Electricity Authority (CEA's) National Electricity Plan. This includes actual retirements till 2019. An additional retirement setting of 7,000 MW/year would retire all of the pre-existing coal capacity by 2032.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy specifies an increase in the fraction of electricity generation that must come from qualifying carbon-free sources (wind, solar, and biomass) in 2050.  This policy has no effect until the user-set value exceeds the existing fraction of carbon-free electricity and any carbon-free electricity standards which have been enacted at the state level. // **Guidance for setting values:** India's Renewable Purchase Obligations (RPOs) have not been met historically. For this reason, the BAU case does not assume any RPO targets are met. However, the BAU case does assume India meets 80% of its Intended Nationally Determined Contribution for wind and solar.
 If the policy "Expand Carbon-free Electricity Standard Qualifying Definitions" is also enabled, the lever setting is a total RPO target that includes generation from wind, solar, geothermal, and Municipal Solid Waste (MSW) sources. Geothermal and MSW are included as they may be feasible for a more ambitious Renewable Energy (RE) scenario with a delayed start. Biomass is excluded because it has issues such as adverse impacts on local air quality, competing land use, and feedstock availability challenges. Nuclear is excluded because of the need to manage radioactive waste, and hydro is not included due to potential state-level challenges in implementing additional capacity. When setting a high target with the CES lever, users should also turn on supporting power sector policies (i.e., Grid-Scale Electricity Storage, Increase Transmission, and Demand Response) to avoid curtailment of renewables.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** India had 191 GW of coal capacity in 2018, about 43 GW of which is projected to retire by 2027 in the BAU case as per Central Electricity Authority (CEA's) National Electricity Plan. This includes actual retirements till 2019. An additional retirement setting of 7,000 MW/year would retire all of the pre-existing coal capacity by 2032.</t>
   </si>
 </sst>
 </file>
@@ -9619,6 +9619,9 @@
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9631,6 +9634,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -9640,14 +9646,8 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -10781,7 +10781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
@@ -11029,9 +11031,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T589"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P198" sqref="P198"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -21812,7 +21814,7 @@
       <c r="S177" s="57"/>
       <c r="T177" s="57"/>
     </row>
-    <row r="178" spans="1:20" s="5" customFormat="1" ht="199.5">
+    <row r="178" spans="1:20" s="5" customFormat="1" ht="185.25">
       <c r="A178" s="96" t="s">
         <v>8</v>
       </c>
@@ -21850,8 +21852,8 @@
       <c r="O178" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="P178" s="408" t="s">
-        <v>1962</v>
+      <c r="P178" s="399" t="s">
+        <v>1963</v>
       </c>
       <c r="Q178" s="55" t="s">
         <v>924</v>
@@ -23113,7 +23115,7 @@
         <v>205</v>
       </c>
       <c r="P198" s="183" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="Q198" s="55" t="s">
         <v>228</v>
@@ -44547,10 +44549,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="399" t="s">
+      <c r="A1" s="400" t="s">
         <v>1413</v>
       </c>
-      <c r="B1" s="399"/>
+      <c r="B1" s="400"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="166" t="s">
@@ -44836,10 +44838,10 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="399" t="s">
+      <c r="A37" s="400" t="s">
         <v>1417</v>
       </c>
-      <c r="B37" s="399"/>
+      <c r="B37" s="400"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="166" t="s">
@@ -54873,19 +54875,19 @@
       </c>
     </row>
     <row r="246" spans="1:11" s="95" customFormat="1" ht="15" customHeight="1">
-      <c r="A246" s="400" t="s">
+      <c r="A246" s="401" t="s">
         <v>1720</v>
       </c>
-      <c r="B246" s="401"/>
-      <c r="C246" s="401"/>
-      <c r="D246" s="401"/>
-      <c r="E246" s="401"/>
-      <c r="F246" s="401"/>
-      <c r="G246" s="401"/>
-      <c r="H246" s="401"/>
-      <c r="I246" s="401"/>
-      <c r="J246" s="401"/>
-      <c r="K246" s="402"/>
+      <c r="B246" s="402"/>
+      <c r="C246" s="402"/>
+      <c r="D246" s="402"/>
+      <c r="E246" s="402"/>
+      <c r="F246" s="402"/>
+      <c r="G246" s="402"/>
+      <c r="H246" s="402"/>
+      <c r="I246" s="402"/>
+      <c r="J246" s="402"/>
+      <c r="K246" s="403"/>
     </row>
     <row r="247" spans="1:11" s="95" customFormat="1"/>
     <row r="248" spans="1:11" s="95" customFormat="1" ht="28.5">
@@ -64564,22 +64566,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="406" t="s">
+      <c r="A1" s="404" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="406"/>
-      <c r="C1" s="406"/>
-      <c r="D1" s="406"/>
-      <c r="E1" s="406"/>
+      <c r="B1" s="404"/>
+      <c r="C1" s="404"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="407" t="s">
+      <c r="A2" s="408" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="407"/>
-      <c r="C2" s="407"/>
-      <c r="D2" s="407"/>
-      <c r="E2" s="407"/>
+      <c r="B2" s="408"/>
+      <c r="C2" s="408"/>
+      <c r="D2" s="408"/>
+      <c r="E2" s="408"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
@@ -64595,13 +64597,13 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="407" t="s">
+      <c r="A21" s="408" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="407"/>
-      <c r="C21" s="407"/>
-      <c r="D21" s="407"/>
-      <c r="E21" s="407"/>
+      <c r="B21" s="408"/>
+      <c r="C21" s="408"/>
+      <c r="D21" s="408"/>
+      <c r="E21" s="408"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="9" t="s">
@@ -64617,13 +64619,13 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="407" t="s">
+      <c r="A40" s="408" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="407"/>
-      <c r="C40" s="407"/>
-      <c r="D40" s="407"/>
-      <c r="E40" s="407"/>
+      <c r="B40" s="408"/>
+      <c r="C40" s="408"/>
+      <c r="D40" s="408"/>
+      <c r="E40" s="408"/>
     </row>
     <row r="57" spans="1:5" ht="14.65" thickBot="1">
       <c r="A57" s="9" t="s">
@@ -64639,13 +64641,13 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="406" t="s">
+      <c r="A60" s="404" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="406"/>
-      <c r="C60" s="406"/>
-      <c r="D60" s="406"/>
-      <c r="E60" s="406"/>
+      <c r="B60" s="404"/>
+      <c r="C60" s="404"/>
+      <c r="D60" s="404"/>
+      <c r="E60" s="404"/>
     </row>
     <row r="85" spans="1:39" s="12" customFormat="1">
       <c r="A85" s="9" t="s">
@@ -64750,13 +64752,13 @@
       </c>
     </row>
     <row r="89" spans="1:39">
-      <c r="A89" s="406" t="s">
+      <c r="A89" s="404" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="406"/>
-      <c r="C89" s="406"/>
-      <c r="D89" s="406"/>
-      <c r="E89" s="406"/>
+      <c r="B89" s="404"/>
+      <c r="C89" s="404"/>
+      <c r="D89" s="404"/>
+      <c r="E89" s="404"/>
     </row>
     <row r="90" spans="1:39">
       <c r="A90" s="9">
@@ -64843,13 +64845,13 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="406" t="s">
+      <c r="A98" s="404" t="s">
         <v>178</v>
       </c>
-      <c r="B98" s="406"/>
-      <c r="C98" s="406"/>
-      <c r="D98" s="406"/>
-      <c r="E98" s="406"/>
+      <c r="B98" s="404"/>
+      <c r="C98" s="404"/>
+      <c r="D98" s="404"/>
+      <c r="E98" s="404"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="17">
@@ -64933,13 +64935,13 @@
       <c r="A108" s="20"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="406" t="s">
+      <c r="A109" s="404" t="s">
         <v>180</v>
       </c>
-      <c r="B109" s="406"/>
-      <c r="C109" s="406"/>
-      <c r="D109" s="406"/>
-      <c r="E109" s="406"/>
+      <c r="B109" s="404"/>
+      <c r="C109" s="404"/>
+      <c r="D109" s="404"/>
+      <c r="E109" s="404"/>
     </row>
     <row r="110" spans="1:5" ht="14.65" thickBot="1"/>
     <row r="111" spans="1:5" ht="14.65" thickBot="1">
@@ -64952,13 +64954,13 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="406" t="s">
+      <c r="A113" s="404" t="s">
         <v>179</v>
       </c>
-      <c r="B113" s="406"/>
-      <c r="C113" s="406"/>
-      <c r="D113" s="406"/>
-      <c r="E113" s="406"/>
+      <c r="B113" s="404"/>
+      <c r="C113" s="404"/>
+      <c r="D113" s="404"/>
+      <c r="E113" s="404"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="17">
@@ -65039,13 +65041,13 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="406" t="s">
+      <c r="A124" s="404" t="s">
         <v>434</v>
       </c>
-      <c r="B124" s="406"/>
-      <c r="C124" s="406"/>
-      <c r="D124" s="406"/>
-      <c r="E124" s="406"/>
+      <c r="B124" s="404"/>
+      <c r="C124" s="404"/>
+      <c r="D124" s="404"/>
+      <c r="E124" s="404"/>
       <c r="L124" s="21"/>
     </row>
     <row r="125" spans="1:14">
@@ -65136,13 +65138,13 @@
       <c r="C133" s="15"/>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="406" t="s">
+      <c r="A134" s="404" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="406"/>
-      <c r="C134" s="406"/>
-      <c r="D134" s="406"/>
-      <c r="E134" s="406"/>
+      <c r="B134" s="404"/>
+      <c r="C134" s="404"/>
+      <c r="D134" s="404"/>
+      <c r="E134" s="404"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="27" t="s">
@@ -65157,25 +65159,25 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="29"/>
-      <c r="B136" s="403" t="s">
+      <c r="B136" s="405" t="s">
         <v>451</v>
       </c>
-      <c r="C136" s="404"/>
-      <c r="D136" s="404"/>
-      <c r="E136" s="405"/>
+      <c r="C136" s="406"/>
+      <c r="D136" s="406"/>
+      <c r="E136" s="407"/>
       <c r="F136" s="28"/>
       <c r="G136" s="28"/>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="30"/>
-      <c r="B137" s="403" t="s">
+      <c r="B137" s="405" t="s">
         <v>452</v>
       </c>
-      <c r="C137" s="405"/>
-      <c r="D137" s="403" t="s">
+      <c r="C137" s="407"/>
+      <c r="D137" s="405" t="s">
         <v>453</v>
       </c>
-      <c r="E137" s="405"/>
+      <c r="E137" s="407"/>
       <c r="F137" s="28"/>
       <c r="G137" s="28"/>
     </row>
@@ -65722,13 +65724,13 @@
       <c r="G163" s="28"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="406" t="s">
+      <c r="A165" s="404" t="s">
         <v>183</v>
       </c>
-      <c r="B165" s="406"/>
-      <c r="C165" s="406"/>
-      <c r="D165" s="406"/>
-      <c r="E165" s="406"/>
+      <c r="B165" s="404"/>
+      <c r="C165" s="404"/>
+      <c r="D165" s="404"/>
+      <c r="E165" s="404"/>
     </row>
     <row r="166" spans="1:7" ht="14.65" thickBot="1">
       <c r="A166" s="23" t="s">
@@ -65751,10 +65753,10 @@
       <c r="B168" s="46"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="406" t="s">
+      <c r="A169" s="404" t="s">
         <v>442</v>
       </c>
-      <c r="B169" s="406"/>
+      <c r="B169" s="404"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="23" t="s">
@@ -65786,13 +65788,13 @@
       <c r="B173" s="46"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="406" t="s">
+      <c r="A174" s="404" t="s">
         <v>192</v>
       </c>
-      <c r="B174" s="406"/>
-      <c r="C174" s="406"/>
-      <c r="D174" s="406"/>
-      <c r="E174" s="406"/>
+      <c r="B174" s="404"/>
+      <c r="C174" s="404"/>
+      <c r="D174" s="404"/>
+      <c r="E174" s="404"/>
     </row>
     <row r="175" spans="1:7" ht="14.65" thickBot="1">
       <c r="A175" s="23" t="s">
@@ -65812,13 +65814,13 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="406" t="s">
+      <c r="A178" s="404" t="s">
         <v>186</v>
       </c>
-      <c r="B178" s="406"/>
-      <c r="C178" s="406"/>
-      <c r="D178" s="406"/>
-      <c r="E178" s="406"/>
+      <c r="B178" s="404"/>
+      <c r="C178" s="404"/>
+      <c r="D178" s="404"/>
+      <c r="E178" s="404"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="25" t="s">
@@ -65846,13 +65848,13 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="406" t="s">
+      <c r="A183" s="404" t="s">
         <v>188</v>
       </c>
-      <c r="B183" s="406"/>
-      <c r="C183" s="406"/>
-      <c r="D183" s="406"/>
-      <c r="E183" s="406"/>
+      <c r="B183" s="404"/>
+      <c r="C183" s="404"/>
+      <c r="D183" s="404"/>
+      <c r="E183" s="404"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="23" t="s">
@@ -65907,13 +65909,13 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="406" t="s">
+      <c r="A191" s="404" t="s">
         <v>202</v>
       </c>
-      <c r="B191" s="406"/>
-      <c r="C191" s="406"/>
-      <c r="D191" s="406"/>
-      <c r="E191" s="406"/>
+      <c r="B191" s="404"/>
+      <c r="C191" s="404"/>
+      <c r="D191" s="404"/>
+      <c r="E191" s="404"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="21" t="s">
@@ -65973,12 +65975,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -65993,6 +65989,12 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
@@ -7486,7 +7486,7 @@
     <t>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** India had 191 GW of coal capacity in 2018, about 43 GW of which is projected to retire by 2027 in the BAU case as per Central Electricity Authority (CEA's) National Electricity Plan. This includes actual retirements till 2019. An additional retirement setting of 7,000 MW/year would retire all of the pre-existing coal capacity by 2032.</t>
   </si>
   <si>
-    <t>**Description:** This policy specifies an increase in the fraction of electricity generation that must come from qualifying carbon-free sources (wind, solar, and biomass) in 2050.  This policy has no effect until the user-set value exceeds the existing fraction of carbon-free electricity and any carbon-free electricity standards which have been enacted at the state level. // **Guidance for setting values:** India's Renewable Purchase Obligations (RPOs) have not been met historically. For this reason, the BAU case does not assume any RPO targets are met. However, the BAU case does assume India meets 80% of its Intended Nationally Determined Contribution for wind and solar.
+    <t>**Description:** This policy specifies an increase in the fraction of electricity generation that must come from qualifying carbon-free sources (wind, solar, and biomass) in 2050.  This policy has no effect until the user-set value exceeds the existing fraction of carbon-free electricity and any carbon-free electricity standards which have been enacted at the state level. // **Guidance for setting values:** India's Renewable Purchase Obligations (RPOs) have not been met historically. For this reason, the BAU case does not assume any RPO targets are met. However, the BAU case does assume India meets 80% of its Nationally Determined Contribution of increasing renewable power capacity to 175 gigawatts by 2022, under the Paris Agreement. 
 If the policy "Expand Carbon-free Electricity Standard Qualifying Definitions" is also enabled, the lever setting is a total RPO target that includes generation from wind, solar, geothermal, and Municipal Solid Waste (MSW) sources. Geothermal and MSW are included as they may be feasible for a more ambitious Renewable Energy (RE) scenario with a delayed start. Biomass is excluded because it has issues such as adverse impacts on local air quality, competing land use, and feedstock availability challenges. Nuclear is excluded because of the need to manage radioactive waste, and hydro is not included due to potential state-level challenges in implementing additional capacity. When setting a high target with the CES lever, users should also turn on supporting power sector policies (i.e., Grid-Scale Electricity Storage, Increase Transmission, and Demand Response) to avoid curtailment of renewables.</t>
   </si>
 </sst>
@@ -9634,9 +9634,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -9645,6 +9642,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -10781,7 +10781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -11031,9 +11031,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T589"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B232" sqref="B232"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P178" sqref="P178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -21814,7 +21814,7 @@
       <c r="S177" s="57"/>
       <c r="T177" s="57"/>
     </row>
-    <row r="178" spans="1:20" s="5" customFormat="1" ht="185.25">
+    <row r="178" spans="1:20" s="5" customFormat="1" ht="199.5">
       <c r="A178" s="96" t="s">
         <v>8</v>
       </c>
@@ -64566,13 +64566,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="404" t="s">
+      <c r="A1" s="407" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="404"/>
-      <c r="C1" s="404"/>
-      <c r="D1" s="404"/>
-      <c r="E1" s="404"/>
+      <c r="B1" s="407"/>
+      <c r="C1" s="407"/>
+      <c r="D1" s="407"/>
+      <c r="E1" s="407"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="408" t="s">
@@ -64641,13 +64641,13 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="404" t="s">
+      <c r="A60" s="407" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="404"/>
-      <c r="C60" s="404"/>
-      <c r="D60" s="404"/>
-      <c r="E60" s="404"/>
+      <c r="B60" s="407"/>
+      <c r="C60" s="407"/>
+      <c r="D60" s="407"/>
+      <c r="E60" s="407"/>
     </row>
     <row r="85" spans="1:39" s="12" customFormat="1">
       <c r="A85" s="9" t="s">
@@ -64752,13 +64752,13 @@
       </c>
     </row>
     <row r="89" spans="1:39">
-      <c r="A89" s="404" t="s">
+      <c r="A89" s="407" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="404"/>
-      <c r="C89" s="404"/>
-      <c r="D89" s="404"/>
-      <c r="E89" s="404"/>
+      <c r="B89" s="407"/>
+      <c r="C89" s="407"/>
+      <c r="D89" s="407"/>
+      <c r="E89" s="407"/>
     </row>
     <row r="90" spans="1:39">
       <c r="A90" s="9">
@@ -64845,13 +64845,13 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="404" t="s">
+      <c r="A98" s="407" t="s">
         <v>178</v>
       </c>
-      <c r="B98" s="404"/>
-      <c r="C98" s="404"/>
-      <c r="D98" s="404"/>
-      <c r="E98" s="404"/>
+      <c r="B98" s="407"/>
+      <c r="C98" s="407"/>
+      <c r="D98" s="407"/>
+      <c r="E98" s="407"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="17">
@@ -64935,13 +64935,13 @@
       <c r="A108" s="20"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="404" t="s">
+      <c r="A109" s="407" t="s">
         <v>180</v>
       </c>
-      <c r="B109" s="404"/>
-      <c r="C109" s="404"/>
-      <c r="D109" s="404"/>
-      <c r="E109" s="404"/>
+      <c r="B109" s="407"/>
+      <c r="C109" s="407"/>
+      <c r="D109" s="407"/>
+      <c r="E109" s="407"/>
     </row>
     <row r="110" spans="1:5" ht="14.65" thickBot="1"/>
     <row r="111" spans="1:5" ht="14.65" thickBot="1">
@@ -64954,13 +64954,13 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="404" t="s">
+      <c r="A113" s="407" t="s">
         <v>179</v>
       </c>
-      <c r="B113" s="404"/>
-      <c r="C113" s="404"/>
-      <c r="D113" s="404"/>
-      <c r="E113" s="404"/>
+      <c r="B113" s="407"/>
+      <c r="C113" s="407"/>
+      <c r="D113" s="407"/>
+      <c r="E113" s="407"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="17">
@@ -65041,13 +65041,13 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="404" t="s">
+      <c r="A124" s="407" t="s">
         <v>434</v>
       </c>
-      <c r="B124" s="404"/>
-      <c r="C124" s="404"/>
-      <c r="D124" s="404"/>
-      <c r="E124" s="404"/>
+      <c r="B124" s="407"/>
+      <c r="C124" s="407"/>
+      <c r="D124" s="407"/>
+      <c r="E124" s="407"/>
       <c r="L124" s="21"/>
     </row>
     <row r="125" spans="1:14">
@@ -65138,13 +65138,13 @@
       <c r="C133" s="15"/>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="404" t="s">
+      <c r="A134" s="407" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="404"/>
-      <c r="C134" s="404"/>
-      <c r="D134" s="404"/>
-      <c r="E134" s="404"/>
+      <c r="B134" s="407"/>
+      <c r="C134" s="407"/>
+      <c r="D134" s="407"/>
+      <c r="E134" s="407"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="27" t="s">
@@ -65159,25 +65159,25 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="29"/>
-      <c r="B136" s="405" t="s">
+      <c r="B136" s="404" t="s">
         <v>451</v>
       </c>
-      <c r="C136" s="406"/>
-      <c r="D136" s="406"/>
-      <c r="E136" s="407"/>
+      <c r="C136" s="405"/>
+      <c r="D136" s="405"/>
+      <c r="E136" s="406"/>
       <c r="F136" s="28"/>
       <c r="G136" s="28"/>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="30"/>
-      <c r="B137" s="405" t="s">
+      <c r="B137" s="404" t="s">
         <v>452</v>
       </c>
-      <c r="C137" s="407"/>
-      <c r="D137" s="405" t="s">
+      <c r="C137" s="406"/>
+      <c r="D137" s="404" t="s">
         <v>453</v>
       </c>
-      <c r="E137" s="407"/>
+      <c r="E137" s="406"/>
       <c r="F137" s="28"/>
       <c r="G137" s="28"/>
     </row>
@@ -65724,13 +65724,13 @@
       <c r="G163" s="28"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="404" t="s">
+      <c r="A165" s="407" t="s">
         <v>183</v>
       </c>
-      <c r="B165" s="404"/>
-      <c r="C165" s="404"/>
-      <c r="D165" s="404"/>
-      <c r="E165" s="404"/>
+      <c r="B165" s="407"/>
+      <c r="C165" s="407"/>
+      <c r="D165" s="407"/>
+      <c r="E165" s="407"/>
     </row>
     <row r="166" spans="1:7" ht="14.65" thickBot="1">
       <c r="A166" s="23" t="s">
@@ -65753,10 +65753,10 @@
       <c r="B168" s="46"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="404" t="s">
+      <c r="A169" s="407" t="s">
         <v>442</v>
       </c>
-      <c r="B169" s="404"/>
+      <c r="B169" s="407"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="23" t="s">
@@ -65788,13 +65788,13 @@
       <c r="B173" s="46"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="404" t="s">
+      <c r="A174" s="407" t="s">
         <v>192</v>
       </c>
-      <c r="B174" s="404"/>
-      <c r="C174" s="404"/>
-      <c r="D174" s="404"/>
-      <c r="E174" s="404"/>
+      <c r="B174" s="407"/>
+      <c r="C174" s="407"/>
+      <c r="D174" s="407"/>
+      <c r="E174" s="407"/>
     </row>
     <row r="175" spans="1:7" ht="14.65" thickBot="1">
       <c r="A175" s="23" t="s">
@@ -65814,13 +65814,13 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="404" t="s">
+      <c r="A178" s="407" t="s">
         <v>186</v>
       </c>
-      <c r="B178" s="404"/>
-      <c r="C178" s="404"/>
-      <c r="D178" s="404"/>
-      <c r="E178" s="404"/>
+      <c r="B178" s="407"/>
+      <c r="C178" s="407"/>
+      <c r="D178" s="407"/>
+      <c r="E178" s="407"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="25" t="s">
@@ -65848,13 +65848,13 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="404" t="s">
+      <c r="A183" s="407" t="s">
         <v>188</v>
       </c>
-      <c r="B183" s="404"/>
-      <c r="C183" s="404"/>
-      <c r="D183" s="404"/>
-      <c r="E183" s="404"/>
+      <c r="B183" s="407"/>
+      <c r="C183" s="407"/>
+      <c r="D183" s="407"/>
+      <c r="E183" s="407"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="23" t="s">
@@ -65909,13 +65909,13 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="404" t="s">
+      <c r="A191" s="407" t="s">
         <v>202</v>
       </c>
-      <c r="B191" s="404"/>
-      <c r="C191" s="404"/>
-      <c r="D191" s="404"/>
-      <c r="E191" s="404"/>
+      <c r="B191" s="407"/>
+      <c r="C191" s="407"/>
+      <c r="D191" s="407"/>
+      <c r="E191" s="407"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="21" t="s">
@@ -65975,6 +65975,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -65989,12 +65995,6 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
